--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44059</v>
+        <v>44066</v>
       </c>
       <c r="B14">
-        <v>100.91</v>
+        <v>139.26</v>
       </c>
       <c r="C14">
         <v>114.14</v>
       </c>
       <c r="D14">
-        <v>-11.59</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D383"/>
+  <dimension ref="A1:D390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5980,6 +5980,104 @@
         <v>36.82</v>
       </c>
     </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B384">
+        <v>161.25</v>
+      </c>
+      <c r="C384">
+        <v>114.14</v>
+      </c>
+      <c r="D384">
+        <v>41.27</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B385">
+        <v>184.96</v>
+      </c>
+      <c r="C385">
+        <v>114.14</v>
+      </c>
+      <c r="D385">
+        <v>62.05</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B386">
+        <v>218.26</v>
+      </c>
+      <c r="C386">
+        <v>114.14</v>
+      </c>
+      <c r="D386">
+        <v>91.22</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B387">
+        <v>243.69</v>
+      </c>
+      <c r="C387">
+        <v>114.14</v>
+      </c>
+      <c r="D387">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B388">
+        <v>267.82</v>
+      </c>
+      <c r="C388">
+        <v>114.14</v>
+      </c>
+      <c r="D388">
+        <v>134.64</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B389">
+        <v>265.49</v>
+      </c>
+      <c r="C389">
+        <v>114.14</v>
+      </c>
+      <c r="D389">
+        <v>132.6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B390">
+        <v>246.9</v>
+      </c>
+      <c r="C390">
+        <v>114.14</v>
+      </c>
+      <c r="D390">
+        <v>116.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -420,184 +420,184 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B2">
-        <v>95.37</v>
+        <v>136.48</v>
       </c>
       <c r="C2">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D2">
-        <v>-16.44</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B3">
-        <v>136.48</v>
+        <v>111.9</v>
       </c>
       <c r="C3">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D3">
-        <v>1.92</v>
+        <v>-26.27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B4">
-        <v>111.9</v>
+        <v>114.03</v>
       </c>
       <c r="C4">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D4">
-        <v>-26.27</v>
+        <v>-16.36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B5">
-        <v>114.03</v>
+        <v>101.02</v>
       </c>
       <c r="C5">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D5">
-        <v>-16.36</v>
+        <v>-22.85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B6">
-        <v>101.02</v>
+        <v>100.1</v>
       </c>
       <c r="C6">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D6">
-        <v>-22.85</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B7">
-        <v>100.1</v>
+        <v>120.43</v>
       </c>
       <c r="C7">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D7">
-        <v>-33.79</v>
+        <v>-20.24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B8">
-        <v>120.43</v>
+        <v>96.11</v>
       </c>
       <c r="C8">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D8">
-        <v>-20.24</v>
+        <v>-32.26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B9">
-        <v>96.11</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="C9">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D9">
-        <v>-32.26</v>
+        <v>-24.84</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B10">
-        <v>90.43000000000001</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C10">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D10">
-        <v>-24.84</v>
+        <v>-29.06</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B11">
-        <v>92.48999999999999</v>
+        <v>105.48</v>
       </c>
       <c r="C11">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D11">
-        <v>-29.06</v>
+        <v>-32.98</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B12">
-        <v>105.48</v>
+        <v>99.67</v>
       </c>
       <c r="C12">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D12">
-        <v>-32.98</v>
+        <v>-21.07</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B13">
-        <v>99.67</v>
+        <v>141.16</v>
       </c>
       <c r="C13">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D13">
-        <v>-21.07</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44066</v>
+        <v>44082</v>
       </c>
       <c r="B14">
-        <v>139.26</v>
+        <v>91.47</v>
       </c>
       <c r="C14">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>-31.7</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D390"/>
+  <dimension ref="A1:D375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,1623 +634,1623 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B2">
-        <v>93.5</v>
+        <v>118.02</v>
       </c>
       <c r="C2">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D2">
-        <v>-18.08</v>
+        <v>-11.86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43679</v>
+        <v>43710</v>
       </c>
       <c r="B3">
-        <v>92.43000000000001</v>
+        <v>177.54</v>
       </c>
       <c r="C3">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D3">
-        <v>-19.02</v>
+        <v>32.58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43680</v>
+        <v>43711</v>
       </c>
       <c r="B4">
-        <v>92.86</v>
+        <v>170.98</v>
       </c>
       <c r="C4">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D4">
-        <v>-18.64</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43681</v>
+        <v>43712</v>
       </c>
       <c r="B5">
-        <v>93.61</v>
+        <v>180.76</v>
       </c>
       <c r="C5">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D5">
-        <v>-17.98</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43682</v>
+        <v>43713</v>
       </c>
       <c r="B6">
-        <v>94.55</v>
+        <v>176.99</v>
       </c>
       <c r="C6">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D6">
-        <v>-17.16</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43683</v>
+        <v>43714</v>
       </c>
       <c r="B7">
-        <v>93.84</v>
+        <v>141.46</v>
       </c>
       <c r="C7">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D7">
-        <v>-17.78</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43684</v>
+        <v>43715</v>
       </c>
       <c r="B8">
-        <v>92.61</v>
+        <v>122.1</v>
       </c>
       <c r="C8">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D8">
-        <v>-18.86</v>
+        <v>-8.81</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43685</v>
+        <v>43716</v>
       </c>
       <c r="B9">
-        <v>91.48999999999999</v>
+        <v>113.23</v>
       </c>
       <c r="C9">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D9">
-        <v>-19.84</v>
+        <v>-15.44</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43686</v>
+        <v>43717</v>
       </c>
       <c r="B10">
-        <v>89.67</v>
+        <v>105.84</v>
       </c>
       <c r="C10">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D10">
-        <v>-21.44</v>
+        <v>-20.96</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43687</v>
+        <v>43718</v>
       </c>
       <c r="B11">
-        <v>88.77</v>
+        <v>100.14</v>
       </c>
       <c r="C11">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D11">
-        <v>-22.23</v>
+        <v>-25.22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43688</v>
+        <v>43719</v>
       </c>
       <c r="B12">
-        <v>87.69</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="C12">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D12">
-        <v>-23.18</v>
+        <v>-29.19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43689</v>
+        <v>43720</v>
       </c>
       <c r="B13">
-        <v>87.12</v>
+        <v>91.11</v>
       </c>
       <c r="C13">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D13">
-        <v>-23.67</v>
+        <v>-31.96</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43690</v>
+        <v>43721</v>
       </c>
       <c r="B14">
-        <v>86.91</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="C14">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D14">
-        <v>-23.86</v>
+        <v>-32.8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43691</v>
+        <v>43722</v>
       </c>
       <c r="B15">
-        <v>87.91</v>
+        <v>90.19</v>
       </c>
       <c r="C15">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D15">
-        <v>-22.98</v>
+        <v>-32.65</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43692</v>
+        <v>43723</v>
       </c>
       <c r="B16">
-        <v>88.95999999999999</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="C16">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D16">
-        <v>-22.06</v>
+        <v>-33.51</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43693</v>
+        <v>43724</v>
       </c>
       <c r="B17">
-        <v>88.66</v>
+        <v>88</v>
       </c>
       <c r="C17">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D17">
-        <v>-22.33</v>
+        <v>-34.28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43694</v>
-      </c>
-      <c r="B18">
-        <v>88.19</v>
+        <v>43725</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>114.14</v>
-      </c>
-      <c r="D18">
-        <v>-22.74</v>
+        <v>133.91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43695</v>
+        <v>43726</v>
       </c>
       <c r="B19">
-        <v>87.48999999999999</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="C19">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D19">
-        <v>-23.35</v>
+        <v>-33.27</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43696</v>
+        <v>43727</v>
       </c>
       <c r="B20">
-        <v>103.07</v>
+        <v>127.69</v>
       </c>
       <c r="C20">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D20">
-        <v>-9.699999999999999</v>
+        <v>-4.65</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43697</v>
+        <v>43728</v>
       </c>
       <c r="B21">
-        <v>128.57</v>
+        <v>202.48</v>
       </c>
       <c r="C21">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D21">
-        <v>12.65</v>
+        <v>51.21</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43698</v>
+        <v>43729</v>
       </c>
       <c r="B22">
-        <v>132.55</v>
+        <v>208.42</v>
       </c>
       <c r="C22">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D22">
-        <v>16.13</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43699</v>
+        <v>43730</v>
       </c>
       <c r="B23">
-        <v>118.69</v>
+        <v>226.21</v>
       </c>
       <c r="C23">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D23">
-        <v>3.98</v>
+        <v>68.93000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43700</v>
+        <v>43731</v>
       </c>
       <c r="B24">
-        <v>106.53</v>
+        <v>221.16</v>
       </c>
       <c r="C24">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D24">
-        <v>-6.67</v>
+        <v>65.16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43701</v>
+        <v>43732</v>
       </c>
       <c r="B25">
-        <v>101.04</v>
+        <v>200.44</v>
       </c>
       <c r="C25">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D25">
-        <v>-11.48</v>
+        <v>49.68</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43702</v>
+        <v>43733</v>
       </c>
       <c r="B26">
-        <v>97.33</v>
+        <v>162.57</v>
       </c>
       <c r="C26">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D26">
-        <v>-14.72</v>
+        <v>21.41</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43703</v>
+        <v>43734</v>
       </c>
       <c r="B27">
-        <v>95.23999999999999</v>
+        <v>130.58</v>
       </c>
       <c r="C27">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D27">
-        <v>-16.56</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43704</v>
+        <v>43735</v>
       </c>
       <c r="B28">
-        <v>92.59</v>
+        <v>118.42</v>
       </c>
       <c r="C28">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D28">
-        <v>-18.88</v>
+        <v>-11.57</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43705</v>
+        <v>43736</v>
       </c>
       <c r="B29">
-        <v>89.86</v>
+        <v>111.35</v>
       </c>
       <c r="C29">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D29">
-        <v>-21.27</v>
+        <v>-16.84</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43706</v>
+        <v>43737</v>
       </c>
       <c r="B30">
-        <v>88.68000000000001</v>
+        <v>105.62</v>
       </c>
       <c r="C30">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D30">
-        <v>-22.31</v>
+        <v>-21.12</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43707</v>
+        <v>43738</v>
       </c>
       <c r="B31">
-        <v>87.09999999999999</v>
+        <v>103.35</v>
       </c>
       <c r="C31">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D31">
-        <v>-23.69</v>
+        <v>-22.82</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43708</v>
+        <v>43739</v>
       </c>
       <c r="B32">
-        <v>88.95</v>
+        <v>102.26</v>
       </c>
       <c r="C32">
-        <v>114.14</v>
+        <v>151.76</v>
       </c>
       <c r="D32">
-        <v>-22.07</v>
+        <v>-32.62</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43709</v>
+        <v>43740</v>
       </c>
       <c r="B33">
-        <v>118.02</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="C33">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D33">
-        <v>-11.86</v>
+        <v>-34.76</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43710</v>
+        <v>43741</v>
       </c>
       <c r="B34">
-        <v>177.54</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="C34">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D34">
-        <v>32.58</v>
+        <v>-37.74</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43711</v>
+        <v>43742</v>
       </c>
       <c r="B35">
-        <v>170.98</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="C35">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D35">
-        <v>27.68</v>
+        <v>-38.71</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43712</v>
+        <v>43743</v>
       </c>
       <c r="B36">
-        <v>180.76</v>
+        <v>91.91</v>
       </c>
       <c r="C36">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D36">
-        <v>34.99</v>
+        <v>-39.44</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43713</v>
+        <v>43744</v>
       </c>
       <c r="B37">
-        <v>176.99</v>
+        <v>97.17</v>
       </c>
       <c r="C37">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D37">
-        <v>32.17</v>
+        <v>-35.97</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43714</v>
+        <v>43745</v>
       </c>
       <c r="B38">
-        <v>141.46</v>
+        <v>124.24</v>
       </c>
       <c r="C38">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D38">
-        <v>5.64</v>
+        <v>-18.13</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43715</v>
+        <v>43746</v>
       </c>
       <c r="B39">
-        <v>122.1</v>
+        <v>137.02</v>
       </c>
       <c r="C39">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D39">
-        <v>-8.81</v>
+        <v>-9.710000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43716</v>
+        <v>43747</v>
       </c>
       <c r="B40">
-        <v>113.23</v>
+        <v>142.8</v>
       </c>
       <c r="C40">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D40">
-        <v>-15.44</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43717</v>
+        <v>43748</v>
       </c>
       <c r="B41">
-        <v>105.84</v>
+        <v>128.93</v>
       </c>
       <c r="C41">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D41">
-        <v>-20.96</v>
+        <v>-15.05</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43718</v>
+        <v>43749</v>
       </c>
       <c r="B42">
-        <v>100.14</v>
+        <v>112.44</v>
       </c>
       <c r="C42">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D42">
-        <v>-25.22</v>
+        <v>-25.91</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43719</v>
+        <v>43750</v>
       </c>
       <c r="B43">
-        <v>94.81999999999999</v>
+        <v>102.36</v>
       </c>
       <c r="C43">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D43">
-        <v>-29.19</v>
+        <v>-32.55</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43720</v>
+        <v>43751</v>
       </c>
       <c r="B44">
-        <v>91.11</v>
+        <v>95.76000000000001</v>
       </c>
       <c r="C44">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D44">
-        <v>-31.96</v>
+        <v>-36.9</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43721</v>
+        <v>43752</v>
       </c>
       <c r="B45">
-        <v>89.98999999999999</v>
+        <v>92.70999999999999</v>
       </c>
       <c r="C45">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D45">
-        <v>-32.8</v>
+        <v>-38.91</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43722</v>
+        <v>43753</v>
       </c>
       <c r="B46">
-        <v>90.19</v>
+        <v>112.39</v>
       </c>
       <c r="C46">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D46">
-        <v>-32.65</v>
+        <v>-25.95</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43723</v>
+        <v>43754</v>
       </c>
       <c r="B47">
-        <v>89.04000000000001</v>
+        <v>124.5</v>
       </c>
       <c r="C47">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D47">
-        <v>-33.51</v>
+        <v>-17.96</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43724</v>
+        <v>43755</v>
       </c>
       <c r="B48">
-        <v>88</v>
+        <v>124.78</v>
       </c>
       <c r="C48">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D48">
-        <v>-34.28</v>
+        <v>-17.78</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43725</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
+        <v>43756</v>
+      </c>
+      <c r="B49">
+        <v>114.72</v>
       </c>
       <c r="C49">
-        <v>133.91</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
+        <v>151.76</v>
+      </c>
+      <c r="D49">
+        <v>-24.41</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43726</v>
+        <v>43757</v>
       </c>
       <c r="B50">
-        <v>89.34999999999999</v>
+        <v>109.92</v>
       </c>
       <c r="C50">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D50">
-        <v>-33.27</v>
+        <v>-27.57</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43727</v>
+        <v>43758</v>
       </c>
       <c r="B51">
-        <v>127.69</v>
+        <v>111.91</v>
       </c>
       <c r="C51">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D51">
-        <v>-4.65</v>
+        <v>-26.26</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43728</v>
+        <v>43759</v>
       </c>
       <c r="B52">
-        <v>202.48</v>
+        <v>121.47</v>
       </c>
       <c r="C52">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D52">
-        <v>51.21</v>
+        <v>-19.96</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43729</v>
+        <v>43760</v>
       </c>
       <c r="B53">
-        <v>208.42</v>
+        <v>114.56</v>
       </c>
       <c r="C53">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D53">
-        <v>55.64</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43730</v>
+        <v>43761</v>
       </c>
       <c r="B54">
-        <v>226.21</v>
+        <v>107.24</v>
       </c>
       <c r="C54">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D54">
-        <v>68.93000000000001</v>
+        <v>-29.34</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43731</v>
+        <v>43762</v>
       </c>
       <c r="B55">
-        <v>221.16</v>
+        <v>102.15</v>
       </c>
       <c r="C55">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D55">
-        <v>65.16</v>
+        <v>-32.69</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43732</v>
+        <v>43763</v>
       </c>
       <c r="B56">
-        <v>200.44</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="C56">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D56">
-        <v>49.68</v>
+        <v>-35.78</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43733</v>
+        <v>43764</v>
       </c>
       <c r="B57">
-        <v>162.57</v>
+        <v>105.41</v>
       </c>
       <c r="C57">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D57">
-        <v>21.41</v>
+        <v>-30.54</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43734</v>
+        <v>43765</v>
       </c>
       <c r="B58">
-        <v>130.58</v>
+        <v>95.56</v>
       </c>
       <c r="C58">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D58">
-        <v>-2.48</v>
+        <v>-37.03</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43735</v>
+        <v>43766</v>
       </c>
       <c r="B59">
-        <v>118.42</v>
+        <v>147.7</v>
       </c>
       <c r="C59">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D59">
-        <v>-11.57</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43736</v>
+        <v>43767</v>
       </c>
       <c r="B60">
-        <v>111.35</v>
+        <v>131.47</v>
       </c>
       <c r="C60">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D60">
-        <v>-16.84</v>
+        <v>-13.37</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43737</v>
+        <v>43768</v>
       </c>
       <c r="B61">
-        <v>105.62</v>
+        <v>124.74</v>
       </c>
       <c r="C61">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D61">
-        <v>-21.12</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B62">
-        <v>103.35</v>
+        <v>108.71</v>
       </c>
       <c r="C62">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D62">
-        <v>-22.82</v>
+        <v>-28.37</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B63">
-        <v>102.26</v>
+        <v>100.41</v>
       </c>
       <c r="C63">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D63">
-        <v>-32.62</v>
+        <v>-26.35</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43740</v>
+        <v>43771</v>
       </c>
       <c r="B64">
-        <v>99.01000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C64">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D64">
-        <v>-34.76</v>
+        <v>-30.39</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43741</v>
+        <v>43772</v>
       </c>
       <c r="B65">
-        <v>94.48999999999999</v>
+        <v>92.91</v>
       </c>
       <c r="C65">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D65">
-        <v>-37.74</v>
+        <v>-31.85</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43742</v>
+        <v>43773</v>
       </c>
       <c r="B66">
-        <v>93.01000000000001</v>
+        <v>93.39</v>
       </c>
       <c r="C66">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D66">
-        <v>-38.71</v>
+        <v>-31.5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43743</v>
+        <v>43774</v>
       </c>
       <c r="B67">
-        <v>91.91</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="C67">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D67">
-        <v>-39.44</v>
+        <v>-32.47</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43744</v>
+        <v>43775</v>
       </c>
       <c r="B68">
-        <v>97.17</v>
+        <v>91.55</v>
       </c>
       <c r="C68">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D68">
-        <v>-35.97</v>
+        <v>-32.85</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43745</v>
+        <v>43776</v>
       </c>
       <c r="B69">
-        <v>124.24</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="C69">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D69">
-        <v>-18.13</v>
+        <v>-30.45</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43746</v>
+        <v>43777</v>
       </c>
       <c r="B70">
-        <v>137.02</v>
+        <v>92.7</v>
       </c>
       <c r="C70">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D70">
-        <v>-9.710000000000001</v>
+        <v>-32.01</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43747</v>
+        <v>43778</v>
       </c>
       <c r="B71">
-        <v>142.8</v>
+        <v>92.03</v>
       </c>
       <c r="C71">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D71">
-        <v>-5.9</v>
+        <v>-32.5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43748</v>
+        <v>43779</v>
       </c>
       <c r="B72">
-        <v>128.93</v>
+        <v>132.96</v>
       </c>
       <c r="C72">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D72">
-        <v>-15.05</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43749</v>
+        <v>43780</v>
       </c>
       <c r="B73">
-        <v>112.44</v>
+        <v>140.71</v>
       </c>
       <c r="C73">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D73">
-        <v>-25.91</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43750</v>
+        <v>43781</v>
       </c>
       <c r="B74">
-        <v>102.36</v>
+        <v>158.71</v>
       </c>
       <c r="C74">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D74">
-        <v>-32.55</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43751</v>
+        <v>43782</v>
       </c>
       <c r="B75">
-        <v>95.76000000000001</v>
+        <v>163.12</v>
       </c>
       <c r="C75">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D75">
-        <v>-36.9</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43752</v>
+        <v>43783</v>
       </c>
       <c r="B76">
-        <v>92.70999999999999</v>
+        <v>153</v>
       </c>
       <c r="C76">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D76">
-        <v>-38.91</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43753</v>
+        <v>43784</v>
       </c>
       <c r="B77">
-        <v>112.39</v>
+        <v>136.72</v>
       </c>
       <c r="C77">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D77">
-        <v>-25.95</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43754</v>
+        <v>43785</v>
       </c>
       <c r="B78">
-        <v>124.5</v>
+        <v>121.33</v>
       </c>
       <c r="C78">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D78">
-        <v>-17.96</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43755</v>
+        <v>43786</v>
       </c>
       <c r="B79">
-        <v>124.78</v>
+        <v>109.91</v>
       </c>
       <c r="C79">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D79">
-        <v>-17.78</v>
+        <v>-19.38</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43756</v>
+        <v>43787</v>
       </c>
       <c r="B80">
-        <v>114.72</v>
+        <v>102.47</v>
       </c>
       <c r="C80">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D80">
-        <v>-24.41</v>
+        <v>-24.84</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43757</v>
+        <v>43788</v>
       </c>
       <c r="B81">
-        <v>109.92</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="C81">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D81">
-        <v>-27.57</v>
+        <v>-27.88</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43758</v>
+        <v>43789</v>
       </c>
       <c r="B82">
-        <v>111.91</v>
+        <v>93.05</v>
       </c>
       <c r="C82">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D82">
-        <v>-26.26</v>
+        <v>-31.75</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43759</v>
+        <v>43790</v>
       </c>
       <c r="B83">
-        <v>121.47</v>
+        <v>91.3</v>
       </c>
       <c r="C83">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D83">
-        <v>-19.96</v>
+        <v>-33.03</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43760</v>
-      </c>
-      <c r="B84">
-        <v>114.56</v>
+        <v>43791</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>151.76</v>
-      </c>
-      <c r="D84">
-        <v>-24.51</v>
+        <v>136.33</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43761</v>
-      </c>
-      <c r="B85">
-        <v>107.24</v>
+        <v>43792</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>151.76</v>
-      </c>
-      <c r="D85">
-        <v>-29.34</v>
+        <v>136.33</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43762</v>
-      </c>
-      <c r="B86">
-        <v>102.15</v>
+        <v>43793</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>151.76</v>
-      </c>
-      <c r="D86">
-        <v>-32.69</v>
+        <v>136.33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43763</v>
+        <v>43794</v>
       </c>
       <c r="B87">
-        <v>97.45999999999999</v>
+        <v>92.14</v>
       </c>
       <c r="C87">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D87">
-        <v>-35.78</v>
+        <v>-32.42</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43764</v>
+        <v>43795</v>
       </c>
       <c r="B88">
-        <v>105.41</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="C88">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D88">
-        <v>-30.54</v>
+        <v>-31.65</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43765</v>
+        <v>43796</v>
       </c>
       <c r="B89">
-        <v>95.56</v>
+        <v>125.59</v>
       </c>
       <c r="C89">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D89">
-        <v>-37.03</v>
+        <v>-7.88</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43766</v>
+        <v>43797</v>
       </c>
       <c r="B90">
-        <v>147.7</v>
+        <v>138.59</v>
       </c>
       <c r="C90">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D90">
-        <v>-2.68</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43767</v>
+        <v>43798</v>
       </c>
       <c r="B91">
-        <v>131.47</v>
+        <v>140.59</v>
       </c>
       <c r="C91">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D91">
-        <v>-13.37</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43768</v>
+        <v>43799</v>
       </c>
       <c r="B92">
-        <v>124.74</v>
+        <v>142.38</v>
       </c>
       <c r="C92">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D92">
-        <v>-17.8</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43769</v>
+        <v>43800</v>
       </c>
       <c r="B93">
-        <v>108.71</v>
+        <v>124.58</v>
       </c>
       <c r="C93">
-        <v>151.76</v>
+        <v>130.94</v>
       </c>
       <c r="D93">
-        <v>-28.37</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43770</v>
+        <v>43801</v>
       </c>
       <c r="B94">
-        <v>100.41</v>
+        <v>120.64</v>
       </c>
       <c r="C94">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D94">
-        <v>-26.35</v>
+        <v>-7.87</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43771</v>
+        <v>43802</v>
       </c>
       <c r="B95">
-        <v>94.90000000000001</v>
+        <v>109.09</v>
       </c>
       <c r="C95">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D95">
-        <v>-30.39</v>
+        <v>-16.69</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43772</v>
+        <v>43803</v>
       </c>
       <c r="B96">
-        <v>92.91</v>
+        <v>103.35</v>
       </c>
       <c r="C96">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D96">
-        <v>-31.85</v>
+        <v>-21.07</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43773</v>
+        <v>43804</v>
       </c>
       <c r="B97">
-        <v>93.39</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="C97">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D97">
-        <v>-31.5</v>
+        <v>-23.66</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43774</v>
+        <v>43805</v>
       </c>
       <c r="B98">
-        <v>92.06999999999999</v>
+        <v>98.56</v>
       </c>
       <c r="C98">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D98">
-        <v>-32.47</v>
+        <v>-24.73</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43775</v>
+        <v>43806</v>
       </c>
       <c r="B99">
-        <v>91.55</v>
+        <v>95.3</v>
       </c>
       <c r="C99">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D99">
-        <v>-32.85</v>
+        <v>-27.22</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43776</v>
+        <v>43807</v>
       </c>
       <c r="B100">
-        <v>94.81999999999999</v>
+        <v>93.16</v>
       </c>
       <c r="C100">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D100">
-        <v>-30.45</v>
+        <v>-28.85</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43777</v>
+        <v>43808</v>
       </c>
       <c r="B101">
-        <v>92.7</v>
+        <v>91.53</v>
       </c>
       <c r="C101">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D101">
-        <v>-32.01</v>
+        <v>-30.1</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43778</v>
+        <v>43809</v>
       </c>
       <c r="B102">
-        <v>92.03</v>
+        <v>92.61</v>
       </c>
       <c r="C102">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D102">
-        <v>-32.5</v>
+        <v>-29.27</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43779</v>
-      </c>
-      <c r="B103">
-        <v>132.96</v>
+        <v>43810</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>136.33</v>
-      </c>
-      <c r="D103">
-        <v>-2.48</v>
+        <v>130.94</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43780</v>
-      </c>
-      <c r="B104">
-        <v>140.71</v>
+        <v>43811</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
       </c>
       <c r="C104">
-        <v>136.33</v>
-      </c>
-      <c r="D104">
-        <v>3.21</v>
+        <v>130.94</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43781</v>
-      </c>
-      <c r="B105">
-        <v>158.71</v>
+        <v>43812</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>136.33</v>
-      </c>
-      <c r="D105">
-        <v>16.41</v>
+        <v>130.94</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43782</v>
-      </c>
-      <c r="B106">
-        <v>163.12</v>
+        <v>43813</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
       </c>
       <c r="C106">
-        <v>136.33</v>
-      </c>
-      <c r="D106">
-        <v>19.65</v>
+        <v>130.94</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43783</v>
-      </c>
-      <c r="B107">
-        <v>153</v>
+        <v>43814</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>136.33</v>
-      </c>
-      <c r="D107">
-        <v>12.22</v>
+        <v>130.94</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43784</v>
-      </c>
-      <c r="B108">
-        <v>136.72</v>
+        <v>43815</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>136.33</v>
-      </c>
-      <c r="D108">
-        <v>0.28</v>
+        <v>130.94</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43785</v>
-      </c>
-      <c r="B109">
-        <v>121.33</v>
+        <v>43816</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>136.33</v>
-      </c>
-      <c r="D109">
-        <v>-11</v>
+        <v>130.94</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43786</v>
-      </c>
-      <c r="B110">
-        <v>109.91</v>
+        <v>43817</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
       </c>
       <c r="C110">
-        <v>136.33</v>
-      </c>
-      <c r="D110">
-        <v>-19.38</v>
+        <v>130.94</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43787</v>
-      </c>
-      <c r="B111">
-        <v>102.47</v>
+        <v>43818</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>136.33</v>
-      </c>
-      <c r="D111">
-        <v>-24.84</v>
+        <v>130.94</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43788</v>
-      </c>
-      <c r="B112">
-        <v>98.31999999999999</v>
+        <v>43819</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
       </c>
       <c r="C112">
-        <v>136.33</v>
-      </c>
-      <c r="D112">
-        <v>-27.88</v>
+        <v>130.94</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43789</v>
+        <v>43820</v>
       </c>
       <c r="B113">
-        <v>93.05</v>
+        <v>95.95</v>
       </c>
       <c r="C113">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D113">
-        <v>-31.75</v>
+        <v>-26.72</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43790</v>
+        <v>43821</v>
       </c>
       <c r="B114">
-        <v>91.3</v>
+        <v>100.82</v>
       </c>
       <c r="C114">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D114">
-        <v>-33.03</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43791</v>
-      </c>
-      <c r="B115" t="s">
-        <v>4</v>
+        <v>43822</v>
+      </c>
+      <c r="B115">
+        <v>96.34999999999999</v>
       </c>
       <c r="C115">
-        <v>136.33</v>
-      </c>
-      <c r="D115" t="s">
-        <v>4</v>
+        <v>130.94</v>
+      </c>
+      <c r="D115">
+        <v>-26.42</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43792</v>
-      </c>
-      <c r="B116" t="s">
-        <v>4</v>
+        <v>43823</v>
+      </c>
+      <c r="B116">
+        <v>92.33</v>
       </c>
       <c r="C116">
-        <v>136.33</v>
-      </c>
-      <c r="D116" t="s">
-        <v>4</v>
+        <v>130.94</v>
+      </c>
+      <c r="D116">
+        <v>-29.49</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43793</v>
+        <v>43824</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
       </c>
       <c r="C117">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
@@ -2258,293 +2258,293 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43794</v>
-      </c>
-      <c r="B118">
-        <v>92.14</v>
+        <v>43825</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
       </c>
       <c r="C118">
-        <v>136.33</v>
-      </c>
-      <c r="D118">
-        <v>-32.42</v>
+        <v>130.94</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43795</v>
-      </c>
-      <c r="B119">
-        <v>93.18000000000001</v>
+        <v>43826</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>136.33</v>
-      </c>
-      <c r="D119">
-        <v>-31.65</v>
+        <v>130.94</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43796</v>
-      </c>
-      <c r="B120">
-        <v>125.59</v>
+        <v>43827</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>136.33</v>
-      </c>
-      <c r="D120">
-        <v>-7.88</v>
+        <v>130.94</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43797</v>
-      </c>
-      <c r="B121">
-        <v>138.59</v>
+        <v>43828</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
       </c>
       <c r="C121">
-        <v>136.33</v>
-      </c>
-      <c r="D121">
-        <v>1.66</v>
+        <v>130.94</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43798</v>
-      </c>
-      <c r="B122">
-        <v>140.59</v>
+        <v>43829</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
       </c>
       <c r="C122">
-        <v>136.33</v>
-      </c>
-      <c r="D122">
-        <v>3.12</v>
+        <v>130.94</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43799</v>
-      </c>
-      <c r="B123">
-        <v>142.38</v>
+        <v>43830</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
       </c>
       <c r="C123">
-        <v>136.33</v>
-      </c>
-      <c r="D123">
-        <v>4.43</v>
+        <v>130.94</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B124">
-        <v>124.58</v>
+        <v>43831</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
       </c>
       <c r="C124">
-        <v>130.94</v>
-      </c>
-      <c r="D124">
-        <v>-4.86</v>
+        <v>151.18</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43801</v>
+        <v>43832</v>
       </c>
       <c r="B125">
-        <v>120.64</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="C125">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D125">
-        <v>-7.87</v>
+        <v>-38.31</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43802</v>
-      </c>
-      <c r="B126">
-        <v>109.09</v>
+        <v>43833</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
       </c>
       <c r="C126">
-        <v>130.94</v>
-      </c>
-      <c r="D126">
-        <v>-16.69</v>
+        <v>151.18</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43803</v>
-      </c>
-      <c r="B127">
-        <v>103.35</v>
+        <v>43834</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
       </c>
       <c r="C127">
-        <v>130.94</v>
-      </c>
-      <c r="D127">
-        <v>-21.07</v>
+        <v>151.18</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43804</v>
-      </c>
-      <c r="B128">
-        <v>99.95999999999999</v>
+        <v>43835</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
       </c>
       <c r="C128">
-        <v>130.94</v>
-      </c>
-      <c r="D128">
-        <v>-23.66</v>
+        <v>151.18</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43805</v>
-      </c>
-      <c r="B129">
-        <v>98.56</v>
+        <v>43836</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
       </c>
       <c r="C129">
-        <v>130.94</v>
-      </c>
-      <c r="D129">
-        <v>-24.73</v>
+        <v>151.18</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43806</v>
-      </c>
-      <c r="B130">
-        <v>95.3</v>
+        <v>43837</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
       </c>
       <c r="C130">
-        <v>130.94</v>
-      </c>
-      <c r="D130">
-        <v>-27.22</v>
+        <v>151.18</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43807</v>
-      </c>
-      <c r="B131">
-        <v>93.16</v>
+        <v>43838</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
       </c>
       <c r="C131">
-        <v>130.94</v>
-      </c>
-      <c r="D131">
-        <v>-28.85</v>
+        <v>151.18</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43808</v>
-      </c>
-      <c r="B132">
-        <v>91.53</v>
+        <v>43839</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>130.94</v>
-      </c>
-      <c r="D132">
-        <v>-30.1</v>
+        <v>151.18</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B133">
-        <v>92.61</v>
+        <v>100.18</v>
       </c>
       <c r="C133">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D133">
-        <v>-29.27</v>
+        <v>-33.74</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43810</v>
-      </c>
-      <c r="B134" t="s">
-        <v>4</v>
+        <v>43841</v>
+      </c>
+      <c r="B134">
+        <v>108.03</v>
       </c>
       <c r="C134">
-        <v>130.94</v>
-      </c>
-      <c r="D134" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D134">
+        <v>-28.54</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43811</v>
-      </c>
-      <c r="B135" t="s">
-        <v>4</v>
+        <v>43842</v>
+      </c>
+      <c r="B135">
+        <v>106.69</v>
       </c>
       <c r="C135">
-        <v>130.94</v>
-      </c>
-      <c r="D135" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D135">
+        <v>-29.43</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43812</v>
-      </c>
-      <c r="B136" t="s">
-        <v>4</v>
+        <v>43843</v>
+      </c>
+      <c r="B136">
+        <v>104.32</v>
       </c>
       <c r="C136">
-        <v>130.94</v>
-      </c>
-      <c r="D136" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D136">
+        <v>-31</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43813</v>
-      </c>
-      <c r="B137" t="s">
-        <v>4</v>
+        <v>43844</v>
+      </c>
+      <c r="B137">
+        <v>96.81</v>
       </c>
       <c r="C137">
-        <v>130.94</v>
-      </c>
-      <c r="D137" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D137">
+        <v>-35.97</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
       </c>
       <c r="C138">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
@@ -2552,69 +2552,69 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43815</v>
-      </c>
-      <c r="B139" t="s">
-        <v>4</v>
+        <v>43846</v>
+      </c>
+      <c r="B139">
+        <v>98</v>
       </c>
       <c r="C139">
-        <v>130.94</v>
-      </c>
-      <c r="D139" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D139">
+        <v>-35.18</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43816</v>
-      </c>
-      <c r="B140" t="s">
-        <v>4</v>
+        <v>43847</v>
+      </c>
+      <c r="B140">
+        <v>107.82</v>
       </c>
       <c r="C140">
-        <v>130.94</v>
-      </c>
-      <c r="D140" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D140">
+        <v>-28.68</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43817</v>
-      </c>
-      <c r="B141" t="s">
-        <v>4</v>
+        <v>43848</v>
+      </c>
+      <c r="B141">
+        <v>94.09999999999999</v>
       </c>
       <c r="C141">
-        <v>130.94</v>
-      </c>
-      <c r="D141" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D141">
+        <v>-37.76</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43818</v>
-      </c>
-      <c r="B142" t="s">
-        <v>4</v>
+        <v>43849</v>
+      </c>
+      <c r="B142">
+        <v>91.8</v>
       </c>
       <c r="C142">
-        <v>130.94</v>
-      </c>
-      <c r="D142" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D142">
+        <v>-39.28</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43819</v>
+        <v>43850</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
       </c>
       <c r="C143">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D143" t="s">
         <v>4</v>
@@ -2622,69 +2622,69 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43820</v>
-      </c>
-      <c r="B144">
-        <v>95.95</v>
+        <v>43851</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
       </c>
       <c r="C144">
-        <v>130.94</v>
-      </c>
-      <c r="D144">
-        <v>-26.72</v>
+        <v>151.18</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43821</v>
-      </c>
-      <c r="B145">
-        <v>100.82</v>
+        <v>43852</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
       </c>
       <c r="C145">
-        <v>130.94</v>
-      </c>
-      <c r="D145">
-        <v>-23</v>
+        <v>151.18</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43822</v>
-      </c>
-      <c r="B146">
-        <v>96.34999999999999</v>
+        <v>43853</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
       </c>
       <c r="C146">
-        <v>130.94</v>
-      </c>
-      <c r="D146">
-        <v>-26.42</v>
+        <v>151.18</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43823</v>
-      </c>
-      <c r="B147">
-        <v>92.33</v>
+        <v>43854</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
       </c>
       <c r="C147">
-        <v>130.94</v>
-      </c>
-      <c r="D147">
-        <v>-29.49</v>
+        <v>151.18</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43824</v>
+        <v>43855</v>
       </c>
       <c r="B148" t="s">
         <v>4</v>
       </c>
       <c r="C148">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
@@ -2692,13 +2692,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43825</v>
+        <v>43856</v>
       </c>
       <c r="B149" t="s">
         <v>4</v>
       </c>
       <c r="C149">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
@@ -2706,13 +2706,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43826</v>
+        <v>43857</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
       </c>
       <c r="C150">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -2720,13 +2720,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43827</v>
+        <v>43858</v>
       </c>
       <c r="B151" t="s">
         <v>4</v>
       </c>
       <c r="C151">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D151" t="s">
         <v>4</v>
@@ -2734,13 +2734,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43828</v>
+        <v>43859</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
       </c>
       <c r="C152">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
@@ -2748,13 +2748,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43829</v>
+        <v>43860</v>
       </c>
       <c r="B153" t="s">
         <v>4</v>
       </c>
       <c r="C153">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D153" t="s">
         <v>4</v>
@@ -2762,13 +2762,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B154" t="s">
         <v>4</v>
       </c>
       <c r="C154">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B155" t="s">
         <v>4</v>
       </c>
       <c r="C155">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D155" t="s">
         <v>4</v>
@@ -2790,27 +2790,27 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43832</v>
-      </c>
-      <c r="B156">
-        <v>93.26000000000001</v>
+        <v>43863</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>151.18</v>
-      </c>
-      <c r="D156">
-        <v>-38.31</v>
+        <v>151</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
       </c>
       <c r="C157">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D157" t="s">
         <v>4</v>
@@ -2818,13 +2818,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B158" t="s">
         <v>4</v>
       </c>
       <c r="C158">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D158" t="s">
         <v>4</v>
@@ -2832,13 +2832,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B159" t="s">
         <v>4</v>
       </c>
       <c r="C159">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D159" t="s">
         <v>4</v>
@@ -2846,13 +2846,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B160" t="s">
         <v>4</v>
       </c>
       <c r="C160">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
@@ -2860,13 +2860,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B161" t="s">
         <v>4</v>
       </c>
       <c r="C161">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D161" t="s">
         <v>4</v>
@@ -2874,181 +2874,181 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43838</v>
-      </c>
-      <c r="B162" t="s">
-        <v>4</v>
+        <v>43869</v>
+      </c>
+      <c r="B162">
+        <v>95.06999999999999</v>
       </c>
       <c r="C162">
-        <v>151.18</v>
-      </c>
-      <c r="D162" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D162">
+        <v>-37.04</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43839</v>
-      </c>
-      <c r="B163" t="s">
-        <v>4</v>
+        <v>43870</v>
+      </c>
+      <c r="B163">
+        <v>107.25</v>
       </c>
       <c r="C163">
-        <v>151.18</v>
-      </c>
-      <c r="D163" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D163">
+        <v>-28.97</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B164">
-        <v>100.18</v>
+        <v>157.73</v>
       </c>
       <c r="C164">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D164">
-        <v>-33.74</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B165">
-        <v>108.03</v>
+        <v>163</v>
       </c>
       <c r="C165">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D165">
-        <v>-28.54</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B166">
-        <v>106.69</v>
+        <v>180.46</v>
       </c>
       <c r="C166">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D166">
-        <v>-29.43</v>
+        <v>19.51</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B167">
-        <v>104.32</v>
+        <v>193.38</v>
       </c>
       <c r="C167">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D167">
-        <v>-31</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B168">
-        <v>96.81</v>
+        <v>184.81</v>
       </c>
       <c r="C168">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D168">
-        <v>-35.97</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43845</v>
-      </c>
-      <c r="B169" t="s">
-        <v>4</v>
+        <v>43876</v>
+      </c>
+      <c r="B169">
+        <v>139.85</v>
       </c>
       <c r="C169">
-        <v>151.18</v>
-      </c>
-      <c r="D169" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D169">
+        <v>-7.38</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B170">
-        <v>98</v>
+        <v>107.48</v>
       </c>
       <c r="C170">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D170">
-        <v>-35.18</v>
+        <v>-28.82</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B171">
-        <v>107.82</v>
+        <v>97.72</v>
       </c>
       <c r="C171">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D171">
-        <v>-28.68</v>
+        <v>-35.29</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B172">
-        <v>94.09999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C172">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D172">
-        <v>-37.76</v>
+        <v>-38.67</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B173">
-        <v>91.8</v>
+        <v>89.17</v>
       </c>
       <c r="C173">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D173">
-        <v>-39.28</v>
+        <v>-40.94</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B174" t="s">
         <v>4</v>
       </c>
       <c r="C174">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
@@ -3056,13 +3056,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B175" t="s">
         <v>4</v>
       </c>
       <c r="C175">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
@@ -3070,727 +3070,727 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43852</v>
-      </c>
-      <c r="B176" t="s">
-        <v>4</v>
+        <v>43883</v>
+      </c>
+      <c r="B176">
+        <v>90.01000000000001</v>
       </c>
       <c r="C176">
-        <v>151.18</v>
-      </c>
-      <c r="D176" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D176">
+        <v>-40.39</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43853</v>
-      </c>
-      <c r="B177" t="s">
-        <v>4</v>
+        <v>43884</v>
+      </c>
+      <c r="B177">
+        <v>89.8</v>
       </c>
       <c r="C177">
-        <v>151.18</v>
-      </c>
-      <c r="D177" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D177">
+        <v>-40.53</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43854</v>
-      </c>
-      <c r="B178" t="s">
-        <v>4</v>
+        <v>43885</v>
+      </c>
+      <c r="B178">
+        <v>90.06</v>
       </c>
       <c r="C178">
-        <v>151.18</v>
-      </c>
-      <c r="D178" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D178">
+        <v>-40.36</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43855</v>
-      </c>
-      <c r="B179" t="s">
-        <v>4</v>
+        <v>43886</v>
+      </c>
+      <c r="B179">
+        <v>91.17</v>
       </c>
       <c r="C179">
-        <v>151.18</v>
-      </c>
-      <c r="D179" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D179">
+        <v>-39.62</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43856</v>
-      </c>
-      <c r="B180" t="s">
-        <v>4</v>
+        <v>43887</v>
+      </c>
+      <c r="B180">
+        <v>100.46</v>
       </c>
       <c r="C180">
-        <v>151.18</v>
-      </c>
-      <c r="D180" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D180">
+        <v>-33.47</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43857</v>
-      </c>
-      <c r="B181" t="s">
-        <v>4</v>
+        <v>43888</v>
+      </c>
+      <c r="B181">
+        <v>115.43</v>
       </c>
       <c r="C181">
-        <v>151.18</v>
-      </c>
-      <c r="D181" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D181">
+        <v>-23.56</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43858</v>
-      </c>
-      <c r="B182" t="s">
-        <v>4</v>
+        <v>43889</v>
+      </c>
+      <c r="B182">
+        <v>115.79</v>
       </c>
       <c r="C182">
-        <v>151.18</v>
-      </c>
-      <c r="D182" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D182">
+        <v>-23.32</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43859</v>
-      </c>
-      <c r="B183" t="s">
-        <v>4</v>
+        <v>43890</v>
+      </c>
+      <c r="B183">
+        <v>107.41</v>
       </c>
       <c r="C183">
-        <v>151.18</v>
-      </c>
-      <c r="D183" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D183">
+        <v>-28.87</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43860</v>
-      </c>
-      <c r="B184" t="s">
-        <v>4</v>
+        <v>43891</v>
+      </c>
+      <c r="B184">
+        <v>100</v>
       </c>
       <c r="C184">
-        <v>151.18</v>
-      </c>
-      <c r="D184" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D184">
+        <v>-29.52</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43861</v>
-      </c>
-      <c r="B185" t="s">
-        <v>4</v>
+        <v>43892</v>
+      </c>
+      <c r="B185">
+        <v>96.15000000000001</v>
       </c>
       <c r="C185">
-        <v>151.18</v>
-      </c>
-      <c r="D185" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D185">
+        <v>-32.24</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B186" t="s">
-        <v>4</v>
+        <v>43893</v>
+      </c>
+      <c r="B186">
+        <v>95.79000000000001</v>
       </c>
       <c r="C186">
-        <v>151</v>
-      </c>
-      <c r="D186" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D186">
+        <v>-32.49</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43863</v>
-      </c>
-      <c r="B187" t="s">
-        <v>4</v>
+        <v>43894</v>
+      </c>
+      <c r="B187">
+        <v>103.34</v>
       </c>
       <c r="C187">
-        <v>151</v>
-      </c>
-      <c r="D187" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D187">
+        <v>-27.16</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43864</v>
-      </c>
-      <c r="B188" t="s">
-        <v>4</v>
+        <v>43895</v>
+      </c>
+      <c r="B188">
+        <v>110.47</v>
       </c>
       <c r="C188">
-        <v>151</v>
-      </c>
-      <c r="D188" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D188">
+        <v>-22.14</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43865</v>
-      </c>
-      <c r="B189" t="s">
-        <v>4</v>
+        <v>43896</v>
+      </c>
+      <c r="B189">
+        <v>104.58</v>
       </c>
       <c r="C189">
-        <v>151</v>
-      </c>
-      <c r="D189" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D189">
+        <v>-26.29</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43866</v>
-      </c>
-      <c r="B190" t="s">
-        <v>4</v>
+        <v>43897</v>
+      </c>
+      <c r="B190">
+        <v>99.18000000000001</v>
       </c>
       <c r="C190">
-        <v>151</v>
-      </c>
-      <c r="D190" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D190">
+        <v>-30.1</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43867</v>
-      </c>
-      <c r="B191" t="s">
-        <v>4</v>
+        <v>43898</v>
+      </c>
+      <c r="B191">
+        <v>93.73</v>
       </c>
       <c r="C191">
-        <v>151</v>
-      </c>
-      <c r="D191" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D191">
+        <v>-33.94</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43868</v>
-      </c>
-      <c r="B192" t="s">
-        <v>4</v>
+        <v>43899</v>
+      </c>
+      <c r="B192">
+        <v>91.45999999999999</v>
       </c>
       <c r="C192">
-        <v>151</v>
-      </c>
-      <c r="D192" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D192">
+        <v>-35.54</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B193">
-        <v>95.06999999999999</v>
+        <v>90.75</v>
       </c>
       <c r="C193">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D193">
-        <v>-37.04</v>
+        <v>-36.04</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B194">
-        <v>107.25</v>
+        <v>89</v>
       </c>
       <c r="C194">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D194">
-        <v>-28.97</v>
+        <v>-37.27</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43871</v>
-      </c>
-      <c r="B195">
-        <v>157.73</v>
+        <v>43902</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4</v>
       </c>
       <c r="C195">
-        <v>151</v>
-      </c>
-      <c r="D195">
-        <v>4.46</v>
+        <v>141.89</v>
+      </c>
+      <c r="D195" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43872</v>
-      </c>
-      <c r="B196">
-        <v>163</v>
+        <v>43903</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4</v>
       </c>
       <c r="C196">
-        <v>151</v>
-      </c>
-      <c r="D196">
-        <v>7.95</v>
+        <v>141.89</v>
+      </c>
+      <c r="D196" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43873</v>
-      </c>
-      <c r="B197">
-        <v>180.46</v>
+        <v>43904</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4</v>
       </c>
       <c r="C197">
-        <v>151</v>
-      </c>
-      <c r="D197">
-        <v>19.51</v>
+        <v>141.89</v>
+      </c>
+      <c r="D197" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43874</v>
-      </c>
-      <c r="B198">
-        <v>193.38</v>
+        <v>43905</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
       </c>
       <c r="C198">
-        <v>151</v>
-      </c>
-      <c r="D198">
-        <v>28.06</v>
+        <v>141.89</v>
+      </c>
+      <c r="D198" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43875</v>
-      </c>
-      <c r="B199">
-        <v>184.81</v>
+        <v>43906</v>
+      </c>
+      <c r="B199" t="s">
+        <v>4</v>
       </c>
       <c r="C199">
-        <v>151</v>
-      </c>
-      <c r="D199">
-        <v>22.39</v>
+        <v>141.89</v>
+      </c>
+      <c r="D199" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B200">
-        <v>139.85</v>
+        <v>96.81</v>
       </c>
       <c r="C200">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D200">
-        <v>-7.38</v>
+        <v>-31.77</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B201">
-        <v>107.48</v>
+        <v>95.77</v>
       </c>
       <c r="C201">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D201">
-        <v>-28.82</v>
+        <v>-32.5</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B202">
-        <v>97.72</v>
+        <v>100.65</v>
       </c>
       <c r="C202">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D202">
-        <v>-35.29</v>
+        <v>-29.07</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B203">
-        <v>92.59999999999999</v>
+        <v>97.25</v>
       </c>
       <c r="C203">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D203">
-        <v>-38.67</v>
+        <v>-31.46</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B204">
-        <v>89.17</v>
+        <v>94.98</v>
       </c>
       <c r="C204">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D204">
-        <v>-40.94</v>
+        <v>-33.06</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43881</v>
-      </c>
-      <c r="B205" t="s">
-        <v>4</v>
+        <v>43912</v>
+      </c>
+      <c r="B205">
+        <v>92.42</v>
       </c>
       <c r="C205">
-        <v>151</v>
-      </c>
-      <c r="D205" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D205">
+        <v>-34.87</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43882</v>
-      </c>
-      <c r="B206" t="s">
-        <v>4</v>
+        <v>43913</v>
+      </c>
+      <c r="B206">
+        <v>90.43000000000001</v>
       </c>
       <c r="C206">
-        <v>151</v>
-      </c>
-      <c r="D206" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D206">
+        <v>-36.27</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B207">
-        <v>90.01000000000001</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="C207">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D207">
-        <v>-40.39</v>
+        <v>-36.77</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B208">
-        <v>89.8</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="C208">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D208">
-        <v>-40.53</v>
+        <v>-36.78</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43885</v>
-      </c>
-      <c r="B209">
-        <v>90.06</v>
+        <v>43916</v>
+      </c>
+      <c r="B209" t="s">
+        <v>4</v>
       </c>
       <c r="C209">
-        <v>151</v>
-      </c>
-      <c r="D209">
-        <v>-40.36</v>
+        <v>141.89</v>
+      </c>
+      <c r="D209" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43886</v>
-      </c>
-      <c r="B210">
-        <v>91.17</v>
+        <v>43917</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
       </c>
       <c r="C210">
-        <v>151</v>
-      </c>
-      <c r="D210">
-        <v>-39.62</v>
+        <v>141.89</v>
+      </c>
+      <c r="D210" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43887</v>
-      </c>
-      <c r="B211">
-        <v>100.46</v>
+        <v>43918</v>
+      </c>
+      <c r="B211" t="s">
+        <v>4</v>
       </c>
       <c r="C211">
-        <v>151</v>
-      </c>
-      <c r="D211">
-        <v>-33.47</v>
+        <v>141.89</v>
+      </c>
+      <c r="D211" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43888</v>
-      </c>
-      <c r="B212">
-        <v>115.43</v>
+        <v>43919</v>
+      </c>
+      <c r="B212" t="s">
+        <v>4</v>
       </c>
       <c r="C212">
-        <v>151</v>
-      </c>
-      <c r="D212">
-        <v>-23.56</v>
+        <v>141.89</v>
+      </c>
+      <c r="D212" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43889</v>
-      </c>
-      <c r="B213">
-        <v>115.79</v>
+        <v>43920</v>
+      </c>
+      <c r="B213" t="s">
+        <v>4</v>
       </c>
       <c r="C213">
-        <v>151</v>
-      </c>
-      <c r="D213">
-        <v>-23.32</v>
+        <v>141.89</v>
+      </c>
+      <c r="D213" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43890</v>
-      </c>
-      <c r="B214">
-        <v>107.41</v>
+        <v>43921</v>
+      </c>
+      <c r="B214" t="s">
+        <v>4</v>
       </c>
       <c r="C214">
-        <v>151</v>
-      </c>
-      <c r="D214">
-        <v>-28.87</v>
+        <v>141.89</v>
+      </c>
+      <c r="D214" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43891</v>
-      </c>
-      <c r="B215">
-        <v>100</v>
+        <v>43922</v>
+      </c>
+      <c r="B215" t="s">
+        <v>4</v>
       </c>
       <c r="C215">
-        <v>141.89</v>
-      </c>
-      <c r="D215">
-        <v>-29.52</v>
+        <v>120.32</v>
+      </c>
+      <c r="D215" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43892</v>
-      </c>
-      <c r="B216">
-        <v>96.15000000000001</v>
+        <v>43923</v>
+      </c>
+      <c r="B216" t="s">
+        <v>4</v>
       </c>
       <c r="C216">
-        <v>141.89</v>
-      </c>
-      <c r="D216">
-        <v>-32.24</v>
+        <v>120.32</v>
+      </c>
+      <c r="D216" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43893</v>
-      </c>
-      <c r="B217">
-        <v>95.79000000000001</v>
+        <v>43924</v>
+      </c>
+      <c r="B217" t="s">
+        <v>4</v>
       </c>
       <c r="C217">
-        <v>141.89</v>
-      </c>
-      <c r="D217">
-        <v>-32.49</v>
+        <v>120.32</v>
+      </c>
+      <c r="D217" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B218">
-        <v>103.34</v>
+        <v>89.44</v>
       </c>
       <c r="C218">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D218">
-        <v>-27.16</v>
+        <v>-25.66</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B219">
-        <v>110.47</v>
+        <v>89.14</v>
       </c>
       <c r="C219">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D219">
-        <v>-22.14</v>
+        <v>-25.91</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43896</v>
-      </c>
-      <c r="B220">
-        <v>104.58</v>
+        <v>43927</v>
+      </c>
+      <c r="B220" t="s">
+        <v>4</v>
       </c>
       <c r="C220">
-        <v>141.89</v>
-      </c>
-      <c r="D220">
-        <v>-26.29</v>
+        <v>120.32</v>
+      </c>
+      <c r="D220" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B221">
-        <v>99.18000000000001</v>
+        <v>91.61</v>
       </c>
       <c r="C221">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D221">
-        <v>-30.1</v>
+        <v>-23.86</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43898</v>
-      </c>
-      <c r="B222">
-        <v>93.73</v>
+        <v>43929</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4</v>
       </c>
       <c r="C222">
-        <v>141.89</v>
-      </c>
-      <c r="D222">
-        <v>-33.94</v>
+        <v>120.32</v>
+      </c>
+      <c r="D222" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43899</v>
-      </c>
-      <c r="B223">
-        <v>91.45999999999999</v>
+        <v>43930</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4</v>
       </c>
       <c r="C223">
-        <v>141.89</v>
-      </c>
-      <c r="D223">
-        <v>-35.54</v>
+        <v>120.32</v>
+      </c>
+      <c r="D223" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43900</v>
-      </c>
-      <c r="B224">
-        <v>90.75</v>
+        <v>43931</v>
+      </c>
+      <c r="B224" t="s">
+        <v>4</v>
       </c>
       <c r="C224">
-        <v>141.89</v>
-      </c>
-      <c r="D224">
-        <v>-36.04</v>
+        <v>120.32</v>
+      </c>
+      <c r="D224" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43901</v>
-      </c>
-      <c r="B225">
-        <v>89</v>
+        <v>43932</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4</v>
       </c>
       <c r="C225">
-        <v>141.89</v>
-      </c>
-      <c r="D225">
-        <v>-37.27</v>
+        <v>120.32</v>
+      </c>
+      <c r="D225" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43902</v>
-      </c>
-      <c r="B226" t="s">
-        <v>4</v>
+        <v>43933</v>
+      </c>
+      <c r="B226">
+        <v>89</v>
       </c>
       <c r="C226">
-        <v>141.89</v>
-      </c>
-      <c r="D226" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D226">
+        <v>-26.03</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B227" t="s">
         <v>4</v>
       </c>
       <c r="C227">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D227" t="s">
         <v>4</v>
@@ -3798,13 +3798,13 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B228" t="s">
         <v>4</v>
       </c>
       <c r="C228">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D228" t="s">
         <v>4</v>
@@ -3812,237 +3812,237 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43905</v>
-      </c>
-      <c r="B229" t="s">
-        <v>4</v>
+        <v>43936</v>
+      </c>
+      <c r="B229">
+        <v>90.54000000000001</v>
       </c>
       <c r="C229">
-        <v>141.89</v>
-      </c>
-      <c r="D229" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D229">
+        <v>-24.75</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43906</v>
-      </c>
-      <c r="B230" t="s">
-        <v>4</v>
+        <v>43937</v>
+      </c>
+      <c r="B230">
+        <v>92.23999999999999</v>
       </c>
       <c r="C230">
-        <v>141.89</v>
-      </c>
-      <c r="D230" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D230">
+        <v>-23.34</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B231">
-        <v>96.81</v>
+        <v>92.36</v>
       </c>
       <c r="C231">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D231">
-        <v>-31.77</v>
+        <v>-23.24</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B232">
-        <v>95.77</v>
+        <v>90.77</v>
       </c>
       <c r="C232">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D232">
-        <v>-32.5</v>
+        <v>-24.56</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B233">
-        <v>100.65</v>
+        <v>90.52</v>
       </c>
       <c r="C233">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D233">
-        <v>-29.07</v>
+        <v>-24.77</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B234">
-        <v>97.25</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="C234">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D234">
-        <v>-31.46</v>
+        <v>-24.82</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B235">
-        <v>94.98</v>
+        <v>89.98</v>
       </c>
       <c r="C235">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D235">
-        <v>-33.06</v>
+        <v>-25.21</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B236">
-        <v>92.42</v>
+        <v>90.42</v>
       </c>
       <c r="C236">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D236">
-        <v>-34.87</v>
+        <v>-24.85</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B237">
-        <v>90.43000000000001</v>
+        <v>91.53</v>
       </c>
       <c r="C237">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D237">
-        <v>-36.27</v>
+        <v>-23.93</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B238">
-        <v>89.70999999999999</v>
+        <v>91.94</v>
       </c>
       <c r="C238">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D238">
-        <v>-36.77</v>
+        <v>-23.59</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43915</v>
-      </c>
-      <c r="B239">
-        <v>89.70999999999999</v>
+        <v>43946</v>
+      </c>
+      <c r="B239" t="s">
+        <v>4</v>
       </c>
       <c r="C239">
-        <v>141.89</v>
-      </c>
-      <c r="D239">
-        <v>-36.78</v>
+        <v>120.32</v>
+      </c>
+      <c r="D239" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43916</v>
-      </c>
-      <c r="B240" t="s">
-        <v>4</v>
+        <v>43947</v>
+      </c>
+      <c r="B240">
+        <v>89.87</v>
       </c>
       <c r="C240">
-        <v>141.89</v>
-      </c>
-      <c r="D240" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D240">
+        <v>-25.31</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43917</v>
-      </c>
-      <c r="B241" t="s">
-        <v>4</v>
+        <v>43948</v>
+      </c>
+      <c r="B241">
+        <v>89.5</v>
       </c>
       <c r="C241">
-        <v>141.89</v>
-      </c>
-      <c r="D241" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D241">
+        <v>-25.62</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43918</v>
-      </c>
-      <c r="B242" t="s">
-        <v>4</v>
+        <v>43949</v>
+      </c>
+      <c r="B242">
+        <v>89.05</v>
       </c>
       <c r="C242">
-        <v>141.89</v>
-      </c>
-      <c r="D242" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D242">
+        <v>-25.99</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43919</v>
-      </c>
-      <c r="B243" t="s">
-        <v>4</v>
+        <v>43950</v>
+      </c>
+      <c r="B243">
+        <v>89.55</v>
       </c>
       <c r="C243">
-        <v>141.89</v>
-      </c>
-      <c r="D243" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D243">
+        <v>-25.58</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B244" t="s">
-        <v>4</v>
+        <v>43951</v>
+      </c>
+      <c r="B244">
+        <v>90.33</v>
       </c>
       <c r="C244">
-        <v>141.89</v>
-      </c>
-      <c r="D244" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D244">
+        <v>-24.92</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B245" t="s">
         <v>4</v>
       </c>
       <c r="C245">
-        <v>141.89</v>
+        <v>130.37</v>
       </c>
       <c r="D245" t="s">
         <v>4</v>
@@ -4050,2032 +4050,1822 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B246" t="s">
-        <v>4</v>
+        <v>43953</v>
+      </c>
+      <c r="B246">
+        <v>89.93000000000001</v>
       </c>
       <c r="C246">
-        <v>120.32</v>
-      </c>
-      <c r="D246" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D246">
+        <v>-31.02</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B247" t="s">
-        <v>4</v>
+        <v>43954</v>
+      </c>
+      <c r="B247">
+        <v>91.06999999999999</v>
       </c>
       <c r="C247">
-        <v>120.32</v>
-      </c>
-      <c r="D247" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D247">
+        <v>-30.15</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B248" t="s">
-        <v>4</v>
+        <v>43955</v>
+      </c>
+      <c r="B248">
+        <v>91.83</v>
       </c>
       <c r="C248">
-        <v>120.32</v>
-      </c>
-      <c r="D248" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D248">
+        <v>-29.56</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B249">
-        <v>89.44</v>
+        <v>91.88</v>
       </c>
       <c r="C249">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D249">
-        <v>-25.66</v>
+        <v>-29.52</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B250">
-        <v>89.14</v>
+        <v>90.7</v>
       </c>
       <c r="C250">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D250">
-        <v>-25.91</v>
+        <v>-30.43</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B251" t="s">
-        <v>4</v>
+        <v>43958</v>
+      </c>
+      <c r="B251">
+        <v>93.69</v>
       </c>
       <c r="C251">
-        <v>120.32</v>
-      </c>
-      <c r="D251" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D251">
+        <v>-28.14</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B252">
-        <v>91.61</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="C252">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D252">
-        <v>-23.86</v>
+        <v>-28.67</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43929</v>
-      </c>
-      <c r="B253" t="s">
-        <v>4</v>
+        <v>43960</v>
+      </c>
+      <c r="B253">
+        <v>92.23999999999999</v>
       </c>
       <c r="C253">
-        <v>120.32</v>
-      </c>
-      <c r="D253" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D253">
+        <v>-29.25</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43930</v>
-      </c>
-      <c r="B254" t="s">
-        <v>4</v>
+        <v>43961</v>
+      </c>
+      <c r="B254">
+        <v>91.56999999999999</v>
       </c>
       <c r="C254">
-        <v>120.32</v>
-      </c>
-      <c r="D254" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D254">
+        <v>-29.76</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43931</v>
-      </c>
-      <c r="B255" t="s">
-        <v>4</v>
+        <v>43962</v>
+      </c>
+      <c r="B255">
+        <v>92.48999999999999</v>
       </c>
       <c r="C255">
-        <v>120.32</v>
-      </c>
-      <c r="D255" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D255">
+        <v>-29.06</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43932</v>
-      </c>
-      <c r="B256" t="s">
-        <v>4</v>
+        <v>43963</v>
+      </c>
+      <c r="B256">
+        <v>91.98999999999999</v>
       </c>
       <c r="C256">
-        <v>120.32</v>
-      </c>
-      <c r="D256" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D256">
+        <v>-29.44</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B257">
-        <v>89</v>
+        <v>90.33</v>
       </c>
       <c r="C257">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D257">
-        <v>-26.03</v>
+        <v>-30.71</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43934</v>
-      </c>
-      <c r="B258" t="s">
-        <v>4</v>
+        <v>43965</v>
+      </c>
+      <c r="B258">
+        <v>90.52</v>
       </c>
       <c r="C258">
-        <v>120.32</v>
-      </c>
-      <c r="D258" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D258">
+        <v>-30.56</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43935</v>
-      </c>
-      <c r="B259" t="s">
-        <v>4</v>
+        <v>43966</v>
+      </c>
+      <c r="B259">
+        <v>91.42</v>
       </c>
       <c r="C259">
-        <v>120.32</v>
-      </c>
-      <c r="D259" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D259">
+        <v>-29.88</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B260">
-        <v>90.54000000000001</v>
+        <v>92.16</v>
       </c>
       <c r="C260">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D260">
-        <v>-24.75</v>
+        <v>-29.31</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B261">
-        <v>92.23999999999999</v>
+        <v>93.48</v>
       </c>
       <c r="C261">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D261">
-        <v>-23.34</v>
+        <v>-28.29</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B262">
-        <v>92.36</v>
+        <v>93.51000000000001</v>
       </c>
       <c r="C262">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D262">
-        <v>-23.24</v>
+        <v>-28.28</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B263">
-        <v>90.77</v>
+        <v>92.94</v>
       </c>
       <c r="C263">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D263">
-        <v>-24.56</v>
+        <v>-28.71</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B264">
-        <v>90.52</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="C264">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D264">
-        <v>-24.77</v>
+        <v>-29.55</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B265">
-        <v>90.45999999999999</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C265">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D265">
-        <v>-24.82</v>
+        <v>-30.36</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B266">
-        <v>89.98</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="C266">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D266">
-        <v>-25.21</v>
+        <v>-30.76</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B267">
-        <v>90.42</v>
+        <v>90.89</v>
       </c>
       <c r="C267">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D267">
-        <v>-24.85</v>
+        <v>-30.29</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B268">
-        <v>91.53</v>
+        <v>92.44</v>
       </c>
       <c r="C268">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D268">
-        <v>-23.93</v>
+        <v>-29.09</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B269">
-        <v>91.94</v>
+        <v>93.16</v>
       </c>
       <c r="C269">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D269">
-        <v>-23.59</v>
+        <v>-28.54</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>43946</v>
-      </c>
-      <c r="B270" t="s">
-        <v>4</v>
+        <v>43977</v>
+      </c>
+      <c r="B270">
+        <v>94.34</v>
       </c>
       <c r="C270">
-        <v>120.32</v>
-      </c>
-      <c r="D270" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D270">
+        <v>-27.63</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B271">
-        <v>89.87</v>
+        <v>95.11</v>
       </c>
       <c r="C271">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D271">
-        <v>-25.31</v>
+        <v>-27.05</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B272">
-        <v>89.5</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C272">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D272">
-        <v>-25.62</v>
+        <v>-26.71</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B273">
-        <v>89.05</v>
+        <v>95.20999999999999</v>
       </c>
       <c r="C273">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D273">
-        <v>-25.99</v>
+        <v>-26.97</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B274">
-        <v>89.55</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="C274">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D274">
-        <v>-25.58</v>
+        <v>-26.91</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B275">
-        <v>90.33</v>
+        <v>94.98</v>
       </c>
       <c r="C275">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D275">
-        <v>-24.92</v>
+        <v>-27.15</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B276" t="s">
-        <v>4</v>
+        <v>43983</v>
+      </c>
+      <c r="B276">
+        <v>92.45999999999999</v>
       </c>
       <c r="C276">
-        <v>130.37</v>
-      </c>
-      <c r="D276" t="s">
-        <v>4</v>
+        <v>157.39</v>
+      </c>
+      <c r="D276">
+        <v>-41.26</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B277">
-        <v>89.93000000000001</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="C277">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D277">
-        <v>-31.02</v>
+        <v>-41.03</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B278">
-        <v>91.06999999999999</v>
+        <v>92.62</v>
       </c>
       <c r="C278">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D278">
-        <v>-30.15</v>
+        <v>-41.15</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B279">
-        <v>91.83</v>
+        <v>92.27</v>
       </c>
       <c r="C279">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D279">
-        <v>-29.56</v>
+        <v>-41.38</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B280">
-        <v>91.88</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C280">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D280">
-        <v>-29.52</v>
+        <v>-42.12</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B281">
-        <v>90.7</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="C281">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D281">
-        <v>-30.43</v>
+        <v>-42.14</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B282">
-        <v>93.69</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="C282">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D282">
-        <v>-28.14</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B283">
-        <v>92.98999999999999</v>
+        <v>92.81</v>
       </c>
       <c r="C283">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D283">
-        <v>-28.67</v>
+        <v>-41.04</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B284">
-        <v>92.23999999999999</v>
+        <v>93.44</v>
       </c>
       <c r="C284">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D284">
-        <v>-29.25</v>
+        <v>-40.63</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B285">
-        <v>91.56999999999999</v>
+        <v>122.5</v>
       </c>
       <c r="C285">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D285">
-        <v>-29.76</v>
+        <v>-22.17</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B286">
-        <v>92.48999999999999</v>
+        <v>155.84</v>
       </c>
       <c r="C286">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D286">
-        <v>-29.06</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B287">
-        <v>91.98999999999999</v>
+        <v>159.99</v>
       </c>
       <c r="C287">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D287">
-        <v>-29.44</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B288">
-        <v>90.33</v>
+        <v>161.1</v>
       </c>
       <c r="C288">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D288">
-        <v>-30.71</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B289">
-        <v>90.52</v>
+        <v>134.36</v>
       </c>
       <c r="C289">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D289">
-        <v>-30.56</v>
+        <v>-14.63</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B290">
-        <v>91.42</v>
+        <v>112.18</v>
       </c>
       <c r="C290">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D290">
-        <v>-29.88</v>
+        <v>-28.73</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B291">
-        <v>92.16</v>
+        <v>104.49</v>
       </c>
       <c r="C291">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D291">
-        <v>-29.31</v>
+        <v>-33.61</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B292">
-        <v>93.48</v>
+        <v>100.47</v>
       </c>
       <c r="C292">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D292">
-        <v>-28.29</v>
+        <v>-36.17</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B293">
-        <v>93.51000000000001</v>
+        <v>99.06</v>
       </c>
       <c r="C293">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D293">
-        <v>-28.28</v>
+        <v>-37.06</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B294">
-        <v>92.94</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="C294">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D294">
-        <v>-28.71</v>
+        <v>-40.28</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B295">
-        <v>91.84999999999999</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="C295">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D295">
-        <v>-29.55</v>
+        <v>-39.64</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B296">
-        <v>90.79000000000001</v>
+        <v>93.84</v>
       </c>
       <c r="C296">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D296">
-        <v>-30.36</v>
+        <v>-40.38</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B297">
-        <v>90.26000000000001</v>
+        <v>93.31</v>
       </c>
       <c r="C297">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D297">
-        <v>-30.76</v>
+        <v>-40.71</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B298">
-        <v>90.89</v>
+        <v>92.56</v>
       </c>
       <c r="C298">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D298">
-        <v>-30.29</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B299">
-        <v>92.44</v>
+        <v>92.73</v>
       </c>
       <c r="C299">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D299">
-        <v>-29.09</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B300">
-        <v>93.16</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="C300">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D300">
-        <v>-28.54</v>
+        <v>-41.36</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B301">
-        <v>94.34</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C301">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D301">
-        <v>-27.63</v>
+        <v>-39.3</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B302">
-        <v>95.11</v>
+        <v>103.75</v>
       </c>
       <c r="C302">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D302">
-        <v>-27.05</v>
+        <v>-34.08</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B303">
-        <v>95.54000000000001</v>
+        <v>109.07</v>
       </c>
       <c r="C303">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D303">
-        <v>-26.71</v>
+        <v>-30.7</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B304">
-        <v>95.20999999999999</v>
+        <v>113.61</v>
       </c>
       <c r="C304">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D304">
-        <v>-26.97</v>
+        <v>-27.82</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B305">
-        <v>95.29000000000001</v>
+        <v>107.47</v>
       </c>
       <c r="C305">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D305">
-        <v>-26.91</v>
+        <v>-31.72</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B306">
-        <v>94.98</v>
+        <v>124.12</v>
       </c>
       <c r="C306">
-        <v>130.37</v>
+        <v>126.28</v>
       </c>
       <c r="D306">
-        <v>-27.15</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B307">
-        <v>92.45999999999999</v>
+        <v>123.93</v>
       </c>
       <c r="C307">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D307">
-        <v>-41.26</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B308">
-        <v>92.81999999999999</v>
+        <v>117.51</v>
       </c>
       <c r="C308">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D308">
-        <v>-41.03</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B309">
-        <v>92.62</v>
+        <v>108.65</v>
       </c>
       <c r="C309">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D309">
-        <v>-41.15</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B310">
-        <v>92.27</v>
+        <v>103.79</v>
       </c>
       <c r="C310">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D310">
-        <v>-41.38</v>
+        <v>-17.81</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B311">
-        <v>91.09999999999999</v>
+        <v>100.84</v>
       </c>
       <c r="C311">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D311">
-        <v>-42.12</v>
+        <v>-20.15</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B312">
-        <v>91.06999999999999</v>
+        <v>98.69</v>
       </c>
       <c r="C312">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D312">
-        <v>-42.14</v>
+        <v>-21.85</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B313">
-        <v>92.73999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="C313">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D313">
-        <v>-41.08</v>
+        <v>-22.83</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B314">
-        <v>92.81</v>
+        <v>95.33</v>
       </c>
       <c r="C314">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D314">
-        <v>-41.04</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B315">
-        <v>93.44</v>
+        <v>95.02</v>
       </c>
       <c r="C315">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D315">
-        <v>-40.63</v>
+        <v>-24.76</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B316">
-        <v>122.5</v>
+        <v>96.92</v>
       </c>
       <c r="C316">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D316">
-        <v>-22.17</v>
+        <v>-23.26</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B317">
-        <v>155.84</v>
+        <v>92.83</v>
       </c>
       <c r="C317">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D317">
-        <v>-0.99</v>
+        <v>-26.49</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B318">
-        <v>159.99</v>
+        <v>92.44</v>
       </c>
       <c r="C318">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D318">
-        <v>1.65</v>
+        <v>-26.8</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B319">
-        <v>161.1</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="C319">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D319">
-        <v>2.36</v>
+        <v>-26.96</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B320">
-        <v>134.36</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="C320">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D320">
-        <v>-14.63</v>
+        <v>-26.08</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B321">
-        <v>112.18</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C321">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D321">
-        <v>-28.73</v>
+        <v>-26.04</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B322">
-        <v>104.49</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="C322">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D322">
-        <v>-33.61</v>
+        <v>-26.52</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B323">
-        <v>100.47</v>
+        <v>92.98</v>
       </c>
       <c r="C323">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D323">
-        <v>-36.17</v>
+        <v>-26.37</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B324">
-        <v>99.06</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C324">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D324">
-        <v>-37.06</v>
+        <v>-27.23</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B325">
-        <v>93.98999999999999</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C325">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D325">
-        <v>-40.28</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B326">
-        <v>95.01000000000001</v>
+        <v>92.34</v>
       </c>
       <c r="C326">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D326">
-        <v>-39.64</v>
+        <v>-26.88</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B327">
-        <v>93.84</v>
+        <v>92.19</v>
       </c>
       <c r="C327">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D327">
-        <v>-40.38</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B328">
-        <v>93.31</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="C328">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D328">
-        <v>-40.71</v>
+        <v>-27.09</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B329">
-        <v>92.56</v>
+        <v>91.92</v>
       </c>
       <c r="C329">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D329">
-        <v>-41.19</v>
+        <v>-27.21</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B330">
-        <v>92.73</v>
+        <v>91.86</v>
       </c>
       <c r="C330">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D330">
-        <v>-41.08</v>
+        <v>-27.26</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B331">
-        <v>92.29000000000001</v>
+        <v>91.77</v>
       </c>
       <c r="C331">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D331">
-        <v>-41.36</v>
+        <v>-27.33</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B332">
-        <v>95.54000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="C332">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D332">
-        <v>-39.3</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B333">
-        <v>103.75</v>
+        <v>91</v>
       </c>
       <c r="C333">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D333">
-        <v>-34.08</v>
+        <v>-27.94</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B334">
-        <v>109.07</v>
+        <v>107.57</v>
       </c>
       <c r="C334">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D334">
-        <v>-30.7</v>
+        <v>-14.82</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B335">
-        <v>113.61</v>
+        <v>118.47</v>
       </c>
       <c r="C335">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D335">
-        <v>-27.82</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B336">
-        <v>107.47</v>
+        <v>133.49</v>
       </c>
       <c r="C336">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D336">
-        <v>-31.72</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B337">
-        <v>124.12</v>
+        <v>118.64</v>
       </c>
       <c r="C337">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D337">
-        <v>-1.71</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B338">
-        <v>123.93</v>
+        <v>107.18</v>
       </c>
       <c r="C338">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D338">
-        <v>-1.87</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B339">
-        <v>117.51</v>
+        <v>102.56</v>
       </c>
       <c r="C339">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D339">
-        <v>-6.95</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B340">
-        <v>108.65</v>
+        <v>99.44</v>
       </c>
       <c r="C340">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D340">
-        <v>-13.97</v>
+        <v>-12.88</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B341">
-        <v>103.79</v>
+        <v>96.78</v>
       </c>
       <c r="C341">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D341">
-        <v>-17.81</v>
+        <v>-15.21</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44018</v>
+        <v>44049</v>
       </c>
       <c r="B342">
-        <v>100.84</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="C342">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D342">
-        <v>-20.15</v>
+        <v>-16.12</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44019</v>
+        <v>44050</v>
       </c>
       <c r="B343">
-        <v>98.69</v>
+        <v>93.34</v>
       </c>
       <c r="C343">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D343">
-        <v>-21.85</v>
+        <v>-18.22</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44020</v>
+        <v>44051</v>
       </c>
       <c r="B344">
-        <v>97.45</v>
+        <v>92.55</v>
       </c>
       <c r="C344">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D344">
-        <v>-22.83</v>
+        <v>-18.91</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44021</v>
+        <v>44052</v>
       </c>
       <c r="B345">
-        <v>95.33</v>
+        <v>91.56</v>
       </c>
       <c r="C345">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D345">
-        <v>-24.51</v>
+        <v>-19.78</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44022</v>
+        <v>44053</v>
       </c>
       <c r="B346">
-        <v>95.02</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C346">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D346">
-        <v>-24.76</v>
+        <v>-19.63</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44023</v>
+        <v>44054</v>
       </c>
       <c r="B347">
-        <v>96.92</v>
+        <v>91.53</v>
       </c>
       <c r="C347">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D347">
-        <v>-23.26</v>
+        <v>-19.81</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44024</v>
+        <v>44055</v>
       </c>
       <c r="B348">
-        <v>92.83</v>
+        <v>91.09</v>
       </c>
       <c r="C348">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D348">
-        <v>-26.49</v>
+        <v>-20.19</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44025</v>
+        <v>44056</v>
       </c>
       <c r="B349">
-        <v>92.44</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="C349">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D349">
-        <v>-26.8</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44026</v>
+        <v>44057</v>
       </c>
       <c r="B350">
-        <v>92.23999999999999</v>
+        <v>90.81</v>
       </c>
       <c r="C350">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D350">
-        <v>-26.96</v>
+        <v>-20.44</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44027</v>
+        <v>44058</v>
       </c>
       <c r="B351">
-        <v>93.34999999999999</v>
+        <v>104.66</v>
       </c>
       <c r="C351">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D351">
-        <v>-26.08</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44028</v>
+        <v>44059</v>
       </c>
       <c r="B352">
-        <v>93.40000000000001</v>
+        <v>156.16</v>
       </c>
       <c r="C352">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D352">
-        <v>-26.04</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44029</v>
+        <v>44060</v>
       </c>
       <c r="B353">
-        <v>92.79000000000001</v>
+        <v>161.25</v>
       </c>
       <c r="C353">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D353">
-        <v>-26.52</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44030</v>
+        <v>44061</v>
       </c>
       <c r="B354">
-        <v>92.98</v>
+        <v>184.96</v>
       </c>
       <c r="C354">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D354">
-        <v>-26.37</v>
+        <v>62.05</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44031</v>
+        <v>44062</v>
       </c>
       <c r="B355">
-        <v>91.90000000000001</v>
+        <v>218.26</v>
       </c>
       <c r="C355">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D355">
-        <v>-27.23</v>
+        <v>91.22</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44032</v>
+        <v>44063</v>
       </c>
       <c r="B356">
-        <v>91.73999999999999</v>
+        <v>243.69</v>
       </c>
       <c r="C356">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D356">
-        <v>-27.36</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44033</v>
+        <v>44064</v>
       </c>
       <c r="B357">
-        <v>92.34</v>
+        <v>267.82</v>
       </c>
       <c r="C357">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D357">
-        <v>-26.88</v>
+        <v>134.64</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44034</v>
+        <v>44065</v>
       </c>
       <c r="B358">
-        <v>92.19</v>
+        <v>265.49</v>
       </c>
       <c r="C358">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D358">
-        <v>-27</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44035</v>
+        <v>44066</v>
       </c>
       <c r="B359">
-        <v>92.06999999999999</v>
+        <v>246.9</v>
       </c>
       <c r="C359">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D359">
-        <v>-27.09</v>
+        <v>116.31</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B360">
-        <v>91.92</v>
+        <v>225.24</v>
       </c>
       <c r="C360">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D360">
-        <v>-27.21</v>
+        <v>97.34</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B361">
-        <v>91.86</v>
+        <v>198.15</v>
       </c>
       <c r="C361">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D361">
-        <v>-27.26</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B362">
-        <v>91.77</v>
+        <v>159.3</v>
       </c>
       <c r="C362">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D362">
-        <v>-27.33</v>
+        <v>39.57</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B363">
-        <v>91.2</v>
+        <v>133.88</v>
       </c>
       <c r="C363">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D363">
-        <v>-27.78</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B364">
-        <v>91</v>
+        <v>123.39</v>
       </c>
       <c r="C364">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D364">
-        <v>-27.94</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B365">
-        <v>107.57</v>
+        <v>115.97</v>
       </c>
       <c r="C365">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D365">
-        <v>-14.82</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B366">
-        <v>118.47</v>
+        <v>110.2</v>
       </c>
       <c r="C366">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D366">
-        <v>-6.19</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B367">
-        <v>133.49</v>
+        <v>107.03</v>
       </c>
       <c r="C367">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D367">
-        <v>5.71</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B368">
-        <v>118.64</v>
+        <v>106.62</v>
       </c>
       <c r="C368">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D368">
-        <v>3.94</v>
+        <v>-20.37</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B369">
-        <v>107.18</v>
+        <v>104.38</v>
       </c>
       <c r="C369">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D369">
-        <v>-6.1</v>
+        <v>-22.05</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B370">
-        <v>102.56</v>
+        <v>97.37</v>
       </c>
       <c r="C370">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D370">
-        <v>-10.14</v>
+        <v>-27.29</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B371">
-        <v>99.44</v>
+        <v>88.66</v>
       </c>
       <c r="C371">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D371">
-        <v>-12.88</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B372">
-        <v>96.78</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="C372">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D372">
-        <v>-15.21</v>
+        <v>-35.93</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>44049</v>
+        <v>44080</v>
       </c>
       <c r="B373">
-        <v>95.73999999999999</v>
+        <v>83.67</v>
       </c>
       <c r="C373">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D373">
-        <v>-16.12</v>
+        <v>-37.52</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>44050</v>
+        <v>44081</v>
       </c>
       <c r="B374">
-        <v>93.34</v>
+        <v>83.16</v>
       </c>
       <c r="C374">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D374">
-        <v>-18.22</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>44051</v>
+        <v>44082</v>
       </c>
       <c r="B375">
-        <v>92.55</v>
+        <v>82.08</v>
       </c>
       <c r="C375">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D375">
-        <v>-18.91</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B376">
-        <v>91.56</v>
-      </c>
-      <c r="C376">
-        <v>114.14</v>
-      </c>
-      <c r="D376">
-        <v>-19.78</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B377">
-        <v>91.73999999999999</v>
-      </c>
-      <c r="C377">
-        <v>114.14</v>
-      </c>
-      <c r="D377">
-        <v>-19.63</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B378">
-        <v>91.53</v>
-      </c>
-      <c r="C378">
-        <v>114.14</v>
-      </c>
-      <c r="D378">
-        <v>-19.81</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B379">
-        <v>91.09</v>
-      </c>
-      <c r="C379">
-        <v>114.14</v>
-      </c>
-      <c r="D379">
-        <v>-20.19</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B380">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="C380">
-        <v>114.14</v>
-      </c>
-      <c r="D380">
-        <v>-20.5</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B381">
-        <v>90.81</v>
-      </c>
-      <c r="C381">
-        <v>114.14</v>
-      </c>
-      <c r="D381">
-        <v>-20.44</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B382">
-        <v>104.66</v>
-      </c>
-      <c r="C382">
-        <v>114.14</v>
-      </c>
-      <c r="D382">
-        <v>-8.31</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B383">
-        <v>156.16</v>
-      </c>
-      <c r="C383">
-        <v>114.14</v>
-      </c>
-      <c r="D383">
-        <v>36.82</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B384">
-        <v>161.25</v>
-      </c>
-      <c r="C384">
-        <v>114.14</v>
-      </c>
-      <c r="D384">
-        <v>41.27</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B385">
-        <v>184.96</v>
-      </c>
-      <c r="C385">
-        <v>114.14</v>
-      </c>
-      <c r="D385">
-        <v>62.05</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B386">
-        <v>218.26</v>
-      </c>
-      <c r="C386">
-        <v>114.14</v>
-      </c>
-      <c r="D386">
-        <v>91.22</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B387">
-        <v>243.69</v>
-      </c>
-      <c r="C387">
-        <v>114.14</v>
-      </c>
-      <c r="D387">
-        <v>113.5</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B388">
-        <v>267.82</v>
-      </c>
-      <c r="C388">
-        <v>114.14</v>
-      </c>
-      <c r="D388">
-        <v>134.64</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B389">
-        <v>265.49</v>
-      </c>
-      <c r="C389">
-        <v>114.14</v>
-      </c>
-      <c r="D389">
-        <v>132.6</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B390">
-        <v>246.9</v>
-      </c>
-      <c r="C390">
-        <v>114.14</v>
-      </c>
-      <c r="D390">
-        <v>116.31</v>
+        <v>-38.7</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44082</v>
+        <v>44089</v>
       </c>
       <c r="B14">
-        <v>91.47</v>
+        <v>85.75</v>
       </c>
       <c r="C14">
         <v>133.91</v>
       </c>
       <c r="D14">
-        <v>-31.7</v>
+        <v>-35.96</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5868,6 +5868,104 @@
         <v>-38.7</v>
       </c>
     </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B376">
+        <v>80.54000000000001</v>
+      </c>
+      <c r="C376">
+        <v>133.91</v>
+      </c>
+      <c r="D376">
+        <v>-39.85</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B377">
+        <v>79.53</v>
+      </c>
+      <c r="C377">
+        <v>133.91</v>
+      </c>
+      <c r="D377">
+        <v>-40.61</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B378">
+        <v>79.73999999999999</v>
+      </c>
+      <c r="C378">
+        <v>133.91</v>
+      </c>
+      <c r="D378">
+        <v>-40.45</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B379">
+        <v>79.06999999999999</v>
+      </c>
+      <c r="C379">
+        <v>133.91</v>
+      </c>
+      <c r="D379">
+        <v>-40.95</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B380">
+        <v>78.67</v>
+      </c>
+      <c r="C380">
+        <v>133.91</v>
+      </c>
+      <c r="D380">
+        <v>-41.25</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B381">
+        <v>78.98</v>
+      </c>
+      <c r="C381">
+        <v>133.91</v>
+      </c>
+      <c r="D381">
+        <v>-41.02</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B382">
+        <v>78</v>
+      </c>
+      <c r="C382">
+        <v>133.91</v>
+      </c>
+      <c r="D382">
+        <v>-41.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44089</v>
+        <v>44095</v>
       </c>
       <c r="B14">
-        <v>85.75</v>
+        <v>83.31</v>
       </c>
       <c r="C14">
         <v>133.91</v>
       </c>
       <c r="D14">
-        <v>-35.96</v>
+        <v>-37.79</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5966,6 +5966,90 @@
         <v>-41.75</v>
       </c>
     </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B383">
+        <v>77.23</v>
+      </c>
+      <c r="C383">
+        <v>133.91</v>
+      </c>
+      <c r="D383">
+        <v>-42.33</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B384">
+        <v>77.15000000000001</v>
+      </c>
+      <c r="C384">
+        <v>133.91</v>
+      </c>
+      <c r="D384">
+        <v>-42.38</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B385">
+        <v>76.72</v>
+      </c>
+      <c r="C385">
+        <v>133.91</v>
+      </c>
+      <c r="D385">
+        <v>-42.71</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B386">
+        <v>76.58</v>
+      </c>
+      <c r="C386">
+        <v>133.91</v>
+      </c>
+      <c r="D386">
+        <v>-42.81</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B387">
+        <v>77.56</v>
+      </c>
+      <c r="C387">
+        <v>133.91</v>
+      </c>
+      <c r="D387">
+        <v>-42.08</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B388">
+        <v>78</v>
+      </c>
+      <c r="C388">
+        <v>133.91</v>
+      </c>
+      <c r="D388">
+        <v>-41.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B2">
-        <v>136.48</v>
+        <v>111.9</v>
       </c>
       <c r="C2">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D2">
-        <v>1.92</v>
+        <v>-26.27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B3">
-        <v>111.9</v>
+        <v>114.03</v>
       </c>
       <c r="C3">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D3">
-        <v>-26.27</v>
+        <v>-16.36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B4">
-        <v>114.03</v>
+        <v>101.02</v>
       </c>
       <c r="C4">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D4">
-        <v>-16.36</v>
+        <v>-22.85</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B5">
-        <v>101.02</v>
+        <v>100.1</v>
       </c>
       <c r="C5">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D5">
-        <v>-22.85</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B6">
-        <v>100.1</v>
+        <v>120.43</v>
       </c>
       <c r="C6">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D6">
-        <v>-33.79</v>
+        <v>-20.24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B7">
-        <v>120.43</v>
+        <v>96.11</v>
       </c>
       <c r="C7">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D7">
-        <v>-20.24</v>
+        <v>-32.26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B8">
-        <v>96.11</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="C8">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D8">
-        <v>-32.26</v>
+        <v>-24.84</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B9">
-        <v>90.43000000000001</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C9">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D9">
-        <v>-24.84</v>
+        <v>-29.06</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B10">
-        <v>92.48999999999999</v>
+        <v>105.48</v>
       </c>
       <c r="C10">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D10">
-        <v>-29.06</v>
+        <v>-32.98</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B11">
-        <v>105.48</v>
+        <v>99.67</v>
       </c>
       <c r="C11">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D11">
-        <v>-32.98</v>
+        <v>-21.07</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B12">
-        <v>99.67</v>
+        <v>141.16</v>
       </c>
       <c r="C12">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D12">
-        <v>-21.07</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B13">
-        <v>141.16</v>
+        <v>84.23</v>
       </c>
       <c r="C13">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D13">
-        <v>23.68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44095</v>
-      </c>
-      <c r="B14">
-        <v>83.31</v>
-      </c>
-      <c r="C14">
-        <v>133.91</v>
-      </c>
-      <c r="D14">
-        <v>-37.79</v>
+        <v>-37.1</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D388"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,1497 +620,1497 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B2">
-        <v>118.02</v>
+        <v>102.26</v>
       </c>
       <c r="C2">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D2">
-        <v>-11.86</v>
+        <v>-32.62</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43710</v>
+        <v>43740</v>
       </c>
       <c r="B3">
-        <v>177.54</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="C3">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D3">
-        <v>32.58</v>
+        <v>-34.76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43711</v>
+        <v>43741</v>
       </c>
       <c r="B4">
-        <v>170.98</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="C4">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D4">
-        <v>27.68</v>
+        <v>-37.74</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43712</v>
+        <v>43742</v>
       </c>
       <c r="B5">
-        <v>180.76</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="C5">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D5">
-        <v>34.99</v>
+        <v>-38.71</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43713</v>
+        <v>43743</v>
       </c>
       <c r="B6">
-        <v>176.99</v>
+        <v>91.91</v>
       </c>
       <c r="C6">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D6">
-        <v>32.17</v>
+        <v>-39.44</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43714</v>
+        <v>43744</v>
       </c>
       <c r="B7">
-        <v>141.46</v>
+        <v>97.17</v>
       </c>
       <c r="C7">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D7">
-        <v>5.64</v>
+        <v>-35.97</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43715</v>
+        <v>43745</v>
       </c>
       <c r="B8">
-        <v>122.1</v>
+        <v>124.24</v>
       </c>
       <c r="C8">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D8">
-        <v>-8.81</v>
+        <v>-18.13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43716</v>
+        <v>43746</v>
       </c>
       <c r="B9">
-        <v>113.23</v>
+        <v>137.02</v>
       </c>
       <c r="C9">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D9">
-        <v>-15.44</v>
+        <v>-9.710000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43717</v>
+        <v>43747</v>
       </c>
       <c r="B10">
-        <v>105.84</v>
+        <v>142.8</v>
       </c>
       <c r="C10">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D10">
-        <v>-20.96</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43718</v>
+        <v>43748</v>
       </c>
       <c r="B11">
-        <v>100.14</v>
+        <v>128.93</v>
       </c>
       <c r="C11">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D11">
-        <v>-25.22</v>
+        <v>-15.05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43719</v>
+        <v>43749</v>
       </c>
       <c r="B12">
-        <v>94.81999999999999</v>
+        <v>112.44</v>
       </c>
       <c r="C12">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D12">
-        <v>-29.19</v>
+        <v>-25.91</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43720</v>
+        <v>43750</v>
       </c>
       <c r="B13">
-        <v>91.11</v>
+        <v>102.36</v>
       </c>
       <c r="C13">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D13">
-        <v>-31.96</v>
+        <v>-32.55</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43721</v>
+        <v>43751</v>
       </c>
       <c r="B14">
-        <v>89.98999999999999</v>
+        <v>95.76000000000001</v>
       </c>
       <c r="C14">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D14">
-        <v>-32.8</v>
+        <v>-36.9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43722</v>
+        <v>43752</v>
       </c>
       <c r="B15">
-        <v>90.19</v>
+        <v>92.70999999999999</v>
       </c>
       <c r="C15">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D15">
-        <v>-32.65</v>
+        <v>-38.91</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43723</v>
+        <v>43753</v>
       </c>
       <c r="B16">
-        <v>89.04000000000001</v>
+        <v>112.39</v>
       </c>
       <c r="C16">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D16">
-        <v>-33.51</v>
+        <v>-25.95</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43724</v>
+        <v>43754</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>124.5</v>
       </c>
       <c r="C17">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D17">
-        <v>-34.28</v>
+        <v>-17.96</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43725</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
+        <v>43755</v>
+      </c>
+      <c r="B18">
+        <v>124.78</v>
       </c>
       <c r="C18">
-        <v>133.91</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
+        <v>151.76</v>
+      </c>
+      <c r="D18">
+        <v>-17.78</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43726</v>
+        <v>43756</v>
       </c>
       <c r="B19">
-        <v>89.34999999999999</v>
+        <v>114.72</v>
       </c>
       <c r="C19">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D19">
-        <v>-33.27</v>
+        <v>-24.41</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43727</v>
+        <v>43757</v>
       </c>
       <c r="B20">
-        <v>127.69</v>
+        <v>109.92</v>
       </c>
       <c r="C20">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D20">
-        <v>-4.65</v>
+        <v>-27.57</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43728</v>
+        <v>43758</v>
       </c>
       <c r="B21">
-        <v>202.48</v>
+        <v>111.91</v>
       </c>
       <c r="C21">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D21">
-        <v>51.21</v>
+        <v>-26.26</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43729</v>
+        <v>43759</v>
       </c>
       <c r="B22">
-        <v>208.42</v>
+        <v>121.47</v>
       </c>
       <c r="C22">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D22">
-        <v>55.64</v>
+        <v>-19.96</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43730</v>
+        <v>43760</v>
       </c>
       <c r="B23">
-        <v>226.21</v>
+        <v>114.56</v>
       </c>
       <c r="C23">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D23">
-        <v>68.93000000000001</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43731</v>
+        <v>43761</v>
       </c>
       <c r="B24">
-        <v>221.16</v>
+        <v>107.24</v>
       </c>
       <c r="C24">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D24">
-        <v>65.16</v>
+        <v>-29.34</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43732</v>
+        <v>43762</v>
       </c>
       <c r="B25">
-        <v>200.44</v>
+        <v>102.15</v>
       </c>
       <c r="C25">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D25">
-        <v>49.68</v>
+        <v>-32.69</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43733</v>
+        <v>43763</v>
       </c>
       <c r="B26">
-        <v>162.57</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="C26">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D26">
-        <v>21.41</v>
+        <v>-35.78</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43734</v>
+        <v>43764</v>
       </c>
       <c r="B27">
-        <v>130.58</v>
+        <v>105.41</v>
       </c>
       <c r="C27">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D27">
-        <v>-2.48</v>
+        <v>-30.54</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43735</v>
+        <v>43765</v>
       </c>
       <c r="B28">
-        <v>118.42</v>
+        <v>95.56</v>
       </c>
       <c r="C28">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D28">
-        <v>-11.57</v>
+        <v>-37.03</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43736</v>
+        <v>43766</v>
       </c>
       <c r="B29">
-        <v>111.35</v>
+        <v>147.7</v>
       </c>
       <c r="C29">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D29">
-        <v>-16.84</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43737</v>
+        <v>43767</v>
       </c>
       <c r="B30">
-        <v>105.62</v>
+        <v>131.47</v>
       </c>
       <c r="C30">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D30">
-        <v>-21.12</v>
+        <v>-13.37</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43738</v>
+        <v>43768</v>
       </c>
       <c r="B31">
-        <v>103.35</v>
+        <v>124.74</v>
       </c>
       <c r="C31">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D31">
-        <v>-22.82</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B32">
-        <v>102.26</v>
+        <v>108.71</v>
       </c>
       <c r="C32">
         <v>151.76</v>
       </c>
       <c r="D32">
-        <v>-32.62</v>
+        <v>-28.37</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43740</v>
+        <v>43770</v>
       </c>
       <c r="B33">
-        <v>99.01000000000001</v>
+        <v>100.41</v>
       </c>
       <c r="C33">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D33">
-        <v>-34.76</v>
+        <v>-26.35</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43741</v>
+        <v>43771</v>
       </c>
       <c r="B34">
-        <v>94.48999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C34">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D34">
-        <v>-37.74</v>
+        <v>-30.39</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43742</v>
+        <v>43772</v>
       </c>
       <c r="B35">
-        <v>93.01000000000001</v>
+        <v>92.91</v>
       </c>
       <c r="C35">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D35">
-        <v>-38.71</v>
+        <v>-31.85</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43743</v>
+        <v>43773</v>
       </c>
       <c r="B36">
-        <v>91.91</v>
+        <v>93.39</v>
       </c>
       <c r="C36">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D36">
-        <v>-39.44</v>
+        <v>-31.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43744</v>
+        <v>43774</v>
       </c>
       <c r="B37">
-        <v>97.17</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="C37">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D37">
-        <v>-35.97</v>
+        <v>-32.47</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43745</v>
+        <v>43775</v>
       </c>
       <c r="B38">
-        <v>124.24</v>
+        <v>91.55</v>
       </c>
       <c r="C38">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D38">
-        <v>-18.13</v>
+        <v>-32.85</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43746</v>
+        <v>43776</v>
       </c>
       <c r="B39">
-        <v>137.02</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="C39">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D39">
-        <v>-9.710000000000001</v>
+        <v>-30.45</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43747</v>
+        <v>43777</v>
       </c>
       <c r="B40">
-        <v>142.8</v>
+        <v>92.7</v>
       </c>
       <c r="C40">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D40">
-        <v>-5.9</v>
+        <v>-32.01</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43748</v>
+        <v>43778</v>
       </c>
       <c r="B41">
-        <v>128.93</v>
+        <v>92.03</v>
       </c>
       <c r="C41">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D41">
-        <v>-15.05</v>
+        <v>-32.5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43749</v>
+        <v>43779</v>
       </c>
       <c r="B42">
-        <v>112.44</v>
+        <v>132.96</v>
       </c>
       <c r="C42">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D42">
-        <v>-25.91</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43750</v>
+        <v>43780</v>
       </c>
       <c r="B43">
-        <v>102.36</v>
+        <v>140.71</v>
       </c>
       <c r="C43">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D43">
-        <v>-32.55</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43751</v>
+        <v>43781</v>
       </c>
       <c r="B44">
-        <v>95.76000000000001</v>
+        <v>158.71</v>
       </c>
       <c r="C44">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D44">
-        <v>-36.9</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43752</v>
+        <v>43782</v>
       </c>
       <c r="B45">
-        <v>92.70999999999999</v>
+        <v>163.12</v>
       </c>
       <c r="C45">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D45">
-        <v>-38.91</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43753</v>
+        <v>43783</v>
       </c>
       <c r="B46">
-        <v>112.39</v>
+        <v>153</v>
       </c>
       <c r="C46">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D46">
-        <v>-25.95</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43754</v>
+        <v>43784</v>
       </c>
       <c r="B47">
-        <v>124.5</v>
+        <v>136.72</v>
       </c>
       <c r="C47">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D47">
-        <v>-17.96</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43755</v>
+        <v>43785</v>
       </c>
       <c r="B48">
-        <v>124.78</v>
+        <v>121.33</v>
       </c>
       <c r="C48">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D48">
-        <v>-17.78</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43756</v>
+        <v>43786</v>
       </c>
       <c r="B49">
-        <v>114.72</v>
+        <v>109.91</v>
       </c>
       <c r="C49">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D49">
-        <v>-24.41</v>
+        <v>-19.38</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43757</v>
+        <v>43787</v>
       </c>
       <c r="B50">
-        <v>109.92</v>
+        <v>102.47</v>
       </c>
       <c r="C50">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D50">
-        <v>-27.57</v>
+        <v>-24.84</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43758</v>
+        <v>43788</v>
       </c>
       <c r="B51">
-        <v>111.91</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="C51">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D51">
-        <v>-26.26</v>
+        <v>-27.88</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43759</v>
+        <v>43789</v>
       </c>
       <c r="B52">
-        <v>121.47</v>
+        <v>93.05</v>
       </c>
       <c r="C52">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D52">
-        <v>-19.96</v>
+        <v>-31.75</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43760</v>
+        <v>43790</v>
       </c>
       <c r="B53">
-        <v>114.56</v>
+        <v>91.3</v>
       </c>
       <c r="C53">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D53">
-        <v>-24.51</v>
+        <v>-33.03</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43761</v>
-      </c>
-      <c r="B54">
-        <v>107.24</v>
+        <v>43791</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>151.76</v>
-      </c>
-      <c r="D54">
-        <v>-29.34</v>
+        <v>136.33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43762</v>
-      </c>
-      <c r="B55">
-        <v>102.15</v>
+        <v>43792</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>151.76</v>
-      </c>
-      <c r="D55">
-        <v>-32.69</v>
+        <v>136.33</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43763</v>
-      </c>
-      <c r="B56">
-        <v>97.45999999999999</v>
+        <v>43793</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>151.76</v>
-      </c>
-      <c r="D56">
-        <v>-35.78</v>
+        <v>136.33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43764</v>
+        <v>43794</v>
       </c>
       <c r="B57">
-        <v>105.41</v>
+        <v>92.14</v>
       </c>
       <c r="C57">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D57">
-        <v>-30.54</v>
+        <v>-32.42</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43765</v>
+        <v>43795</v>
       </c>
       <c r="B58">
-        <v>95.56</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="C58">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D58">
-        <v>-37.03</v>
+        <v>-31.65</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43766</v>
+        <v>43796</v>
       </c>
       <c r="B59">
-        <v>147.7</v>
+        <v>125.59</v>
       </c>
       <c r="C59">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D59">
-        <v>-2.68</v>
+        <v>-7.88</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43767</v>
+        <v>43797</v>
       </c>
       <c r="B60">
-        <v>131.47</v>
+        <v>138.59</v>
       </c>
       <c r="C60">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D60">
-        <v>-13.37</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43768</v>
+        <v>43798</v>
       </c>
       <c r="B61">
-        <v>124.74</v>
+        <v>140.59</v>
       </c>
       <c r="C61">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D61">
-        <v>-17.8</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B62">
-        <v>108.71</v>
+        <v>142.38</v>
       </c>
       <c r="C62">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D62">
-        <v>-28.37</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B63">
-        <v>100.41</v>
+        <v>124.58</v>
       </c>
       <c r="C63">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D63">
-        <v>-26.35</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43771</v>
+        <v>43801</v>
       </c>
       <c r="B64">
-        <v>94.90000000000001</v>
+        <v>120.64</v>
       </c>
       <c r="C64">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D64">
-        <v>-30.39</v>
+        <v>-7.87</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43772</v>
+        <v>43802</v>
       </c>
       <c r="B65">
-        <v>92.91</v>
+        <v>109.09</v>
       </c>
       <c r="C65">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D65">
-        <v>-31.85</v>
+        <v>-16.69</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43773</v>
+        <v>43803</v>
       </c>
       <c r="B66">
-        <v>93.39</v>
+        <v>103.35</v>
       </c>
       <c r="C66">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D66">
-        <v>-31.5</v>
+        <v>-21.07</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43774</v>
+        <v>43804</v>
       </c>
       <c r="B67">
-        <v>92.06999999999999</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="C67">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D67">
-        <v>-32.47</v>
+        <v>-23.66</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43775</v>
+        <v>43805</v>
       </c>
       <c r="B68">
-        <v>91.55</v>
+        <v>98.56</v>
       </c>
       <c r="C68">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D68">
-        <v>-32.85</v>
+        <v>-24.73</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43776</v>
+        <v>43806</v>
       </c>
       <c r="B69">
-        <v>94.81999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C69">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D69">
-        <v>-30.45</v>
+        <v>-27.22</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43777</v>
+        <v>43807</v>
       </c>
       <c r="B70">
-        <v>92.7</v>
+        <v>93.16</v>
       </c>
       <c r="C70">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D70">
-        <v>-32.01</v>
+        <v>-28.85</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43778</v>
+        <v>43808</v>
       </c>
       <c r="B71">
-        <v>92.03</v>
+        <v>91.53</v>
       </c>
       <c r="C71">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D71">
-        <v>-32.5</v>
+        <v>-30.1</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43779</v>
+        <v>43809</v>
       </c>
       <c r="B72">
-        <v>132.96</v>
+        <v>92.61</v>
       </c>
       <c r="C72">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D72">
-        <v>-2.48</v>
+        <v>-29.27</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43780</v>
-      </c>
-      <c r="B73">
-        <v>140.71</v>
+        <v>43810</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>136.33</v>
-      </c>
-      <c r="D73">
-        <v>3.21</v>
+        <v>130.94</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43781</v>
-      </c>
-      <c r="B74">
-        <v>158.71</v>
+        <v>43811</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>136.33</v>
-      </c>
-      <c r="D74">
-        <v>16.41</v>
+        <v>130.94</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43782</v>
-      </c>
-      <c r="B75">
-        <v>163.12</v>
+        <v>43812</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>136.33</v>
-      </c>
-      <c r="D75">
-        <v>19.65</v>
+        <v>130.94</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43783</v>
-      </c>
-      <c r="B76">
-        <v>153</v>
+        <v>43813</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>136.33</v>
-      </c>
-      <c r="D76">
-        <v>12.22</v>
+        <v>130.94</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43784</v>
-      </c>
-      <c r="B77">
-        <v>136.72</v>
+        <v>43814</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>136.33</v>
-      </c>
-      <c r="D77">
-        <v>0.28</v>
+        <v>130.94</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43785</v>
-      </c>
-      <c r="B78">
-        <v>121.33</v>
+        <v>43815</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>136.33</v>
-      </c>
-      <c r="D78">
-        <v>-11</v>
+        <v>130.94</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43786</v>
-      </c>
-      <c r="B79">
-        <v>109.91</v>
+        <v>43816</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>136.33</v>
-      </c>
-      <c r="D79">
-        <v>-19.38</v>
+        <v>130.94</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43787</v>
-      </c>
-      <c r="B80">
-        <v>102.47</v>
+        <v>43817</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>136.33</v>
-      </c>
-      <c r="D80">
-        <v>-24.84</v>
+        <v>130.94</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43788</v>
-      </c>
-      <c r="B81">
-        <v>98.31999999999999</v>
+        <v>43818</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>136.33</v>
-      </c>
-      <c r="D81">
-        <v>-27.88</v>
+        <v>130.94</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43789</v>
-      </c>
-      <c r="B82">
-        <v>93.05</v>
+        <v>43819</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>136.33</v>
-      </c>
-      <c r="D82">
-        <v>-31.75</v>
+        <v>130.94</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43790</v>
+        <v>43820</v>
       </c>
       <c r="B83">
-        <v>91.3</v>
+        <v>95.95</v>
       </c>
       <c r="C83">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D83">
-        <v>-33.03</v>
+        <v>-26.72</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43791</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
+        <v>43821</v>
+      </c>
+      <c r="B84">
+        <v>100.82</v>
       </c>
       <c r="C84">
-        <v>136.33</v>
-      </c>
-      <c r="D84" t="s">
-        <v>4</v>
+        <v>130.94</v>
+      </c>
+      <c r="D84">
+        <v>-23</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43792</v>
-      </c>
-      <c r="B85" t="s">
-        <v>4</v>
+        <v>43822</v>
+      </c>
+      <c r="B85">
+        <v>96.34999999999999</v>
       </c>
       <c r="C85">
-        <v>136.33</v>
-      </c>
-      <c r="D85" t="s">
-        <v>4</v>
+        <v>130.94</v>
+      </c>
+      <c r="D85">
+        <v>-26.42</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43793</v>
-      </c>
-      <c r="B86" t="s">
-        <v>4</v>
+        <v>43823</v>
+      </c>
+      <c r="B86">
+        <v>92.33</v>
       </c>
       <c r="C86">
-        <v>136.33</v>
-      </c>
-      <c r="D86" t="s">
-        <v>4</v>
+        <v>130.94</v>
+      </c>
+      <c r="D86">
+        <v>-29.49</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43794</v>
-      </c>
-      <c r="B87">
-        <v>92.14</v>
+        <v>43824</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>136.33</v>
-      </c>
-      <c r="D87">
-        <v>-32.42</v>
+        <v>130.94</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43795</v>
-      </c>
-      <c r="B88">
-        <v>93.18000000000001</v>
+        <v>43825</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>136.33</v>
-      </c>
-      <c r="D88">
-        <v>-31.65</v>
+        <v>130.94</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43796</v>
-      </c>
-      <c r="B89">
-        <v>125.59</v>
+        <v>43826</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>136.33</v>
-      </c>
-      <c r="D89">
-        <v>-7.88</v>
+        <v>130.94</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43797</v>
-      </c>
-      <c r="B90">
-        <v>138.59</v>
+        <v>43827</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>136.33</v>
-      </c>
-      <c r="D90">
-        <v>1.66</v>
+        <v>130.94</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43798</v>
-      </c>
-      <c r="B91">
-        <v>140.59</v>
+        <v>43828</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>136.33</v>
-      </c>
-      <c r="D91">
-        <v>3.12</v>
+        <v>130.94</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43799</v>
-      </c>
-      <c r="B92">
-        <v>142.38</v>
+        <v>43829</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>136.33</v>
-      </c>
-      <c r="D92">
-        <v>4.43</v>
+        <v>130.94</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B93">
-        <v>124.58</v>
+        <v>43830</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
       </c>
       <c r="C93">
         <v>130.94</v>
       </c>
-      <c r="D93">
-        <v>-4.86</v>
+      <c r="D93" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43801</v>
-      </c>
-      <c r="B94">
-        <v>120.64</v>
+        <v>43831</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>130.94</v>
-      </c>
-      <c r="D94">
-        <v>-7.87</v>
+        <v>151.18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43802</v>
+        <v>43832</v>
       </c>
       <c r="B95">
-        <v>109.09</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="C95">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D95">
-        <v>-16.69</v>
+        <v>-38.31</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43803</v>
-      </c>
-      <c r="B96">
-        <v>103.35</v>
+        <v>43833</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>130.94</v>
-      </c>
-      <c r="D96">
-        <v>-21.07</v>
+        <v>151.18</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43804</v>
-      </c>
-      <c r="B97">
-        <v>99.95999999999999</v>
+        <v>43834</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
       </c>
       <c r="C97">
-        <v>130.94</v>
-      </c>
-      <c r="D97">
-        <v>-23.66</v>
+        <v>151.18</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43805</v>
-      </c>
-      <c r="B98">
-        <v>98.56</v>
+        <v>43835</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>130.94</v>
-      </c>
-      <c r="D98">
-        <v>-24.73</v>
+        <v>151.18</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43806</v>
-      </c>
-      <c r="B99">
-        <v>95.3</v>
+        <v>43836</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>130.94</v>
-      </c>
-      <c r="D99">
-        <v>-27.22</v>
+        <v>151.18</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43807</v>
-      </c>
-      <c r="B100">
-        <v>93.16</v>
+        <v>43837</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
       </c>
       <c r="C100">
-        <v>130.94</v>
-      </c>
-      <c r="D100">
-        <v>-28.85</v>
+        <v>151.18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43808</v>
-      </c>
-      <c r="B101">
-        <v>91.53</v>
+        <v>43838</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>130.94</v>
-      </c>
-      <c r="D101">
-        <v>-30.1</v>
+        <v>151.18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43809</v>
-      </c>
-      <c r="B102">
-        <v>92.61</v>
+        <v>43839</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
       </c>
       <c r="C102">
-        <v>130.94</v>
-      </c>
-      <c r="D102">
-        <v>-29.27</v>
+        <v>151.18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43810</v>
-      </c>
-      <c r="B103" t="s">
-        <v>4</v>
+        <v>43840</v>
+      </c>
+      <c r="B103">
+        <v>100.18</v>
       </c>
       <c r="C103">
-        <v>130.94</v>
-      </c>
-      <c r="D103" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D103">
+        <v>-33.74</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43811</v>
-      </c>
-      <c r="B104" t="s">
-        <v>4</v>
+        <v>43841</v>
+      </c>
+      <c r="B104">
+        <v>108.03</v>
       </c>
       <c r="C104">
-        <v>130.94</v>
-      </c>
-      <c r="D104" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D104">
+        <v>-28.54</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43812</v>
-      </c>
-      <c r="B105" t="s">
-        <v>4</v>
+        <v>43842</v>
+      </c>
+      <c r="B105">
+        <v>106.69</v>
       </c>
       <c r="C105">
-        <v>130.94</v>
-      </c>
-      <c r="D105" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D105">
+        <v>-29.43</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43813</v>
-      </c>
-      <c r="B106" t="s">
-        <v>4</v>
+        <v>43843</v>
+      </c>
+      <c r="B106">
+        <v>104.32</v>
       </c>
       <c r="C106">
-        <v>130.94</v>
-      </c>
-      <c r="D106" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D106">
+        <v>-31</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43814</v>
-      </c>
-      <c r="B107" t="s">
-        <v>4</v>
+        <v>43844</v>
+      </c>
+      <c r="B107">
+        <v>96.81</v>
       </c>
       <c r="C107">
-        <v>130.94</v>
-      </c>
-      <c r="D107" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D107">
+        <v>-35.97</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43815</v>
+        <v>43845</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
       </c>
       <c r="C108">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D108" t="s">
         <v>4</v>
@@ -2132,125 +2118,125 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43816</v>
-      </c>
-      <c r="B109" t="s">
-        <v>4</v>
+        <v>43846</v>
+      </c>
+      <c r="B109">
+        <v>98</v>
       </c>
       <c r="C109">
-        <v>130.94</v>
-      </c>
-      <c r="D109" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D109">
+        <v>-35.18</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43817</v>
-      </c>
-      <c r="B110" t="s">
-        <v>4</v>
+        <v>43847</v>
+      </c>
+      <c r="B110">
+        <v>107.82</v>
       </c>
       <c r="C110">
-        <v>130.94</v>
-      </c>
-      <c r="D110" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D110">
+        <v>-28.68</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43818</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4</v>
+        <v>43848</v>
+      </c>
+      <c r="B111">
+        <v>94.09999999999999</v>
       </c>
       <c r="C111">
-        <v>130.94</v>
-      </c>
-      <c r="D111" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D111">
+        <v>-37.76</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43819</v>
-      </c>
-      <c r="B112" t="s">
-        <v>4</v>
+        <v>43849</v>
+      </c>
+      <c r="B112">
+        <v>91.8</v>
       </c>
       <c r="C112">
-        <v>130.94</v>
-      </c>
-      <c r="D112" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D112">
+        <v>-39.28</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43820</v>
-      </c>
-      <c r="B113">
-        <v>95.95</v>
+        <v>43850</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
       </c>
       <c r="C113">
-        <v>130.94</v>
-      </c>
-      <c r="D113">
-        <v>-26.72</v>
+        <v>151.18</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43821</v>
-      </c>
-      <c r="B114">
-        <v>100.82</v>
+        <v>43851</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>130.94</v>
-      </c>
-      <c r="D114">
-        <v>-23</v>
+        <v>151.18</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43822</v>
-      </c>
-      <c r="B115">
-        <v>96.34999999999999</v>
+        <v>43852</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
       </c>
       <c r="C115">
-        <v>130.94</v>
-      </c>
-      <c r="D115">
-        <v>-26.42</v>
+        <v>151.18</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43823</v>
-      </c>
-      <c r="B116">
-        <v>92.33</v>
+        <v>43853</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>130.94</v>
-      </c>
-      <c r="D116">
-        <v>-29.49</v>
+        <v>151.18</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43824</v>
+        <v>43854</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
       </c>
       <c r="C117">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
@@ -2258,13 +2244,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43825</v>
+        <v>43855</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
       </c>
       <c r="C118">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
@@ -2272,13 +2258,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43826</v>
+        <v>43856</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
       </c>
       <c r="C119">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
@@ -2286,13 +2272,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43827</v>
+        <v>43857</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
       </c>
       <c r="C120">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
@@ -2300,13 +2286,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43828</v>
+        <v>43858</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
       </c>
       <c r="C121">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
@@ -2314,13 +2300,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43829</v>
+        <v>43859</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
       <c r="C122">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D122" t="s">
         <v>4</v>
@@ -2328,13 +2314,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43830</v>
+        <v>43860</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
       </c>
       <c r="C123">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
@@ -2342,7 +2328,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
@@ -2356,27 +2342,27 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43832</v>
-      </c>
-      <c r="B125">
-        <v>93.26000000000001</v>
+        <v>43862</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
       </c>
       <c r="C125">
-        <v>151.18</v>
-      </c>
-      <c r="D125">
-        <v>-38.31</v>
+        <v>151</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43833</v>
+        <v>43863</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
       </c>
       <c r="C126">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
@@ -2384,13 +2370,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43834</v>
+        <v>43864</v>
       </c>
       <c r="B127" t="s">
         <v>4</v>
       </c>
       <c r="C127">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
@@ -2398,13 +2384,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43835</v>
+        <v>43865</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
       </c>
       <c r="C128">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
@@ -2412,13 +2398,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43836</v>
+        <v>43866</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
       </c>
       <c r="C129">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
@@ -2426,13 +2412,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43837</v>
+        <v>43867</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
       </c>
       <c r="C130">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D130" t="s">
         <v>4</v>
@@ -2440,13 +2426,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43838</v>
+        <v>43868</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
       </c>
       <c r="C131">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -2454,181 +2440,181 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43839</v>
-      </c>
-      <c r="B132" t="s">
-        <v>4</v>
+        <v>43869</v>
+      </c>
+      <c r="B132">
+        <v>95.06999999999999</v>
       </c>
       <c r="C132">
-        <v>151.18</v>
-      </c>
-      <c r="D132" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D132">
+        <v>-37.04</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43840</v>
+        <v>43870</v>
       </c>
       <c r="B133">
-        <v>100.18</v>
+        <v>107.25</v>
       </c>
       <c r="C133">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D133">
-        <v>-33.74</v>
+        <v>-28.97</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43841</v>
+        <v>43871</v>
       </c>
       <c r="B134">
-        <v>108.03</v>
+        <v>157.73</v>
       </c>
       <c r="C134">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D134">
-        <v>-28.54</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43842</v>
+        <v>43872</v>
       </c>
       <c r="B135">
-        <v>106.69</v>
+        <v>163</v>
       </c>
       <c r="C135">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D135">
-        <v>-29.43</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43843</v>
+        <v>43873</v>
       </c>
       <c r="B136">
-        <v>104.32</v>
+        <v>180.46</v>
       </c>
       <c r="C136">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D136">
-        <v>-31</v>
+        <v>19.51</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43844</v>
+        <v>43874</v>
       </c>
       <c r="B137">
-        <v>96.81</v>
+        <v>193.38</v>
       </c>
       <c r="C137">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D137">
-        <v>-35.97</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43845</v>
-      </c>
-      <c r="B138" t="s">
-        <v>4</v>
+        <v>43875</v>
+      </c>
+      <c r="B138">
+        <v>184.81</v>
       </c>
       <c r="C138">
-        <v>151.18</v>
-      </c>
-      <c r="D138" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D138">
+        <v>22.39</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43846</v>
+        <v>43876</v>
       </c>
       <c r="B139">
-        <v>98</v>
+        <v>139.85</v>
       </c>
       <c r="C139">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D139">
-        <v>-35.18</v>
+        <v>-7.38</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43847</v>
+        <v>43877</v>
       </c>
       <c r="B140">
-        <v>107.82</v>
+        <v>107.48</v>
       </c>
       <c r="C140">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D140">
-        <v>-28.68</v>
+        <v>-28.82</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43848</v>
+        <v>43878</v>
       </c>
       <c r="B141">
-        <v>94.09999999999999</v>
+        <v>97.72</v>
       </c>
       <c r="C141">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D141">
-        <v>-37.76</v>
+        <v>-35.29</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43849</v>
+        <v>43879</v>
       </c>
       <c r="B142">
-        <v>91.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C142">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D142">
-        <v>-39.28</v>
+        <v>-38.67</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43850</v>
-      </c>
-      <c r="B143" t="s">
-        <v>4</v>
+        <v>43880</v>
+      </c>
+      <c r="B143">
+        <v>89.17</v>
       </c>
       <c r="C143">
-        <v>151.18</v>
-      </c>
-      <c r="D143" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D143">
+        <v>-40.94</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43851</v>
+        <v>43881</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
       </c>
       <c r="C144">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D144" t="s">
         <v>4</v>
@@ -2636,13 +2622,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43852</v>
+        <v>43882</v>
       </c>
       <c r="B145" t="s">
         <v>4</v>
       </c>
       <c r="C145">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D145" t="s">
         <v>4</v>
@@ -2650,699 +2636,699 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43853</v>
-      </c>
-      <c r="B146" t="s">
-        <v>4</v>
+        <v>43883</v>
+      </c>
+      <c r="B146">
+        <v>90.01000000000001</v>
       </c>
       <c r="C146">
-        <v>151.18</v>
-      </c>
-      <c r="D146" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D146">
+        <v>-40.39</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43854</v>
-      </c>
-      <c r="B147" t="s">
-        <v>4</v>
+        <v>43884</v>
+      </c>
+      <c r="B147">
+        <v>89.8</v>
       </c>
       <c r="C147">
-        <v>151.18</v>
-      </c>
-      <c r="D147" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D147">
+        <v>-40.53</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43855</v>
-      </c>
-      <c r="B148" t="s">
-        <v>4</v>
+        <v>43885</v>
+      </c>
+      <c r="B148">
+        <v>90.06</v>
       </c>
       <c r="C148">
-        <v>151.18</v>
-      </c>
-      <c r="D148" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D148">
+        <v>-40.36</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43856</v>
-      </c>
-      <c r="B149" t="s">
-        <v>4</v>
+        <v>43886</v>
+      </c>
+      <c r="B149">
+        <v>91.17</v>
       </c>
       <c r="C149">
-        <v>151.18</v>
-      </c>
-      <c r="D149" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D149">
+        <v>-39.62</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43857</v>
-      </c>
-      <c r="B150" t="s">
-        <v>4</v>
+        <v>43887</v>
+      </c>
+      <c r="B150">
+        <v>100.46</v>
       </c>
       <c r="C150">
-        <v>151.18</v>
-      </c>
-      <c r="D150" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D150">
+        <v>-33.47</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43858</v>
-      </c>
-      <c r="B151" t="s">
-        <v>4</v>
+        <v>43888</v>
+      </c>
+      <c r="B151">
+        <v>115.43</v>
       </c>
       <c r="C151">
-        <v>151.18</v>
-      </c>
-      <c r="D151" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D151">
+        <v>-23.56</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43859</v>
-      </c>
-      <c r="B152" t="s">
-        <v>4</v>
+        <v>43889</v>
+      </c>
+      <c r="B152">
+        <v>115.79</v>
       </c>
       <c r="C152">
-        <v>151.18</v>
-      </c>
-      <c r="D152" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D152">
+        <v>-23.32</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43860</v>
-      </c>
-      <c r="B153" t="s">
-        <v>4</v>
+        <v>43890</v>
+      </c>
+      <c r="B153">
+        <v>107.41</v>
       </c>
       <c r="C153">
-        <v>151.18</v>
-      </c>
-      <c r="D153" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D153">
+        <v>-28.87</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43861</v>
-      </c>
-      <c r="B154" t="s">
-        <v>4</v>
+        <v>43891</v>
+      </c>
+      <c r="B154">
+        <v>100</v>
       </c>
       <c r="C154">
-        <v>151.18</v>
-      </c>
-      <c r="D154" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D154">
+        <v>-29.52</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B155" t="s">
-        <v>4</v>
+        <v>43892</v>
+      </c>
+      <c r="B155">
+        <v>96.15000000000001</v>
       </c>
       <c r="C155">
-        <v>151</v>
-      </c>
-      <c r="D155" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D155">
+        <v>-32.24</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43863</v>
-      </c>
-      <c r="B156" t="s">
-        <v>4</v>
+        <v>43893</v>
+      </c>
+      <c r="B156">
+        <v>95.79000000000001</v>
       </c>
       <c r="C156">
-        <v>151</v>
-      </c>
-      <c r="D156" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D156">
+        <v>-32.49</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43864</v>
-      </c>
-      <c r="B157" t="s">
-        <v>4</v>
+        <v>43894</v>
+      </c>
+      <c r="B157">
+        <v>103.34</v>
       </c>
       <c r="C157">
-        <v>151</v>
-      </c>
-      <c r="D157" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D157">
+        <v>-27.16</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43865</v>
-      </c>
-      <c r="B158" t="s">
-        <v>4</v>
+        <v>43895</v>
+      </c>
+      <c r="B158">
+        <v>110.47</v>
       </c>
       <c r="C158">
-        <v>151</v>
-      </c>
-      <c r="D158" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D158">
+        <v>-22.14</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43866</v>
-      </c>
-      <c r="B159" t="s">
-        <v>4</v>
+        <v>43896</v>
+      </c>
+      <c r="B159">
+        <v>104.58</v>
       </c>
       <c r="C159">
-        <v>151</v>
-      </c>
-      <c r="D159" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D159">
+        <v>-26.29</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43867</v>
-      </c>
-      <c r="B160" t="s">
-        <v>4</v>
+        <v>43897</v>
+      </c>
+      <c r="B160">
+        <v>99.18000000000001</v>
       </c>
       <c r="C160">
-        <v>151</v>
-      </c>
-      <c r="D160" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D160">
+        <v>-30.1</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43868</v>
-      </c>
-      <c r="B161" t="s">
-        <v>4</v>
+        <v>43898</v>
+      </c>
+      <c r="B161">
+        <v>93.73</v>
       </c>
       <c r="C161">
-        <v>151</v>
-      </c>
-      <c r="D161" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D161">
+        <v>-33.94</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43869</v>
+        <v>43899</v>
       </c>
       <c r="B162">
-        <v>95.06999999999999</v>
+        <v>91.45999999999999</v>
       </c>
       <c r="C162">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D162">
-        <v>-37.04</v>
+        <v>-35.54</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43870</v>
+        <v>43900</v>
       </c>
       <c r="B163">
-        <v>107.25</v>
+        <v>90.75</v>
       </c>
       <c r="C163">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D163">
-        <v>-28.97</v>
+        <v>-36.04</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43871</v>
+        <v>43901</v>
       </c>
       <c r="B164">
-        <v>157.73</v>
+        <v>89</v>
       </c>
       <c r="C164">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D164">
-        <v>4.46</v>
+        <v>-37.27</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43872</v>
-      </c>
-      <c r="B165">
-        <v>163</v>
+        <v>43902</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
       </c>
       <c r="C165">
-        <v>151</v>
-      </c>
-      <c r="D165">
-        <v>7.95</v>
+        <v>141.89</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43873</v>
-      </c>
-      <c r="B166">
-        <v>180.46</v>
+        <v>43903</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
       </c>
       <c r="C166">
-        <v>151</v>
-      </c>
-      <c r="D166">
-        <v>19.51</v>
+        <v>141.89</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43874</v>
-      </c>
-      <c r="B167">
-        <v>193.38</v>
+        <v>43904</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
       </c>
       <c r="C167">
-        <v>151</v>
-      </c>
-      <c r="D167">
-        <v>28.06</v>
+        <v>141.89</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43875</v>
-      </c>
-      <c r="B168">
-        <v>184.81</v>
+        <v>43905</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
       </c>
       <c r="C168">
-        <v>151</v>
-      </c>
-      <c r="D168">
-        <v>22.39</v>
+        <v>141.89</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43876</v>
-      </c>
-      <c r="B169">
-        <v>139.85</v>
+        <v>43906</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
       </c>
       <c r="C169">
-        <v>151</v>
-      </c>
-      <c r="D169">
-        <v>-7.38</v>
+        <v>141.89</v>
+      </c>
+      <c r="D169" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43877</v>
+        <v>43907</v>
       </c>
       <c r="B170">
-        <v>107.48</v>
+        <v>96.81</v>
       </c>
       <c r="C170">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D170">
-        <v>-28.82</v>
+        <v>-31.77</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43878</v>
+        <v>43908</v>
       </c>
       <c r="B171">
-        <v>97.72</v>
+        <v>95.77</v>
       </c>
       <c r="C171">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D171">
-        <v>-35.29</v>
+        <v>-32.5</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43879</v>
+        <v>43909</v>
       </c>
       <c r="B172">
-        <v>92.59999999999999</v>
+        <v>100.65</v>
       </c>
       <c r="C172">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D172">
-        <v>-38.67</v>
+        <v>-29.07</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43880</v>
+        <v>43910</v>
       </c>
       <c r="B173">
-        <v>89.17</v>
+        <v>97.25</v>
       </c>
       <c r="C173">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D173">
-        <v>-40.94</v>
+        <v>-31.46</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43881</v>
-      </c>
-      <c r="B174" t="s">
-        <v>4</v>
+        <v>43911</v>
+      </c>
+      <c r="B174">
+        <v>94.98</v>
       </c>
       <c r="C174">
-        <v>151</v>
-      </c>
-      <c r="D174" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D174">
+        <v>-33.06</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43882</v>
-      </c>
-      <c r="B175" t="s">
-        <v>4</v>
+        <v>43912</v>
+      </c>
+      <c r="B175">
+        <v>92.42</v>
       </c>
       <c r="C175">
-        <v>151</v>
-      </c>
-      <c r="D175" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D175">
+        <v>-34.87</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43883</v>
+        <v>43913</v>
       </c>
       <c r="B176">
-        <v>90.01000000000001</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="C176">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D176">
-        <v>-40.39</v>
+        <v>-36.27</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43884</v>
+        <v>43914</v>
       </c>
       <c r="B177">
-        <v>89.8</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="C177">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D177">
-        <v>-40.53</v>
+        <v>-36.77</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43885</v>
+        <v>43915</v>
       </c>
       <c r="B178">
-        <v>90.06</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="C178">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D178">
-        <v>-40.36</v>
+        <v>-36.78</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43886</v>
-      </c>
-      <c r="B179">
-        <v>91.17</v>
+        <v>43916</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
       </c>
       <c r="C179">
-        <v>151</v>
-      </c>
-      <c r="D179">
-        <v>-39.62</v>
+        <v>141.89</v>
+      </c>
+      <c r="D179" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43887</v>
-      </c>
-      <c r="B180">
-        <v>100.46</v>
+        <v>43917</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
       </c>
       <c r="C180">
-        <v>151</v>
-      </c>
-      <c r="D180">
-        <v>-33.47</v>
+        <v>141.89</v>
+      </c>
+      <c r="D180" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43888</v>
-      </c>
-      <c r="B181">
-        <v>115.43</v>
+        <v>43918</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
       </c>
       <c r="C181">
-        <v>151</v>
-      </c>
-      <c r="D181">
-        <v>-23.56</v>
+        <v>141.89</v>
+      </c>
+      <c r="D181" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43889</v>
-      </c>
-      <c r="B182">
-        <v>115.79</v>
+        <v>43919</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
       </c>
       <c r="C182">
-        <v>151</v>
-      </c>
-      <c r="D182">
-        <v>-23.32</v>
+        <v>141.89</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43890</v>
-      </c>
-      <c r="B183">
-        <v>107.41</v>
+        <v>43920</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4</v>
       </c>
       <c r="C183">
-        <v>151</v>
-      </c>
-      <c r="D183">
-        <v>-28.87</v>
+        <v>141.89</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43891</v>
-      </c>
-      <c r="B184">
-        <v>100</v>
+        <v>43921</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
       </c>
       <c r="C184">
         <v>141.89</v>
       </c>
-      <c r="D184">
-        <v>-29.52</v>
+      <c r="D184" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43892</v>
-      </c>
-      <c r="B185">
-        <v>96.15000000000001</v>
+        <v>43922</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
       </c>
       <c r="C185">
-        <v>141.89</v>
-      </c>
-      <c r="D185">
-        <v>-32.24</v>
+        <v>120.32</v>
+      </c>
+      <c r="D185" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43893</v>
-      </c>
-      <c r="B186">
-        <v>95.79000000000001</v>
+        <v>43923</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
       </c>
       <c r="C186">
-        <v>141.89</v>
-      </c>
-      <c r="D186">
-        <v>-32.49</v>
+        <v>120.32</v>
+      </c>
+      <c r="D186" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43894</v>
-      </c>
-      <c r="B187">
-        <v>103.34</v>
+        <v>43924</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
       </c>
       <c r="C187">
-        <v>141.89</v>
-      </c>
-      <c r="D187">
-        <v>-27.16</v>
+        <v>120.32</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43895</v>
+        <v>43925</v>
       </c>
       <c r="B188">
-        <v>110.47</v>
+        <v>89.44</v>
       </c>
       <c r="C188">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D188">
-        <v>-22.14</v>
+        <v>-25.66</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43896</v>
+        <v>43926</v>
       </c>
       <c r="B189">
-        <v>104.58</v>
+        <v>89.14</v>
       </c>
       <c r="C189">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D189">
-        <v>-26.29</v>
+        <v>-25.91</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43897</v>
-      </c>
-      <c r="B190">
-        <v>99.18000000000001</v>
+        <v>43927</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
       </c>
       <c r="C190">
-        <v>141.89</v>
-      </c>
-      <c r="D190">
-        <v>-30.1</v>
+        <v>120.32</v>
+      </c>
+      <c r="D190" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43898</v>
+        <v>43928</v>
       </c>
       <c r="B191">
-        <v>93.73</v>
+        <v>91.61</v>
       </c>
       <c r="C191">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D191">
-        <v>-33.94</v>
+        <v>-23.86</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43899</v>
-      </c>
-      <c r="B192">
-        <v>91.45999999999999</v>
+        <v>43929</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
       </c>
       <c r="C192">
-        <v>141.89</v>
-      </c>
-      <c r="D192">
-        <v>-35.54</v>
+        <v>120.32</v>
+      </c>
+      <c r="D192" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43900</v>
-      </c>
-      <c r="B193">
-        <v>90.75</v>
+        <v>43930</v>
+      </c>
+      <c r="B193" t="s">
+        <v>4</v>
       </c>
       <c r="C193">
-        <v>141.89</v>
-      </c>
-      <c r="D193">
-        <v>-36.04</v>
+        <v>120.32</v>
+      </c>
+      <c r="D193" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43901</v>
-      </c>
-      <c r="B194">
-        <v>89</v>
+        <v>43931</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
       </c>
       <c r="C194">
-        <v>141.89</v>
-      </c>
-      <c r="D194">
-        <v>-37.27</v>
+        <v>120.32</v>
+      </c>
+      <c r="D194" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43902</v>
+        <v>43932</v>
       </c>
       <c r="B195" t="s">
         <v>4</v>
       </c>
       <c r="C195">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D195" t="s">
         <v>4</v>
@@ -3350,27 +3336,27 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43903</v>
-      </c>
-      <c r="B196" t="s">
-        <v>4</v>
+        <v>43933</v>
+      </c>
+      <c r="B196">
+        <v>89</v>
       </c>
       <c r="C196">
-        <v>141.89</v>
-      </c>
-      <c r="D196" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D196">
+        <v>-26.03</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43904</v>
+        <v>43934</v>
       </c>
       <c r="B197" t="s">
         <v>4</v>
       </c>
       <c r="C197">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D197" t="s">
         <v>4</v>
@@ -3378,13 +3364,13 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43905</v>
+        <v>43935</v>
       </c>
       <c r="B198" t="s">
         <v>4</v>
       </c>
       <c r="C198">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D198" t="s">
         <v>4</v>
@@ -3392,153 +3378,153 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43906</v>
-      </c>
-      <c r="B199" t="s">
-        <v>4</v>
+        <v>43936</v>
+      </c>
+      <c r="B199">
+        <v>90.54000000000001</v>
       </c>
       <c r="C199">
-        <v>141.89</v>
-      </c>
-      <c r="D199" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D199">
+        <v>-24.75</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43907</v>
+        <v>43937</v>
       </c>
       <c r="B200">
-        <v>96.81</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="C200">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D200">
-        <v>-31.77</v>
+        <v>-23.34</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43908</v>
+        <v>43938</v>
       </c>
       <c r="B201">
-        <v>95.77</v>
+        <v>92.36</v>
       </c>
       <c r="C201">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D201">
-        <v>-32.5</v>
+        <v>-23.24</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43909</v>
+        <v>43939</v>
       </c>
       <c r="B202">
-        <v>100.65</v>
+        <v>90.77</v>
       </c>
       <c r="C202">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D202">
-        <v>-29.07</v>
+        <v>-24.56</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43910</v>
+        <v>43940</v>
       </c>
       <c r="B203">
-        <v>97.25</v>
+        <v>90.52</v>
       </c>
       <c r="C203">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D203">
-        <v>-31.46</v>
+        <v>-24.77</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43911</v>
+        <v>43941</v>
       </c>
       <c r="B204">
-        <v>94.98</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="C204">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D204">
-        <v>-33.06</v>
+        <v>-24.82</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43912</v>
+        <v>43942</v>
       </c>
       <c r="B205">
-        <v>92.42</v>
+        <v>89.98</v>
       </c>
       <c r="C205">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D205">
-        <v>-34.87</v>
+        <v>-25.21</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43913</v>
+        <v>43943</v>
       </c>
       <c r="B206">
-        <v>90.43000000000001</v>
+        <v>90.42</v>
       </c>
       <c r="C206">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D206">
-        <v>-36.27</v>
+        <v>-24.85</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43914</v>
+        <v>43944</v>
       </c>
       <c r="B207">
-        <v>89.70999999999999</v>
+        <v>91.53</v>
       </c>
       <c r="C207">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D207">
-        <v>-36.77</v>
+        <v>-23.93</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43915</v>
+        <v>43945</v>
       </c>
       <c r="B208">
-        <v>89.70999999999999</v>
+        <v>91.94</v>
       </c>
       <c r="C208">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D208">
-        <v>-36.78</v>
+        <v>-23.59</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43916</v>
+        <v>43946</v>
       </c>
       <c r="B209" t="s">
         <v>4</v>
       </c>
       <c r="C209">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
@@ -3546,83 +3532,83 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43917</v>
-      </c>
-      <c r="B210" t="s">
-        <v>4</v>
+        <v>43947</v>
+      </c>
+      <c r="B210">
+        <v>89.87</v>
       </c>
       <c r="C210">
-        <v>141.89</v>
-      </c>
-      <c r="D210" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D210">
+        <v>-25.31</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43918</v>
-      </c>
-      <c r="B211" t="s">
-        <v>4</v>
+        <v>43948</v>
+      </c>
+      <c r="B211">
+        <v>89.5</v>
       </c>
       <c r="C211">
-        <v>141.89</v>
-      </c>
-      <c r="D211" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D211">
+        <v>-25.62</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43919</v>
-      </c>
-      <c r="B212" t="s">
-        <v>4</v>
+        <v>43949</v>
+      </c>
+      <c r="B212">
+        <v>89.05</v>
       </c>
       <c r="C212">
-        <v>141.89</v>
-      </c>
-      <c r="D212" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D212">
+        <v>-25.99</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B213" t="s">
-        <v>4</v>
+        <v>43950</v>
+      </c>
+      <c r="B213">
+        <v>89.55</v>
       </c>
       <c r="C213">
-        <v>141.89</v>
-      </c>
-      <c r="D213" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D213">
+        <v>-25.58</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B214" t="s">
-        <v>4</v>
+        <v>43951</v>
+      </c>
+      <c r="B214">
+        <v>90.33</v>
       </c>
       <c r="C214">
-        <v>141.89</v>
-      </c>
-      <c r="D214" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D214">
+        <v>-24.92</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B215" t="s">
         <v>4</v>
       </c>
       <c r="C215">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D215" t="s">
         <v>4</v>
@@ -3630,2424 +3616,2130 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B216" t="s">
-        <v>4</v>
+        <v>43953</v>
+      </c>
+      <c r="B216">
+        <v>89.93000000000001</v>
       </c>
       <c r="C216">
-        <v>120.32</v>
-      </c>
-      <c r="D216" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D216">
+        <v>-31.02</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B217" t="s">
-        <v>4</v>
+        <v>43954</v>
+      </c>
+      <c r="B217">
+        <v>91.06999999999999</v>
       </c>
       <c r="C217">
-        <v>120.32</v>
-      </c>
-      <c r="D217" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D217">
+        <v>-30.15</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43925</v>
+        <v>43955</v>
       </c>
       <c r="B218">
-        <v>89.44</v>
+        <v>91.83</v>
       </c>
       <c r="C218">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D218">
-        <v>-25.66</v>
+        <v>-29.56</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43926</v>
+        <v>43956</v>
       </c>
       <c r="B219">
-        <v>89.14</v>
+        <v>91.88</v>
       </c>
       <c r="C219">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D219">
-        <v>-25.91</v>
+        <v>-29.52</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B220" t="s">
-        <v>4</v>
+        <v>43957</v>
+      </c>
+      <c r="B220">
+        <v>90.7</v>
       </c>
       <c r="C220">
-        <v>120.32</v>
-      </c>
-      <c r="D220" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D220">
+        <v>-30.43</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43928</v>
+        <v>43958</v>
       </c>
       <c r="B221">
-        <v>91.61</v>
+        <v>93.69</v>
       </c>
       <c r="C221">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D221">
-        <v>-23.86</v>
+        <v>-28.14</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43929</v>
-      </c>
-      <c r="B222" t="s">
-        <v>4</v>
+        <v>43959</v>
+      </c>
+      <c r="B222">
+        <v>92.98999999999999</v>
       </c>
       <c r="C222">
-        <v>120.32</v>
-      </c>
-      <c r="D222" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D222">
+        <v>-28.67</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43930</v>
-      </c>
-      <c r="B223" t="s">
-        <v>4</v>
+        <v>43960</v>
+      </c>
+      <c r="B223">
+        <v>92.23999999999999</v>
       </c>
       <c r="C223">
-        <v>120.32</v>
-      </c>
-      <c r="D223" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D223">
+        <v>-29.25</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43931</v>
-      </c>
-      <c r="B224" t="s">
-        <v>4</v>
+        <v>43961</v>
+      </c>
+      <c r="B224">
+        <v>91.56999999999999</v>
       </c>
       <c r="C224">
-        <v>120.32</v>
-      </c>
-      <c r="D224" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D224">
+        <v>-29.76</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43932</v>
-      </c>
-      <c r="B225" t="s">
-        <v>4</v>
+        <v>43962</v>
+      </c>
+      <c r="B225">
+        <v>92.48999999999999</v>
       </c>
       <c r="C225">
-        <v>120.32</v>
-      </c>
-      <c r="D225" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D225">
+        <v>-29.06</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43933</v>
+        <v>43963</v>
       </c>
       <c r="B226">
-        <v>89</v>
+        <v>91.98999999999999</v>
       </c>
       <c r="C226">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D226">
-        <v>-26.03</v>
+        <v>-29.44</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43934</v>
-      </c>
-      <c r="B227" t="s">
-        <v>4</v>
+        <v>43964</v>
+      </c>
+      <c r="B227">
+        <v>90.33</v>
       </c>
       <c r="C227">
-        <v>120.32</v>
-      </c>
-      <c r="D227" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D227">
+        <v>-30.71</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43935</v>
-      </c>
-      <c r="B228" t="s">
-        <v>4</v>
+        <v>43965</v>
+      </c>
+      <c r="B228">
+        <v>90.52</v>
       </c>
       <c r="C228">
-        <v>120.32</v>
-      </c>
-      <c r="D228" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D228">
+        <v>-30.56</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43936</v>
+        <v>43966</v>
       </c>
       <c r="B229">
-        <v>90.54000000000001</v>
+        <v>91.42</v>
       </c>
       <c r="C229">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D229">
-        <v>-24.75</v>
+        <v>-29.88</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43937</v>
+        <v>43967</v>
       </c>
       <c r="B230">
-        <v>92.23999999999999</v>
+        <v>92.16</v>
       </c>
       <c r="C230">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D230">
-        <v>-23.34</v>
+        <v>-29.31</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43938</v>
+        <v>43968</v>
       </c>
       <c r="B231">
-        <v>92.36</v>
+        <v>93.48</v>
       </c>
       <c r="C231">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D231">
-        <v>-23.24</v>
+        <v>-28.29</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43939</v>
+        <v>43969</v>
       </c>
       <c r="B232">
-        <v>90.77</v>
+        <v>93.51000000000001</v>
       </c>
       <c r="C232">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D232">
-        <v>-24.56</v>
+        <v>-28.28</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43940</v>
+        <v>43970</v>
       </c>
       <c r="B233">
-        <v>90.52</v>
+        <v>92.94</v>
       </c>
       <c r="C233">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D233">
-        <v>-24.77</v>
+        <v>-28.71</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43941</v>
+        <v>43971</v>
       </c>
       <c r="B234">
-        <v>90.45999999999999</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="C234">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D234">
-        <v>-24.82</v>
+        <v>-29.55</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43942</v>
+        <v>43972</v>
       </c>
       <c r="B235">
-        <v>89.98</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C235">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D235">
-        <v>-25.21</v>
+        <v>-30.36</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43943</v>
+        <v>43973</v>
       </c>
       <c r="B236">
-        <v>90.42</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="C236">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D236">
-        <v>-24.85</v>
+        <v>-30.76</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43944</v>
+        <v>43974</v>
       </c>
       <c r="B237">
-        <v>91.53</v>
+        <v>90.89</v>
       </c>
       <c r="C237">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D237">
-        <v>-23.93</v>
+        <v>-30.29</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43945</v>
+        <v>43975</v>
       </c>
       <c r="B238">
-        <v>91.94</v>
+        <v>92.44</v>
       </c>
       <c r="C238">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D238">
-        <v>-23.59</v>
+        <v>-29.09</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43946</v>
-      </c>
-      <c r="B239" t="s">
-        <v>4</v>
+        <v>43976</v>
+      </c>
+      <c r="B239">
+        <v>93.16</v>
       </c>
       <c r="C239">
-        <v>120.32</v>
-      </c>
-      <c r="D239" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D239">
+        <v>-28.54</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43947</v>
+        <v>43977</v>
       </c>
       <c r="B240">
-        <v>89.87</v>
+        <v>94.34</v>
       </c>
       <c r="C240">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D240">
-        <v>-25.31</v>
+        <v>-27.63</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43948</v>
+        <v>43978</v>
       </c>
       <c r="B241">
-        <v>89.5</v>
+        <v>95.11</v>
       </c>
       <c r="C241">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D241">
-        <v>-25.62</v>
+        <v>-27.05</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43949</v>
+        <v>43979</v>
       </c>
       <c r="B242">
-        <v>89.05</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C242">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D242">
-        <v>-25.99</v>
+        <v>-26.71</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43950</v>
+        <v>43980</v>
       </c>
       <c r="B243">
-        <v>89.55</v>
+        <v>95.20999999999999</v>
       </c>
       <c r="C243">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D243">
-        <v>-25.58</v>
+        <v>-26.97</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43951</v>
+        <v>43981</v>
       </c>
       <c r="B244">
-        <v>90.33</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="C244">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D244">
-        <v>-24.92</v>
+        <v>-26.91</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B245" t="s">
-        <v>4</v>
+        <v>43982</v>
+      </c>
+      <c r="B245">
+        <v>94.98</v>
       </c>
       <c r="C245">
         <v>130.37</v>
       </c>
-      <c r="D245" t="s">
-        <v>4</v>
+      <c r="D245">
+        <v>-27.15</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43953</v>
+        <v>43983</v>
       </c>
       <c r="B246">
-        <v>89.93000000000001</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="C246">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D246">
-        <v>-31.02</v>
+        <v>-41.26</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43954</v>
+        <v>43984</v>
       </c>
       <c r="B247">
-        <v>91.06999999999999</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="C247">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D247">
-        <v>-30.15</v>
+        <v>-41.03</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43955</v>
+        <v>43985</v>
       </c>
       <c r="B248">
-        <v>91.83</v>
+        <v>92.62</v>
       </c>
       <c r="C248">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D248">
-        <v>-29.56</v>
+        <v>-41.15</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43956</v>
+        <v>43986</v>
       </c>
       <c r="B249">
-        <v>91.88</v>
+        <v>92.27</v>
       </c>
       <c r="C249">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D249">
-        <v>-29.52</v>
+        <v>-41.38</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43957</v>
+        <v>43987</v>
       </c>
       <c r="B250">
-        <v>90.7</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C250">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D250">
-        <v>-30.43</v>
+        <v>-42.12</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43958</v>
+        <v>43988</v>
       </c>
       <c r="B251">
-        <v>93.69</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="C251">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D251">
-        <v>-28.14</v>
+        <v>-42.14</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43959</v>
+        <v>43989</v>
       </c>
       <c r="B252">
-        <v>92.98999999999999</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="C252">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D252">
-        <v>-28.67</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43960</v>
+        <v>43990</v>
       </c>
       <c r="B253">
-        <v>92.23999999999999</v>
+        <v>92.81</v>
       </c>
       <c r="C253">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D253">
-        <v>-29.25</v>
+        <v>-41.04</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43961</v>
+        <v>43991</v>
       </c>
       <c r="B254">
-        <v>91.56999999999999</v>
+        <v>93.44</v>
       </c>
       <c r="C254">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D254">
-        <v>-29.76</v>
+        <v>-40.63</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43962</v>
+        <v>43992</v>
       </c>
       <c r="B255">
-        <v>92.48999999999999</v>
+        <v>122.5</v>
       </c>
       <c r="C255">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D255">
-        <v>-29.06</v>
+        <v>-22.17</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43963</v>
+        <v>43993</v>
       </c>
       <c r="B256">
-        <v>91.98999999999999</v>
+        <v>155.84</v>
       </c>
       <c r="C256">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D256">
-        <v>-29.44</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43964</v>
+        <v>43994</v>
       </c>
       <c r="B257">
-        <v>90.33</v>
+        <v>159.99</v>
       </c>
       <c r="C257">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D257">
-        <v>-30.71</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43965</v>
+        <v>43995</v>
       </c>
       <c r="B258">
-        <v>90.52</v>
+        <v>161.1</v>
       </c>
       <c r="C258">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D258">
-        <v>-30.56</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43966</v>
+        <v>43996</v>
       </c>
       <c r="B259">
-        <v>91.42</v>
+        <v>134.36</v>
       </c>
       <c r="C259">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D259">
-        <v>-29.88</v>
+        <v>-14.63</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43967</v>
+        <v>43997</v>
       </c>
       <c r="B260">
-        <v>92.16</v>
+        <v>112.18</v>
       </c>
       <c r="C260">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D260">
-        <v>-29.31</v>
+        <v>-28.73</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43968</v>
+        <v>43998</v>
       </c>
       <c r="B261">
-        <v>93.48</v>
+        <v>104.49</v>
       </c>
       <c r="C261">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D261">
-        <v>-28.29</v>
+        <v>-33.61</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43969</v>
+        <v>43999</v>
       </c>
       <c r="B262">
-        <v>93.51000000000001</v>
+        <v>100.47</v>
       </c>
       <c r="C262">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D262">
-        <v>-28.28</v>
+        <v>-36.17</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>43970</v>
+        <v>44000</v>
       </c>
       <c r="B263">
-        <v>92.94</v>
+        <v>99.06</v>
       </c>
       <c r="C263">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D263">
-        <v>-28.71</v>
+        <v>-37.06</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>43971</v>
+        <v>44001</v>
       </c>
       <c r="B264">
-        <v>91.84999999999999</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="C264">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D264">
-        <v>-29.55</v>
+        <v>-40.28</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>43972</v>
+        <v>44002</v>
       </c>
       <c r="B265">
-        <v>90.79000000000001</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="C265">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D265">
-        <v>-30.36</v>
+        <v>-39.64</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>43973</v>
+        <v>44003</v>
       </c>
       <c r="B266">
-        <v>90.26000000000001</v>
+        <v>93.84</v>
       </c>
       <c r="C266">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D266">
-        <v>-30.76</v>
+        <v>-40.38</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>43974</v>
+        <v>44004</v>
       </c>
       <c r="B267">
-        <v>90.89</v>
+        <v>93.31</v>
       </c>
       <c r="C267">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D267">
-        <v>-30.29</v>
+        <v>-40.71</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>43975</v>
+        <v>44005</v>
       </c>
       <c r="B268">
-        <v>92.44</v>
+        <v>92.56</v>
       </c>
       <c r="C268">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D268">
-        <v>-29.09</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>43976</v>
+        <v>44006</v>
       </c>
       <c r="B269">
-        <v>93.16</v>
+        <v>92.73</v>
       </c>
       <c r="C269">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D269">
-        <v>-28.54</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>43977</v>
+        <v>44007</v>
       </c>
       <c r="B270">
-        <v>94.34</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="C270">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D270">
-        <v>-27.63</v>
+        <v>-41.36</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>43978</v>
+        <v>44008</v>
       </c>
       <c r="B271">
-        <v>95.11</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C271">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D271">
-        <v>-27.05</v>
+        <v>-39.3</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>43979</v>
+        <v>44009</v>
       </c>
       <c r="B272">
-        <v>95.54000000000001</v>
+        <v>103.75</v>
       </c>
       <c r="C272">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D272">
-        <v>-26.71</v>
+        <v>-34.08</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>43980</v>
+        <v>44010</v>
       </c>
       <c r="B273">
-        <v>95.20999999999999</v>
+        <v>109.07</v>
       </c>
       <c r="C273">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D273">
-        <v>-26.97</v>
+        <v>-30.7</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>43981</v>
+        <v>44011</v>
       </c>
       <c r="B274">
-        <v>95.29000000000001</v>
+        <v>113.61</v>
       </c>
       <c r="C274">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D274">
-        <v>-26.91</v>
+        <v>-27.82</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B275">
-        <v>94.98</v>
+        <v>107.47</v>
       </c>
       <c r="C275">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D275">
-        <v>-27.15</v>
+        <v>-31.72</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B276">
-        <v>92.45999999999999</v>
+        <v>124.12</v>
       </c>
       <c r="C276">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D276">
-        <v>-41.26</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B277">
-        <v>92.81999999999999</v>
+        <v>123.93</v>
       </c>
       <c r="C277">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D277">
-        <v>-41.03</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B278">
-        <v>92.62</v>
+        <v>117.51</v>
       </c>
       <c r="C278">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D278">
-        <v>-41.15</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B279">
-        <v>92.27</v>
+        <v>108.65</v>
       </c>
       <c r="C279">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D279">
-        <v>-41.38</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B280">
-        <v>91.09999999999999</v>
+        <v>103.79</v>
       </c>
       <c r="C280">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D280">
-        <v>-42.12</v>
+        <v>-17.81</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B281">
-        <v>91.06999999999999</v>
+        <v>100.84</v>
       </c>
       <c r="C281">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D281">
-        <v>-42.14</v>
+        <v>-20.15</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B282">
-        <v>92.73999999999999</v>
+        <v>98.69</v>
       </c>
       <c r="C282">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D282">
-        <v>-41.08</v>
+        <v>-21.85</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B283">
-        <v>92.81</v>
+        <v>97.45</v>
       </c>
       <c r="C283">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D283">
-        <v>-41.04</v>
+        <v>-22.83</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B284">
-        <v>93.44</v>
+        <v>95.33</v>
       </c>
       <c r="C284">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D284">
-        <v>-40.63</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B285">
-        <v>122.5</v>
+        <v>95.02</v>
       </c>
       <c r="C285">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D285">
-        <v>-22.17</v>
+        <v>-24.76</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B286">
-        <v>155.84</v>
+        <v>96.92</v>
       </c>
       <c r="C286">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D286">
-        <v>-0.99</v>
+        <v>-23.26</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B287">
-        <v>159.99</v>
+        <v>92.83</v>
       </c>
       <c r="C287">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D287">
-        <v>1.65</v>
+        <v>-26.49</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B288">
-        <v>161.1</v>
+        <v>92.44</v>
       </c>
       <c r="C288">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D288">
-        <v>2.36</v>
+        <v>-26.8</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B289">
-        <v>134.36</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="C289">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D289">
-        <v>-14.63</v>
+        <v>-26.96</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B290">
-        <v>112.18</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="C290">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D290">
-        <v>-28.73</v>
+        <v>-26.08</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B291">
-        <v>104.49</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C291">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D291">
-        <v>-33.61</v>
+        <v>-26.04</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B292">
-        <v>100.47</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="C292">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D292">
-        <v>-36.17</v>
+        <v>-26.52</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B293">
-        <v>99.06</v>
+        <v>92.98</v>
       </c>
       <c r="C293">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D293">
-        <v>-37.06</v>
+        <v>-26.37</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B294">
-        <v>93.98999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C294">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D294">
-        <v>-40.28</v>
+        <v>-27.23</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B295">
-        <v>95.01000000000001</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C295">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D295">
-        <v>-39.64</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B296">
-        <v>93.84</v>
+        <v>92.34</v>
       </c>
       <c r="C296">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D296">
-        <v>-40.38</v>
+        <v>-26.88</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B297">
-        <v>93.31</v>
+        <v>92.19</v>
       </c>
       <c r="C297">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D297">
-        <v>-40.71</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B298">
-        <v>92.56</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="C298">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D298">
-        <v>-41.19</v>
+        <v>-27.09</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B299">
-        <v>92.73</v>
+        <v>91.92</v>
       </c>
       <c r="C299">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D299">
-        <v>-41.08</v>
+        <v>-27.21</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B300">
-        <v>92.29000000000001</v>
+        <v>91.86</v>
       </c>
       <c r="C300">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D300">
-        <v>-41.36</v>
+        <v>-27.26</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B301">
-        <v>95.54000000000001</v>
+        <v>91.77</v>
       </c>
       <c r="C301">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D301">
-        <v>-39.3</v>
+        <v>-27.33</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B302">
-        <v>103.75</v>
+        <v>91.2</v>
       </c>
       <c r="C302">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D302">
-        <v>-34.08</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B303">
-        <v>109.07</v>
+        <v>91</v>
       </c>
       <c r="C303">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D303">
-        <v>-30.7</v>
+        <v>-27.94</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B304">
-        <v>113.61</v>
+        <v>107.57</v>
       </c>
       <c r="C304">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D304">
-        <v>-27.82</v>
+        <v>-14.82</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B305">
-        <v>107.47</v>
+        <v>118.47</v>
       </c>
       <c r="C305">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D305">
-        <v>-31.72</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B306">
-        <v>124.12</v>
+        <v>133.49</v>
       </c>
       <c r="C306">
         <v>126.28</v>
       </c>
       <c r="D306">
-        <v>-1.71</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B307">
-        <v>123.93</v>
+        <v>118.64</v>
       </c>
       <c r="C307">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D307">
-        <v>-1.87</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B308">
-        <v>117.51</v>
+        <v>107.18</v>
       </c>
       <c r="C308">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D308">
-        <v>-6.95</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B309">
-        <v>108.65</v>
+        <v>102.56</v>
       </c>
       <c r="C309">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D309">
-        <v>-13.97</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44017</v>
+        <v>44047</v>
       </c>
       <c r="B310">
-        <v>103.79</v>
+        <v>99.44</v>
       </c>
       <c r="C310">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D310">
-        <v>-17.81</v>
+        <v>-12.88</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44018</v>
+        <v>44048</v>
       </c>
       <c r="B311">
-        <v>100.84</v>
+        <v>96.78</v>
       </c>
       <c r="C311">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D311">
-        <v>-20.15</v>
+        <v>-15.21</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44019</v>
+        <v>44049</v>
       </c>
       <c r="B312">
-        <v>98.69</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="C312">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D312">
-        <v>-21.85</v>
+        <v>-16.12</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44020</v>
+        <v>44050</v>
       </c>
       <c r="B313">
-        <v>97.45</v>
+        <v>93.34</v>
       </c>
       <c r="C313">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D313">
-        <v>-22.83</v>
+        <v>-18.22</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44021</v>
+        <v>44051</v>
       </c>
       <c r="B314">
-        <v>95.33</v>
+        <v>92.55</v>
       </c>
       <c r="C314">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D314">
-        <v>-24.51</v>
+        <v>-18.91</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44022</v>
+        <v>44052</v>
       </c>
       <c r="B315">
-        <v>95.02</v>
+        <v>91.56</v>
       </c>
       <c r="C315">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D315">
-        <v>-24.76</v>
+        <v>-19.78</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44023</v>
+        <v>44053</v>
       </c>
       <c r="B316">
-        <v>96.92</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C316">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D316">
-        <v>-23.26</v>
+        <v>-19.63</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44024</v>
+        <v>44054</v>
       </c>
       <c r="B317">
-        <v>92.83</v>
+        <v>91.53</v>
       </c>
       <c r="C317">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D317">
-        <v>-26.49</v>
+        <v>-19.81</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44025</v>
+        <v>44055</v>
       </c>
       <c r="B318">
-        <v>92.44</v>
+        <v>91.09</v>
       </c>
       <c r="C318">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D318">
-        <v>-26.8</v>
+        <v>-20.19</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44026</v>
+        <v>44056</v>
       </c>
       <c r="B319">
-        <v>92.23999999999999</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="C319">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D319">
-        <v>-26.96</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44027</v>
+        <v>44057</v>
       </c>
       <c r="B320">
-        <v>93.34999999999999</v>
+        <v>90.81</v>
       </c>
       <c r="C320">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D320">
-        <v>-26.08</v>
+        <v>-20.44</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44028</v>
+        <v>44058</v>
       </c>
       <c r="B321">
-        <v>93.40000000000001</v>
+        <v>104.66</v>
       </c>
       <c r="C321">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D321">
-        <v>-26.04</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44029</v>
+        <v>44059</v>
       </c>
       <c r="B322">
-        <v>92.79000000000001</v>
+        <v>156.16</v>
       </c>
       <c r="C322">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D322">
-        <v>-26.52</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44030</v>
+        <v>44060</v>
       </c>
       <c r="B323">
-        <v>92.98</v>
+        <v>161.25</v>
       </c>
       <c r="C323">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D323">
-        <v>-26.37</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44031</v>
+        <v>44061</v>
       </c>
       <c r="B324">
-        <v>91.90000000000001</v>
+        <v>184.96</v>
       </c>
       <c r="C324">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D324">
-        <v>-27.23</v>
+        <v>62.05</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44032</v>
+        <v>44062</v>
       </c>
       <c r="B325">
-        <v>91.73999999999999</v>
+        <v>218.26</v>
       </c>
       <c r="C325">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D325">
-        <v>-27.36</v>
+        <v>91.22</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44033</v>
+        <v>44063</v>
       </c>
       <c r="B326">
-        <v>92.34</v>
+        <v>243.69</v>
       </c>
       <c r="C326">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D326">
-        <v>-26.88</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44034</v>
+        <v>44064</v>
       </c>
       <c r="B327">
-        <v>92.19</v>
+        <v>267.82</v>
       </c>
       <c r="C327">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D327">
-        <v>-27</v>
+        <v>134.64</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44035</v>
+        <v>44065</v>
       </c>
       <c r="B328">
-        <v>92.06999999999999</v>
+        <v>265.49</v>
       </c>
       <c r="C328">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D328">
-        <v>-27.09</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44036</v>
+        <v>44066</v>
       </c>
       <c r="B329">
-        <v>91.92</v>
+        <v>246.9</v>
       </c>
       <c r="C329">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D329">
-        <v>-27.21</v>
+        <v>116.31</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44037</v>
+        <v>44067</v>
       </c>
       <c r="B330">
-        <v>91.86</v>
+        <v>225.24</v>
       </c>
       <c r="C330">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D330">
-        <v>-27.26</v>
+        <v>97.34</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44038</v>
+        <v>44068</v>
       </c>
       <c r="B331">
-        <v>91.77</v>
+        <v>198.15</v>
       </c>
       <c r="C331">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D331">
-        <v>-27.33</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44039</v>
+        <v>44069</v>
       </c>
       <c r="B332">
-        <v>91.2</v>
+        <v>159.3</v>
       </c>
       <c r="C332">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D332">
-        <v>-27.78</v>
+        <v>39.57</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44040</v>
+        <v>44070</v>
       </c>
       <c r="B333">
-        <v>91</v>
+        <v>133.88</v>
       </c>
       <c r="C333">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D333">
-        <v>-27.94</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B334">
-        <v>107.57</v>
+        <v>123.39</v>
       </c>
       <c r="C334">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D334">
-        <v>-14.82</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B335">
-        <v>118.47</v>
+        <v>115.97</v>
       </c>
       <c r="C335">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D335">
-        <v>-6.19</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B336">
-        <v>133.49</v>
+        <v>110.2</v>
       </c>
       <c r="C336">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D336">
-        <v>5.71</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B337">
-        <v>118.64</v>
+        <v>107.03</v>
       </c>
       <c r="C337">
         <v>114.14</v>
       </c>
       <c r="D337">
-        <v>3.94</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B338">
-        <v>107.18</v>
+        <v>106.62</v>
       </c>
       <c r="C338">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D338">
-        <v>-6.1</v>
+        <v>-20.37</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B339">
-        <v>102.56</v>
+        <v>104.38</v>
       </c>
       <c r="C339">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D339">
-        <v>-10.14</v>
+        <v>-22.05</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44047</v>
+        <v>44077</v>
       </c>
       <c r="B340">
-        <v>99.44</v>
+        <v>97.37</v>
       </c>
       <c r="C340">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D340">
-        <v>-12.88</v>
+        <v>-27.29</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44048</v>
+        <v>44078</v>
       </c>
       <c r="B341">
-        <v>96.78</v>
+        <v>88.66</v>
       </c>
       <c r="C341">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D341">
-        <v>-15.21</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44049</v>
+        <v>44079</v>
       </c>
       <c r="B342">
-        <v>95.73999999999999</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="C342">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D342">
-        <v>-16.12</v>
+        <v>-35.93</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44050</v>
+        <v>44080</v>
       </c>
       <c r="B343">
-        <v>93.34</v>
+        <v>83.67</v>
       </c>
       <c r="C343">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D343">
-        <v>-18.22</v>
+        <v>-37.52</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44051</v>
+        <v>44081</v>
       </c>
       <c r="B344">
-        <v>92.55</v>
+        <v>83.16</v>
       </c>
       <c r="C344">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D344">
-        <v>-18.91</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44052</v>
+        <v>44082</v>
       </c>
       <c r="B345">
-        <v>91.56</v>
+        <v>82.08</v>
       </c>
       <c r="C345">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D345">
-        <v>-19.78</v>
+        <v>-38.7</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44053</v>
+        <v>44083</v>
       </c>
       <c r="B346">
-        <v>91.73999999999999</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="C346">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D346">
-        <v>-19.63</v>
+        <v>-39.85</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44054</v>
+        <v>44084</v>
       </c>
       <c r="B347">
-        <v>91.53</v>
+        <v>79.53</v>
       </c>
       <c r="C347">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D347">
-        <v>-19.81</v>
+        <v>-40.61</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44055</v>
+        <v>44085</v>
       </c>
       <c r="B348">
-        <v>91.09</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="C348">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D348">
-        <v>-20.19</v>
+        <v>-40.45</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44056</v>
+        <v>44086</v>
       </c>
       <c r="B349">
-        <v>90.73999999999999</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="C349">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D349">
-        <v>-20.5</v>
+        <v>-40.95</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44057</v>
+        <v>44087</v>
       </c>
       <c r="B350">
-        <v>90.81</v>
+        <v>78.67</v>
       </c>
       <c r="C350">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D350">
-        <v>-20.44</v>
+        <v>-41.25</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44058</v>
+        <v>44088</v>
       </c>
       <c r="B351">
-        <v>104.66</v>
+        <v>78.98</v>
       </c>
       <c r="C351">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D351">
-        <v>-8.31</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44059</v>
+        <v>44089</v>
       </c>
       <c r="B352">
-        <v>156.16</v>
+        <v>78</v>
       </c>
       <c r="C352">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D352">
-        <v>36.82</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44060</v>
+        <v>44090</v>
       </c>
       <c r="B353">
-        <v>161.25</v>
+        <v>77.23</v>
       </c>
       <c r="C353">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D353">
-        <v>41.27</v>
+        <v>-42.33</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44061</v>
+        <v>44091</v>
       </c>
       <c r="B354">
-        <v>184.96</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="C354">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D354">
-        <v>62.05</v>
+        <v>-42.38</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44062</v>
+        <v>44092</v>
       </c>
       <c r="B355">
-        <v>218.26</v>
+        <v>76.72</v>
       </c>
       <c r="C355">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D355">
-        <v>91.22</v>
+        <v>-42.71</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44063</v>
+        <v>44093</v>
       </c>
       <c r="B356">
-        <v>243.69</v>
+        <v>76.58</v>
       </c>
       <c r="C356">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D356">
-        <v>113.5</v>
+        <v>-42.81</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44064</v>
+        <v>44094</v>
       </c>
       <c r="B357">
-        <v>267.82</v>
+        <v>77.56</v>
       </c>
       <c r="C357">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D357">
-        <v>134.64</v>
+        <v>-42.08</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44065</v>
+        <v>44095</v>
       </c>
       <c r="B358">
-        <v>265.49</v>
+        <v>78</v>
       </c>
       <c r="C358">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D358">
-        <v>132.6</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44066</v>
+        <v>44096</v>
       </c>
       <c r="B359">
-        <v>246.9</v>
+        <v>78</v>
       </c>
       <c r="C359">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D359">
-        <v>116.31</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44067</v>
+        <v>44097</v>
       </c>
       <c r="B360">
-        <v>225.24</v>
+        <v>78.5</v>
       </c>
       <c r="C360">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D360">
-        <v>97.34</v>
+        <v>-41.38</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44068</v>
+        <v>44098</v>
       </c>
       <c r="B361">
-        <v>198.15</v>
+        <v>77.59</v>
       </c>
       <c r="C361">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D361">
-        <v>73.59999999999999</v>
+        <v>-42.05</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44069</v>
+        <v>44099</v>
       </c>
       <c r="B362">
-        <v>159.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C362">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D362">
-        <v>39.57</v>
+        <v>-42.2</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44070</v>
+        <v>44100</v>
       </c>
       <c r="B363">
-        <v>133.88</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="C363">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D363">
-        <v>17.29</v>
+        <v>-42.32</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B364">
-        <v>123.39</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C364">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D364">
-        <v>8.1</v>
+        <v>-42.76</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B365">
-        <v>115.97</v>
+        <v>95</v>
       </c>
       <c r="C365">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D365">
-        <v>1.6</v>
+        <v>-29.06</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B366">
-        <v>110.2</v>
+        <v>106</v>
       </c>
       <c r="C366">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D366">
-        <v>-3.45</v>
+        <v>-20.84</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B367">
-        <v>107.03</v>
+        <v>111.1</v>
       </c>
       <c r="C367">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D367">
-        <v>-6.23</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44075</v>
-      </c>
-      <c r="B368">
-        <v>106.62</v>
-      </c>
-      <c r="C368">
-        <v>133.91</v>
-      </c>
-      <c r="D368">
-        <v>-20.37</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44076</v>
-      </c>
-      <c r="B369">
-        <v>104.38</v>
-      </c>
-      <c r="C369">
-        <v>133.91</v>
-      </c>
-      <c r="D369">
-        <v>-22.05</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44077</v>
-      </c>
-      <c r="B370">
-        <v>97.37</v>
-      </c>
-      <c r="C370">
-        <v>133.91</v>
-      </c>
-      <c r="D370">
-        <v>-27.29</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44078</v>
-      </c>
-      <c r="B371">
-        <v>88.66</v>
-      </c>
-      <c r="C371">
-        <v>133.91</v>
-      </c>
-      <c r="D371">
-        <v>-33.79</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44079</v>
-      </c>
-      <c r="B372">
-        <v>85.79000000000001</v>
-      </c>
-      <c r="C372">
-        <v>133.91</v>
-      </c>
-      <c r="D372">
-        <v>-35.93</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44080</v>
-      </c>
-      <c r="B373">
-        <v>83.67</v>
-      </c>
-      <c r="C373">
-        <v>133.91</v>
-      </c>
-      <c r="D373">
-        <v>-37.52</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44081</v>
-      </c>
-      <c r="B374">
-        <v>83.16</v>
-      </c>
-      <c r="C374">
-        <v>133.91</v>
-      </c>
-      <c r="D374">
-        <v>-37.9</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44082</v>
-      </c>
-      <c r="B375">
-        <v>82.08</v>
-      </c>
-      <c r="C375">
-        <v>133.91</v>
-      </c>
-      <c r="D375">
-        <v>-38.7</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44083</v>
-      </c>
-      <c r="B376">
-        <v>80.54000000000001</v>
-      </c>
-      <c r="C376">
-        <v>133.91</v>
-      </c>
-      <c r="D376">
-        <v>-39.85</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44084</v>
-      </c>
-      <c r="B377">
-        <v>79.53</v>
-      </c>
-      <c r="C377">
-        <v>133.91</v>
-      </c>
-      <c r="D377">
-        <v>-40.61</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44085</v>
-      </c>
-      <c r="B378">
-        <v>79.73999999999999</v>
-      </c>
-      <c r="C378">
-        <v>133.91</v>
-      </c>
-      <c r="D378">
-        <v>-40.45</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44086</v>
-      </c>
-      <c r="B379">
-        <v>79.06999999999999</v>
-      </c>
-      <c r="C379">
-        <v>133.91</v>
-      </c>
-      <c r="D379">
-        <v>-40.95</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44087</v>
-      </c>
-      <c r="B380">
-        <v>78.67</v>
-      </c>
-      <c r="C380">
-        <v>133.91</v>
-      </c>
-      <c r="D380">
-        <v>-41.25</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44088</v>
-      </c>
-      <c r="B381">
-        <v>78.98</v>
-      </c>
-      <c r="C381">
-        <v>133.91</v>
-      </c>
-      <c r="D381">
-        <v>-41.02</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44089</v>
-      </c>
-      <c r="B382">
-        <v>78</v>
-      </c>
-      <c r="C382">
-        <v>133.91</v>
-      </c>
-      <c r="D382">
-        <v>-41.75</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44090</v>
-      </c>
-      <c r="B383">
-        <v>77.23</v>
-      </c>
-      <c r="C383">
-        <v>133.91</v>
-      </c>
-      <c r="D383">
-        <v>-42.33</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44091</v>
-      </c>
-      <c r="B384">
-        <v>77.15000000000001</v>
-      </c>
-      <c r="C384">
-        <v>133.91</v>
-      </c>
-      <c r="D384">
-        <v>-42.38</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44092</v>
-      </c>
-      <c r="B385">
-        <v>76.72</v>
-      </c>
-      <c r="C385">
-        <v>133.91</v>
-      </c>
-      <c r="D385">
-        <v>-42.71</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44093</v>
-      </c>
-      <c r="B386">
-        <v>76.58</v>
-      </c>
-      <c r="C386">
-        <v>133.91</v>
-      </c>
-      <c r="D386">
-        <v>-42.81</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44094</v>
-      </c>
-      <c r="B387">
-        <v>77.56</v>
-      </c>
-      <c r="C387">
-        <v>133.91</v>
-      </c>
-      <c r="D387">
-        <v>-42.08</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44095</v>
-      </c>
-      <c r="B388">
-        <v>78</v>
-      </c>
-      <c r="C388">
-        <v>133.91</v>
-      </c>
-      <c r="D388">
-        <v>-41.75</v>
+        <v>-17.03</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -586,6 +586,20 @@
         <v>-37.1</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B14">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="C14">
+        <v>151.76</v>
+      </c>
+      <c r="D14">
+        <v>-42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5742,6 +5756,146 @@
         <v>-17.03</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B368">
+        <v>102.21</v>
+      </c>
+      <c r="C368">
+        <v>151.76</v>
+      </c>
+      <c r="D368">
+        <v>-32.65</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B369">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="C369">
+        <v>151.76</v>
+      </c>
+      <c r="D369">
+        <v>-41.62</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B370">
+        <v>82.05</v>
+      </c>
+      <c r="C370">
+        <v>151.76</v>
+      </c>
+      <c r="D370">
+        <v>-45.93</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B371">
+        <v>80.59</v>
+      </c>
+      <c r="C371">
+        <v>151.76</v>
+      </c>
+      <c r="D371">
+        <v>-46.89</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B372">
+        <v>78.54000000000001</v>
+      </c>
+      <c r="C372">
+        <v>151.76</v>
+      </c>
+      <c r="D372">
+        <v>-48.25</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B373">
+        <v>77.26000000000001</v>
+      </c>
+      <c r="C373">
+        <v>151.76</v>
+      </c>
+      <c r="D373">
+        <v>-49.09</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44111</v>
+      </c>
+      <c r="B374">
+        <v>75.73</v>
+      </c>
+      <c r="C374">
+        <v>151.76</v>
+      </c>
+      <c r="D374">
+        <v>-50.1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B375">
+        <v>82.2</v>
+      </c>
+      <c r="C375">
+        <v>151.76</v>
+      </c>
+      <c r="D375">
+        <v>-45.84</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B376">
+        <v>98.48</v>
+      </c>
+      <c r="C376">
+        <v>151.76</v>
+      </c>
+      <c r="D376">
+        <v>-35.11</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B377">
+        <v>114.48</v>
+      </c>
+      <c r="C377">
+        <v>151.76</v>
+      </c>
+      <c r="D377">
+        <v>-24.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44114</v>
+        <v>44124</v>
       </c>
       <c r="B14">
-        <v>88.01000000000001</v>
+        <v>87.86</v>
       </c>
       <c r="C14">
         <v>151.76</v>
       </c>
       <c r="D14">
-        <v>-42</v>
+        <v>-42.11</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D377"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5896,6 +5896,146 @@
         <v>-24.57</v>
       </c>
     </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44115</v>
+      </c>
+      <c r="B378">
+        <v>117.85</v>
+      </c>
+      <c r="C378">
+        <v>151.76</v>
+      </c>
+      <c r="D378">
+        <v>-22.34</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B379">
+        <v>104.99</v>
+      </c>
+      <c r="C379">
+        <v>151.76</v>
+      </c>
+      <c r="D379">
+        <v>-30.82</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B380">
+        <v>91.83</v>
+      </c>
+      <c r="C380">
+        <v>151.76</v>
+      </c>
+      <c r="D380">
+        <v>-39.49</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B381">
+        <v>84.48999999999999</v>
+      </c>
+      <c r="C381">
+        <v>151.76</v>
+      </c>
+      <c r="D381">
+        <v>-44.33</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B382">
+        <v>81.75</v>
+      </c>
+      <c r="C382">
+        <v>151.76</v>
+      </c>
+      <c r="D382">
+        <v>-46.13</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B383">
+        <v>83.45999999999999</v>
+      </c>
+      <c r="C383">
+        <v>151.76</v>
+      </c>
+      <c r="D383">
+        <v>-45.01</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B384">
+        <v>80.34</v>
+      </c>
+      <c r="C384">
+        <v>151.76</v>
+      </c>
+      <c r="D384">
+        <v>-47.06</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B385">
+        <v>77.88</v>
+      </c>
+      <c r="C385">
+        <v>151.76</v>
+      </c>
+      <c r="D385">
+        <v>-48.69</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B386">
+        <v>77.76000000000001</v>
+      </c>
+      <c r="C386">
+        <v>151.76</v>
+      </c>
+      <c r="D386">
+        <v>-48.76</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B387">
+        <v>76.67</v>
+      </c>
+      <c r="C387">
+        <v>151.76</v>
+      </c>
+      <c r="D387">
+        <v>-49.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44124</v>
+        <v>44129</v>
       </c>
       <c r="B14">
-        <v>87.86</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="C14">
         <v>151.76</v>
       </c>
       <c r="D14">
-        <v>-42.11</v>
+        <v>-43.56</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -6036,6 +6036,76 @@
         <v>-49.48</v>
       </c>
     </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B388">
+        <v>76.34999999999999</v>
+      </c>
+      <c r="C388">
+        <v>151.76</v>
+      </c>
+      <c r="D388">
+        <v>-49.69</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B389">
+        <v>76.48999999999999</v>
+      </c>
+      <c r="C389">
+        <v>151.76</v>
+      </c>
+      <c r="D389">
+        <v>-49.6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B390">
+        <v>76.11</v>
+      </c>
+      <c r="C390">
+        <v>151.76</v>
+      </c>
+      <c r="D390">
+        <v>-49.85</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
+        <v>44128</v>
+      </c>
+      <c r="B391">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="C391">
+        <v>151.76</v>
+      </c>
+      <c r="D391">
+        <v>-49.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
+        <v>44129</v>
+      </c>
+      <c r="B392">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="C392">
+        <v>151.76</v>
+      </c>
+      <c r="D392">
+        <v>-48.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B2">
-        <v>111.9</v>
+        <v>114.03</v>
       </c>
       <c r="C2">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D2">
-        <v>-26.27</v>
+        <v>-16.36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B3">
-        <v>114.03</v>
+        <v>101.02</v>
       </c>
       <c r="C3">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D3">
-        <v>-16.36</v>
+        <v>-22.85</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B4">
-        <v>101.02</v>
+        <v>100.1</v>
       </c>
       <c r="C4">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D4">
-        <v>-22.85</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B5">
-        <v>100.1</v>
+        <v>120.43</v>
       </c>
       <c r="C5">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D5">
-        <v>-33.79</v>
+        <v>-20.24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B6">
-        <v>120.43</v>
+        <v>96.11</v>
       </c>
       <c r="C6">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D6">
-        <v>-20.24</v>
+        <v>-32.26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B7">
-        <v>96.11</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="C7">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D7">
-        <v>-32.26</v>
+        <v>-24.84</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B8">
-        <v>90.43000000000001</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C8">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D8">
-        <v>-24.84</v>
+        <v>-29.06</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B9">
-        <v>92.48999999999999</v>
+        <v>105.48</v>
       </c>
       <c r="C9">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D9">
-        <v>-29.06</v>
+        <v>-32.98</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B10">
-        <v>105.48</v>
+        <v>99.67</v>
       </c>
       <c r="C10">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D10">
-        <v>-32.98</v>
+        <v>-21.07</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B11">
-        <v>99.67</v>
+        <v>141.16</v>
       </c>
       <c r="C11">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D11">
-        <v>-21.07</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B12">
-        <v>141.16</v>
+        <v>84.23</v>
       </c>
       <c r="C12">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D12">
-        <v>23.68</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B13">
-        <v>84.23</v>
+        <v>84.25</v>
       </c>
       <c r="C13">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D13">
-        <v>-37.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B14">
-        <v>85.65000000000001</v>
-      </c>
-      <c r="C14">
-        <v>151.76</v>
-      </c>
-      <c r="D14">
-        <v>-43.56</v>
+        <v>-44.48</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,769 +620,769 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B2">
-        <v>102.26</v>
+        <v>100.41</v>
       </c>
       <c r="C2">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D2">
-        <v>-32.62</v>
+        <v>-26.35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43740</v>
+        <v>43771</v>
       </c>
       <c r="B3">
-        <v>99.01000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C3">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D3">
-        <v>-34.76</v>
+        <v>-30.39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43741</v>
+        <v>43772</v>
       </c>
       <c r="B4">
-        <v>94.48999999999999</v>
+        <v>92.91</v>
       </c>
       <c r="C4">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D4">
-        <v>-37.74</v>
+        <v>-31.85</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43742</v>
+        <v>43773</v>
       </c>
       <c r="B5">
-        <v>93.01000000000001</v>
+        <v>93.39</v>
       </c>
       <c r="C5">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D5">
-        <v>-38.71</v>
+        <v>-31.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43743</v>
+        <v>43774</v>
       </c>
       <c r="B6">
-        <v>91.91</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="C6">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D6">
-        <v>-39.44</v>
+        <v>-32.47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43744</v>
+        <v>43775</v>
       </c>
       <c r="B7">
-        <v>97.17</v>
+        <v>91.55</v>
       </c>
       <c r="C7">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D7">
-        <v>-35.97</v>
+        <v>-32.85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43745</v>
+        <v>43776</v>
       </c>
       <c r="B8">
-        <v>124.24</v>
+        <v>94.81999999999999</v>
       </c>
       <c r="C8">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D8">
-        <v>-18.13</v>
+        <v>-30.45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43746</v>
+        <v>43777</v>
       </c>
       <c r="B9">
-        <v>137.02</v>
+        <v>92.7</v>
       </c>
       <c r="C9">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D9">
-        <v>-9.710000000000001</v>
+        <v>-32.01</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43747</v>
+        <v>43778</v>
       </c>
       <c r="B10">
-        <v>142.8</v>
+        <v>92.03</v>
       </c>
       <c r="C10">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D10">
-        <v>-5.9</v>
+        <v>-32.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43748</v>
+        <v>43779</v>
       </c>
       <c r="B11">
-        <v>128.93</v>
+        <v>132.96</v>
       </c>
       <c r="C11">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D11">
-        <v>-15.05</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43749</v>
+        <v>43780</v>
       </c>
       <c r="B12">
-        <v>112.44</v>
+        <v>140.71</v>
       </c>
       <c r="C12">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D12">
-        <v>-25.91</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43750</v>
+        <v>43781</v>
       </c>
       <c r="B13">
-        <v>102.36</v>
+        <v>158.71</v>
       </c>
       <c r="C13">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D13">
-        <v>-32.55</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43751</v>
+        <v>43782</v>
       </c>
       <c r="B14">
-        <v>95.76000000000001</v>
+        <v>163.12</v>
       </c>
       <c r="C14">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D14">
-        <v>-36.9</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43752</v>
+        <v>43783</v>
       </c>
       <c r="B15">
-        <v>92.70999999999999</v>
+        <v>153</v>
       </c>
       <c r="C15">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D15">
-        <v>-38.91</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43753</v>
+        <v>43784</v>
       </c>
       <c r="B16">
-        <v>112.39</v>
+        <v>136.72</v>
       </c>
       <c r="C16">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D16">
-        <v>-25.95</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43754</v>
+        <v>43785</v>
       </c>
       <c r="B17">
-        <v>124.5</v>
+        <v>121.33</v>
       </c>
       <c r="C17">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D17">
-        <v>-17.96</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43755</v>
+        <v>43786</v>
       </c>
       <c r="B18">
-        <v>124.78</v>
+        <v>109.91</v>
       </c>
       <c r="C18">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D18">
-        <v>-17.78</v>
+        <v>-19.38</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43756</v>
+        <v>43787</v>
       </c>
       <c r="B19">
-        <v>114.72</v>
+        <v>102.47</v>
       </c>
       <c r="C19">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D19">
-        <v>-24.41</v>
+        <v>-24.84</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43757</v>
+        <v>43788</v>
       </c>
       <c r="B20">
-        <v>109.92</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="C20">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D20">
-        <v>-27.57</v>
+        <v>-27.88</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43758</v>
+        <v>43789</v>
       </c>
       <c r="B21">
-        <v>111.91</v>
+        <v>93.05</v>
       </c>
       <c r="C21">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D21">
-        <v>-26.26</v>
+        <v>-31.75</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43759</v>
+        <v>43790</v>
       </c>
       <c r="B22">
-        <v>121.47</v>
+        <v>91.3</v>
       </c>
       <c r="C22">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D22">
-        <v>-19.96</v>
+        <v>-33.03</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43760</v>
-      </c>
-      <c r="B23">
-        <v>114.56</v>
+        <v>43791</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>151.76</v>
-      </c>
-      <c r="D23">
-        <v>-24.51</v>
+        <v>136.33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43761</v>
-      </c>
-      <c r="B24">
-        <v>107.24</v>
+        <v>43792</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>151.76</v>
-      </c>
-      <c r="D24">
-        <v>-29.34</v>
+        <v>136.33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43762</v>
-      </c>
-      <c r="B25">
-        <v>102.15</v>
+        <v>43793</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>151.76</v>
-      </c>
-      <c r="D25">
-        <v>-32.69</v>
+        <v>136.33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43763</v>
+        <v>43794</v>
       </c>
       <c r="B26">
-        <v>97.45999999999999</v>
+        <v>92.14</v>
       </c>
       <c r="C26">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D26">
-        <v>-35.78</v>
+        <v>-32.42</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43764</v>
+        <v>43795</v>
       </c>
       <c r="B27">
-        <v>105.41</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="C27">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D27">
-        <v>-30.54</v>
+        <v>-31.65</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43765</v>
+        <v>43796</v>
       </c>
       <c r="B28">
-        <v>95.56</v>
+        <v>125.59</v>
       </c>
       <c r="C28">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D28">
-        <v>-37.03</v>
+        <v>-7.88</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43766</v>
+        <v>43797</v>
       </c>
       <c r="B29">
-        <v>147.7</v>
+        <v>138.59</v>
       </c>
       <c r="C29">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D29">
-        <v>-2.68</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43767</v>
+        <v>43798</v>
       </c>
       <c r="B30">
-        <v>131.47</v>
+        <v>140.59</v>
       </c>
       <c r="C30">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D30">
-        <v>-13.37</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43768</v>
+        <v>43799</v>
       </c>
       <c r="B31">
-        <v>124.74</v>
+        <v>142.38</v>
       </c>
       <c r="C31">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D31">
-        <v>-17.8</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43769</v>
+        <v>43800</v>
       </c>
       <c r="B32">
-        <v>108.71</v>
+        <v>124.58</v>
       </c>
       <c r="C32">
-        <v>151.76</v>
+        <v>130.94</v>
       </c>
       <c r="D32">
-        <v>-28.37</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43770</v>
+        <v>43801</v>
       </c>
       <c r="B33">
-        <v>100.41</v>
+        <v>120.64</v>
       </c>
       <c r="C33">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D33">
-        <v>-26.35</v>
+        <v>-7.87</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43771</v>
+        <v>43802</v>
       </c>
       <c r="B34">
-        <v>94.90000000000001</v>
+        <v>109.09</v>
       </c>
       <c r="C34">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D34">
-        <v>-30.39</v>
+        <v>-16.69</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43772</v>
+        <v>43803</v>
       </c>
       <c r="B35">
-        <v>92.91</v>
+        <v>103.35</v>
       </c>
       <c r="C35">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D35">
-        <v>-31.85</v>
+        <v>-21.07</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43773</v>
+        <v>43804</v>
       </c>
       <c r="B36">
-        <v>93.39</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="C36">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D36">
-        <v>-31.5</v>
+        <v>-23.66</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43774</v>
+        <v>43805</v>
       </c>
       <c r="B37">
-        <v>92.06999999999999</v>
+        <v>98.56</v>
       </c>
       <c r="C37">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D37">
-        <v>-32.47</v>
+        <v>-24.73</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43775</v>
+        <v>43806</v>
       </c>
       <c r="B38">
-        <v>91.55</v>
+        <v>95.3</v>
       </c>
       <c r="C38">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D38">
-        <v>-32.85</v>
+        <v>-27.22</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43776</v>
+        <v>43807</v>
       </c>
       <c r="B39">
-        <v>94.81999999999999</v>
+        <v>93.16</v>
       </c>
       <c r="C39">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D39">
-        <v>-30.45</v>
+        <v>-28.85</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43777</v>
+        <v>43808</v>
       </c>
       <c r="B40">
-        <v>92.7</v>
+        <v>91.53</v>
       </c>
       <c r="C40">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D40">
-        <v>-32.01</v>
+        <v>-30.1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43778</v>
+        <v>43809</v>
       </c>
       <c r="B41">
-        <v>92.03</v>
+        <v>92.61</v>
       </c>
       <c r="C41">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D41">
-        <v>-32.5</v>
+        <v>-29.27</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43779</v>
-      </c>
-      <c r="B42">
-        <v>132.96</v>
+        <v>43810</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>136.33</v>
-      </c>
-      <c r="D42">
-        <v>-2.48</v>
+        <v>130.94</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43780</v>
-      </c>
-      <c r="B43">
-        <v>140.71</v>
+        <v>43811</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>136.33</v>
-      </c>
-      <c r="D43">
-        <v>3.21</v>
+        <v>130.94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43781</v>
-      </c>
-      <c r="B44">
-        <v>158.71</v>
+        <v>43812</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>136.33</v>
-      </c>
-      <c r="D44">
-        <v>16.41</v>
+        <v>130.94</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43782</v>
-      </c>
-      <c r="B45">
-        <v>163.12</v>
+        <v>43813</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>136.33</v>
-      </c>
-      <c r="D45">
-        <v>19.65</v>
+        <v>130.94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43783</v>
-      </c>
-      <c r="B46">
-        <v>153</v>
+        <v>43814</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>136.33</v>
-      </c>
-      <c r="D46">
-        <v>12.22</v>
+        <v>130.94</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43784</v>
-      </c>
-      <c r="B47">
-        <v>136.72</v>
+        <v>43815</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>136.33</v>
-      </c>
-      <c r="D47">
-        <v>0.28</v>
+        <v>130.94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43785</v>
-      </c>
-      <c r="B48">
-        <v>121.33</v>
+        <v>43816</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>136.33</v>
-      </c>
-      <c r="D48">
-        <v>-11</v>
+        <v>130.94</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43786</v>
-      </c>
-      <c r="B49">
-        <v>109.91</v>
+        <v>43817</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>136.33</v>
-      </c>
-      <c r="D49">
-        <v>-19.38</v>
+        <v>130.94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43787</v>
-      </c>
-      <c r="B50">
-        <v>102.47</v>
+        <v>43818</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>136.33</v>
-      </c>
-      <c r="D50">
-        <v>-24.84</v>
+        <v>130.94</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43788</v>
-      </c>
-      <c r="B51">
-        <v>98.31999999999999</v>
+        <v>43819</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>136.33</v>
-      </c>
-      <c r="D51">
-        <v>-27.88</v>
+        <v>130.94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43789</v>
+        <v>43820</v>
       </c>
       <c r="B52">
-        <v>93.05</v>
+        <v>95.95</v>
       </c>
       <c r="C52">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D52">
-        <v>-31.75</v>
+        <v>-26.72</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43790</v>
+        <v>43821</v>
       </c>
       <c r="B53">
-        <v>91.3</v>
+        <v>100.82</v>
       </c>
       <c r="C53">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D53">
-        <v>-33.03</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43791</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
+        <v>43822</v>
+      </c>
+      <c r="B54">
+        <v>96.34999999999999</v>
       </c>
       <c r="C54">
-        <v>136.33</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4</v>
+        <v>130.94</v>
+      </c>
+      <c r="D54">
+        <v>-26.42</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43792</v>
-      </c>
-      <c r="B55" t="s">
-        <v>4</v>
+        <v>43823</v>
+      </c>
+      <c r="B55">
+        <v>92.33</v>
       </c>
       <c r="C55">
-        <v>136.33</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
+        <v>130.94</v>
+      </c>
+      <c r="D55">
+        <v>-29.49</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43793</v>
+        <v>43824</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -1404,293 +1390,293 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43794</v>
-      </c>
-      <c r="B57">
-        <v>92.14</v>
+        <v>43825</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>136.33</v>
-      </c>
-      <c r="D57">
-        <v>-32.42</v>
+        <v>130.94</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43795</v>
-      </c>
-      <c r="B58">
-        <v>93.18000000000001</v>
+        <v>43826</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>136.33</v>
-      </c>
-      <c r="D58">
-        <v>-31.65</v>
+        <v>130.94</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43796</v>
-      </c>
-      <c r="B59">
-        <v>125.59</v>
+        <v>43827</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>136.33</v>
-      </c>
-      <c r="D59">
-        <v>-7.88</v>
+        <v>130.94</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43797</v>
-      </c>
-      <c r="B60">
-        <v>138.59</v>
+        <v>43828</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>136.33</v>
-      </c>
-      <c r="D60">
-        <v>1.66</v>
+        <v>130.94</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43798</v>
-      </c>
-      <c r="B61">
-        <v>140.59</v>
+        <v>43829</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>136.33</v>
-      </c>
-      <c r="D61">
-        <v>3.12</v>
+        <v>130.94</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43799</v>
-      </c>
-      <c r="B62">
-        <v>142.38</v>
+        <v>43830</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>136.33</v>
-      </c>
-      <c r="D62">
-        <v>4.43</v>
+        <v>130.94</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B63">
-        <v>124.58</v>
+        <v>43831</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>130.94</v>
-      </c>
-      <c r="D63">
-        <v>-4.86</v>
+        <v>151.18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43801</v>
+        <v>43832</v>
       </c>
       <c r="B64">
-        <v>120.64</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="C64">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D64">
-        <v>-7.87</v>
+        <v>-38.31</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43802</v>
-      </c>
-      <c r="B65">
-        <v>109.09</v>
+        <v>43833</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
       </c>
       <c r="C65">
-        <v>130.94</v>
-      </c>
-      <c r="D65">
-        <v>-16.69</v>
+        <v>151.18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43803</v>
-      </c>
-      <c r="B66">
-        <v>103.35</v>
+        <v>43834</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>130.94</v>
-      </c>
-      <c r="D66">
-        <v>-21.07</v>
+        <v>151.18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43804</v>
-      </c>
-      <c r="B67">
-        <v>99.95999999999999</v>
+        <v>43835</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>130.94</v>
-      </c>
-      <c r="D67">
-        <v>-23.66</v>
+        <v>151.18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43805</v>
-      </c>
-      <c r="B68">
-        <v>98.56</v>
+        <v>43836</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>130.94</v>
-      </c>
-      <c r="D68">
-        <v>-24.73</v>
+        <v>151.18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43806</v>
-      </c>
-      <c r="B69">
-        <v>95.3</v>
+        <v>43837</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>130.94</v>
-      </c>
-      <c r="D69">
-        <v>-27.22</v>
+        <v>151.18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43807</v>
-      </c>
-      <c r="B70">
-        <v>93.16</v>
+        <v>43838</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>130.94</v>
-      </c>
-      <c r="D70">
-        <v>-28.85</v>
+        <v>151.18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43808</v>
-      </c>
-      <c r="B71">
-        <v>91.53</v>
+        <v>43839</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>130.94</v>
-      </c>
-      <c r="D71">
-        <v>-30.1</v>
+        <v>151.18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B72">
-        <v>92.61</v>
+        <v>100.18</v>
       </c>
       <c r="C72">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D72">
-        <v>-29.27</v>
+        <v>-33.74</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43810</v>
-      </c>
-      <c r="B73" t="s">
-        <v>4</v>
+        <v>43841</v>
+      </c>
+      <c r="B73">
+        <v>108.03</v>
       </c>
       <c r="C73">
-        <v>130.94</v>
-      </c>
-      <c r="D73" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D73">
+        <v>-28.54</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43811</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4</v>
+        <v>43842</v>
+      </c>
+      <c r="B74">
+        <v>106.69</v>
       </c>
       <c r="C74">
-        <v>130.94</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D74">
+        <v>-29.43</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43812</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
+        <v>43843</v>
+      </c>
+      <c r="B75">
+        <v>104.32</v>
       </c>
       <c r="C75">
-        <v>130.94</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D75">
+        <v>-31</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43813</v>
-      </c>
-      <c r="B76" t="s">
-        <v>4</v>
+        <v>43844</v>
+      </c>
+      <c r="B76">
+        <v>96.81</v>
       </c>
       <c r="C76">
-        <v>130.94</v>
-      </c>
-      <c r="D76" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D76">
+        <v>-35.97</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
       <c r="C77">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
@@ -1698,69 +1684,69 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43815</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4</v>
+        <v>43846</v>
+      </c>
+      <c r="B78">
+        <v>98</v>
       </c>
       <c r="C78">
-        <v>130.94</v>
-      </c>
-      <c r="D78" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D78">
+        <v>-35.18</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43816</v>
-      </c>
-      <c r="B79" t="s">
-        <v>4</v>
+        <v>43847</v>
+      </c>
+      <c r="B79">
+        <v>107.82</v>
       </c>
       <c r="C79">
-        <v>130.94</v>
-      </c>
-      <c r="D79" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D79">
+        <v>-28.68</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43817</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4</v>
+        <v>43848</v>
+      </c>
+      <c r="B80">
+        <v>94.09999999999999</v>
       </c>
       <c r="C80">
-        <v>130.94</v>
-      </c>
-      <c r="D80" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D80">
+        <v>-37.76</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43818</v>
-      </c>
-      <c r="B81" t="s">
-        <v>4</v>
+        <v>43849</v>
+      </c>
+      <c r="B81">
+        <v>91.8</v>
       </c>
       <c r="C81">
-        <v>130.94</v>
-      </c>
-      <c r="D81" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D81">
+        <v>-39.28</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43819</v>
+        <v>43850</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="C82">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
@@ -1768,69 +1754,69 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43820</v>
-      </c>
-      <c r="B83">
-        <v>95.95</v>
+        <v>43851</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>130.94</v>
-      </c>
-      <c r="D83">
-        <v>-26.72</v>
+        <v>151.18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43821</v>
-      </c>
-      <c r="B84">
-        <v>100.82</v>
+        <v>43852</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>130.94</v>
-      </c>
-      <c r="D84">
-        <v>-23</v>
+        <v>151.18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43822</v>
-      </c>
-      <c r="B85">
-        <v>96.34999999999999</v>
+        <v>43853</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>130.94</v>
-      </c>
-      <c r="D85">
-        <v>-26.42</v>
+        <v>151.18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43823</v>
-      </c>
-      <c r="B86">
-        <v>92.33</v>
+        <v>43854</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>130.94</v>
-      </c>
-      <c r="D86">
-        <v>-29.49</v>
+        <v>151.18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43824</v>
+        <v>43855</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
       <c r="C87">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -1838,13 +1824,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43825</v>
+        <v>43856</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
       </c>
       <c r="C88">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -1852,13 +1838,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43826</v>
+        <v>43857</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
       </c>
       <c r="C89">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
@@ -1866,13 +1852,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43827</v>
+        <v>43858</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
       </c>
       <c r="C90">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -1880,13 +1866,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43828</v>
+        <v>43859</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
       </c>
       <c r="C91">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -1894,13 +1880,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43829</v>
+        <v>43860</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
       <c r="C92">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
@@ -1908,13 +1894,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
       </c>
       <c r="C93">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -1922,13 +1908,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
       </c>
       <c r="C94">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -1936,27 +1922,27 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43832</v>
-      </c>
-      <c r="B95">
-        <v>93.26000000000001</v>
+        <v>43863</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>151.18</v>
-      </c>
-      <c r="D95">
-        <v>-38.31</v>
+        <v>151</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
       </c>
       <c r="C96">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
@@ -1964,13 +1950,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
       </c>
       <c r="C97">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
@@ -1978,13 +1964,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
       <c r="C98">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
@@ -1992,13 +1978,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B99" t="s">
         <v>4</v>
       </c>
       <c r="C99">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
@@ -2006,13 +1992,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
       </c>
       <c r="C100">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
@@ -2020,181 +2006,181 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43838</v>
-      </c>
-      <c r="B101" t="s">
-        <v>4</v>
+        <v>43869</v>
+      </c>
+      <c r="B101">
+        <v>95.06999999999999</v>
       </c>
       <c r="C101">
-        <v>151.18</v>
-      </c>
-      <c r="D101" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D101">
+        <v>-37.04</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43839</v>
-      </c>
-      <c r="B102" t="s">
-        <v>4</v>
+        <v>43870</v>
+      </c>
+      <c r="B102">
+        <v>107.25</v>
       </c>
       <c r="C102">
-        <v>151.18</v>
-      </c>
-      <c r="D102" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D102">
+        <v>-28.97</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B103">
-        <v>100.18</v>
+        <v>157.73</v>
       </c>
       <c r="C103">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D103">
-        <v>-33.74</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B104">
-        <v>108.03</v>
+        <v>163</v>
       </c>
       <c r="C104">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D104">
-        <v>-28.54</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B105">
-        <v>106.69</v>
+        <v>180.46</v>
       </c>
       <c r="C105">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D105">
-        <v>-29.43</v>
+        <v>19.51</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B106">
-        <v>104.32</v>
+        <v>193.38</v>
       </c>
       <c r="C106">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D106">
-        <v>-31</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B107">
-        <v>96.81</v>
+        <v>184.81</v>
       </c>
       <c r="C107">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D107">
-        <v>-35.97</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43845</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
+        <v>43876</v>
+      </c>
+      <c r="B108">
+        <v>139.85</v>
       </c>
       <c r="C108">
-        <v>151.18</v>
-      </c>
-      <c r="D108" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D108">
+        <v>-7.38</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B109">
-        <v>98</v>
+        <v>107.48</v>
       </c>
       <c r="C109">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D109">
-        <v>-35.18</v>
+        <v>-28.82</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B110">
-        <v>107.82</v>
+        <v>97.72</v>
       </c>
       <c r="C110">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D110">
-        <v>-28.68</v>
+        <v>-35.29</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B111">
-        <v>94.09999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C111">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D111">
-        <v>-37.76</v>
+        <v>-38.67</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B112">
-        <v>91.8</v>
+        <v>89.17</v>
       </c>
       <c r="C112">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D112">
-        <v>-39.28</v>
+        <v>-40.94</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
       </c>
       <c r="C113">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D113" t="s">
         <v>4</v>
@@ -2202,13 +2188,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
       </c>
       <c r="C114">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
@@ -2216,727 +2202,727 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43852</v>
-      </c>
-      <c r="B115" t="s">
-        <v>4</v>
+        <v>43883</v>
+      </c>
+      <c r="B115">
+        <v>90.01000000000001</v>
       </c>
       <c r="C115">
-        <v>151.18</v>
-      </c>
-      <c r="D115" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D115">
+        <v>-40.39</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43853</v>
-      </c>
-      <c r="B116" t="s">
-        <v>4</v>
+        <v>43884</v>
+      </c>
+      <c r="B116">
+        <v>89.8</v>
       </c>
       <c r="C116">
-        <v>151.18</v>
-      </c>
-      <c r="D116" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D116">
+        <v>-40.53</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43854</v>
-      </c>
-      <c r="B117" t="s">
-        <v>4</v>
+        <v>43885</v>
+      </c>
+      <c r="B117">
+        <v>90.06</v>
       </c>
       <c r="C117">
-        <v>151.18</v>
-      </c>
-      <c r="D117" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D117">
+        <v>-40.36</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43855</v>
-      </c>
-      <c r="B118" t="s">
-        <v>4</v>
+        <v>43886</v>
+      </c>
+      <c r="B118">
+        <v>91.17</v>
       </c>
       <c r="C118">
-        <v>151.18</v>
-      </c>
-      <c r="D118" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D118">
+        <v>-39.62</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43856</v>
-      </c>
-      <c r="B119" t="s">
-        <v>4</v>
+        <v>43887</v>
+      </c>
+      <c r="B119">
+        <v>100.46</v>
       </c>
       <c r="C119">
-        <v>151.18</v>
-      </c>
-      <c r="D119" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D119">
+        <v>-33.47</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43857</v>
-      </c>
-      <c r="B120" t="s">
-        <v>4</v>
+        <v>43888</v>
+      </c>
+      <c r="B120">
+        <v>115.43</v>
       </c>
       <c r="C120">
-        <v>151.18</v>
-      </c>
-      <c r="D120" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D120">
+        <v>-23.56</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43858</v>
-      </c>
-      <c r="B121" t="s">
-        <v>4</v>
+        <v>43889</v>
+      </c>
+      <c r="B121">
+        <v>115.79</v>
       </c>
       <c r="C121">
-        <v>151.18</v>
-      </c>
-      <c r="D121" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D121">
+        <v>-23.32</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43859</v>
-      </c>
-      <c r="B122" t="s">
-        <v>4</v>
+        <v>43890</v>
+      </c>
+      <c r="B122">
+        <v>107.41</v>
       </c>
       <c r="C122">
-        <v>151.18</v>
-      </c>
-      <c r="D122" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D122">
+        <v>-28.87</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43860</v>
-      </c>
-      <c r="B123" t="s">
-        <v>4</v>
+        <v>43891</v>
+      </c>
+      <c r="B123">
+        <v>100</v>
       </c>
       <c r="C123">
-        <v>151.18</v>
-      </c>
-      <c r="D123" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D123">
+        <v>-29.52</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43861</v>
-      </c>
-      <c r="B124" t="s">
-        <v>4</v>
+        <v>43892</v>
+      </c>
+      <c r="B124">
+        <v>96.15000000000001</v>
       </c>
       <c r="C124">
-        <v>151.18</v>
-      </c>
-      <c r="D124" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D124">
+        <v>-32.24</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B125" t="s">
-        <v>4</v>
+        <v>43893</v>
+      </c>
+      <c r="B125">
+        <v>95.79000000000001</v>
       </c>
       <c r="C125">
-        <v>151</v>
-      </c>
-      <c r="D125" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D125">
+        <v>-32.49</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43863</v>
-      </c>
-      <c r="B126" t="s">
-        <v>4</v>
+        <v>43894</v>
+      </c>
+      <c r="B126">
+        <v>103.34</v>
       </c>
       <c r="C126">
-        <v>151</v>
-      </c>
-      <c r="D126" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D126">
+        <v>-27.16</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43864</v>
-      </c>
-      <c r="B127" t="s">
-        <v>4</v>
+        <v>43895</v>
+      </c>
+      <c r="B127">
+        <v>110.47</v>
       </c>
       <c r="C127">
-        <v>151</v>
-      </c>
-      <c r="D127" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D127">
+        <v>-22.14</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43865</v>
-      </c>
-      <c r="B128" t="s">
-        <v>4</v>
+        <v>43896</v>
+      </c>
+      <c r="B128">
+        <v>104.58</v>
       </c>
       <c r="C128">
-        <v>151</v>
-      </c>
-      <c r="D128" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D128">
+        <v>-26.29</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43866</v>
-      </c>
-      <c r="B129" t="s">
-        <v>4</v>
+        <v>43897</v>
+      </c>
+      <c r="B129">
+        <v>99.18000000000001</v>
       </c>
       <c r="C129">
-        <v>151</v>
-      </c>
-      <c r="D129" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D129">
+        <v>-30.1</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43867</v>
-      </c>
-      <c r="B130" t="s">
-        <v>4</v>
+        <v>43898</v>
+      </c>
+      <c r="B130">
+        <v>93.73</v>
       </c>
       <c r="C130">
-        <v>151</v>
-      </c>
-      <c r="D130" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D130">
+        <v>-33.94</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43868</v>
-      </c>
-      <c r="B131" t="s">
-        <v>4</v>
+        <v>43899</v>
+      </c>
+      <c r="B131">
+        <v>91.45999999999999</v>
       </c>
       <c r="C131">
-        <v>151</v>
-      </c>
-      <c r="D131" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D131">
+        <v>-35.54</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B132">
-        <v>95.06999999999999</v>
+        <v>90.75</v>
       </c>
       <c r="C132">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D132">
-        <v>-37.04</v>
+        <v>-36.04</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B133">
-        <v>107.25</v>
+        <v>89</v>
       </c>
       <c r="C133">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D133">
-        <v>-28.97</v>
+        <v>-37.27</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43871</v>
-      </c>
-      <c r="B134">
-        <v>157.73</v>
+        <v>43902</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
       </c>
       <c r="C134">
-        <v>151</v>
-      </c>
-      <c r="D134">
-        <v>4.46</v>
+        <v>141.89</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43872</v>
-      </c>
-      <c r="B135">
-        <v>163</v>
+        <v>43903</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
       </c>
       <c r="C135">
-        <v>151</v>
-      </c>
-      <c r="D135">
-        <v>7.95</v>
+        <v>141.89</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43873</v>
-      </c>
-      <c r="B136">
-        <v>180.46</v>
+        <v>43904</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
       </c>
       <c r="C136">
-        <v>151</v>
-      </c>
-      <c r="D136">
-        <v>19.51</v>
+        <v>141.89</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43874</v>
-      </c>
-      <c r="B137">
-        <v>193.38</v>
+        <v>43905</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
       </c>
       <c r="C137">
-        <v>151</v>
-      </c>
-      <c r="D137">
-        <v>28.06</v>
+        <v>141.89</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43875</v>
-      </c>
-      <c r="B138">
-        <v>184.81</v>
+        <v>43906</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
       </c>
       <c r="C138">
-        <v>151</v>
-      </c>
-      <c r="D138">
-        <v>22.39</v>
+        <v>141.89</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B139">
-        <v>139.85</v>
+        <v>96.81</v>
       </c>
       <c r="C139">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D139">
-        <v>-7.38</v>
+        <v>-31.77</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B140">
-        <v>107.48</v>
+        <v>95.77</v>
       </c>
       <c r="C140">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D140">
-        <v>-28.82</v>
+        <v>-32.5</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B141">
-        <v>97.72</v>
+        <v>100.65</v>
       </c>
       <c r="C141">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D141">
-        <v>-35.29</v>
+        <v>-29.07</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B142">
-        <v>92.59999999999999</v>
+        <v>97.25</v>
       </c>
       <c r="C142">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D142">
-        <v>-38.67</v>
+        <v>-31.46</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B143">
-        <v>89.17</v>
+        <v>94.98</v>
       </c>
       <c r="C143">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D143">
-        <v>-40.94</v>
+        <v>-33.06</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43881</v>
-      </c>
-      <c r="B144" t="s">
-        <v>4</v>
+        <v>43912</v>
+      </c>
+      <c r="B144">
+        <v>92.42</v>
       </c>
       <c r="C144">
-        <v>151</v>
-      </c>
-      <c r="D144" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D144">
+        <v>-34.87</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43882</v>
-      </c>
-      <c r="B145" t="s">
-        <v>4</v>
+        <v>43913</v>
+      </c>
+      <c r="B145">
+        <v>90.43000000000001</v>
       </c>
       <c r="C145">
-        <v>151</v>
-      </c>
-      <c r="D145" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D145">
+        <v>-36.27</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B146">
-        <v>90.01000000000001</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="C146">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D146">
-        <v>-40.39</v>
+        <v>-36.77</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B147">
-        <v>89.8</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="C147">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D147">
-        <v>-40.53</v>
+        <v>-36.78</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43885</v>
-      </c>
-      <c r="B148">
-        <v>90.06</v>
+        <v>43916</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
       </c>
       <c r="C148">
-        <v>151</v>
-      </c>
-      <c r="D148">
-        <v>-40.36</v>
+        <v>141.89</v>
+      </c>
+      <c r="D148" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43886</v>
-      </c>
-      <c r="B149">
-        <v>91.17</v>
+        <v>43917</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
       </c>
       <c r="C149">
-        <v>151</v>
-      </c>
-      <c r="D149">
-        <v>-39.62</v>
+        <v>141.89</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43887</v>
-      </c>
-      <c r="B150">
-        <v>100.46</v>
+        <v>43918</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
       </c>
       <c r="C150">
-        <v>151</v>
-      </c>
-      <c r="D150">
-        <v>-33.47</v>
+        <v>141.89</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43888</v>
-      </c>
-      <c r="B151">
-        <v>115.43</v>
+        <v>43919</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
       </c>
       <c r="C151">
-        <v>151</v>
-      </c>
-      <c r="D151">
-        <v>-23.56</v>
+        <v>141.89</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43889</v>
-      </c>
-      <c r="B152">
-        <v>115.79</v>
+        <v>43920</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
       </c>
       <c r="C152">
-        <v>151</v>
-      </c>
-      <c r="D152">
-        <v>-23.32</v>
+        <v>141.89</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43890</v>
-      </c>
-      <c r="B153">
-        <v>107.41</v>
+        <v>43921</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
       </c>
       <c r="C153">
-        <v>151</v>
-      </c>
-      <c r="D153">
-        <v>-28.87</v>
+        <v>141.89</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43891</v>
-      </c>
-      <c r="B154">
-        <v>100</v>
+        <v>43922</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
       </c>
       <c r="C154">
-        <v>141.89</v>
-      </c>
-      <c r="D154">
-        <v>-29.52</v>
+        <v>120.32</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43892</v>
-      </c>
-      <c r="B155">
-        <v>96.15000000000001</v>
+        <v>43923</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
       </c>
       <c r="C155">
-        <v>141.89</v>
-      </c>
-      <c r="D155">
-        <v>-32.24</v>
+        <v>120.32</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43893</v>
-      </c>
-      <c r="B156">
-        <v>95.79000000000001</v>
+        <v>43924</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>141.89</v>
-      </c>
-      <c r="D156">
-        <v>-32.49</v>
+        <v>120.32</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B157">
-        <v>103.34</v>
+        <v>89.44</v>
       </c>
       <c r="C157">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D157">
-        <v>-27.16</v>
+        <v>-25.66</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B158">
-        <v>110.47</v>
+        <v>89.14</v>
       </c>
       <c r="C158">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D158">
-        <v>-22.14</v>
+        <v>-25.91</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43896</v>
-      </c>
-      <c r="B159">
-        <v>104.58</v>
+        <v>43927</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
       </c>
       <c r="C159">
-        <v>141.89</v>
-      </c>
-      <c r="D159">
-        <v>-26.29</v>
+        <v>120.32</v>
+      </c>
+      <c r="D159" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B160">
-        <v>99.18000000000001</v>
+        <v>91.61</v>
       </c>
       <c r="C160">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D160">
-        <v>-30.1</v>
+        <v>-23.86</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43898</v>
-      </c>
-      <c r="B161">
-        <v>93.73</v>
+        <v>43929</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
       </c>
       <c r="C161">
-        <v>141.89</v>
-      </c>
-      <c r="D161">
-        <v>-33.94</v>
+        <v>120.32</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43899</v>
-      </c>
-      <c r="B162">
-        <v>91.45999999999999</v>
+        <v>43930</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
       </c>
       <c r="C162">
-        <v>141.89</v>
-      </c>
-      <c r="D162">
-        <v>-35.54</v>
+        <v>120.32</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43900</v>
-      </c>
-      <c r="B163">
-        <v>90.75</v>
+        <v>43931</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
       </c>
       <c r="C163">
-        <v>141.89</v>
-      </c>
-      <c r="D163">
-        <v>-36.04</v>
+        <v>120.32</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43901</v>
-      </c>
-      <c r="B164">
-        <v>89</v>
+        <v>43932</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>141.89</v>
-      </c>
-      <c r="D164">
-        <v>-37.27</v>
+        <v>120.32</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43902</v>
-      </c>
-      <c r="B165" t="s">
-        <v>4</v>
+        <v>43933</v>
+      </c>
+      <c r="B165">
+        <v>89</v>
       </c>
       <c r="C165">
-        <v>141.89</v>
-      </c>
-      <c r="D165" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D165">
+        <v>-26.03</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B166" t="s">
         <v>4</v>
       </c>
       <c r="C166">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
@@ -2944,13 +2930,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B167" t="s">
         <v>4</v>
       </c>
       <c r="C167">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D167" t="s">
         <v>4</v>
@@ -2958,237 +2944,237 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43905</v>
-      </c>
-      <c r="B168" t="s">
-        <v>4</v>
+        <v>43936</v>
+      </c>
+      <c r="B168">
+        <v>90.54000000000001</v>
       </c>
       <c r="C168">
-        <v>141.89</v>
-      </c>
-      <c r="D168" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D168">
+        <v>-24.75</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43906</v>
-      </c>
-      <c r="B169" t="s">
-        <v>4</v>
+        <v>43937</v>
+      </c>
+      <c r="B169">
+        <v>92.23999999999999</v>
       </c>
       <c r="C169">
-        <v>141.89</v>
-      </c>
-      <c r="D169" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D169">
+        <v>-23.34</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B170">
-        <v>96.81</v>
+        <v>92.36</v>
       </c>
       <c r="C170">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D170">
-        <v>-31.77</v>
+        <v>-23.24</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B171">
-        <v>95.77</v>
+        <v>90.77</v>
       </c>
       <c r="C171">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D171">
-        <v>-32.5</v>
+        <v>-24.56</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B172">
-        <v>100.65</v>
+        <v>90.52</v>
       </c>
       <c r="C172">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D172">
-        <v>-29.07</v>
+        <v>-24.77</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B173">
-        <v>97.25</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="C173">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D173">
-        <v>-31.46</v>
+        <v>-24.82</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B174">
-        <v>94.98</v>
+        <v>89.98</v>
       </c>
       <c r="C174">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D174">
-        <v>-33.06</v>
+        <v>-25.21</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B175">
-        <v>92.42</v>
+        <v>90.42</v>
       </c>
       <c r="C175">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D175">
-        <v>-34.87</v>
+        <v>-24.85</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B176">
-        <v>90.43000000000001</v>
+        <v>91.53</v>
       </c>
       <c r="C176">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D176">
-        <v>-36.27</v>
+        <v>-23.93</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B177">
-        <v>89.70999999999999</v>
+        <v>91.94</v>
       </c>
       <c r="C177">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D177">
-        <v>-36.77</v>
+        <v>-23.59</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43915</v>
-      </c>
-      <c r="B178">
-        <v>89.70999999999999</v>
+        <v>43946</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
       </c>
       <c r="C178">
-        <v>141.89</v>
-      </c>
-      <c r="D178">
-        <v>-36.78</v>
+        <v>120.32</v>
+      </c>
+      <c r="D178" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43916</v>
-      </c>
-      <c r="B179" t="s">
-        <v>4</v>
+        <v>43947</v>
+      </c>
+      <c r="B179">
+        <v>89.87</v>
       </c>
       <c r="C179">
-        <v>141.89</v>
-      </c>
-      <c r="D179" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D179">
+        <v>-25.31</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43917</v>
-      </c>
-      <c r="B180" t="s">
-        <v>4</v>
+        <v>43948</v>
+      </c>
+      <c r="B180">
+        <v>89.5</v>
       </c>
       <c r="C180">
-        <v>141.89</v>
-      </c>
-      <c r="D180" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D180">
+        <v>-25.62</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43918</v>
-      </c>
-      <c r="B181" t="s">
-        <v>4</v>
+        <v>43949</v>
+      </c>
+      <c r="B181">
+        <v>89.05</v>
       </c>
       <c r="C181">
-        <v>141.89</v>
-      </c>
-      <c r="D181" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D181">
+        <v>-25.99</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43919</v>
-      </c>
-      <c r="B182" t="s">
-        <v>4</v>
+        <v>43950</v>
+      </c>
+      <c r="B182">
+        <v>89.55</v>
       </c>
       <c r="C182">
-        <v>141.89</v>
-      </c>
-      <c r="D182" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D182">
+        <v>-25.58</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B183" t="s">
-        <v>4</v>
+        <v>43951</v>
+      </c>
+      <c r="B183">
+        <v>90.33</v>
       </c>
       <c r="C183">
-        <v>141.89</v>
-      </c>
-      <c r="D183" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D183">
+        <v>-24.92</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B184" t="s">
         <v>4</v>
       </c>
       <c r="C184">
-        <v>141.89</v>
+        <v>130.37</v>
       </c>
       <c r="D184" t="s">
         <v>4</v>
@@ -3196,2914 +3182,2564 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B185" t="s">
-        <v>4</v>
+        <v>43953</v>
+      </c>
+      <c r="B185">
+        <v>89.93000000000001</v>
       </c>
       <c r="C185">
-        <v>120.32</v>
-      </c>
-      <c r="D185" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D185">
+        <v>-31.02</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B186" t="s">
-        <v>4</v>
+        <v>43954</v>
+      </c>
+      <c r="B186">
+        <v>91.06999999999999</v>
       </c>
       <c r="C186">
-        <v>120.32</v>
-      </c>
-      <c r="D186" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D186">
+        <v>-30.15</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B187" t="s">
-        <v>4</v>
+        <v>43955</v>
+      </c>
+      <c r="B187">
+        <v>91.83</v>
       </c>
       <c r="C187">
-        <v>120.32</v>
-      </c>
-      <c r="D187" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D187">
+        <v>-29.56</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B188">
-        <v>89.44</v>
+        <v>91.88</v>
       </c>
       <c r="C188">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D188">
-        <v>-25.66</v>
+        <v>-29.52</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B189">
-        <v>89.14</v>
+        <v>90.7</v>
       </c>
       <c r="C189">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D189">
-        <v>-25.91</v>
+        <v>-30.43</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B190" t="s">
-        <v>4</v>
+        <v>43958</v>
+      </c>
+      <c r="B190">
+        <v>93.69</v>
       </c>
       <c r="C190">
-        <v>120.32</v>
-      </c>
-      <c r="D190" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D190">
+        <v>-28.14</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B191">
-        <v>91.61</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="C191">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D191">
-        <v>-23.86</v>
+        <v>-28.67</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43929</v>
-      </c>
-      <c r="B192" t="s">
-        <v>4</v>
+        <v>43960</v>
+      </c>
+      <c r="B192">
+        <v>92.23999999999999</v>
       </c>
       <c r="C192">
-        <v>120.32</v>
-      </c>
-      <c r="D192" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D192">
+        <v>-29.25</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43930</v>
-      </c>
-      <c r="B193" t="s">
-        <v>4</v>
+        <v>43961</v>
+      </c>
+      <c r="B193">
+        <v>91.56999999999999</v>
       </c>
       <c r="C193">
-        <v>120.32</v>
-      </c>
-      <c r="D193" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D193">
+        <v>-29.76</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43931</v>
-      </c>
-      <c r="B194" t="s">
-        <v>4</v>
+        <v>43962</v>
+      </c>
+      <c r="B194">
+        <v>92.48999999999999</v>
       </c>
       <c r="C194">
-        <v>120.32</v>
-      </c>
-      <c r="D194" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D194">
+        <v>-29.06</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43932</v>
-      </c>
-      <c r="B195" t="s">
-        <v>4</v>
+        <v>43963</v>
+      </c>
+      <c r="B195">
+        <v>91.98999999999999</v>
       </c>
       <c r="C195">
-        <v>120.32</v>
-      </c>
-      <c r="D195" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D195">
+        <v>-29.44</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B196">
-        <v>89</v>
+        <v>90.33</v>
       </c>
       <c r="C196">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D196">
-        <v>-26.03</v>
+        <v>-30.71</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43934</v>
-      </c>
-      <c r="B197" t="s">
-        <v>4</v>
+        <v>43965</v>
+      </c>
+      <c r="B197">
+        <v>90.52</v>
       </c>
       <c r="C197">
-        <v>120.32</v>
-      </c>
-      <c r="D197" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D197">
+        <v>-30.56</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43935</v>
-      </c>
-      <c r="B198" t="s">
-        <v>4</v>
+        <v>43966</v>
+      </c>
+      <c r="B198">
+        <v>91.42</v>
       </c>
       <c r="C198">
-        <v>120.32</v>
-      </c>
-      <c r="D198" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D198">
+        <v>-29.88</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B199">
-        <v>90.54000000000001</v>
+        <v>92.16</v>
       </c>
       <c r="C199">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D199">
-        <v>-24.75</v>
+        <v>-29.31</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B200">
-        <v>92.23999999999999</v>
+        <v>93.48</v>
       </c>
       <c r="C200">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D200">
-        <v>-23.34</v>
+        <v>-28.29</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B201">
-        <v>92.36</v>
+        <v>93.51000000000001</v>
       </c>
       <c r="C201">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D201">
-        <v>-23.24</v>
+        <v>-28.28</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B202">
-        <v>90.77</v>
+        <v>92.94</v>
       </c>
       <c r="C202">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D202">
-        <v>-24.56</v>
+        <v>-28.71</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B203">
-        <v>90.52</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="C203">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D203">
-        <v>-24.77</v>
+        <v>-29.55</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B204">
-        <v>90.45999999999999</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C204">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D204">
-        <v>-24.82</v>
+        <v>-30.36</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B205">
-        <v>89.98</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="C205">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D205">
-        <v>-25.21</v>
+        <v>-30.76</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B206">
-        <v>90.42</v>
+        <v>90.89</v>
       </c>
       <c r="C206">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D206">
-        <v>-24.85</v>
+        <v>-30.29</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B207">
-        <v>91.53</v>
+        <v>92.44</v>
       </c>
       <c r="C207">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D207">
-        <v>-23.93</v>
+        <v>-29.09</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B208">
-        <v>91.94</v>
+        <v>93.16</v>
       </c>
       <c r="C208">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D208">
-        <v>-23.59</v>
+        <v>-28.54</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43946</v>
-      </c>
-      <c r="B209" t="s">
-        <v>4</v>
+        <v>43977</v>
+      </c>
+      <c r="B209">
+        <v>94.34</v>
       </c>
       <c r="C209">
-        <v>120.32</v>
-      </c>
-      <c r="D209" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D209">
+        <v>-27.63</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B210">
-        <v>89.87</v>
+        <v>95.11</v>
       </c>
       <c r="C210">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D210">
-        <v>-25.31</v>
+        <v>-27.05</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B211">
-        <v>89.5</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C211">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D211">
-        <v>-25.62</v>
+        <v>-26.71</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B212">
-        <v>89.05</v>
+        <v>95.20999999999999</v>
       </c>
       <c r="C212">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D212">
-        <v>-25.99</v>
+        <v>-26.97</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B213">
-        <v>89.55</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="C213">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D213">
-        <v>-25.58</v>
+        <v>-26.91</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B214">
-        <v>90.33</v>
+        <v>94.98</v>
       </c>
       <c r="C214">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D214">
-        <v>-24.92</v>
+        <v>-27.15</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B215" t="s">
-        <v>4</v>
+        <v>43983</v>
+      </c>
+      <c r="B215">
+        <v>92.45999999999999</v>
       </c>
       <c r="C215">
-        <v>130.37</v>
-      </c>
-      <c r="D215" t="s">
-        <v>4</v>
+        <v>157.39</v>
+      </c>
+      <c r="D215">
+        <v>-41.26</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B216">
-        <v>89.93000000000001</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="C216">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D216">
-        <v>-31.02</v>
+        <v>-41.03</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B217">
-        <v>91.06999999999999</v>
+        <v>92.62</v>
       </c>
       <c r="C217">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D217">
-        <v>-30.15</v>
+        <v>-41.15</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B218">
-        <v>91.83</v>
+        <v>92.27</v>
       </c>
       <c r="C218">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D218">
-        <v>-29.56</v>
+        <v>-41.38</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B219">
-        <v>91.88</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C219">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D219">
-        <v>-29.52</v>
+        <v>-42.12</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B220">
-        <v>90.7</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="C220">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D220">
-        <v>-30.43</v>
+        <v>-42.14</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B221">
-        <v>93.69</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="C221">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D221">
-        <v>-28.14</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B222">
-        <v>92.98999999999999</v>
+        <v>92.81</v>
       </c>
       <c r="C222">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D222">
-        <v>-28.67</v>
+        <v>-41.04</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B223">
-        <v>92.23999999999999</v>
+        <v>93.44</v>
       </c>
       <c r="C223">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D223">
-        <v>-29.25</v>
+        <v>-40.63</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B224">
-        <v>91.56999999999999</v>
+        <v>122.5</v>
       </c>
       <c r="C224">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D224">
-        <v>-29.76</v>
+        <v>-22.17</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B225">
-        <v>92.48999999999999</v>
+        <v>155.84</v>
       </c>
       <c r="C225">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D225">
-        <v>-29.06</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B226">
-        <v>91.98999999999999</v>
+        <v>159.99</v>
       </c>
       <c r="C226">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D226">
-        <v>-29.44</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B227">
-        <v>90.33</v>
+        <v>161.1</v>
       </c>
       <c r="C227">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D227">
-        <v>-30.71</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B228">
-        <v>90.52</v>
+        <v>134.36</v>
       </c>
       <c r="C228">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D228">
-        <v>-30.56</v>
+        <v>-14.63</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B229">
-        <v>91.42</v>
+        <v>112.18</v>
       </c>
       <c r="C229">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D229">
-        <v>-29.88</v>
+        <v>-28.73</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B230">
-        <v>92.16</v>
+        <v>104.49</v>
       </c>
       <c r="C230">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D230">
-        <v>-29.31</v>
+        <v>-33.61</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B231">
-        <v>93.48</v>
+        <v>100.47</v>
       </c>
       <c r="C231">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D231">
-        <v>-28.29</v>
+        <v>-36.17</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B232">
-        <v>93.51000000000001</v>
+        <v>99.06</v>
       </c>
       <c r="C232">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D232">
-        <v>-28.28</v>
+        <v>-37.06</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B233">
-        <v>92.94</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="C233">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D233">
-        <v>-28.71</v>
+        <v>-40.28</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B234">
-        <v>91.84999999999999</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="C234">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D234">
-        <v>-29.55</v>
+        <v>-39.64</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B235">
-        <v>90.79000000000001</v>
+        <v>93.84</v>
       </c>
       <c r="C235">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D235">
-        <v>-30.36</v>
+        <v>-40.38</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B236">
-        <v>90.26000000000001</v>
+        <v>93.31</v>
       </c>
       <c r="C236">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D236">
-        <v>-30.76</v>
+        <v>-40.71</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B237">
-        <v>90.89</v>
+        <v>92.56</v>
       </c>
       <c r="C237">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D237">
-        <v>-30.29</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B238">
-        <v>92.44</v>
+        <v>92.73</v>
       </c>
       <c r="C238">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D238">
-        <v>-29.09</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B239">
-        <v>93.16</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="C239">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D239">
-        <v>-28.54</v>
+        <v>-41.36</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B240">
-        <v>94.34</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C240">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D240">
-        <v>-27.63</v>
+        <v>-39.3</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B241">
-        <v>95.11</v>
+        <v>103.75</v>
       </c>
       <c r="C241">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D241">
-        <v>-27.05</v>
+        <v>-34.08</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B242">
-        <v>95.54000000000001</v>
+        <v>109.07</v>
       </c>
       <c r="C242">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D242">
-        <v>-26.71</v>
+        <v>-30.7</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B243">
-        <v>95.20999999999999</v>
+        <v>113.61</v>
       </c>
       <c r="C243">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D243">
-        <v>-26.97</v>
+        <v>-27.82</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B244">
-        <v>95.29000000000001</v>
+        <v>107.47</v>
       </c>
       <c r="C244">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D244">
-        <v>-26.91</v>
+        <v>-31.72</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B245">
-        <v>94.98</v>
+        <v>124.12</v>
       </c>
       <c r="C245">
-        <v>130.37</v>
+        <v>126.28</v>
       </c>
       <c r="D245">
-        <v>-27.15</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B246">
-        <v>92.45999999999999</v>
+        <v>123.93</v>
       </c>
       <c r="C246">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D246">
-        <v>-41.26</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B247">
-        <v>92.81999999999999</v>
+        <v>117.51</v>
       </c>
       <c r="C247">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D247">
-        <v>-41.03</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B248">
-        <v>92.62</v>
+        <v>108.65</v>
       </c>
       <c r="C248">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D248">
-        <v>-41.15</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B249">
-        <v>92.27</v>
+        <v>103.79</v>
       </c>
       <c r="C249">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D249">
-        <v>-41.38</v>
+        <v>-17.81</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B250">
-        <v>91.09999999999999</v>
+        <v>100.84</v>
       </c>
       <c r="C250">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D250">
-        <v>-42.12</v>
+        <v>-20.15</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B251">
-        <v>91.06999999999999</v>
+        <v>98.69</v>
       </c>
       <c r="C251">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D251">
-        <v>-42.14</v>
+        <v>-21.85</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B252">
-        <v>92.73999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="C252">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D252">
-        <v>-41.08</v>
+        <v>-22.83</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B253">
-        <v>92.81</v>
+        <v>95.33</v>
       </c>
       <c r="C253">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D253">
-        <v>-41.04</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B254">
-        <v>93.44</v>
+        <v>95.02</v>
       </c>
       <c r="C254">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D254">
-        <v>-40.63</v>
+        <v>-24.76</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B255">
-        <v>122.5</v>
+        <v>96.92</v>
       </c>
       <c r="C255">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D255">
-        <v>-22.17</v>
+        <v>-23.26</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B256">
-        <v>155.84</v>
+        <v>92.83</v>
       </c>
       <c r="C256">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D256">
-        <v>-0.99</v>
+        <v>-26.49</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B257">
-        <v>159.99</v>
+        <v>92.44</v>
       </c>
       <c r="C257">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D257">
-        <v>1.65</v>
+        <v>-26.8</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B258">
-        <v>161.1</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="C258">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D258">
-        <v>2.36</v>
+        <v>-26.96</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B259">
-        <v>134.36</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="C259">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D259">
-        <v>-14.63</v>
+        <v>-26.08</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B260">
-        <v>112.18</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C260">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D260">
-        <v>-28.73</v>
+        <v>-26.04</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B261">
-        <v>104.49</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="C261">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D261">
-        <v>-33.61</v>
+        <v>-26.52</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B262">
-        <v>100.47</v>
+        <v>92.98</v>
       </c>
       <c r="C262">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D262">
-        <v>-36.17</v>
+        <v>-26.37</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B263">
-        <v>99.06</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C263">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D263">
-        <v>-37.06</v>
+        <v>-27.23</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B264">
-        <v>93.98999999999999</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C264">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D264">
-        <v>-40.28</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B265">
-        <v>95.01000000000001</v>
+        <v>92.34</v>
       </c>
       <c r="C265">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D265">
-        <v>-39.64</v>
+        <v>-26.88</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B266">
-        <v>93.84</v>
+        <v>92.19</v>
       </c>
       <c r="C266">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D266">
-        <v>-40.38</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B267">
-        <v>93.31</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="C267">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D267">
-        <v>-40.71</v>
+        <v>-27.09</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B268">
-        <v>92.56</v>
+        <v>91.92</v>
       </c>
       <c r="C268">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D268">
-        <v>-41.19</v>
+        <v>-27.21</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B269">
-        <v>92.73</v>
+        <v>91.86</v>
       </c>
       <c r="C269">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D269">
-        <v>-41.08</v>
+        <v>-27.26</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B270">
-        <v>92.29000000000001</v>
+        <v>91.77</v>
       </c>
       <c r="C270">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D270">
-        <v>-41.36</v>
+        <v>-27.33</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B271">
-        <v>95.54000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="C271">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D271">
-        <v>-39.3</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B272">
-        <v>103.75</v>
+        <v>91</v>
       </c>
       <c r="C272">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D272">
-        <v>-34.08</v>
+        <v>-27.94</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B273">
-        <v>109.07</v>
+        <v>107.57</v>
       </c>
       <c r="C273">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D273">
-        <v>-30.7</v>
+        <v>-14.82</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B274">
-        <v>113.61</v>
+        <v>118.47</v>
       </c>
       <c r="C274">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D274">
-        <v>-27.82</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B275">
-        <v>107.47</v>
+        <v>133.49</v>
       </c>
       <c r="C275">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D275">
-        <v>-31.72</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B276">
-        <v>124.12</v>
+        <v>118.64</v>
       </c>
       <c r="C276">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D276">
-        <v>-1.71</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B277">
-        <v>123.93</v>
+        <v>107.18</v>
       </c>
       <c r="C277">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D277">
-        <v>-1.87</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B278">
-        <v>117.51</v>
+        <v>102.56</v>
       </c>
       <c r="C278">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D278">
-        <v>-6.95</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B279">
-        <v>108.65</v>
+        <v>99.44</v>
       </c>
       <c r="C279">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D279">
-        <v>-13.97</v>
+        <v>-12.88</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B280">
-        <v>103.79</v>
+        <v>96.78</v>
       </c>
       <c r="C280">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D280">
-        <v>-17.81</v>
+        <v>-15.21</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44018</v>
+        <v>44049</v>
       </c>
       <c r="B281">
-        <v>100.84</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="C281">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D281">
-        <v>-20.15</v>
+        <v>-16.12</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44019</v>
+        <v>44050</v>
       </c>
       <c r="B282">
-        <v>98.69</v>
+        <v>93.34</v>
       </c>
       <c r="C282">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D282">
-        <v>-21.85</v>
+        <v>-18.22</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44020</v>
+        <v>44051</v>
       </c>
       <c r="B283">
-        <v>97.45</v>
+        <v>92.55</v>
       </c>
       <c r="C283">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D283">
-        <v>-22.83</v>
+        <v>-18.91</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44021</v>
+        <v>44052</v>
       </c>
       <c r="B284">
-        <v>95.33</v>
+        <v>91.56</v>
       </c>
       <c r="C284">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D284">
-        <v>-24.51</v>
+        <v>-19.78</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44022</v>
+        <v>44053</v>
       </c>
       <c r="B285">
-        <v>95.02</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C285">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D285">
-        <v>-24.76</v>
+        <v>-19.63</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44023</v>
+        <v>44054</v>
       </c>
       <c r="B286">
-        <v>96.92</v>
+        <v>91.53</v>
       </c>
       <c r="C286">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D286">
-        <v>-23.26</v>
+        <v>-19.81</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44024</v>
+        <v>44055</v>
       </c>
       <c r="B287">
-        <v>92.83</v>
+        <v>91.09</v>
       </c>
       <c r="C287">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D287">
-        <v>-26.49</v>
+        <v>-20.19</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44025</v>
+        <v>44056</v>
       </c>
       <c r="B288">
-        <v>92.44</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="C288">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D288">
-        <v>-26.8</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44026</v>
+        <v>44057</v>
       </c>
       <c r="B289">
-        <v>92.23999999999999</v>
+        <v>90.81</v>
       </c>
       <c r="C289">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D289">
-        <v>-26.96</v>
+        <v>-20.44</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44027</v>
+        <v>44058</v>
       </c>
       <c r="B290">
-        <v>93.34999999999999</v>
+        <v>104.66</v>
       </c>
       <c r="C290">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D290">
-        <v>-26.08</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44028</v>
+        <v>44059</v>
       </c>
       <c r="B291">
-        <v>93.40000000000001</v>
+        <v>156.16</v>
       </c>
       <c r="C291">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D291">
-        <v>-26.04</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44029</v>
+        <v>44060</v>
       </c>
       <c r="B292">
-        <v>92.79000000000001</v>
+        <v>161.25</v>
       </c>
       <c r="C292">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D292">
-        <v>-26.52</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44030</v>
+        <v>44061</v>
       </c>
       <c r="B293">
-        <v>92.98</v>
+        <v>184.96</v>
       </c>
       <c r="C293">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D293">
-        <v>-26.37</v>
+        <v>62.05</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44031</v>
+        <v>44062</v>
       </c>
       <c r="B294">
-        <v>91.90000000000001</v>
+        <v>218.26</v>
       </c>
       <c r="C294">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D294">
-        <v>-27.23</v>
+        <v>91.22</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44032</v>
+        <v>44063</v>
       </c>
       <c r="B295">
-        <v>91.73999999999999</v>
+        <v>243.69</v>
       </c>
       <c r="C295">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D295">
-        <v>-27.36</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44033</v>
+        <v>44064</v>
       </c>
       <c r="B296">
-        <v>92.34</v>
+        <v>267.82</v>
       </c>
       <c r="C296">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D296">
-        <v>-26.88</v>
+        <v>134.64</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44034</v>
+        <v>44065</v>
       </c>
       <c r="B297">
-        <v>92.19</v>
+        <v>265.49</v>
       </c>
       <c r="C297">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D297">
-        <v>-27</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44035</v>
+        <v>44066</v>
       </c>
       <c r="B298">
-        <v>92.06999999999999</v>
+        <v>246.9</v>
       </c>
       <c r="C298">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D298">
-        <v>-27.09</v>
+        <v>116.31</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B299">
-        <v>91.92</v>
+        <v>225.24</v>
       </c>
       <c r="C299">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D299">
-        <v>-27.21</v>
+        <v>97.34</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B300">
-        <v>91.86</v>
+        <v>198.15</v>
       </c>
       <c r="C300">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D300">
-        <v>-27.26</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B301">
-        <v>91.77</v>
+        <v>159.3</v>
       </c>
       <c r="C301">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D301">
-        <v>-27.33</v>
+        <v>39.57</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B302">
-        <v>91.2</v>
+        <v>133.88</v>
       </c>
       <c r="C302">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D302">
-        <v>-27.78</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B303">
-        <v>91</v>
+        <v>123.39</v>
       </c>
       <c r="C303">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D303">
-        <v>-27.94</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B304">
-        <v>107.57</v>
+        <v>115.97</v>
       </c>
       <c r="C304">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D304">
-        <v>-14.82</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B305">
-        <v>118.47</v>
+        <v>110.2</v>
       </c>
       <c r="C305">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D305">
-        <v>-6.19</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B306">
-        <v>133.49</v>
+        <v>107.03</v>
       </c>
       <c r="C306">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D306">
-        <v>5.71</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B307">
-        <v>118.64</v>
+        <v>106.62</v>
       </c>
       <c r="C307">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D307">
-        <v>3.94</v>
+        <v>-20.37</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B308">
-        <v>107.18</v>
+        <v>104.38</v>
       </c>
       <c r="C308">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D308">
-        <v>-6.1</v>
+        <v>-22.05</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B309">
-        <v>102.56</v>
+        <v>97.37</v>
       </c>
       <c r="C309">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D309">
-        <v>-10.14</v>
+        <v>-27.29</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B310">
-        <v>99.44</v>
+        <v>88.66</v>
       </c>
       <c r="C310">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D310">
-        <v>-12.88</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B311">
-        <v>96.78</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="C311">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D311">
-        <v>-15.21</v>
+        <v>-35.93</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44049</v>
+        <v>44080</v>
       </c>
       <c r="B312">
-        <v>95.73999999999999</v>
+        <v>83.67</v>
       </c>
       <c r="C312">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D312">
-        <v>-16.12</v>
+        <v>-37.52</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44050</v>
+        <v>44081</v>
       </c>
       <c r="B313">
-        <v>93.34</v>
+        <v>83.16</v>
       </c>
       <c r="C313">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D313">
-        <v>-18.22</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44051</v>
+        <v>44082</v>
       </c>
       <c r="B314">
-        <v>92.55</v>
+        <v>82.08</v>
       </c>
       <c r="C314">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D314">
-        <v>-18.91</v>
+        <v>-38.7</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44052</v>
+        <v>44083</v>
       </c>
       <c r="B315">
-        <v>91.56</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="C315">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D315">
-        <v>-19.78</v>
+        <v>-39.85</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44053</v>
+        <v>44084</v>
       </c>
       <c r="B316">
-        <v>91.73999999999999</v>
+        <v>79.53</v>
       </c>
       <c r="C316">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D316">
-        <v>-19.63</v>
+        <v>-40.61</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44054</v>
+        <v>44085</v>
       </c>
       <c r="B317">
-        <v>91.53</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="C317">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D317">
-        <v>-19.81</v>
+        <v>-40.45</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44055</v>
+        <v>44086</v>
       </c>
       <c r="B318">
-        <v>91.09</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="C318">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D318">
-        <v>-20.19</v>
+        <v>-40.95</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44056</v>
+        <v>44087</v>
       </c>
       <c r="B319">
-        <v>90.73999999999999</v>
+        <v>78.67</v>
       </c>
       <c r="C319">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D319">
-        <v>-20.5</v>
+        <v>-41.25</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44057</v>
+        <v>44088</v>
       </c>
       <c r="B320">
-        <v>90.81</v>
+        <v>78.98</v>
       </c>
       <c r="C320">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D320">
-        <v>-20.44</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44058</v>
+        <v>44089</v>
       </c>
       <c r="B321">
-        <v>104.66</v>
+        <v>78</v>
       </c>
       <c r="C321">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D321">
-        <v>-8.31</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44059</v>
+        <v>44090</v>
       </c>
       <c r="B322">
-        <v>156.16</v>
+        <v>77.23</v>
       </c>
       <c r="C322">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D322">
-        <v>36.82</v>
+        <v>-42.33</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44060</v>
+        <v>44091</v>
       </c>
       <c r="B323">
-        <v>161.25</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="C323">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D323">
-        <v>41.27</v>
+        <v>-42.38</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44061</v>
+        <v>44092</v>
       </c>
       <c r="B324">
-        <v>184.96</v>
+        <v>76.72</v>
       </c>
       <c r="C324">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D324">
-        <v>62.05</v>
+        <v>-42.71</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44062</v>
+        <v>44093</v>
       </c>
       <c r="B325">
-        <v>218.26</v>
+        <v>76.58</v>
       </c>
       <c r="C325">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D325">
-        <v>91.22</v>
+        <v>-42.81</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44063</v>
+        <v>44094</v>
       </c>
       <c r="B326">
-        <v>243.69</v>
+        <v>77.56</v>
       </c>
       <c r="C326">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D326">
-        <v>113.5</v>
+        <v>-42.08</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44064</v>
+        <v>44095</v>
       </c>
       <c r="B327">
-        <v>267.82</v>
+        <v>78</v>
       </c>
       <c r="C327">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D327">
-        <v>134.64</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44065</v>
+        <v>44096</v>
       </c>
       <c r="B328">
-        <v>265.49</v>
+        <v>78</v>
       </c>
       <c r="C328">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D328">
-        <v>132.6</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44066</v>
+        <v>44097</v>
       </c>
       <c r="B329">
-        <v>246.9</v>
+        <v>78.5</v>
       </c>
       <c r="C329">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D329">
-        <v>116.31</v>
+        <v>-41.38</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44067</v>
+        <v>44098</v>
       </c>
       <c r="B330">
-        <v>225.24</v>
+        <v>77.59</v>
       </c>
       <c r="C330">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D330">
-        <v>97.34</v>
+        <v>-42.05</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44068</v>
+        <v>44099</v>
       </c>
       <c r="B331">
-        <v>198.15</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C331">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D331">
-        <v>73.59999999999999</v>
+        <v>-42.2</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44069</v>
+        <v>44100</v>
       </c>
       <c r="B332">
-        <v>159.3</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="C332">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D332">
-        <v>39.57</v>
+        <v>-42.32</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44070</v>
+        <v>44101</v>
       </c>
       <c r="B333">
-        <v>133.88</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C333">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D333">
-        <v>17.29</v>
+        <v>-42.76</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B334">
-        <v>123.39</v>
+        <v>95</v>
       </c>
       <c r="C334">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D334">
-        <v>8.1</v>
+        <v>-29.06</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B335">
-        <v>115.97</v>
+        <v>106</v>
       </c>
       <c r="C335">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D335">
-        <v>1.6</v>
+        <v>-20.84</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B336">
-        <v>110.2</v>
+        <v>111.1</v>
       </c>
       <c r="C336">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D336">
-        <v>-3.45</v>
+        <v>-17.03</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B337">
-        <v>107.03</v>
+        <v>102.21</v>
       </c>
       <c r="C337">
-        <v>114.14</v>
+        <v>151.76</v>
       </c>
       <c r="D337">
-        <v>-6.23</v>
+        <v>-32.65</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B338">
-        <v>106.62</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C338">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D338">
-        <v>-20.37</v>
+        <v>-41.62</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B339">
-        <v>104.38</v>
+        <v>82.05</v>
       </c>
       <c r="C339">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D339">
-        <v>-22.05</v>
+        <v>-45.93</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B340">
-        <v>97.37</v>
+        <v>80.59</v>
       </c>
       <c r="C340">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D340">
-        <v>-27.29</v>
+        <v>-46.89</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B341">
-        <v>88.66</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="C341">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D341">
-        <v>-33.79</v>
+        <v>-48.25</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B342">
-        <v>85.79000000000001</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="C342">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D342">
-        <v>-35.93</v>
+        <v>-49.09</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B343">
-        <v>83.67</v>
+        <v>75.73</v>
       </c>
       <c r="C343">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D343">
-        <v>-37.52</v>
+        <v>-50.1</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B344">
-        <v>83.16</v>
+        <v>82.2</v>
       </c>
       <c r="C344">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D344">
-        <v>-37.9</v>
+        <v>-45.84</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B345">
-        <v>82.08</v>
+        <v>98.48</v>
       </c>
       <c r="C345">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D345">
-        <v>-38.7</v>
+        <v>-35.11</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B346">
-        <v>80.54000000000001</v>
+        <v>114.48</v>
       </c>
       <c r="C346">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D346">
-        <v>-39.85</v>
+        <v>-24.57</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B347">
-        <v>79.53</v>
+        <v>117.85</v>
       </c>
       <c r="C347">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D347">
-        <v>-40.61</v>
+        <v>-22.34</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B348">
-        <v>79.73999999999999</v>
+        <v>104.99</v>
       </c>
       <c r="C348">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D348">
-        <v>-40.45</v>
+        <v>-30.82</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B349">
-        <v>79.06999999999999</v>
+        <v>91.83</v>
       </c>
       <c r="C349">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D349">
-        <v>-40.95</v>
+        <v>-39.49</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B350">
-        <v>78.67</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="C350">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D350">
-        <v>-41.25</v>
+        <v>-44.33</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B351">
-        <v>78.98</v>
+        <v>81.75</v>
       </c>
       <c r="C351">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D351">
-        <v>-41.02</v>
+        <v>-46.13</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B352">
-        <v>78</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="C352">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D352">
-        <v>-41.75</v>
+        <v>-45.01</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B353">
-        <v>77.23</v>
+        <v>80.34</v>
       </c>
       <c r="C353">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D353">
-        <v>-42.33</v>
+        <v>-47.06</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B354">
-        <v>77.15000000000001</v>
+        <v>77.88</v>
       </c>
       <c r="C354">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D354">
-        <v>-42.38</v>
+        <v>-48.69</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B355">
-        <v>76.72</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="C355">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D355">
-        <v>-42.71</v>
+        <v>-48.76</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B356">
-        <v>76.58</v>
+        <v>76.67</v>
       </c>
       <c r="C356">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D356">
-        <v>-42.81</v>
+        <v>-49.48</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B357">
-        <v>77.56</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="C357">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D357">
-        <v>-42.08</v>
+        <v>-49.69</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B358">
-        <v>78</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="C358">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D358">
-        <v>-41.75</v>
+        <v>-49.6</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B359">
-        <v>78</v>
+        <v>76.11</v>
       </c>
       <c r="C359">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D359">
-        <v>-41.75</v>
+        <v>-49.85</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B360">
-        <v>78.5</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C360">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D360">
-        <v>-41.38</v>
+        <v>-49.5</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B361">
-        <v>77.59</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="C361">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D361">
-        <v>-42.05</v>
+        <v>-48.23</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B362">
-        <v>77.40000000000001</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="C362">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D362">
-        <v>-42.2</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B363">
-        <v>77.23999999999999</v>
+        <v>76.42</v>
       </c>
       <c r="C363">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D363">
-        <v>-42.32</v>
+        <v>-49.65</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B364">
-        <v>76.65000000000001</v>
+        <v>77.83</v>
       </c>
       <c r="C364">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D364">
-        <v>-42.76</v>
+        <v>-48.72</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B365">
-        <v>95</v>
+        <v>76.5</v>
       </c>
       <c r="C365">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D365">
-        <v>-29.06</v>
+        <v>-49.59</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B366">
-        <v>106</v>
+        <v>82.67</v>
       </c>
       <c r="C366">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D366">
-        <v>-20.84</v>
+        <v>-45.53</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B367">
-        <v>111.1</v>
+        <v>80.97</v>
       </c>
       <c r="C367">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D367">
-        <v>-17.03</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B368">
-        <v>102.21</v>
-      </c>
-      <c r="C368">
-        <v>151.76</v>
-      </c>
-      <c r="D368">
-        <v>-32.65</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44106</v>
-      </c>
-      <c r="B369">
-        <v>88.59999999999999</v>
-      </c>
-      <c r="C369">
-        <v>151.76</v>
-      </c>
-      <c r="D369">
-        <v>-41.62</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44107</v>
-      </c>
-      <c r="B370">
-        <v>82.05</v>
-      </c>
-      <c r="C370">
-        <v>151.76</v>
-      </c>
-      <c r="D370">
-        <v>-45.93</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B371">
-        <v>80.59</v>
-      </c>
-      <c r="C371">
-        <v>151.76</v>
-      </c>
-      <c r="D371">
-        <v>-46.89</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44109</v>
-      </c>
-      <c r="B372">
-        <v>78.54000000000001</v>
-      </c>
-      <c r="C372">
-        <v>151.76</v>
-      </c>
-      <c r="D372">
-        <v>-48.25</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44110</v>
-      </c>
-      <c r="B373">
-        <v>77.26000000000001</v>
-      </c>
-      <c r="C373">
-        <v>151.76</v>
-      </c>
-      <c r="D373">
-        <v>-49.09</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44111</v>
-      </c>
-      <c r="B374">
-        <v>75.73</v>
-      </c>
-      <c r="C374">
-        <v>151.76</v>
-      </c>
-      <c r="D374">
-        <v>-50.1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44112</v>
-      </c>
-      <c r="B375">
-        <v>82.2</v>
-      </c>
-      <c r="C375">
-        <v>151.76</v>
-      </c>
-      <c r="D375">
-        <v>-45.84</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44113</v>
-      </c>
-      <c r="B376">
-        <v>98.48</v>
-      </c>
-      <c r="C376">
-        <v>151.76</v>
-      </c>
-      <c r="D376">
-        <v>-35.11</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44114</v>
-      </c>
-      <c r="B377">
-        <v>114.48</v>
-      </c>
-      <c r="C377">
-        <v>151.76</v>
-      </c>
-      <c r="D377">
-        <v>-24.57</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44115</v>
-      </c>
-      <c r="B378">
-        <v>117.85</v>
-      </c>
-      <c r="C378">
-        <v>151.76</v>
-      </c>
-      <c r="D378">
-        <v>-22.34</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44116</v>
-      </c>
-      <c r="B379">
-        <v>104.99</v>
-      </c>
-      <c r="C379">
-        <v>151.76</v>
-      </c>
-      <c r="D379">
-        <v>-30.82</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44117</v>
-      </c>
-      <c r="B380">
-        <v>91.83</v>
-      </c>
-      <c r="C380">
-        <v>151.76</v>
-      </c>
-      <c r="D380">
-        <v>-39.49</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44118</v>
-      </c>
-      <c r="B381">
-        <v>84.48999999999999</v>
-      </c>
-      <c r="C381">
-        <v>151.76</v>
-      </c>
-      <c r="D381">
-        <v>-44.33</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44119</v>
-      </c>
-      <c r="B382">
-        <v>81.75</v>
-      </c>
-      <c r="C382">
-        <v>151.76</v>
-      </c>
-      <c r="D382">
-        <v>-46.13</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44120</v>
-      </c>
-      <c r="B383">
-        <v>83.45999999999999</v>
-      </c>
-      <c r="C383">
-        <v>151.76</v>
-      </c>
-      <c r="D383">
-        <v>-45.01</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44121</v>
-      </c>
-      <c r="B384">
-        <v>80.34</v>
-      </c>
-      <c r="C384">
-        <v>151.76</v>
-      </c>
-      <c r="D384">
-        <v>-47.06</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44122</v>
-      </c>
-      <c r="B385">
-        <v>77.88</v>
-      </c>
-      <c r="C385">
-        <v>151.76</v>
-      </c>
-      <c r="D385">
-        <v>-48.69</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44123</v>
-      </c>
-      <c r="B386">
-        <v>77.76000000000001</v>
-      </c>
-      <c r="C386">
-        <v>151.76</v>
-      </c>
-      <c r="D386">
-        <v>-48.76</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44124</v>
-      </c>
-      <c r="B387">
-        <v>76.67</v>
-      </c>
-      <c r="C387">
-        <v>151.76</v>
-      </c>
-      <c r="D387">
-        <v>-49.48</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B388">
-        <v>76.34999999999999</v>
-      </c>
-      <c r="C388">
-        <v>151.76</v>
-      </c>
-      <c r="D388">
-        <v>-49.69</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44126</v>
-      </c>
-      <c r="B389">
-        <v>76.48999999999999</v>
-      </c>
-      <c r="C389">
-        <v>151.76</v>
-      </c>
-      <c r="D389">
-        <v>-49.6</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
-        <v>44127</v>
-      </c>
-      <c r="B390">
-        <v>76.11</v>
-      </c>
-      <c r="C390">
-        <v>151.76</v>
-      </c>
-      <c r="D390">
-        <v>-49.85</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="2">
-        <v>44128</v>
-      </c>
-      <c r="B391">
-        <v>76.65000000000001</v>
-      </c>
-      <c r="C391">
-        <v>151.76</v>
-      </c>
-      <c r="D391">
-        <v>-49.5</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B392">
-        <v>78.56999999999999</v>
-      </c>
-      <c r="C392">
-        <v>151.76</v>
-      </c>
-      <c r="D392">
-        <v>-48.23</v>
+        <v>-46.65</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -586,6 +586,20 @@
         <v>-44.48</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B14">
+        <v>88.52</v>
+      </c>
+      <c r="C14">
+        <v>136.33</v>
+      </c>
+      <c r="D14">
+        <v>-35.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5742,6 +5756,216 @@
         <v>-46.65</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B368">
+        <v>92.72</v>
+      </c>
+      <c r="C368">
+        <v>136.33</v>
+      </c>
+      <c r="D368">
+        <v>-31.99</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B369">
+        <v>92.51000000000001</v>
+      </c>
+      <c r="C369">
+        <v>136.33</v>
+      </c>
+      <c r="D369">
+        <v>-32.14</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B370">
+        <v>90.27</v>
+      </c>
+      <c r="C370">
+        <v>136.33</v>
+      </c>
+      <c r="D370">
+        <v>-33.79</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B371">
+        <v>92.8</v>
+      </c>
+      <c r="C371">
+        <v>136.33</v>
+      </c>
+      <c r="D371">
+        <v>-31.93</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B372">
+        <v>86.05</v>
+      </c>
+      <c r="C372">
+        <v>136.33</v>
+      </c>
+      <c r="D372">
+        <v>-36.88</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B373">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="C373">
+        <v>136.33</v>
+      </c>
+      <c r="D373">
+        <v>-37.36</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44142</v>
+      </c>
+      <c r="B374">
+        <v>83.97</v>
+      </c>
+      <c r="C374">
+        <v>136.33</v>
+      </c>
+      <c r="D374">
+        <v>-38.41</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44143</v>
+      </c>
+      <c r="B375">
+        <v>81.06999999999999</v>
+      </c>
+      <c r="C375">
+        <v>136.33</v>
+      </c>
+      <c r="D375">
+        <v>-40.53</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B376">
+        <v>78.53</v>
+      </c>
+      <c r="C376">
+        <v>136.33</v>
+      </c>
+      <c r="D376">
+        <v>-42.4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B377">
+        <v>78.11</v>
+      </c>
+      <c r="C377">
+        <v>136.33</v>
+      </c>
+      <c r="D377">
+        <v>-42.7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B378">
+        <v>94.12</v>
+      </c>
+      <c r="C378">
+        <v>136.33</v>
+      </c>
+      <c r="D378">
+        <v>-30.96</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B379">
+        <v>104.58</v>
+      </c>
+      <c r="C379">
+        <v>136.33</v>
+      </c>
+      <c r="D379">
+        <v>-23.29</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B380">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="C380">
+        <v>136.33</v>
+      </c>
+      <c r="D380">
+        <v>-32.57</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B381">
+        <v>89.53</v>
+      </c>
+      <c r="C381">
+        <v>136.33</v>
+      </c>
+      <c r="D381">
+        <v>-34.33</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B382">
+        <v>86.23999999999999</v>
+      </c>
+      <c r="C382">
+        <v>136.33</v>
+      </c>
+      <c r="D382">
+        <v>-36.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44150</v>
+        <v>44157</v>
       </c>
       <c r="B14">
-        <v>88.52</v>
+        <v>97.81999999999999</v>
       </c>
       <c r="C14">
         <v>136.33</v>
       </c>
       <c r="D14">
-        <v>-35.07</v>
+        <v>-28.25</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5966,6 +5966,104 @@
         <v>-36.74</v>
       </c>
     </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B383">
+        <v>92.23</v>
+      </c>
+      <c r="C383">
+        <v>136.33</v>
+      </c>
+      <c r="D383">
+        <v>-32.35</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B384">
+        <v>107.59</v>
+      </c>
+      <c r="C384">
+        <v>136.33</v>
+      </c>
+      <c r="D384">
+        <v>-21.08</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B385">
+        <v>121.44</v>
+      </c>
+      <c r="C385">
+        <v>136.33</v>
+      </c>
+      <c r="D385">
+        <v>-10.93</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B386">
+        <v>125.58</v>
+      </c>
+      <c r="C386">
+        <v>136.33</v>
+      </c>
+      <c r="D386">
+        <v>-7.89</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B387">
+        <v>123.19</v>
+      </c>
+      <c r="C387">
+        <v>136.33</v>
+      </c>
+      <c r="D387">
+        <v>-9.640000000000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B388">
+        <v>129.56</v>
+      </c>
+      <c r="C388">
+        <v>136.33</v>
+      </c>
+      <c r="D388">
+        <v>-4.97</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44157</v>
+      </c>
+      <c r="B389">
+        <v>124.57</v>
+      </c>
+      <c r="C389">
+        <v>136.33</v>
+      </c>
+      <c r="D389">
+        <v>-8.630000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B2">
-        <v>114.03</v>
+        <v>101.02</v>
       </c>
       <c r="C2">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D2">
-        <v>-16.36</v>
+        <v>-22.85</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B3">
-        <v>101.02</v>
+        <v>100.1</v>
       </c>
       <c r="C3">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D3">
-        <v>-22.85</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B4">
-        <v>100.1</v>
+        <v>120.43</v>
       </c>
       <c r="C4">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D4">
-        <v>-33.79</v>
+        <v>-20.24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B5">
-        <v>120.43</v>
+        <v>96.11</v>
       </c>
       <c r="C5">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D5">
-        <v>-20.24</v>
+        <v>-32.26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B6">
-        <v>96.11</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="C6">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D6">
-        <v>-32.26</v>
+        <v>-24.84</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B7">
-        <v>90.43000000000001</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C7">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D7">
-        <v>-24.84</v>
+        <v>-29.06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B8">
-        <v>92.48999999999999</v>
+        <v>105.48</v>
       </c>
       <c r="C8">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D8">
-        <v>-29.06</v>
+        <v>-32.98</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B9">
-        <v>105.48</v>
+        <v>99.67</v>
       </c>
       <c r="C9">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D9">
-        <v>-32.98</v>
+        <v>-21.07</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B10">
-        <v>99.67</v>
+        <v>141.16</v>
       </c>
       <c r="C10">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D10">
-        <v>-21.07</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B11">
-        <v>141.16</v>
+        <v>84.23</v>
       </c>
       <c r="C11">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D11">
-        <v>23.68</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B12">
-        <v>84.23</v>
+        <v>84.25</v>
       </c>
       <c r="C12">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D12">
-        <v>-37.1</v>
+        <v>-44.48</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B13">
-        <v>84.25</v>
+        <v>97.92</v>
       </c>
       <c r="C13">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D13">
-        <v>-44.48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44157</v>
-      </c>
-      <c r="B14">
-        <v>97.81999999999999</v>
-      </c>
-      <c r="C14">
-        <v>136.33</v>
-      </c>
-      <c r="D14">
-        <v>-28.25</v>
+        <v>-28.17</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D389"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,643 +620,643 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B2">
-        <v>100.41</v>
+        <v>124.58</v>
       </c>
       <c r="C2">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D2">
-        <v>-26.35</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43771</v>
+        <v>43801</v>
       </c>
       <c r="B3">
-        <v>94.90000000000001</v>
+        <v>120.64</v>
       </c>
       <c r="C3">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D3">
-        <v>-30.39</v>
+        <v>-7.87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43772</v>
+        <v>43802</v>
       </c>
       <c r="B4">
-        <v>92.91</v>
+        <v>109.09</v>
       </c>
       <c r="C4">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D4">
-        <v>-31.85</v>
+        <v>-16.69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43773</v>
+        <v>43803</v>
       </c>
       <c r="B5">
-        <v>93.39</v>
+        <v>103.35</v>
       </c>
       <c r="C5">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D5">
-        <v>-31.5</v>
+        <v>-21.07</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43774</v>
+        <v>43804</v>
       </c>
       <c r="B6">
-        <v>92.06999999999999</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="C6">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D6">
-        <v>-32.47</v>
+        <v>-23.66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43775</v>
+        <v>43805</v>
       </c>
       <c r="B7">
-        <v>91.55</v>
+        <v>98.56</v>
       </c>
       <c r="C7">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D7">
-        <v>-32.85</v>
+        <v>-24.73</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43776</v>
+        <v>43806</v>
       </c>
       <c r="B8">
-        <v>94.81999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C8">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D8">
-        <v>-30.45</v>
+        <v>-27.22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43777</v>
+        <v>43807</v>
       </c>
       <c r="B9">
-        <v>92.7</v>
+        <v>93.16</v>
       </c>
       <c r="C9">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D9">
-        <v>-32.01</v>
+        <v>-28.85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43778</v>
+        <v>43808</v>
       </c>
       <c r="B10">
-        <v>92.03</v>
+        <v>91.53</v>
       </c>
       <c r="C10">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D10">
-        <v>-32.5</v>
+        <v>-30.1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43779</v>
+        <v>43809</v>
       </c>
       <c r="B11">
-        <v>132.96</v>
+        <v>92.61</v>
       </c>
       <c r="C11">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D11">
-        <v>-2.48</v>
+        <v>-29.27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43780</v>
-      </c>
-      <c r="B12">
-        <v>140.71</v>
+        <v>43810</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>136.33</v>
-      </c>
-      <c r="D12">
-        <v>3.21</v>
+        <v>130.94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43781</v>
-      </c>
-      <c r="B13">
-        <v>158.71</v>
+        <v>43811</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>136.33</v>
-      </c>
-      <c r="D13">
-        <v>16.41</v>
+        <v>130.94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43782</v>
-      </c>
-      <c r="B14">
-        <v>163.12</v>
+        <v>43812</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>136.33</v>
-      </c>
-      <c r="D14">
-        <v>19.65</v>
+        <v>130.94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43783</v>
-      </c>
-      <c r="B15">
-        <v>153</v>
+        <v>43813</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>136.33</v>
-      </c>
-      <c r="D15">
-        <v>12.22</v>
+        <v>130.94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43784</v>
-      </c>
-      <c r="B16">
-        <v>136.72</v>
+        <v>43814</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>136.33</v>
-      </c>
-      <c r="D16">
-        <v>0.28</v>
+        <v>130.94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43785</v>
-      </c>
-      <c r="B17">
-        <v>121.33</v>
+        <v>43815</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>136.33</v>
-      </c>
-      <c r="D17">
-        <v>-11</v>
+        <v>130.94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43786</v>
-      </c>
-      <c r="B18">
-        <v>109.91</v>
+        <v>43816</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>136.33</v>
-      </c>
-      <c r="D18">
-        <v>-19.38</v>
+        <v>130.94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43787</v>
-      </c>
-      <c r="B19">
-        <v>102.47</v>
+        <v>43817</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>136.33</v>
-      </c>
-      <c r="D19">
-        <v>-24.84</v>
+        <v>130.94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43788</v>
-      </c>
-      <c r="B20">
-        <v>98.31999999999999</v>
+        <v>43818</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>136.33</v>
-      </c>
-      <c r="D20">
-        <v>-27.88</v>
+        <v>130.94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43789</v>
-      </c>
-      <c r="B21">
-        <v>93.05</v>
+        <v>43819</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>136.33</v>
-      </c>
-      <c r="D21">
-        <v>-31.75</v>
+        <v>130.94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43790</v>
+        <v>43820</v>
       </c>
       <c r="B22">
-        <v>91.3</v>
+        <v>95.95</v>
       </c>
       <c r="C22">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D22">
-        <v>-33.03</v>
+        <v>-26.72</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43791</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
+        <v>43821</v>
+      </c>
+      <c r="B23">
+        <v>100.82</v>
       </c>
       <c r="C23">
-        <v>136.33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
+        <v>130.94</v>
+      </c>
+      <c r="D23">
+        <v>-23</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43792</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
+        <v>43822</v>
+      </c>
+      <c r="B24">
+        <v>96.34999999999999</v>
       </c>
       <c r="C24">
-        <v>136.33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
+        <v>130.94</v>
+      </c>
+      <c r="D24">
+        <v>-26.42</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43793</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
+        <v>43823</v>
+      </c>
+      <c r="B25">
+        <v>92.33</v>
       </c>
       <c r="C25">
-        <v>136.33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
+        <v>130.94</v>
+      </c>
+      <c r="D25">
+        <v>-29.49</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43794</v>
-      </c>
-      <c r="B26">
-        <v>92.14</v>
+        <v>43824</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>136.33</v>
-      </c>
-      <c r="D26">
-        <v>-32.42</v>
+        <v>130.94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43795</v>
-      </c>
-      <c r="B27">
-        <v>93.18000000000001</v>
+        <v>43825</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>136.33</v>
-      </c>
-      <c r="D27">
-        <v>-31.65</v>
+        <v>130.94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43796</v>
-      </c>
-      <c r="B28">
-        <v>125.59</v>
+        <v>43826</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>136.33</v>
-      </c>
-      <c r="D28">
-        <v>-7.88</v>
+        <v>130.94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43797</v>
-      </c>
-      <c r="B29">
-        <v>138.59</v>
+        <v>43827</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>136.33</v>
-      </c>
-      <c r="D29">
-        <v>1.66</v>
+        <v>130.94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43798</v>
-      </c>
-      <c r="B30">
-        <v>140.59</v>
+        <v>43828</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>136.33</v>
-      </c>
-      <c r="D30">
-        <v>3.12</v>
+        <v>130.94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43799</v>
-      </c>
-      <c r="B31">
-        <v>142.38</v>
+        <v>43829</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>136.33</v>
-      </c>
-      <c r="D31">
-        <v>4.43</v>
+        <v>130.94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B32">
-        <v>124.58</v>
+        <v>43830</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
       </c>
       <c r="C32">
         <v>130.94</v>
       </c>
-      <c r="D32">
-        <v>-4.86</v>
+      <c r="D32" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43801</v>
-      </c>
-      <c r="B33">
-        <v>120.64</v>
+        <v>43831</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>130.94</v>
-      </c>
-      <c r="D33">
-        <v>-7.87</v>
+        <v>151.18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43802</v>
+        <v>43832</v>
       </c>
       <c r="B34">
-        <v>109.09</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="C34">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D34">
-        <v>-16.69</v>
+        <v>-38.31</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43803</v>
-      </c>
-      <c r="B35">
-        <v>103.35</v>
+        <v>43833</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>130.94</v>
-      </c>
-      <c r="D35">
-        <v>-21.07</v>
+        <v>151.18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43804</v>
-      </c>
-      <c r="B36">
-        <v>99.95999999999999</v>
+        <v>43834</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>130.94</v>
-      </c>
-      <c r="D36">
-        <v>-23.66</v>
+        <v>151.18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43805</v>
-      </c>
-      <c r="B37">
-        <v>98.56</v>
+        <v>43835</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>130.94</v>
-      </c>
-      <c r="D37">
-        <v>-24.73</v>
+        <v>151.18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43806</v>
-      </c>
-      <c r="B38">
-        <v>95.3</v>
+        <v>43836</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>130.94</v>
-      </c>
-      <c r="D38">
-        <v>-27.22</v>
+        <v>151.18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43807</v>
-      </c>
-      <c r="B39">
-        <v>93.16</v>
+        <v>43837</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>130.94</v>
-      </c>
-      <c r="D39">
-        <v>-28.85</v>
+        <v>151.18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43808</v>
-      </c>
-      <c r="B40">
-        <v>91.53</v>
+        <v>43838</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>130.94</v>
-      </c>
-      <c r="D40">
-        <v>-30.1</v>
+        <v>151.18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43809</v>
-      </c>
-      <c r="B41">
-        <v>92.61</v>
+        <v>43839</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>130.94</v>
-      </c>
-      <c r="D41">
-        <v>-29.27</v>
+        <v>151.18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43810</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
+        <v>43840</v>
+      </c>
+      <c r="B42">
+        <v>100.18</v>
       </c>
       <c r="C42">
-        <v>130.94</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D42">
+        <v>-33.74</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43811</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
+        <v>43841</v>
+      </c>
+      <c r="B43">
+        <v>108.03</v>
       </c>
       <c r="C43">
-        <v>130.94</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D43">
+        <v>-28.54</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43812</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
+        <v>43842</v>
+      </c>
+      <c r="B44">
+        <v>106.69</v>
       </c>
       <c r="C44">
-        <v>130.94</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D44">
+        <v>-29.43</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43813</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
+        <v>43843</v>
+      </c>
+      <c r="B45">
+        <v>104.32</v>
       </c>
       <c r="C45">
-        <v>130.94</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D45">
+        <v>-31</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43814</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
+        <v>43844</v>
+      </c>
+      <c r="B46">
+        <v>96.81</v>
       </c>
       <c r="C46">
-        <v>130.94</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D46">
+        <v>-35.97</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43815</v>
+        <v>43845</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -1278,125 +1264,125 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43816</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
+        <v>43846</v>
+      </c>
+      <c r="B48">
+        <v>98</v>
       </c>
       <c r="C48">
-        <v>130.94</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D48">
+        <v>-35.18</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43817</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
+        <v>43847</v>
+      </c>
+      <c r="B49">
+        <v>107.82</v>
       </c>
       <c r="C49">
-        <v>130.94</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D49">
+        <v>-28.68</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43818</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
+        <v>43848</v>
+      </c>
+      <c r="B50">
+        <v>94.09999999999999</v>
       </c>
       <c r="C50">
-        <v>130.94</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D50">
+        <v>-37.76</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43819</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
+        <v>43849</v>
+      </c>
+      <c r="B51">
+        <v>91.8</v>
       </c>
       <c r="C51">
-        <v>130.94</v>
-      </c>
-      <c r="D51" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D51">
+        <v>-39.28</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43820</v>
-      </c>
-      <c r="B52">
-        <v>95.95</v>
+        <v>43850</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>130.94</v>
-      </c>
-      <c r="D52">
-        <v>-26.72</v>
+        <v>151.18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43821</v>
-      </c>
-      <c r="B53">
-        <v>100.82</v>
+        <v>43851</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>130.94</v>
-      </c>
-      <c r="D53">
-        <v>-23</v>
+        <v>151.18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43822</v>
-      </c>
-      <c r="B54">
-        <v>96.34999999999999</v>
+        <v>43852</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>130.94</v>
-      </c>
-      <c r="D54">
-        <v>-26.42</v>
+        <v>151.18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43823</v>
-      </c>
-      <c r="B55">
-        <v>92.33</v>
+        <v>43853</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>130.94</v>
-      </c>
-      <c r="D55">
-        <v>-29.49</v>
+        <v>151.18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43824</v>
+        <v>43854</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -1404,13 +1390,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43825</v>
+        <v>43855</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
@@ -1418,13 +1404,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43826</v>
+        <v>43856</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="C58">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -1432,13 +1418,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43827</v>
+        <v>43857</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -1446,13 +1432,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43828</v>
+        <v>43858</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
       <c r="C60">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -1460,13 +1446,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43829</v>
+        <v>43859</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
       <c r="C61">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -1474,13 +1460,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43830</v>
+        <v>43860</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -1488,7 +1474,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
@@ -1502,27 +1488,27 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43832</v>
-      </c>
-      <c r="B64">
-        <v>93.26000000000001</v>
+        <v>43862</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>151.18</v>
-      </c>
-      <c r="D64">
-        <v>-38.31</v>
+        <v>151</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43833</v>
+        <v>43863</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
       <c r="C65">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -1530,13 +1516,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43834</v>
+        <v>43864</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -1544,13 +1530,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43835</v>
+        <v>43865</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
       <c r="C67">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -1558,13 +1544,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43836</v>
+        <v>43866</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -1572,13 +1558,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43837</v>
+        <v>43867</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
       </c>
       <c r="C69">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
@@ -1586,13 +1572,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43838</v>
+        <v>43868</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
       <c r="C70">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
@@ -1600,181 +1586,181 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43839</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
+        <v>43869</v>
+      </c>
+      <c r="B71">
+        <v>95.06999999999999</v>
       </c>
       <c r="C71">
-        <v>151.18</v>
-      </c>
-      <c r="D71" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D71">
+        <v>-37.04</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43840</v>
+        <v>43870</v>
       </c>
       <c r="B72">
-        <v>100.18</v>
+        <v>107.25</v>
       </c>
       <c r="C72">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D72">
-        <v>-33.74</v>
+        <v>-28.97</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43841</v>
+        <v>43871</v>
       </c>
       <c r="B73">
-        <v>108.03</v>
+        <v>157.73</v>
       </c>
       <c r="C73">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D73">
-        <v>-28.54</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43842</v>
+        <v>43872</v>
       </c>
       <c r="B74">
-        <v>106.69</v>
+        <v>163</v>
       </c>
       <c r="C74">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D74">
-        <v>-29.43</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43843</v>
+        <v>43873</v>
       </c>
       <c r="B75">
-        <v>104.32</v>
+        <v>180.46</v>
       </c>
       <c r="C75">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D75">
-        <v>-31</v>
+        <v>19.51</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43844</v>
+        <v>43874</v>
       </c>
       <c r="B76">
-        <v>96.81</v>
+        <v>193.38</v>
       </c>
       <c r="C76">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D76">
-        <v>-35.97</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43845</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
+        <v>43875</v>
+      </c>
+      <c r="B77">
+        <v>184.81</v>
       </c>
       <c r="C77">
-        <v>151.18</v>
-      </c>
-      <c r="D77" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D77">
+        <v>22.39</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43846</v>
+        <v>43876</v>
       </c>
       <c r="B78">
-        <v>98</v>
+        <v>139.85</v>
       </c>
       <c r="C78">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D78">
-        <v>-35.18</v>
+        <v>-7.38</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43847</v>
+        <v>43877</v>
       </c>
       <c r="B79">
-        <v>107.82</v>
+        <v>107.48</v>
       </c>
       <c r="C79">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D79">
-        <v>-28.68</v>
+        <v>-28.82</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43848</v>
+        <v>43878</v>
       </c>
       <c r="B80">
-        <v>94.09999999999999</v>
+        <v>97.72</v>
       </c>
       <c r="C80">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D80">
-        <v>-37.76</v>
+        <v>-35.29</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43849</v>
+        <v>43879</v>
       </c>
       <c r="B81">
-        <v>91.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C81">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D81">
-        <v>-39.28</v>
+        <v>-38.67</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43850</v>
-      </c>
-      <c r="B82" t="s">
-        <v>4</v>
+        <v>43880</v>
+      </c>
+      <c r="B82">
+        <v>89.17</v>
       </c>
       <c r="C82">
-        <v>151.18</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D82">
+        <v>-40.94</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43851</v>
+        <v>43881</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
       </c>
       <c r="C83">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
@@ -1782,13 +1768,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43852</v>
+        <v>43882</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
       <c r="C84">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -1796,699 +1782,699 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43853</v>
-      </c>
-      <c r="B85" t="s">
-        <v>4</v>
+        <v>43883</v>
+      </c>
+      <c r="B85">
+        <v>90.01000000000001</v>
       </c>
       <c r="C85">
-        <v>151.18</v>
-      </c>
-      <c r="D85" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D85">
+        <v>-40.39</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43854</v>
-      </c>
-      <c r="B86" t="s">
-        <v>4</v>
+        <v>43884</v>
+      </c>
+      <c r="B86">
+        <v>89.8</v>
       </c>
       <c r="C86">
-        <v>151.18</v>
-      </c>
-      <c r="D86" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D86">
+        <v>-40.53</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43855</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4</v>
+        <v>43885</v>
+      </c>
+      <c r="B87">
+        <v>90.06</v>
       </c>
       <c r="C87">
-        <v>151.18</v>
-      </c>
-      <c r="D87" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D87">
+        <v>-40.36</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43856</v>
-      </c>
-      <c r="B88" t="s">
-        <v>4</v>
+        <v>43886</v>
+      </c>
+      <c r="B88">
+        <v>91.17</v>
       </c>
       <c r="C88">
-        <v>151.18</v>
-      </c>
-      <c r="D88" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D88">
+        <v>-39.62</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43857</v>
-      </c>
-      <c r="B89" t="s">
-        <v>4</v>
+        <v>43887</v>
+      </c>
+      <c r="B89">
+        <v>100.46</v>
       </c>
       <c r="C89">
-        <v>151.18</v>
-      </c>
-      <c r="D89" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D89">
+        <v>-33.47</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43858</v>
-      </c>
-      <c r="B90" t="s">
-        <v>4</v>
+        <v>43888</v>
+      </c>
+      <c r="B90">
+        <v>115.43</v>
       </c>
       <c r="C90">
-        <v>151.18</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D90">
+        <v>-23.56</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43859</v>
-      </c>
-      <c r="B91" t="s">
-        <v>4</v>
+        <v>43889</v>
+      </c>
+      <c r="B91">
+        <v>115.79</v>
       </c>
       <c r="C91">
-        <v>151.18</v>
-      </c>
-      <c r="D91" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D91">
+        <v>-23.32</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43860</v>
-      </c>
-      <c r="B92" t="s">
-        <v>4</v>
+        <v>43890</v>
+      </c>
+      <c r="B92">
+        <v>107.41</v>
       </c>
       <c r="C92">
-        <v>151.18</v>
-      </c>
-      <c r="D92" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D92">
+        <v>-28.87</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43861</v>
-      </c>
-      <c r="B93" t="s">
-        <v>4</v>
+        <v>43891</v>
+      </c>
+      <c r="B93">
+        <v>100</v>
       </c>
       <c r="C93">
-        <v>151.18</v>
-      </c>
-      <c r="D93" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D93">
+        <v>-29.52</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B94" t="s">
-        <v>4</v>
+        <v>43892</v>
+      </c>
+      <c r="B94">
+        <v>96.15000000000001</v>
       </c>
       <c r="C94">
-        <v>151</v>
-      </c>
-      <c r="D94" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D94">
+        <v>-32.24</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43863</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4</v>
+        <v>43893</v>
+      </c>
+      <c r="B95">
+        <v>95.79000000000001</v>
       </c>
       <c r="C95">
-        <v>151</v>
-      </c>
-      <c r="D95" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D95">
+        <v>-32.49</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43864</v>
-      </c>
-      <c r="B96" t="s">
-        <v>4</v>
+        <v>43894</v>
+      </c>
+      <c r="B96">
+        <v>103.34</v>
       </c>
       <c r="C96">
-        <v>151</v>
-      </c>
-      <c r="D96" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D96">
+        <v>-27.16</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43865</v>
-      </c>
-      <c r="B97" t="s">
-        <v>4</v>
+        <v>43895</v>
+      </c>
+      <c r="B97">
+        <v>110.47</v>
       </c>
       <c r="C97">
-        <v>151</v>
-      </c>
-      <c r="D97" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D97">
+        <v>-22.14</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43866</v>
-      </c>
-      <c r="B98" t="s">
-        <v>4</v>
+        <v>43896</v>
+      </c>
+      <c r="B98">
+        <v>104.58</v>
       </c>
       <c r="C98">
-        <v>151</v>
-      </c>
-      <c r="D98" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D98">
+        <v>-26.29</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43867</v>
-      </c>
-      <c r="B99" t="s">
-        <v>4</v>
+        <v>43897</v>
+      </c>
+      <c r="B99">
+        <v>99.18000000000001</v>
       </c>
       <c r="C99">
-        <v>151</v>
-      </c>
-      <c r="D99" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D99">
+        <v>-30.1</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43868</v>
-      </c>
-      <c r="B100" t="s">
-        <v>4</v>
+        <v>43898</v>
+      </c>
+      <c r="B100">
+        <v>93.73</v>
       </c>
       <c r="C100">
-        <v>151</v>
-      </c>
-      <c r="D100" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D100">
+        <v>-33.94</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43869</v>
+        <v>43899</v>
       </c>
       <c r="B101">
-        <v>95.06999999999999</v>
+        <v>91.45999999999999</v>
       </c>
       <c r="C101">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D101">
-        <v>-37.04</v>
+        <v>-35.54</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43870</v>
+        <v>43900</v>
       </c>
       <c r="B102">
-        <v>107.25</v>
+        <v>90.75</v>
       </c>
       <c r="C102">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D102">
-        <v>-28.97</v>
+        <v>-36.04</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43871</v>
+        <v>43901</v>
       </c>
       <c r="B103">
-        <v>157.73</v>
+        <v>89</v>
       </c>
       <c r="C103">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D103">
-        <v>4.46</v>
+        <v>-37.27</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43872</v>
-      </c>
-      <c r="B104">
-        <v>163</v>
+        <v>43902</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
       </c>
       <c r="C104">
-        <v>151</v>
-      </c>
-      <c r="D104">
-        <v>7.95</v>
+        <v>141.89</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43873</v>
-      </c>
-      <c r="B105">
-        <v>180.46</v>
+        <v>43903</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>151</v>
-      </c>
-      <c r="D105">
-        <v>19.51</v>
+        <v>141.89</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43874</v>
-      </c>
-      <c r="B106">
-        <v>193.38</v>
+        <v>43904</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
       </c>
       <c r="C106">
-        <v>151</v>
-      </c>
-      <c r="D106">
-        <v>28.06</v>
+        <v>141.89</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43875</v>
-      </c>
-      <c r="B107">
-        <v>184.81</v>
+        <v>43905</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>151</v>
-      </c>
-      <c r="D107">
-        <v>22.39</v>
+        <v>141.89</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43876</v>
-      </c>
-      <c r="B108">
-        <v>139.85</v>
+        <v>43906</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>151</v>
-      </c>
-      <c r="D108">
-        <v>-7.38</v>
+        <v>141.89</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43877</v>
+        <v>43907</v>
       </c>
       <c r="B109">
-        <v>107.48</v>
+        <v>96.81</v>
       </c>
       <c r="C109">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D109">
-        <v>-28.82</v>
+        <v>-31.77</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43878</v>
+        <v>43908</v>
       </c>
       <c r="B110">
-        <v>97.72</v>
+        <v>95.77</v>
       </c>
       <c r="C110">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D110">
-        <v>-35.29</v>
+        <v>-32.5</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43879</v>
+        <v>43909</v>
       </c>
       <c r="B111">
-        <v>92.59999999999999</v>
+        <v>100.65</v>
       </c>
       <c r="C111">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D111">
-        <v>-38.67</v>
+        <v>-29.07</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43880</v>
+        <v>43910</v>
       </c>
       <c r="B112">
-        <v>89.17</v>
+        <v>97.25</v>
       </c>
       <c r="C112">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D112">
-        <v>-40.94</v>
+        <v>-31.46</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43881</v>
-      </c>
-      <c r="B113" t="s">
-        <v>4</v>
+        <v>43911</v>
+      </c>
+      <c r="B113">
+        <v>94.98</v>
       </c>
       <c r="C113">
-        <v>151</v>
-      </c>
-      <c r="D113" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D113">
+        <v>-33.06</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43882</v>
-      </c>
-      <c r="B114" t="s">
-        <v>4</v>
+        <v>43912</v>
+      </c>
+      <c r="B114">
+        <v>92.42</v>
       </c>
       <c r="C114">
-        <v>151</v>
-      </c>
-      <c r="D114" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D114">
+        <v>-34.87</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43883</v>
+        <v>43913</v>
       </c>
       <c r="B115">
-        <v>90.01000000000001</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="C115">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D115">
-        <v>-40.39</v>
+        <v>-36.27</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43884</v>
+        <v>43914</v>
       </c>
       <c r="B116">
-        <v>89.8</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="C116">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D116">
-        <v>-40.53</v>
+        <v>-36.77</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43885</v>
+        <v>43915</v>
       </c>
       <c r="B117">
-        <v>90.06</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="C117">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D117">
-        <v>-40.36</v>
+        <v>-36.78</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43886</v>
-      </c>
-      <c r="B118">
-        <v>91.17</v>
+        <v>43916</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
       </c>
       <c r="C118">
-        <v>151</v>
-      </c>
-      <c r="D118">
-        <v>-39.62</v>
+        <v>141.89</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43887</v>
-      </c>
-      <c r="B119">
-        <v>100.46</v>
+        <v>43917</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>151</v>
-      </c>
-      <c r="D119">
-        <v>-33.47</v>
+        <v>141.89</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43888</v>
-      </c>
-      <c r="B120">
-        <v>115.43</v>
+        <v>43918</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>151</v>
-      </c>
-      <c r="D120">
-        <v>-23.56</v>
+        <v>141.89</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43889</v>
-      </c>
-      <c r="B121">
-        <v>115.79</v>
+        <v>43919</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
       </c>
       <c r="C121">
-        <v>151</v>
-      </c>
-      <c r="D121">
-        <v>-23.32</v>
+        <v>141.89</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43890</v>
-      </c>
-      <c r="B122">
-        <v>107.41</v>
+        <v>43920</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
       </c>
       <c r="C122">
-        <v>151</v>
-      </c>
-      <c r="D122">
-        <v>-28.87</v>
+        <v>141.89</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43891</v>
-      </c>
-      <c r="B123">
-        <v>100</v>
+        <v>43921</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
       </c>
       <c r="C123">
         <v>141.89</v>
       </c>
-      <c r="D123">
-        <v>-29.52</v>
+      <c r="D123" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43892</v>
-      </c>
-      <c r="B124">
-        <v>96.15000000000001</v>
+        <v>43922</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
       </c>
       <c r="C124">
-        <v>141.89</v>
-      </c>
-      <c r="D124">
-        <v>-32.24</v>
+        <v>120.32</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43893</v>
-      </c>
-      <c r="B125">
-        <v>95.79000000000001</v>
+        <v>43923</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
       </c>
       <c r="C125">
-        <v>141.89</v>
-      </c>
-      <c r="D125">
-        <v>-32.49</v>
+        <v>120.32</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43894</v>
-      </c>
-      <c r="B126">
-        <v>103.34</v>
+        <v>43924</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
       </c>
       <c r="C126">
-        <v>141.89</v>
-      </c>
-      <c r="D126">
-        <v>-27.16</v>
+        <v>120.32</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43895</v>
+        <v>43925</v>
       </c>
       <c r="B127">
-        <v>110.47</v>
+        <v>89.44</v>
       </c>
       <c r="C127">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D127">
-        <v>-22.14</v>
+        <v>-25.66</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43896</v>
+        <v>43926</v>
       </c>
       <c r="B128">
-        <v>104.58</v>
+        <v>89.14</v>
       </c>
       <c r="C128">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D128">
-        <v>-26.29</v>
+        <v>-25.91</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43897</v>
-      </c>
-      <c r="B129">
-        <v>99.18000000000001</v>
+        <v>43927</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
       </c>
       <c r="C129">
-        <v>141.89</v>
-      </c>
-      <c r="D129">
-        <v>-30.1</v>
+        <v>120.32</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43898</v>
+        <v>43928</v>
       </c>
       <c r="B130">
-        <v>93.73</v>
+        <v>91.61</v>
       </c>
       <c r="C130">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D130">
-        <v>-33.94</v>
+        <v>-23.86</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43899</v>
-      </c>
-      <c r="B131">
-        <v>91.45999999999999</v>
+        <v>43929</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
       </c>
       <c r="C131">
-        <v>141.89</v>
-      </c>
-      <c r="D131">
-        <v>-35.54</v>
+        <v>120.32</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43900</v>
-      </c>
-      <c r="B132">
-        <v>90.75</v>
+        <v>43930</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>141.89</v>
-      </c>
-      <c r="D132">
-        <v>-36.04</v>
+        <v>120.32</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43901</v>
-      </c>
-      <c r="B133">
-        <v>89</v>
+        <v>43931</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
       </c>
       <c r="C133">
-        <v>141.89</v>
-      </c>
-      <c r="D133">
-        <v>-37.27</v>
+        <v>120.32</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43902</v>
+        <v>43932</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
       </c>
       <c r="C134">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
@@ -2496,27 +2482,27 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43903</v>
-      </c>
-      <c r="B135" t="s">
-        <v>4</v>
+        <v>43933</v>
+      </c>
+      <c r="B135">
+        <v>89</v>
       </c>
       <c r="C135">
-        <v>141.89</v>
-      </c>
-      <c r="D135" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D135">
+        <v>-26.03</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43904</v>
+        <v>43934</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
       </c>
       <c r="C136">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
@@ -2524,13 +2510,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43905</v>
+        <v>43935</v>
       </c>
       <c r="B137" t="s">
         <v>4</v>
       </c>
       <c r="C137">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D137" t="s">
         <v>4</v>
@@ -2538,153 +2524,153 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43906</v>
-      </c>
-      <c r="B138" t="s">
-        <v>4</v>
+        <v>43936</v>
+      </c>
+      <c r="B138">
+        <v>90.54000000000001</v>
       </c>
       <c r="C138">
-        <v>141.89</v>
-      </c>
-      <c r="D138" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D138">
+        <v>-24.75</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43907</v>
+        <v>43937</v>
       </c>
       <c r="B139">
-        <v>96.81</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="C139">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D139">
-        <v>-31.77</v>
+        <v>-23.34</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43908</v>
+        <v>43938</v>
       </c>
       <c r="B140">
-        <v>95.77</v>
+        <v>92.36</v>
       </c>
       <c r="C140">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D140">
-        <v>-32.5</v>
+        <v>-23.24</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43909</v>
+        <v>43939</v>
       </c>
       <c r="B141">
-        <v>100.65</v>
+        <v>90.77</v>
       </c>
       <c r="C141">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D141">
-        <v>-29.07</v>
+        <v>-24.56</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43910</v>
+        <v>43940</v>
       </c>
       <c r="B142">
-        <v>97.25</v>
+        <v>90.52</v>
       </c>
       <c r="C142">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D142">
-        <v>-31.46</v>
+        <v>-24.77</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43911</v>
+        <v>43941</v>
       </c>
       <c r="B143">
-        <v>94.98</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="C143">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D143">
-        <v>-33.06</v>
+        <v>-24.82</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43912</v>
+        <v>43942</v>
       </c>
       <c r="B144">
-        <v>92.42</v>
+        <v>89.98</v>
       </c>
       <c r="C144">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D144">
-        <v>-34.87</v>
+        <v>-25.21</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43913</v>
+        <v>43943</v>
       </c>
       <c r="B145">
-        <v>90.43000000000001</v>
+        <v>90.42</v>
       </c>
       <c r="C145">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D145">
-        <v>-36.27</v>
+        <v>-24.85</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43914</v>
+        <v>43944</v>
       </c>
       <c r="B146">
-        <v>89.70999999999999</v>
+        <v>91.53</v>
       </c>
       <c r="C146">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D146">
-        <v>-36.77</v>
+        <v>-23.93</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43915</v>
+        <v>43945</v>
       </c>
       <c r="B147">
-        <v>89.70999999999999</v>
+        <v>91.94</v>
       </c>
       <c r="C147">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D147">
-        <v>-36.78</v>
+        <v>-23.59</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43916</v>
+        <v>43946</v>
       </c>
       <c r="B148" t="s">
         <v>4</v>
       </c>
       <c r="C148">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
@@ -2692,83 +2678,83 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43917</v>
-      </c>
-      <c r="B149" t="s">
-        <v>4</v>
+        <v>43947</v>
+      </c>
+      <c r="B149">
+        <v>89.87</v>
       </c>
       <c r="C149">
-        <v>141.89</v>
-      </c>
-      <c r="D149" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D149">
+        <v>-25.31</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43918</v>
-      </c>
-      <c r="B150" t="s">
-        <v>4</v>
+        <v>43948</v>
+      </c>
+      <c r="B150">
+        <v>89.5</v>
       </c>
       <c r="C150">
-        <v>141.89</v>
-      </c>
-      <c r="D150" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D150">
+        <v>-25.62</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43919</v>
-      </c>
-      <c r="B151" t="s">
-        <v>4</v>
+        <v>43949</v>
+      </c>
+      <c r="B151">
+        <v>89.05</v>
       </c>
       <c r="C151">
-        <v>141.89</v>
-      </c>
-      <c r="D151" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D151">
+        <v>-25.99</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B152" t="s">
-        <v>4</v>
+        <v>43950</v>
+      </c>
+      <c r="B152">
+        <v>89.55</v>
       </c>
       <c r="C152">
-        <v>141.89</v>
-      </c>
-      <c r="D152" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D152">
+        <v>-25.58</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B153" t="s">
-        <v>4</v>
+        <v>43951</v>
+      </c>
+      <c r="B153">
+        <v>90.33</v>
       </c>
       <c r="C153">
-        <v>141.89</v>
-      </c>
-      <c r="D153" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D153">
+        <v>-24.92</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B154" t="s">
         <v>4</v>
       </c>
       <c r="C154">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
@@ -2776,3292 +2762,2984 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B155" t="s">
-        <v>4</v>
+        <v>43953</v>
+      </c>
+      <c r="B155">
+        <v>89.93000000000001</v>
       </c>
       <c r="C155">
-        <v>120.32</v>
-      </c>
-      <c r="D155" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D155">
+        <v>-31.02</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B156" t="s">
-        <v>4</v>
+        <v>43954</v>
+      </c>
+      <c r="B156">
+        <v>91.06999999999999</v>
       </c>
       <c r="C156">
-        <v>120.32</v>
-      </c>
-      <c r="D156" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D156">
+        <v>-30.15</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43925</v>
+        <v>43955</v>
       </c>
       <c r="B157">
-        <v>89.44</v>
+        <v>91.83</v>
       </c>
       <c r="C157">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D157">
-        <v>-25.66</v>
+        <v>-29.56</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43926</v>
+        <v>43956</v>
       </c>
       <c r="B158">
-        <v>89.14</v>
+        <v>91.88</v>
       </c>
       <c r="C158">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D158">
-        <v>-25.91</v>
+        <v>-29.52</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B159" t="s">
-        <v>4</v>
+        <v>43957</v>
+      </c>
+      <c r="B159">
+        <v>90.7</v>
       </c>
       <c r="C159">
-        <v>120.32</v>
-      </c>
-      <c r="D159" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D159">
+        <v>-30.43</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43928</v>
+        <v>43958</v>
       </c>
       <c r="B160">
-        <v>91.61</v>
+        <v>93.69</v>
       </c>
       <c r="C160">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D160">
-        <v>-23.86</v>
+        <v>-28.14</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43929</v>
-      </c>
-      <c r="B161" t="s">
-        <v>4</v>
+        <v>43959</v>
+      </c>
+      <c r="B161">
+        <v>92.98999999999999</v>
       </c>
       <c r="C161">
-        <v>120.32</v>
-      </c>
-      <c r="D161" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D161">
+        <v>-28.67</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43930</v>
-      </c>
-      <c r="B162" t="s">
-        <v>4</v>
+        <v>43960</v>
+      </c>
+      <c r="B162">
+        <v>92.23999999999999</v>
       </c>
       <c r="C162">
-        <v>120.32</v>
-      </c>
-      <c r="D162" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D162">
+        <v>-29.25</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43931</v>
-      </c>
-      <c r="B163" t="s">
-        <v>4</v>
+        <v>43961</v>
+      </c>
+      <c r="B163">
+        <v>91.56999999999999</v>
       </c>
       <c r="C163">
-        <v>120.32</v>
-      </c>
-      <c r="D163" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D163">
+        <v>-29.76</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43932</v>
-      </c>
-      <c r="B164" t="s">
-        <v>4</v>
+        <v>43962</v>
+      </c>
+      <c r="B164">
+        <v>92.48999999999999</v>
       </c>
       <c r="C164">
-        <v>120.32</v>
-      </c>
-      <c r="D164" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D164">
+        <v>-29.06</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43933</v>
+        <v>43963</v>
       </c>
       <c r="B165">
-        <v>89</v>
+        <v>91.98999999999999</v>
       </c>
       <c r="C165">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D165">
-        <v>-26.03</v>
+        <v>-29.44</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43934</v>
-      </c>
-      <c r="B166" t="s">
-        <v>4</v>
+        <v>43964</v>
+      </c>
+      <c r="B166">
+        <v>90.33</v>
       </c>
       <c r="C166">
-        <v>120.32</v>
-      </c>
-      <c r="D166" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D166">
+        <v>-30.71</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43935</v>
-      </c>
-      <c r="B167" t="s">
-        <v>4</v>
+        <v>43965</v>
+      </c>
+      <c r="B167">
+        <v>90.52</v>
       </c>
       <c r="C167">
-        <v>120.32</v>
-      </c>
-      <c r="D167" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D167">
+        <v>-30.56</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43936</v>
+        <v>43966</v>
       </c>
       <c r="B168">
-        <v>90.54000000000001</v>
+        <v>91.42</v>
       </c>
       <c r="C168">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D168">
-        <v>-24.75</v>
+        <v>-29.88</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43937</v>
+        <v>43967</v>
       </c>
       <c r="B169">
-        <v>92.23999999999999</v>
+        <v>92.16</v>
       </c>
       <c r="C169">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D169">
-        <v>-23.34</v>
+        <v>-29.31</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43938</v>
+        <v>43968</v>
       </c>
       <c r="B170">
-        <v>92.36</v>
+        <v>93.48</v>
       </c>
       <c r="C170">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D170">
-        <v>-23.24</v>
+        <v>-28.29</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43939</v>
+        <v>43969</v>
       </c>
       <c r="B171">
-        <v>90.77</v>
+        <v>93.51000000000001</v>
       </c>
       <c r="C171">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D171">
-        <v>-24.56</v>
+        <v>-28.28</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43940</v>
+        <v>43970</v>
       </c>
       <c r="B172">
-        <v>90.52</v>
+        <v>92.94</v>
       </c>
       <c r="C172">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D172">
-        <v>-24.77</v>
+        <v>-28.71</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43941</v>
+        <v>43971</v>
       </c>
       <c r="B173">
-        <v>90.45999999999999</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="C173">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D173">
-        <v>-24.82</v>
+        <v>-29.55</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43942</v>
+        <v>43972</v>
       </c>
       <c r="B174">
-        <v>89.98</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C174">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D174">
-        <v>-25.21</v>
+        <v>-30.36</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43943</v>
+        <v>43973</v>
       </c>
       <c r="B175">
-        <v>90.42</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="C175">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D175">
-        <v>-24.85</v>
+        <v>-30.76</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43944</v>
+        <v>43974</v>
       </c>
       <c r="B176">
-        <v>91.53</v>
+        <v>90.89</v>
       </c>
       <c r="C176">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D176">
-        <v>-23.93</v>
+        <v>-30.29</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43945</v>
+        <v>43975</v>
       </c>
       <c r="B177">
-        <v>91.94</v>
+        <v>92.44</v>
       </c>
       <c r="C177">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D177">
-        <v>-23.59</v>
+        <v>-29.09</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43946</v>
-      </c>
-      <c r="B178" t="s">
-        <v>4</v>
+        <v>43976</v>
+      </c>
+      <c r="B178">
+        <v>93.16</v>
       </c>
       <c r="C178">
-        <v>120.32</v>
-      </c>
-      <c r="D178" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D178">
+        <v>-28.54</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43947</v>
+        <v>43977</v>
       </c>
       <c r="B179">
-        <v>89.87</v>
+        <v>94.34</v>
       </c>
       <c r="C179">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D179">
-        <v>-25.31</v>
+        <v>-27.63</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43948</v>
+        <v>43978</v>
       </c>
       <c r="B180">
-        <v>89.5</v>
+        <v>95.11</v>
       </c>
       <c r="C180">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D180">
-        <v>-25.62</v>
+        <v>-27.05</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43949</v>
+        <v>43979</v>
       </c>
       <c r="B181">
-        <v>89.05</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C181">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D181">
-        <v>-25.99</v>
+        <v>-26.71</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43950</v>
+        <v>43980</v>
       </c>
       <c r="B182">
-        <v>89.55</v>
+        <v>95.20999999999999</v>
       </c>
       <c r="C182">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D182">
-        <v>-25.58</v>
+        <v>-26.97</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43951</v>
+        <v>43981</v>
       </c>
       <c r="B183">
-        <v>90.33</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="C183">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D183">
-        <v>-24.92</v>
+        <v>-26.91</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B184" t="s">
-        <v>4</v>
+        <v>43982</v>
+      </c>
+      <c r="B184">
+        <v>94.98</v>
       </c>
       <c r="C184">
         <v>130.37</v>
       </c>
-      <c r="D184" t="s">
-        <v>4</v>
+      <c r="D184">
+        <v>-27.15</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43953</v>
+        <v>43983</v>
       </c>
       <c r="B185">
-        <v>89.93000000000001</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="C185">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D185">
-        <v>-31.02</v>
+        <v>-41.26</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43954</v>
+        <v>43984</v>
       </c>
       <c r="B186">
-        <v>91.06999999999999</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="C186">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D186">
-        <v>-30.15</v>
+        <v>-41.03</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43955</v>
+        <v>43985</v>
       </c>
       <c r="B187">
-        <v>91.83</v>
+        <v>92.62</v>
       </c>
       <c r="C187">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D187">
-        <v>-29.56</v>
+        <v>-41.15</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43956</v>
+        <v>43986</v>
       </c>
       <c r="B188">
-        <v>91.88</v>
+        <v>92.27</v>
       </c>
       <c r="C188">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D188">
-        <v>-29.52</v>
+        <v>-41.38</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43957</v>
+        <v>43987</v>
       </c>
       <c r="B189">
-        <v>90.7</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C189">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D189">
-        <v>-30.43</v>
+        <v>-42.12</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43958</v>
+        <v>43988</v>
       </c>
       <c r="B190">
-        <v>93.69</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="C190">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D190">
-        <v>-28.14</v>
+        <v>-42.14</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43959</v>
+        <v>43989</v>
       </c>
       <c r="B191">
-        <v>92.98999999999999</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="C191">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D191">
-        <v>-28.67</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43960</v>
+        <v>43990</v>
       </c>
       <c r="B192">
-        <v>92.23999999999999</v>
+        <v>92.81</v>
       </c>
       <c r="C192">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D192">
-        <v>-29.25</v>
+        <v>-41.04</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43961</v>
+        <v>43991</v>
       </c>
       <c r="B193">
-        <v>91.56999999999999</v>
+        <v>93.44</v>
       </c>
       <c r="C193">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D193">
-        <v>-29.76</v>
+        <v>-40.63</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43962</v>
+        <v>43992</v>
       </c>
       <c r="B194">
-        <v>92.48999999999999</v>
+        <v>122.5</v>
       </c>
       <c r="C194">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D194">
-        <v>-29.06</v>
+        <v>-22.17</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43963</v>
+        <v>43993</v>
       </c>
       <c r="B195">
-        <v>91.98999999999999</v>
+        <v>155.84</v>
       </c>
       <c r="C195">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D195">
-        <v>-29.44</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43964</v>
+        <v>43994</v>
       </c>
       <c r="B196">
-        <v>90.33</v>
+        <v>159.99</v>
       </c>
       <c r="C196">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D196">
-        <v>-30.71</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43965</v>
+        <v>43995</v>
       </c>
       <c r="B197">
-        <v>90.52</v>
+        <v>161.1</v>
       </c>
       <c r="C197">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D197">
-        <v>-30.56</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43966</v>
+        <v>43996</v>
       </c>
       <c r="B198">
-        <v>91.42</v>
+        <v>134.36</v>
       </c>
       <c r="C198">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D198">
-        <v>-29.88</v>
+        <v>-14.63</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43967</v>
+        <v>43997</v>
       </c>
       <c r="B199">
-        <v>92.16</v>
+        <v>112.18</v>
       </c>
       <c r="C199">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D199">
-        <v>-29.31</v>
+        <v>-28.73</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43968</v>
+        <v>43998</v>
       </c>
       <c r="B200">
-        <v>93.48</v>
+        <v>104.49</v>
       </c>
       <c r="C200">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D200">
-        <v>-28.29</v>
+        <v>-33.61</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43969</v>
+        <v>43999</v>
       </c>
       <c r="B201">
-        <v>93.51000000000001</v>
+        <v>100.47</v>
       </c>
       <c r="C201">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D201">
-        <v>-28.28</v>
+        <v>-36.17</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43970</v>
+        <v>44000</v>
       </c>
       <c r="B202">
-        <v>92.94</v>
+        <v>99.06</v>
       </c>
       <c r="C202">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D202">
-        <v>-28.71</v>
+        <v>-37.06</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43971</v>
+        <v>44001</v>
       </c>
       <c r="B203">
-        <v>91.84999999999999</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="C203">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D203">
-        <v>-29.55</v>
+        <v>-40.28</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43972</v>
+        <v>44002</v>
       </c>
       <c r="B204">
-        <v>90.79000000000001</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="C204">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D204">
-        <v>-30.36</v>
+        <v>-39.64</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43973</v>
+        <v>44003</v>
       </c>
       <c r="B205">
-        <v>90.26000000000001</v>
+        <v>93.84</v>
       </c>
       <c r="C205">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D205">
-        <v>-30.76</v>
+        <v>-40.38</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43974</v>
+        <v>44004</v>
       </c>
       <c r="B206">
-        <v>90.89</v>
+        <v>93.31</v>
       </c>
       <c r="C206">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D206">
-        <v>-30.29</v>
+        <v>-40.71</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43975</v>
+        <v>44005</v>
       </c>
       <c r="B207">
-        <v>92.44</v>
+        <v>92.56</v>
       </c>
       <c r="C207">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D207">
-        <v>-29.09</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43976</v>
+        <v>44006</v>
       </c>
       <c r="B208">
-        <v>93.16</v>
+        <v>92.73</v>
       </c>
       <c r="C208">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D208">
-        <v>-28.54</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43977</v>
+        <v>44007</v>
       </c>
       <c r="B209">
-        <v>94.34</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="C209">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D209">
-        <v>-27.63</v>
+        <v>-41.36</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43978</v>
+        <v>44008</v>
       </c>
       <c r="B210">
-        <v>95.11</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C210">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D210">
-        <v>-27.05</v>
+        <v>-39.3</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43979</v>
+        <v>44009</v>
       </c>
       <c r="B211">
-        <v>95.54000000000001</v>
+        <v>103.75</v>
       </c>
       <c r="C211">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D211">
-        <v>-26.71</v>
+        <v>-34.08</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43980</v>
+        <v>44010</v>
       </c>
       <c r="B212">
-        <v>95.20999999999999</v>
+        <v>109.07</v>
       </c>
       <c r="C212">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D212">
-        <v>-26.97</v>
+        <v>-30.7</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43981</v>
+        <v>44011</v>
       </c>
       <c r="B213">
-        <v>95.29000000000001</v>
+        <v>113.61</v>
       </c>
       <c r="C213">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D213">
-        <v>-26.91</v>
+        <v>-27.82</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B214">
-        <v>94.98</v>
+        <v>107.47</v>
       </c>
       <c r="C214">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D214">
-        <v>-27.15</v>
+        <v>-31.72</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B215">
-        <v>92.45999999999999</v>
+        <v>124.12</v>
       </c>
       <c r="C215">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D215">
-        <v>-41.26</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B216">
-        <v>92.81999999999999</v>
+        <v>123.93</v>
       </c>
       <c r="C216">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D216">
-        <v>-41.03</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B217">
-        <v>92.62</v>
+        <v>117.51</v>
       </c>
       <c r="C217">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D217">
-        <v>-41.15</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B218">
-        <v>92.27</v>
+        <v>108.65</v>
       </c>
       <c r="C218">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D218">
-        <v>-41.38</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B219">
-        <v>91.09999999999999</v>
+        <v>103.79</v>
       </c>
       <c r="C219">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D219">
-        <v>-42.12</v>
+        <v>-17.81</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B220">
-        <v>91.06999999999999</v>
+        <v>100.84</v>
       </c>
       <c r="C220">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D220">
-        <v>-42.14</v>
+        <v>-20.15</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B221">
-        <v>92.73999999999999</v>
+        <v>98.69</v>
       </c>
       <c r="C221">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D221">
-        <v>-41.08</v>
+        <v>-21.85</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B222">
-        <v>92.81</v>
+        <v>97.45</v>
       </c>
       <c r="C222">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D222">
-        <v>-41.04</v>
+        <v>-22.83</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B223">
-        <v>93.44</v>
+        <v>95.33</v>
       </c>
       <c r="C223">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D223">
-        <v>-40.63</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B224">
-        <v>122.5</v>
+        <v>95.02</v>
       </c>
       <c r="C224">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D224">
-        <v>-22.17</v>
+        <v>-24.76</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B225">
-        <v>155.84</v>
+        <v>96.92</v>
       </c>
       <c r="C225">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D225">
-        <v>-0.99</v>
+        <v>-23.26</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B226">
-        <v>159.99</v>
+        <v>92.83</v>
       </c>
       <c r="C226">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D226">
-        <v>1.65</v>
+        <v>-26.49</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B227">
-        <v>161.1</v>
+        <v>92.44</v>
       </c>
       <c r="C227">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D227">
-        <v>2.36</v>
+        <v>-26.8</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B228">
-        <v>134.36</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="C228">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D228">
-        <v>-14.63</v>
+        <v>-26.96</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B229">
-        <v>112.18</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="C229">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D229">
-        <v>-28.73</v>
+        <v>-26.08</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B230">
-        <v>104.49</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C230">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D230">
-        <v>-33.61</v>
+        <v>-26.04</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B231">
-        <v>100.47</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="C231">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D231">
-        <v>-36.17</v>
+        <v>-26.52</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B232">
-        <v>99.06</v>
+        <v>92.98</v>
       </c>
       <c r="C232">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D232">
-        <v>-37.06</v>
+        <v>-26.37</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B233">
-        <v>93.98999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C233">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D233">
-        <v>-40.28</v>
+        <v>-27.23</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B234">
-        <v>95.01000000000001</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C234">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D234">
-        <v>-39.64</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B235">
-        <v>93.84</v>
+        <v>92.34</v>
       </c>
       <c r="C235">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D235">
-        <v>-40.38</v>
+        <v>-26.88</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B236">
-        <v>93.31</v>
+        <v>92.19</v>
       </c>
       <c r="C236">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D236">
-        <v>-40.71</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B237">
-        <v>92.56</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="C237">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D237">
-        <v>-41.19</v>
+        <v>-27.09</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B238">
-        <v>92.73</v>
+        <v>91.92</v>
       </c>
       <c r="C238">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D238">
-        <v>-41.08</v>
+        <v>-27.21</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B239">
-        <v>92.29000000000001</v>
+        <v>91.86</v>
       </c>
       <c r="C239">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D239">
-        <v>-41.36</v>
+        <v>-27.26</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B240">
-        <v>95.54000000000001</v>
+        <v>91.77</v>
       </c>
       <c r="C240">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D240">
-        <v>-39.3</v>
+        <v>-27.33</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B241">
-        <v>103.75</v>
+        <v>91.2</v>
       </c>
       <c r="C241">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D241">
-        <v>-34.08</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B242">
-        <v>109.07</v>
+        <v>91</v>
       </c>
       <c r="C242">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D242">
-        <v>-30.7</v>
+        <v>-27.94</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B243">
-        <v>113.61</v>
+        <v>107.57</v>
       </c>
       <c r="C243">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D243">
-        <v>-27.82</v>
+        <v>-14.82</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B244">
-        <v>107.47</v>
+        <v>118.47</v>
       </c>
       <c r="C244">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D244">
-        <v>-31.72</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B245">
-        <v>124.12</v>
+        <v>133.49</v>
       </c>
       <c r="C245">
         <v>126.28</v>
       </c>
       <c r="D245">
-        <v>-1.71</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B246">
-        <v>123.93</v>
+        <v>118.64</v>
       </c>
       <c r="C246">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D246">
-        <v>-1.87</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B247">
-        <v>117.51</v>
+        <v>107.18</v>
       </c>
       <c r="C247">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D247">
-        <v>-6.95</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B248">
-        <v>108.65</v>
+        <v>102.56</v>
       </c>
       <c r="C248">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D248">
-        <v>-13.97</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44017</v>
+        <v>44047</v>
       </c>
       <c r="B249">
-        <v>103.79</v>
+        <v>99.44</v>
       </c>
       <c r="C249">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D249">
-        <v>-17.81</v>
+        <v>-12.88</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44018</v>
+        <v>44048</v>
       </c>
       <c r="B250">
-        <v>100.84</v>
+        <v>96.78</v>
       </c>
       <c r="C250">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D250">
-        <v>-20.15</v>
+        <v>-15.21</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44019</v>
+        <v>44049</v>
       </c>
       <c r="B251">
-        <v>98.69</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="C251">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D251">
-        <v>-21.85</v>
+        <v>-16.12</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44020</v>
+        <v>44050</v>
       </c>
       <c r="B252">
-        <v>97.45</v>
+        <v>93.34</v>
       </c>
       <c r="C252">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D252">
-        <v>-22.83</v>
+        <v>-18.22</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44021</v>
+        <v>44051</v>
       </c>
       <c r="B253">
-        <v>95.33</v>
+        <v>92.55</v>
       </c>
       <c r="C253">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D253">
-        <v>-24.51</v>
+        <v>-18.91</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44022</v>
+        <v>44052</v>
       </c>
       <c r="B254">
-        <v>95.02</v>
+        <v>91.56</v>
       </c>
       <c r="C254">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D254">
-        <v>-24.76</v>
+        <v>-19.78</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44023</v>
+        <v>44053</v>
       </c>
       <c r="B255">
-        <v>96.92</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C255">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D255">
-        <v>-23.26</v>
+        <v>-19.63</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44024</v>
+        <v>44054</v>
       </c>
       <c r="B256">
-        <v>92.83</v>
+        <v>91.53</v>
       </c>
       <c r="C256">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D256">
-        <v>-26.49</v>
+        <v>-19.81</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44025</v>
+        <v>44055</v>
       </c>
       <c r="B257">
-        <v>92.44</v>
+        <v>91.09</v>
       </c>
       <c r="C257">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D257">
-        <v>-26.8</v>
+        <v>-20.19</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44026</v>
+        <v>44056</v>
       </c>
       <c r="B258">
-        <v>92.23999999999999</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="C258">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D258">
-        <v>-26.96</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44027</v>
+        <v>44057</v>
       </c>
       <c r="B259">
-        <v>93.34999999999999</v>
+        <v>90.81</v>
       </c>
       <c r="C259">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D259">
-        <v>-26.08</v>
+        <v>-20.44</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44028</v>
+        <v>44058</v>
       </c>
       <c r="B260">
-        <v>93.40000000000001</v>
+        <v>104.66</v>
       </c>
       <c r="C260">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D260">
-        <v>-26.04</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44029</v>
+        <v>44059</v>
       </c>
       <c r="B261">
-        <v>92.79000000000001</v>
+        <v>156.16</v>
       </c>
       <c r="C261">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D261">
-        <v>-26.52</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44030</v>
+        <v>44060</v>
       </c>
       <c r="B262">
-        <v>92.98</v>
+        <v>161.25</v>
       </c>
       <c r="C262">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D262">
-        <v>-26.37</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44031</v>
+        <v>44061</v>
       </c>
       <c r="B263">
-        <v>91.90000000000001</v>
+        <v>184.96</v>
       </c>
       <c r="C263">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D263">
-        <v>-27.23</v>
+        <v>62.05</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44032</v>
+        <v>44062</v>
       </c>
       <c r="B264">
-        <v>91.73999999999999</v>
+        <v>218.26</v>
       </c>
       <c r="C264">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D264">
-        <v>-27.36</v>
+        <v>91.22</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44033</v>
+        <v>44063</v>
       </c>
       <c r="B265">
-        <v>92.34</v>
+        <v>243.69</v>
       </c>
       <c r="C265">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D265">
-        <v>-26.88</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44034</v>
+        <v>44064</v>
       </c>
       <c r="B266">
-        <v>92.19</v>
+        <v>267.82</v>
       </c>
       <c r="C266">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D266">
-        <v>-27</v>
+        <v>134.64</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44035</v>
+        <v>44065</v>
       </c>
       <c r="B267">
-        <v>92.06999999999999</v>
+        <v>265.49</v>
       </c>
       <c r="C267">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D267">
-        <v>-27.09</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44036</v>
+        <v>44066</v>
       </c>
       <c r="B268">
-        <v>91.92</v>
+        <v>246.9</v>
       </c>
       <c r="C268">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D268">
-        <v>-27.21</v>
+        <v>116.31</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44037</v>
+        <v>44067</v>
       </c>
       <c r="B269">
-        <v>91.86</v>
+        <v>225.24</v>
       </c>
       <c r="C269">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D269">
-        <v>-27.26</v>
+        <v>97.34</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44038</v>
+        <v>44068</v>
       </c>
       <c r="B270">
-        <v>91.77</v>
+        <v>198.15</v>
       </c>
       <c r="C270">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D270">
-        <v>-27.33</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44039</v>
+        <v>44069</v>
       </c>
       <c r="B271">
-        <v>91.2</v>
+        <v>159.3</v>
       </c>
       <c r="C271">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D271">
-        <v>-27.78</v>
+        <v>39.57</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44040</v>
+        <v>44070</v>
       </c>
       <c r="B272">
-        <v>91</v>
+        <v>133.88</v>
       </c>
       <c r="C272">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D272">
-        <v>-27.94</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B273">
-        <v>107.57</v>
+        <v>123.39</v>
       </c>
       <c r="C273">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D273">
-        <v>-14.82</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B274">
-        <v>118.47</v>
+        <v>115.97</v>
       </c>
       <c r="C274">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D274">
-        <v>-6.19</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B275">
-        <v>133.49</v>
+        <v>110.2</v>
       </c>
       <c r="C275">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D275">
-        <v>5.71</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B276">
-        <v>118.64</v>
+        <v>107.03</v>
       </c>
       <c r="C276">
         <v>114.14</v>
       </c>
       <c r="D276">
-        <v>3.94</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B277">
-        <v>107.18</v>
+        <v>106.62</v>
       </c>
       <c r="C277">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D277">
-        <v>-6.1</v>
+        <v>-20.37</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B278">
-        <v>102.56</v>
+        <v>104.38</v>
       </c>
       <c r="C278">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D278">
-        <v>-10.14</v>
+        <v>-22.05</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44047</v>
+        <v>44077</v>
       </c>
       <c r="B279">
-        <v>99.44</v>
+        <v>97.37</v>
       </c>
       <c r="C279">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D279">
-        <v>-12.88</v>
+        <v>-27.29</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44048</v>
+        <v>44078</v>
       </c>
       <c r="B280">
-        <v>96.78</v>
+        <v>88.66</v>
       </c>
       <c r="C280">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D280">
-        <v>-15.21</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44049</v>
+        <v>44079</v>
       </c>
       <c r="B281">
-        <v>95.73999999999999</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="C281">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D281">
-        <v>-16.12</v>
+        <v>-35.93</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44050</v>
+        <v>44080</v>
       </c>
       <c r="B282">
-        <v>93.34</v>
+        <v>83.67</v>
       </c>
       <c r="C282">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D282">
-        <v>-18.22</v>
+        <v>-37.52</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44051</v>
+        <v>44081</v>
       </c>
       <c r="B283">
-        <v>92.55</v>
+        <v>83.16</v>
       </c>
       <c r="C283">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D283">
-        <v>-18.91</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44052</v>
+        <v>44082</v>
       </c>
       <c r="B284">
-        <v>91.56</v>
+        <v>82.08</v>
       </c>
       <c r="C284">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D284">
-        <v>-19.78</v>
+        <v>-38.7</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44053</v>
+        <v>44083</v>
       </c>
       <c r="B285">
-        <v>91.73999999999999</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="C285">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D285">
-        <v>-19.63</v>
+        <v>-39.85</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44054</v>
+        <v>44084</v>
       </c>
       <c r="B286">
-        <v>91.53</v>
+        <v>79.53</v>
       </c>
       <c r="C286">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D286">
-        <v>-19.81</v>
+        <v>-40.61</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44055</v>
+        <v>44085</v>
       </c>
       <c r="B287">
-        <v>91.09</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="C287">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D287">
-        <v>-20.19</v>
+        <v>-40.45</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44056</v>
+        <v>44086</v>
       </c>
       <c r="B288">
-        <v>90.73999999999999</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="C288">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D288">
-        <v>-20.5</v>
+        <v>-40.95</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44057</v>
+        <v>44087</v>
       </c>
       <c r="B289">
-        <v>90.81</v>
+        <v>78.67</v>
       </c>
       <c r="C289">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D289">
-        <v>-20.44</v>
+        <v>-41.25</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44058</v>
+        <v>44088</v>
       </c>
       <c r="B290">
-        <v>104.66</v>
+        <v>78.98</v>
       </c>
       <c r="C290">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D290">
-        <v>-8.31</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44059</v>
+        <v>44089</v>
       </c>
       <c r="B291">
-        <v>156.16</v>
+        <v>78</v>
       </c>
       <c r="C291">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D291">
-        <v>36.82</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44060</v>
+        <v>44090</v>
       </c>
       <c r="B292">
-        <v>161.25</v>
+        <v>77.23</v>
       </c>
       <c r="C292">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D292">
-        <v>41.27</v>
+        <v>-42.33</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44061</v>
+        <v>44091</v>
       </c>
       <c r="B293">
-        <v>184.96</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="C293">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D293">
-        <v>62.05</v>
+        <v>-42.38</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44062</v>
+        <v>44092</v>
       </c>
       <c r="B294">
-        <v>218.26</v>
+        <v>76.72</v>
       </c>
       <c r="C294">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D294">
-        <v>91.22</v>
+        <v>-42.71</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44063</v>
+        <v>44093</v>
       </c>
       <c r="B295">
-        <v>243.69</v>
+        <v>76.58</v>
       </c>
       <c r="C295">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D295">
-        <v>113.5</v>
+        <v>-42.81</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44064</v>
+        <v>44094</v>
       </c>
       <c r="B296">
-        <v>267.82</v>
+        <v>77.56</v>
       </c>
       <c r="C296">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D296">
-        <v>134.64</v>
+        <v>-42.08</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44065</v>
+        <v>44095</v>
       </c>
       <c r="B297">
-        <v>265.49</v>
+        <v>78</v>
       </c>
       <c r="C297">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D297">
-        <v>132.6</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44066</v>
+        <v>44096</v>
       </c>
       <c r="B298">
-        <v>246.9</v>
+        <v>78</v>
       </c>
       <c r="C298">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D298">
-        <v>116.31</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44067</v>
+        <v>44097</v>
       </c>
       <c r="B299">
-        <v>225.24</v>
+        <v>78.5</v>
       </c>
       <c r="C299">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D299">
-        <v>97.34</v>
+        <v>-41.38</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44068</v>
+        <v>44098</v>
       </c>
       <c r="B300">
-        <v>198.15</v>
+        <v>77.59</v>
       </c>
       <c r="C300">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D300">
-        <v>73.59999999999999</v>
+        <v>-42.05</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44069</v>
+        <v>44099</v>
       </c>
       <c r="B301">
-        <v>159.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C301">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D301">
-        <v>39.57</v>
+        <v>-42.2</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44070</v>
+        <v>44100</v>
       </c>
       <c r="B302">
-        <v>133.88</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="C302">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D302">
-        <v>17.29</v>
+        <v>-42.32</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B303">
-        <v>123.39</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C303">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D303">
-        <v>8.1</v>
+        <v>-42.76</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B304">
-        <v>115.97</v>
+        <v>95</v>
       </c>
       <c r="C304">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D304">
-        <v>1.6</v>
+        <v>-29.06</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B305">
-        <v>110.2</v>
+        <v>106</v>
       </c>
       <c r="C305">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D305">
-        <v>-3.45</v>
+        <v>-20.84</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B306">
-        <v>107.03</v>
+        <v>111.1</v>
       </c>
       <c r="C306">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D306">
-        <v>-6.23</v>
+        <v>-17.03</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B307">
-        <v>106.62</v>
+        <v>102.21</v>
       </c>
       <c r="C307">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D307">
-        <v>-20.37</v>
+        <v>-32.65</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44076</v>
+        <v>44106</v>
       </c>
       <c r="B308">
-        <v>104.38</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C308">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D308">
-        <v>-22.05</v>
+        <v>-41.62</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44077</v>
+        <v>44107</v>
       </c>
       <c r="B309">
-        <v>97.37</v>
+        <v>82.05</v>
       </c>
       <c r="C309">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D309">
-        <v>-27.29</v>
+        <v>-45.93</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44078</v>
+        <v>44108</v>
       </c>
       <c r="B310">
-        <v>88.66</v>
+        <v>80.59</v>
       </c>
       <c r="C310">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D310">
-        <v>-33.79</v>
+        <v>-46.89</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44079</v>
+        <v>44109</v>
       </c>
       <c r="B311">
-        <v>85.79000000000001</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="C311">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D311">
-        <v>-35.93</v>
+        <v>-48.25</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44080</v>
+        <v>44110</v>
       </c>
       <c r="B312">
-        <v>83.67</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="C312">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D312">
-        <v>-37.52</v>
+        <v>-49.09</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44081</v>
+        <v>44111</v>
       </c>
       <c r="B313">
-        <v>83.16</v>
+        <v>75.73</v>
       </c>
       <c r="C313">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D313">
-        <v>-37.9</v>
+        <v>-50.1</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44082</v>
+        <v>44112</v>
       </c>
       <c r="B314">
-        <v>82.08</v>
+        <v>82.2</v>
       </c>
       <c r="C314">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D314">
-        <v>-38.7</v>
+        <v>-45.84</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44083</v>
+        <v>44113</v>
       </c>
       <c r="B315">
-        <v>80.54000000000001</v>
+        <v>98.48</v>
       </c>
       <c r="C315">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D315">
-        <v>-39.85</v>
+        <v>-35.11</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44084</v>
+        <v>44114</v>
       </c>
       <c r="B316">
-        <v>79.53</v>
+        <v>114.48</v>
       </c>
       <c r="C316">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D316">
-        <v>-40.61</v>
+        <v>-24.57</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44085</v>
+        <v>44115</v>
       </c>
       <c r="B317">
-        <v>79.73999999999999</v>
+        <v>117.85</v>
       </c>
       <c r="C317">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D317">
-        <v>-40.45</v>
+        <v>-22.34</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44086</v>
+        <v>44116</v>
       </c>
       <c r="B318">
-        <v>79.06999999999999</v>
+        <v>104.99</v>
       </c>
       <c r="C318">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D318">
-        <v>-40.95</v>
+        <v>-30.82</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44087</v>
+        <v>44117</v>
       </c>
       <c r="B319">
-        <v>78.67</v>
+        <v>91.83</v>
       </c>
       <c r="C319">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D319">
-        <v>-41.25</v>
+        <v>-39.49</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44088</v>
+        <v>44118</v>
       </c>
       <c r="B320">
-        <v>78.98</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="C320">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D320">
-        <v>-41.02</v>
+        <v>-44.33</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44089</v>
+        <v>44119</v>
       </c>
       <c r="B321">
-        <v>78</v>
+        <v>81.75</v>
       </c>
       <c r="C321">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D321">
-        <v>-41.75</v>
+        <v>-46.13</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44090</v>
+        <v>44120</v>
       </c>
       <c r="B322">
-        <v>77.23</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="C322">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D322">
-        <v>-42.33</v>
+        <v>-45.01</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44091</v>
+        <v>44121</v>
       </c>
       <c r="B323">
-        <v>77.15000000000001</v>
+        <v>80.34</v>
       </c>
       <c r="C323">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D323">
-        <v>-42.38</v>
+        <v>-47.06</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44092</v>
+        <v>44122</v>
       </c>
       <c r="B324">
-        <v>76.72</v>
+        <v>77.88</v>
       </c>
       <c r="C324">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D324">
-        <v>-42.71</v>
+        <v>-48.69</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44093</v>
+        <v>44123</v>
       </c>
       <c r="B325">
-        <v>76.58</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="C325">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D325">
-        <v>-42.81</v>
+        <v>-48.76</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44094</v>
+        <v>44124</v>
       </c>
       <c r="B326">
-        <v>77.56</v>
+        <v>76.67</v>
       </c>
       <c r="C326">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D326">
-        <v>-42.08</v>
+        <v>-49.48</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44095</v>
+        <v>44125</v>
       </c>
       <c r="B327">
-        <v>78</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="C327">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D327">
-        <v>-41.75</v>
+        <v>-49.69</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44096</v>
+        <v>44126</v>
       </c>
       <c r="B328">
-        <v>78</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="C328">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D328">
-        <v>-41.75</v>
+        <v>-49.6</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44097</v>
+        <v>44127</v>
       </c>
       <c r="B329">
-        <v>78.5</v>
+        <v>76.11</v>
       </c>
       <c r="C329">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D329">
-        <v>-41.38</v>
+        <v>-49.85</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44098</v>
+        <v>44128</v>
       </c>
       <c r="B330">
-        <v>77.59</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C330">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D330">
-        <v>-42.05</v>
+        <v>-49.5</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44099</v>
+        <v>44129</v>
       </c>
       <c r="B331">
-        <v>77.40000000000001</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="C331">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D331">
-        <v>-42.2</v>
+        <v>-48.23</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44100</v>
+        <v>44130</v>
       </c>
       <c r="B332">
-        <v>77.23999999999999</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="C332">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D332">
-        <v>-42.32</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44101</v>
+        <v>44131</v>
       </c>
       <c r="B333">
-        <v>76.65000000000001</v>
+        <v>76.42</v>
       </c>
       <c r="C333">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D333">
-        <v>-42.76</v>
+        <v>-49.65</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44102</v>
+        <v>44132</v>
       </c>
       <c r="B334">
-        <v>95</v>
+        <v>77.83</v>
       </c>
       <c r="C334">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D334">
-        <v>-29.06</v>
+        <v>-48.72</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44103</v>
+        <v>44133</v>
       </c>
       <c r="B335">
-        <v>106</v>
+        <v>76.5</v>
       </c>
       <c r="C335">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D335">
-        <v>-20.84</v>
+        <v>-49.59</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B336">
-        <v>111.1</v>
+        <v>82.67</v>
       </c>
       <c r="C336">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D336">
-        <v>-17.03</v>
+        <v>-45.53</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B337">
-        <v>102.21</v>
+        <v>80.97</v>
       </c>
       <c r="C337">
         <v>151.76</v>
       </c>
       <c r="D337">
-        <v>-32.65</v>
+        <v>-46.65</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44106</v>
+        <v>44136</v>
       </c>
       <c r="B338">
-        <v>88.59999999999999</v>
+        <v>92.72</v>
       </c>
       <c r="C338">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D338">
-        <v>-41.62</v>
+        <v>-31.99</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44107</v>
+        <v>44137</v>
       </c>
       <c r="B339">
-        <v>82.05</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="C339">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D339">
-        <v>-45.93</v>
+        <v>-32.14</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44108</v>
+        <v>44138</v>
       </c>
       <c r="B340">
-        <v>80.59</v>
+        <v>90.27</v>
       </c>
       <c r="C340">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D340">
-        <v>-46.89</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44109</v>
+        <v>44139</v>
       </c>
       <c r="B341">
-        <v>78.54000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C341">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D341">
-        <v>-48.25</v>
+        <v>-31.93</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44110</v>
+        <v>44140</v>
       </c>
       <c r="B342">
-        <v>77.26000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="C342">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D342">
-        <v>-49.09</v>
+        <v>-36.88</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44111</v>
+        <v>44141</v>
       </c>
       <c r="B343">
-        <v>75.73</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C343">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D343">
-        <v>-50.1</v>
+        <v>-37.36</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44112</v>
+        <v>44142</v>
       </c>
       <c r="B344">
-        <v>82.2</v>
+        <v>83.97</v>
       </c>
       <c r="C344">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D344">
-        <v>-45.84</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44113</v>
+        <v>44143</v>
       </c>
       <c r="B345">
-        <v>98.48</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="C345">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D345">
-        <v>-35.11</v>
+        <v>-40.53</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44114</v>
+        <v>44144</v>
       </c>
       <c r="B346">
-        <v>114.48</v>
+        <v>78.53</v>
       </c>
       <c r="C346">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D346">
-        <v>-24.57</v>
+        <v>-42.4</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44115</v>
+        <v>44145</v>
       </c>
       <c r="B347">
-        <v>117.85</v>
+        <v>78.11</v>
       </c>
       <c r="C347">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D347">
-        <v>-22.34</v>
+        <v>-42.7</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44116</v>
+        <v>44146</v>
       </c>
       <c r="B348">
-        <v>104.99</v>
+        <v>94.12</v>
       </c>
       <c r="C348">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D348">
-        <v>-30.82</v>
+        <v>-30.96</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44117</v>
+        <v>44147</v>
       </c>
       <c r="B349">
-        <v>91.83</v>
+        <v>104.58</v>
       </c>
       <c r="C349">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D349">
-        <v>-39.49</v>
+        <v>-23.29</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44118</v>
+        <v>44148</v>
       </c>
       <c r="B350">
-        <v>84.48999999999999</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="C350">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D350">
-        <v>-44.33</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44119</v>
+        <v>44149</v>
       </c>
       <c r="B351">
-        <v>81.75</v>
+        <v>89.53</v>
       </c>
       <c r="C351">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D351">
-        <v>-46.13</v>
+        <v>-34.33</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44120</v>
+        <v>44150</v>
       </c>
       <c r="B352">
-        <v>83.45999999999999</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="C352">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D352">
-        <v>-45.01</v>
+        <v>-36.74</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44121</v>
+        <v>44151</v>
       </c>
       <c r="B353">
-        <v>80.34</v>
+        <v>92.23</v>
       </c>
       <c r="C353">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D353">
-        <v>-47.06</v>
+        <v>-32.35</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44122</v>
+        <v>44152</v>
       </c>
       <c r="B354">
-        <v>77.88</v>
+        <v>107.59</v>
       </c>
       <c r="C354">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D354">
-        <v>-48.69</v>
+        <v>-21.08</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44123</v>
+        <v>44153</v>
       </c>
       <c r="B355">
-        <v>77.76000000000001</v>
+        <v>121.44</v>
       </c>
       <c r="C355">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D355">
-        <v>-48.76</v>
+        <v>-10.93</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44124</v>
+        <v>44154</v>
       </c>
       <c r="B356">
-        <v>76.67</v>
+        <v>125.58</v>
       </c>
       <c r="C356">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D356">
-        <v>-49.48</v>
+        <v>-7.89</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44125</v>
+        <v>44155</v>
       </c>
       <c r="B357">
-        <v>76.34999999999999</v>
+        <v>123.19</v>
       </c>
       <c r="C357">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D357">
-        <v>-49.69</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44126</v>
+        <v>44156</v>
       </c>
       <c r="B358">
-        <v>76.48999999999999</v>
+        <v>129.56</v>
       </c>
       <c r="C358">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D358">
-        <v>-49.6</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44127</v>
+        <v>44157</v>
       </c>
       <c r="B359">
-        <v>76.11</v>
+        <v>124.57</v>
       </c>
       <c r="C359">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D359">
-        <v>-49.85</v>
+        <v>-8.630000000000001</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44128</v>
+        <v>44158</v>
       </c>
       <c r="B360">
-        <v>76.65000000000001</v>
+        <v>107.69</v>
       </c>
       <c r="C360">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D360">
-        <v>-49.5</v>
+        <v>-21.01</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44129</v>
+        <v>44159</v>
       </c>
       <c r="B361">
-        <v>78.56999999999999</v>
+        <v>97.08</v>
       </c>
       <c r="C361">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D361">
-        <v>-48.23</v>
+        <v>-28.8</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44130</v>
+        <v>44160</v>
       </c>
       <c r="B362">
-        <v>76.15000000000001</v>
+        <v>88.39</v>
       </c>
       <c r="C362">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D362">
-        <v>-49.82</v>
+        <v>-35.17</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44131</v>
+        <v>44161</v>
       </c>
       <c r="B363">
-        <v>76.42</v>
+        <v>83.77</v>
       </c>
       <c r="C363">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D363">
-        <v>-49.65</v>
+        <v>-38.55</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44132</v>
+        <v>44162</v>
       </c>
       <c r="B364">
-        <v>77.83</v>
+        <v>119.47</v>
       </c>
       <c r="C364">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D364">
-        <v>-48.72</v>
+        <v>-12.37</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44133</v>
+        <v>44163</v>
       </c>
       <c r="B365">
-        <v>76.5</v>
+        <v>89</v>
       </c>
       <c r="C365">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D365">
-        <v>-49.59</v>
+        <v>-34.72</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44134</v>
+        <v>44164</v>
       </c>
       <c r="B366">
-        <v>82.67</v>
+        <v>101.71</v>
       </c>
       <c r="C366">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D366">
-        <v>-45.53</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B367">
-        <v>80.97</v>
+        <v>98.62</v>
       </c>
       <c r="C367">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D367">
-        <v>-46.65</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B368">
-        <v>92.72</v>
-      </c>
-      <c r="C368">
-        <v>136.33</v>
-      </c>
-      <c r="D368">
-        <v>-31.99</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44137</v>
-      </c>
-      <c r="B369">
-        <v>92.51000000000001</v>
-      </c>
-      <c r="C369">
-        <v>136.33</v>
-      </c>
-      <c r="D369">
-        <v>-32.14</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44138</v>
-      </c>
-      <c r="B370">
-        <v>90.27</v>
-      </c>
-      <c r="C370">
-        <v>136.33</v>
-      </c>
-      <c r="D370">
-        <v>-33.79</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44139</v>
-      </c>
-      <c r="B371">
-        <v>92.8</v>
-      </c>
-      <c r="C371">
-        <v>136.33</v>
-      </c>
-      <c r="D371">
-        <v>-31.93</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44140</v>
-      </c>
-      <c r="B372">
-        <v>86.05</v>
-      </c>
-      <c r="C372">
-        <v>136.33</v>
-      </c>
-      <c r="D372">
-        <v>-36.88</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44141</v>
-      </c>
-      <c r="B373">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="C373">
-        <v>136.33</v>
-      </c>
-      <c r="D373">
-        <v>-37.36</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44142</v>
-      </c>
-      <c r="B374">
-        <v>83.97</v>
-      </c>
-      <c r="C374">
-        <v>136.33</v>
-      </c>
-      <c r="D374">
-        <v>-38.41</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44143</v>
-      </c>
-      <c r="B375">
-        <v>81.06999999999999</v>
-      </c>
-      <c r="C375">
-        <v>136.33</v>
-      </c>
-      <c r="D375">
-        <v>-40.53</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44144</v>
-      </c>
-      <c r="B376">
-        <v>78.53</v>
-      </c>
-      <c r="C376">
-        <v>136.33</v>
-      </c>
-      <c r="D376">
-        <v>-42.4</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44145</v>
-      </c>
-      <c r="B377">
-        <v>78.11</v>
-      </c>
-      <c r="C377">
-        <v>136.33</v>
-      </c>
-      <c r="D377">
-        <v>-42.7</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44146</v>
-      </c>
-      <c r="B378">
-        <v>94.12</v>
-      </c>
-      <c r="C378">
-        <v>136.33</v>
-      </c>
-      <c r="D378">
-        <v>-30.96</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44147</v>
-      </c>
-      <c r="B379">
-        <v>104.58</v>
-      </c>
-      <c r="C379">
-        <v>136.33</v>
-      </c>
-      <c r="D379">
-        <v>-23.29</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44148</v>
-      </c>
-      <c r="B380">
-        <v>91.93000000000001</v>
-      </c>
-      <c r="C380">
-        <v>136.33</v>
-      </c>
-      <c r="D380">
-        <v>-32.57</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44149</v>
-      </c>
-      <c r="B381">
-        <v>89.53</v>
-      </c>
-      <c r="C381">
-        <v>136.33</v>
-      </c>
-      <c r="D381">
-        <v>-34.33</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B382">
-        <v>86.23999999999999</v>
-      </c>
-      <c r="C382">
-        <v>136.33</v>
-      </c>
-      <c r="D382">
-        <v>-36.74</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44151</v>
-      </c>
-      <c r="B383">
-        <v>92.23</v>
-      </c>
-      <c r="C383">
-        <v>136.33</v>
-      </c>
-      <c r="D383">
-        <v>-32.35</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44152</v>
-      </c>
-      <c r="B384">
-        <v>107.59</v>
-      </c>
-      <c r="C384">
-        <v>136.33</v>
-      </c>
-      <c r="D384">
-        <v>-21.08</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44153</v>
-      </c>
-      <c r="B385">
-        <v>121.44</v>
-      </c>
-      <c r="C385">
-        <v>136.33</v>
-      </c>
-      <c r="D385">
-        <v>-10.93</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44154</v>
-      </c>
-      <c r="B386">
-        <v>125.58</v>
-      </c>
-      <c r="C386">
-        <v>136.33</v>
-      </c>
-      <c r="D386">
-        <v>-7.89</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44155</v>
-      </c>
-      <c r="B387">
-        <v>123.19</v>
-      </c>
-      <c r="C387">
-        <v>136.33</v>
-      </c>
-      <c r="D387">
-        <v>-9.640000000000001</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44156</v>
-      </c>
-      <c r="B388">
-        <v>129.56</v>
-      </c>
-      <c r="C388">
-        <v>136.33</v>
-      </c>
-      <c r="D388">
-        <v>-4.97</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44157</v>
-      </c>
-      <c r="B389">
-        <v>124.57</v>
-      </c>
-      <c r="C389">
-        <v>136.33</v>
-      </c>
-      <c r="D389">
-        <v>-8.630000000000001</v>
+        <v>-27.66</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -420,170 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B2">
-        <v>101.02</v>
+        <v>100.1</v>
       </c>
       <c r="C2">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D2">
-        <v>-22.85</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B3">
-        <v>100.1</v>
+        <v>120.43</v>
       </c>
       <c r="C3">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D3">
-        <v>-33.79</v>
+        <v>-20.24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B4">
-        <v>120.43</v>
+        <v>96.11</v>
       </c>
       <c r="C4">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D4">
-        <v>-20.24</v>
+        <v>-32.26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B5">
-        <v>96.11</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="C5">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D5">
-        <v>-32.26</v>
+        <v>-24.84</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B6">
-        <v>90.43000000000001</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C6">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D6">
-        <v>-24.84</v>
+        <v>-29.06</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B7">
-        <v>92.48999999999999</v>
+        <v>105.48</v>
       </c>
       <c r="C7">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D7">
-        <v>-29.06</v>
+        <v>-32.98</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B8">
-        <v>105.48</v>
+        <v>99.67</v>
       </c>
       <c r="C8">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D8">
-        <v>-32.98</v>
+        <v>-21.07</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B9">
-        <v>99.67</v>
+        <v>141.16</v>
       </c>
       <c r="C9">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D9">
-        <v>-21.07</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B10">
-        <v>141.16</v>
+        <v>84.23</v>
       </c>
       <c r="C10">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D10">
-        <v>23.68</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B11">
-        <v>84.23</v>
+        <v>84.25</v>
       </c>
       <c r="C11">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D11">
-        <v>-37.1</v>
+        <v>-44.48</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B12">
-        <v>84.25</v>
+        <v>97.92</v>
       </c>
       <c r="C12">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D12">
-        <v>-44.48</v>
+        <v>-28.17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B13">
-        <v>97.92</v>
+        <v>118.6</v>
       </c>
       <c r="C13">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D13">
-        <v>-28.17</v>
+        <v>-9.43</v>
       </c>
     </row>
   </sheetData>
@@ -620,209 +620,209 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B2">
-        <v>124.58</v>
+        <v>43831</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>130.94</v>
-      </c>
-      <c r="D2">
-        <v>-4.86</v>
+        <v>151.18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43801</v>
+        <v>43832</v>
       </c>
       <c r="B3">
-        <v>120.64</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="C3">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D3">
-        <v>-7.87</v>
+        <v>-38.31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43802</v>
-      </c>
-      <c r="B4">
-        <v>109.09</v>
+        <v>43833</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>130.94</v>
-      </c>
-      <c r="D4">
-        <v>-16.69</v>
+        <v>151.18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43803</v>
-      </c>
-      <c r="B5">
-        <v>103.35</v>
+        <v>43834</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>130.94</v>
-      </c>
-      <c r="D5">
-        <v>-21.07</v>
+        <v>151.18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43804</v>
-      </c>
-      <c r="B6">
-        <v>99.95999999999999</v>
+        <v>43835</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>130.94</v>
-      </c>
-      <c r="D6">
-        <v>-23.66</v>
+        <v>151.18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43805</v>
-      </c>
-      <c r="B7">
-        <v>98.56</v>
+        <v>43836</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>130.94</v>
-      </c>
-      <c r="D7">
-        <v>-24.73</v>
+        <v>151.18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43806</v>
-      </c>
-      <c r="B8">
-        <v>95.3</v>
+        <v>43837</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>130.94</v>
-      </c>
-      <c r="D8">
-        <v>-27.22</v>
+        <v>151.18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43807</v>
-      </c>
-      <c r="B9">
-        <v>93.16</v>
+        <v>43838</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>130.94</v>
-      </c>
-      <c r="D9">
-        <v>-28.85</v>
+        <v>151.18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43808</v>
-      </c>
-      <c r="B10">
-        <v>91.53</v>
+        <v>43839</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>130.94</v>
-      </c>
-      <c r="D10">
-        <v>-30.1</v>
+        <v>151.18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B11">
-        <v>92.61</v>
+        <v>100.18</v>
       </c>
       <c r="C11">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D11">
-        <v>-29.27</v>
+        <v>-33.74</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43810</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
+        <v>43841</v>
+      </c>
+      <c r="B12">
+        <v>108.03</v>
       </c>
       <c r="C12">
-        <v>130.94</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D12">
+        <v>-28.54</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43811</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
+        <v>43842</v>
+      </c>
+      <c r="B13">
+        <v>106.69</v>
       </c>
       <c r="C13">
-        <v>130.94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D13">
+        <v>-29.43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43812</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
+        <v>43843</v>
+      </c>
+      <c r="B14">
+        <v>104.32</v>
       </c>
       <c r="C14">
-        <v>130.94</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D14">
+        <v>-31</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43813</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
+        <v>43844</v>
+      </c>
+      <c r="B15">
+        <v>96.81</v>
       </c>
       <c r="C15">
-        <v>130.94</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D15">
+        <v>-35.97</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -830,69 +830,69 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43815</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
+        <v>43846</v>
+      </c>
+      <c r="B17">
+        <v>98</v>
       </c>
       <c r="C17">
-        <v>130.94</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D17">
+        <v>-35.18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43816</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
+        <v>43847</v>
+      </c>
+      <c r="B18">
+        <v>107.82</v>
       </c>
       <c r="C18">
-        <v>130.94</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D18">
+        <v>-28.68</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43817</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
+        <v>43848</v>
+      </c>
+      <c r="B19">
+        <v>94.09999999999999</v>
       </c>
       <c r="C19">
-        <v>130.94</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D19">
+        <v>-37.76</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43818</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
+        <v>43849</v>
+      </c>
+      <c r="B20">
+        <v>91.8</v>
       </c>
       <c r="C20">
-        <v>130.94</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
+        <v>151.18</v>
+      </c>
+      <c r="D20">
+        <v>-39.28</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43819</v>
+        <v>43850</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -900,69 +900,69 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43820</v>
-      </c>
-      <c r="B22">
-        <v>95.95</v>
+        <v>43851</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>130.94</v>
-      </c>
-      <c r="D22">
-        <v>-26.72</v>
+        <v>151.18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43821</v>
-      </c>
-      <c r="B23">
-        <v>100.82</v>
+        <v>43852</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>130.94</v>
-      </c>
-      <c r="D23">
-        <v>-23</v>
+        <v>151.18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43822</v>
-      </c>
-      <c r="B24">
-        <v>96.34999999999999</v>
+        <v>43853</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>130.94</v>
-      </c>
-      <c r="D24">
-        <v>-26.42</v>
+        <v>151.18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43823</v>
-      </c>
-      <c r="B25">
-        <v>92.33</v>
+        <v>43854</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>130.94</v>
-      </c>
-      <c r="D25">
-        <v>-29.49</v>
+        <v>151.18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43824</v>
+        <v>43855</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -970,13 +970,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43825</v>
+        <v>43856</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -984,13 +984,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43826</v>
+        <v>43857</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -998,13 +998,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43827</v>
+        <v>43858</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -1012,13 +1012,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43828</v>
+        <v>43859</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -1026,13 +1026,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43829</v>
+        <v>43860</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -1040,13 +1040,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -1054,13 +1054,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -1068,27 +1068,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43832</v>
-      </c>
-      <c r="B34">
-        <v>93.26000000000001</v>
+        <v>43863</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>151.18</v>
-      </c>
-      <c r="D34">
-        <v>-38.31</v>
+        <v>151</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -1096,13 +1096,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -1124,13 +1124,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -1138,13 +1138,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -1152,181 +1152,181 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43838</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
+        <v>43869</v>
+      </c>
+      <c r="B40">
+        <v>95.06999999999999</v>
       </c>
       <c r="C40">
-        <v>151.18</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D40">
+        <v>-37.04</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43839</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
+        <v>43870</v>
+      </c>
+      <c r="B41">
+        <v>107.25</v>
       </c>
       <c r="C41">
-        <v>151.18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D41">
+        <v>-28.97</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B42">
-        <v>100.18</v>
+        <v>157.73</v>
       </c>
       <c r="C42">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D42">
-        <v>-33.74</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B43">
-        <v>108.03</v>
+        <v>163</v>
       </c>
       <c r="C43">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D43">
-        <v>-28.54</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B44">
-        <v>106.69</v>
+        <v>180.46</v>
       </c>
       <c r="C44">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D44">
-        <v>-29.43</v>
+        <v>19.51</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B45">
-        <v>104.32</v>
+        <v>193.38</v>
       </c>
       <c r="C45">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D45">
-        <v>-31</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B46">
-        <v>96.81</v>
+        <v>184.81</v>
       </c>
       <c r="C46">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D46">
-        <v>-35.97</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43845</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
+        <v>43876</v>
+      </c>
+      <c r="B47">
+        <v>139.85</v>
       </c>
       <c r="C47">
-        <v>151.18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D47">
+        <v>-7.38</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B48">
-        <v>98</v>
+        <v>107.48</v>
       </c>
       <c r="C48">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D48">
-        <v>-35.18</v>
+        <v>-28.82</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B49">
-        <v>107.82</v>
+        <v>97.72</v>
       </c>
       <c r="C49">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D49">
-        <v>-28.68</v>
+        <v>-35.29</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B50">
-        <v>94.09999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C50">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D50">
-        <v>-37.76</v>
+        <v>-38.67</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B51">
-        <v>91.8</v>
+        <v>89.17</v>
       </c>
       <c r="C51">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D51">
-        <v>-39.28</v>
+        <v>-40.94</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -1334,13 +1334,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -1348,727 +1348,727 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43852</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
+        <v>43883</v>
+      </c>
+      <c r="B54">
+        <v>90.01000000000001</v>
       </c>
       <c r="C54">
-        <v>151.18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D54">
+        <v>-40.39</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43853</v>
-      </c>
-      <c r="B55" t="s">
-        <v>4</v>
+        <v>43884</v>
+      </c>
+      <c r="B55">
+        <v>89.8</v>
       </c>
       <c r="C55">
-        <v>151.18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D55">
+        <v>-40.53</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43854</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
+        <v>43885</v>
+      </c>
+      <c r="B56">
+        <v>90.06</v>
       </c>
       <c r="C56">
-        <v>151.18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D56">
+        <v>-40.36</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43855</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
+        <v>43886</v>
+      </c>
+      <c r="B57">
+        <v>91.17</v>
       </c>
       <c r="C57">
-        <v>151.18</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D57">
+        <v>-39.62</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43856</v>
-      </c>
-      <c r="B58" t="s">
-        <v>4</v>
+        <v>43887</v>
+      </c>
+      <c r="B58">
+        <v>100.46</v>
       </c>
       <c r="C58">
-        <v>151.18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D58">
+        <v>-33.47</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43857</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4</v>
+        <v>43888</v>
+      </c>
+      <c r="B59">
+        <v>115.43</v>
       </c>
       <c r="C59">
-        <v>151.18</v>
-      </c>
-      <c r="D59" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D59">
+        <v>-23.56</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43858</v>
-      </c>
-      <c r="B60" t="s">
-        <v>4</v>
+        <v>43889</v>
+      </c>
+      <c r="B60">
+        <v>115.79</v>
       </c>
       <c r="C60">
-        <v>151.18</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D60">
+        <v>-23.32</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43859</v>
-      </c>
-      <c r="B61" t="s">
-        <v>4</v>
+        <v>43890</v>
+      </c>
+      <c r="B61">
+        <v>107.41</v>
       </c>
       <c r="C61">
-        <v>151.18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D61">
+        <v>-28.87</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43860</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4</v>
+        <v>43891</v>
+      </c>
+      <c r="B62">
+        <v>100</v>
       </c>
       <c r="C62">
-        <v>151.18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D62">
+        <v>-29.52</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43861</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
+        <v>43892</v>
+      </c>
+      <c r="B63">
+        <v>96.15000000000001</v>
       </c>
       <c r="C63">
-        <v>151.18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D63">
+        <v>-32.24</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B64" t="s">
-        <v>4</v>
+        <v>43893</v>
+      </c>
+      <c r="B64">
+        <v>95.79000000000001</v>
       </c>
       <c r="C64">
-        <v>151</v>
-      </c>
-      <c r="D64" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D64">
+        <v>-32.49</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43863</v>
-      </c>
-      <c r="B65" t="s">
-        <v>4</v>
+        <v>43894</v>
+      </c>
+      <c r="B65">
+        <v>103.34</v>
       </c>
       <c r="C65">
-        <v>151</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D65">
+        <v>-27.16</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43864</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
+        <v>43895</v>
+      </c>
+      <c r="B66">
+        <v>110.47</v>
       </c>
       <c r="C66">
-        <v>151</v>
-      </c>
-      <c r="D66" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D66">
+        <v>-22.14</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43865</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4</v>
+        <v>43896</v>
+      </c>
+      <c r="B67">
+        <v>104.58</v>
       </c>
       <c r="C67">
-        <v>151</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D67">
+        <v>-26.29</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43866</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4</v>
+        <v>43897</v>
+      </c>
+      <c r="B68">
+        <v>99.18000000000001</v>
       </c>
       <c r="C68">
-        <v>151</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D68">
+        <v>-30.1</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43867</v>
-      </c>
-      <c r="B69" t="s">
-        <v>4</v>
+        <v>43898</v>
+      </c>
+      <c r="B69">
+        <v>93.73</v>
       </c>
       <c r="C69">
-        <v>151</v>
-      </c>
-      <c r="D69" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D69">
+        <v>-33.94</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43868</v>
-      </c>
-      <c r="B70" t="s">
-        <v>4</v>
+        <v>43899</v>
+      </c>
+      <c r="B70">
+        <v>91.45999999999999</v>
       </c>
       <c r="C70">
-        <v>151</v>
-      </c>
-      <c r="D70" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D70">
+        <v>-35.54</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B71">
-        <v>95.06999999999999</v>
+        <v>90.75</v>
       </c>
       <c r="C71">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D71">
-        <v>-37.04</v>
+        <v>-36.04</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B72">
-        <v>107.25</v>
+        <v>89</v>
       </c>
       <c r="C72">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D72">
-        <v>-28.97</v>
+        <v>-37.27</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43871</v>
-      </c>
-      <c r="B73">
-        <v>157.73</v>
+        <v>43902</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>151</v>
-      </c>
-      <c r="D73">
-        <v>4.46</v>
+        <v>141.89</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43872</v>
-      </c>
-      <c r="B74">
-        <v>163</v>
+        <v>43903</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>151</v>
-      </c>
-      <c r="D74">
-        <v>7.95</v>
+        <v>141.89</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43873</v>
-      </c>
-      <c r="B75">
-        <v>180.46</v>
+        <v>43904</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>151</v>
-      </c>
-      <c r="D75">
-        <v>19.51</v>
+        <v>141.89</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43874</v>
-      </c>
-      <c r="B76">
-        <v>193.38</v>
+        <v>43905</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>151</v>
-      </c>
-      <c r="D76">
-        <v>28.06</v>
+        <v>141.89</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43875</v>
-      </c>
-      <c r="B77">
-        <v>184.81</v>
+        <v>43906</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>151</v>
-      </c>
-      <c r="D77">
-        <v>22.39</v>
+        <v>141.89</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B78">
-        <v>139.85</v>
+        <v>96.81</v>
       </c>
       <c r="C78">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D78">
-        <v>-7.38</v>
+        <v>-31.77</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B79">
-        <v>107.48</v>
+        <v>95.77</v>
       </c>
       <c r="C79">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D79">
-        <v>-28.82</v>
+        <v>-32.5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B80">
-        <v>97.72</v>
+        <v>100.65</v>
       </c>
       <c r="C80">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D80">
-        <v>-35.29</v>
+        <v>-29.07</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B81">
-        <v>92.59999999999999</v>
+        <v>97.25</v>
       </c>
       <c r="C81">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D81">
-        <v>-38.67</v>
+        <v>-31.46</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B82">
-        <v>89.17</v>
+        <v>94.98</v>
       </c>
       <c r="C82">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D82">
-        <v>-40.94</v>
+        <v>-33.06</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43881</v>
-      </c>
-      <c r="B83" t="s">
-        <v>4</v>
+        <v>43912</v>
+      </c>
+      <c r="B83">
+        <v>92.42</v>
       </c>
       <c r="C83">
-        <v>151</v>
-      </c>
-      <c r="D83" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D83">
+        <v>-34.87</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43882</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
+        <v>43913</v>
+      </c>
+      <c r="B84">
+        <v>90.43000000000001</v>
       </c>
       <c r="C84">
-        <v>151</v>
-      </c>
-      <c r="D84" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D84">
+        <v>-36.27</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B85">
-        <v>90.01000000000001</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="C85">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D85">
-        <v>-40.39</v>
+        <v>-36.77</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B86">
-        <v>89.8</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="C86">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D86">
-        <v>-40.53</v>
+        <v>-36.78</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43885</v>
-      </c>
-      <c r="B87">
-        <v>90.06</v>
+        <v>43916</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>151</v>
-      </c>
-      <c r="D87">
-        <v>-40.36</v>
+        <v>141.89</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43886</v>
-      </c>
-      <c r="B88">
-        <v>91.17</v>
+        <v>43917</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>151</v>
-      </c>
-      <c r="D88">
-        <v>-39.62</v>
+        <v>141.89</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43887</v>
-      </c>
-      <c r="B89">
-        <v>100.46</v>
+        <v>43918</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>151</v>
-      </c>
-      <c r="D89">
-        <v>-33.47</v>
+        <v>141.89</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43888</v>
-      </c>
-      <c r="B90">
-        <v>115.43</v>
+        <v>43919</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>151</v>
-      </c>
-      <c r="D90">
-        <v>-23.56</v>
+        <v>141.89</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43889</v>
-      </c>
-      <c r="B91">
-        <v>115.79</v>
+        <v>43920</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>151</v>
-      </c>
-      <c r="D91">
-        <v>-23.32</v>
+        <v>141.89</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43890</v>
-      </c>
-      <c r="B92">
-        <v>107.41</v>
+        <v>43921</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>151</v>
-      </c>
-      <c r="D92">
-        <v>-28.87</v>
+        <v>141.89</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43891</v>
-      </c>
-      <c r="B93">
-        <v>100</v>
+        <v>43922</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>141.89</v>
-      </c>
-      <c r="D93">
-        <v>-29.52</v>
+        <v>120.32</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43892</v>
-      </c>
-      <c r="B94">
-        <v>96.15000000000001</v>
+        <v>43923</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>141.89</v>
-      </c>
-      <c r="D94">
-        <v>-32.24</v>
+        <v>120.32</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43893</v>
-      </c>
-      <c r="B95">
-        <v>95.79000000000001</v>
+        <v>43924</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>141.89</v>
-      </c>
-      <c r="D95">
-        <v>-32.49</v>
+        <v>120.32</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B96">
-        <v>103.34</v>
+        <v>89.44</v>
       </c>
       <c r="C96">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D96">
-        <v>-27.16</v>
+        <v>-25.66</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B97">
-        <v>110.47</v>
+        <v>89.14</v>
       </c>
       <c r="C97">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D97">
-        <v>-22.14</v>
+        <v>-25.91</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43896</v>
-      </c>
-      <c r="B98">
-        <v>104.58</v>
+        <v>43927</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>141.89</v>
-      </c>
-      <c r="D98">
-        <v>-26.29</v>
+        <v>120.32</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B99">
-        <v>99.18000000000001</v>
+        <v>91.61</v>
       </c>
       <c r="C99">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D99">
-        <v>-30.1</v>
+        <v>-23.86</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43898</v>
-      </c>
-      <c r="B100">
-        <v>93.73</v>
+        <v>43929</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
       </c>
       <c r="C100">
-        <v>141.89</v>
-      </c>
-      <c r="D100">
-        <v>-33.94</v>
+        <v>120.32</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43899</v>
-      </c>
-      <c r="B101">
-        <v>91.45999999999999</v>
+        <v>43930</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>141.89</v>
-      </c>
-      <c r="D101">
-        <v>-35.54</v>
+        <v>120.32</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43900</v>
-      </c>
-      <c r="B102">
-        <v>90.75</v>
+        <v>43931</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
       </c>
       <c r="C102">
-        <v>141.89</v>
-      </c>
-      <c r="D102">
-        <v>-36.04</v>
+        <v>120.32</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43901</v>
-      </c>
-      <c r="B103">
-        <v>89</v>
+        <v>43932</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>141.89</v>
-      </c>
-      <c r="D103">
-        <v>-37.27</v>
+        <v>120.32</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43902</v>
-      </c>
-      <c r="B104" t="s">
-        <v>4</v>
+        <v>43933</v>
+      </c>
+      <c r="B104">
+        <v>89</v>
       </c>
       <c r="C104">
-        <v>141.89</v>
-      </c>
-      <c r="D104" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D104">
+        <v>-26.03</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B105" t="s">
         <v>4</v>
       </c>
       <c r="C105">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D105" t="s">
         <v>4</v>
@@ -2076,13 +2076,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
       </c>
       <c r="C106">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D106" t="s">
         <v>4</v>
@@ -2090,237 +2090,237 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43905</v>
-      </c>
-      <c r="B107" t="s">
-        <v>4</v>
+        <v>43936</v>
+      </c>
+      <c r="B107">
+        <v>90.54000000000001</v>
       </c>
       <c r="C107">
-        <v>141.89</v>
-      </c>
-      <c r="D107" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D107">
+        <v>-24.75</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43906</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
+        <v>43937</v>
+      </c>
+      <c r="B108">
+        <v>92.23999999999999</v>
       </c>
       <c r="C108">
-        <v>141.89</v>
-      </c>
-      <c r="D108" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D108">
+        <v>-23.34</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B109">
-        <v>96.81</v>
+        <v>92.36</v>
       </c>
       <c r="C109">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D109">
-        <v>-31.77</v>
+        <v>-23.24</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B110">
-        <v>95.77</v>
+        <v>90.77</v>
       </c>
       <c r="C110">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D110">
-        <v>-32.5</v>
+        <v>-24.56</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B111">
-        <v>100.65</v>
+        <v>90.52</v>
       </c>
       <c r="C111">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D111">
-        <v>-29.07</v>
+        <v>-24.77</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B112">
-        <v>97.25</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="C112">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D112">
-        <v>-31.46</v>
+        <v>-24.82</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B113">
-        <v>94.98</v>
+        <v>89.98</v>
       </c>
       <c r="C113">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D113">
-        <v>-33.06</v>
+        <v>-25.21</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B114">
-        <v>92.42</v>
+        <v>90.42</v>
       </c>
       <c r="C114">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D114">
-        <v>-34.87</v>
+        <v>-24.85</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B115">
-        <v>90.43000000000001</v>
+        <v>91.53</v>
       </c>
       <c r="C115">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D115">
-        <v>-36.27</v>
+        <v>-23.93</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B116">
-        <v>89.70999999999999</v>
+        <v>91.94</v>
       </c>
       <c r="C116">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D116">
-        <v>-36.77</v>
+        <v>-23.59</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43915</v>
-      </c>
-      <c r="B117">
-        <v>89.70999999999999</v>
+        <v>43946</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>141.89</v>
-      </c>
-      <c r="D117">
-        <v>-36.78</v>
+        <v>120.32</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43916</v>
-      </c>
-      <c r="B118" t="s">
-        <v>4</v>
+        <v>43947</v>
+      </c>
+      <c r="B118">
+        <v>89.87</v>
       </c>
       <c r="C118">
-        <v>141.89</v>
-      </c>
-      <c r="D118" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D118">
+        <v>-25.31</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43917</v>
-      </c>
-      <c r="B119" t="s">
-        <v>4</v>
+        <v>43948</v>
+      </c>
+      <c r="B119">
+        <v>89.5</v>
       </c>
       <c r="C119">
-        <v>141.89</v>
-      </c>
-      <c r="D119" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D119">
+        <v>-25.62</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43918</v>
-      </c>
-      <c r="B120" t="s">
-        <v>4</v>
+        <v>43949</v>
+      </c>
+      <c r="B120">
+        <v>89.05</v>
       </c>
       <c r="C120">
-        <v>141.89</v>
-      </c>
-      <c r="D120" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D120">
+        <v>-25.99</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43919</v>
-      </c>
-      <c r="B121" t="s">
-        <v>4</v>
+        <v>43950</v>
+      </c>
+      <c r="B121">
+        <v>89.55</v>
       </c>
       <c r="C121">
-        <v>141.89</v>
-      </c>
-      <c r="D121" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D121">
+        <v>-25.58</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B122" t="s">
-        <v>4</v>
+        <v>43951</v>
+      </c>
+      <c r="B122">
+        <v>90.33</v>
       </c>
       <c r="C122">
-        <v>141.89</v>
-      </c>
-      <c r="D122" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D122">
+        <v>-24.92</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
       </c>
       <c r="C123">
-        <v>141.89</v>
+        <v>130.37</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
@@ -2328,3418 +2328,3418 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B124" t="s">
-        <v>4</v>
+        <v>43953</v>
+      </c>
+      <c r="B124">
+        <v>89.93000000000001</v>
       </c>
       <c r="C124">
-        <v>120.32</v>
-      </c>
-      <c r="D124" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D124">
+        <v>-31.02</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B125" t="s">
-        <v>4</v>
+        <v>43954</v>
+      </c>
+      <c r="B125">
+        <v>91.06999999999999</v>
       </c>
       <c r="C125">
-        <v>120.32</v>
-      </c>
-      <c r="D125" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D125">
+        <v>-30.15</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B126" t="s">
-        <v>4</v>
+        <v>43955</v>
+      </c>
+      <c r="B126">
+        <v>91.83</v>
       </c>
       <c r="C126">
-        <v>120.32</v>
-      </c>
-      <c r="D126" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D126">
+        <v>-29.56</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B127">
-        <v>89.44</v>
+        <v>91.88</v>
       </c>
       <c r="C127">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D127">
-        <v>-25.66</v>
+        <v>-29.52</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B128">
-        <v>89.14</v>
+        <v>90.7</v>
       </c>
       <c r="C128">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D128">
-        <v>-25.91</v>
+        <v>-30.43</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B129" t="s">
-        <v>4</v>
+        <v>43958</v>
+      </c>
+      <c r="B129">
+        <v>93.69</v>
       </c>
       <c r="C129">
-        <v>120.32</v>
-      </c>
-      <c r="D129" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D129">
+        <v>-28.14</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B130">
-        <v>91.61</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="C130">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D130">
-        <v>-23.86</v>
+        <v>-28.67</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43929</v>
-      </c>
-      <c r="B131" t="s">
-        <v>4</v>
+        <v>43960</v>
+      </c>
+      <c r="B131">
+        <v>92.23999999999999</v>
       </c>
       <c r="C131">
-        <v>120.32</v>
-      </c>
-      <c r="D131" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D131">
+        <v>-29.25</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43930</v>
-      </c>
-      <c r="B132" t="s">
-        <v>4</v>
+        <v>43961</v>
+      </c>
+      <c r="B132">
+        <v>91.56999999999999</v>
       </c>
       <c r="C132">
-        <v>120.32</v>
-      </c>
-      <c r="D132" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D132">
+        <v>-29.76</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43931</v>
-      </c>
-      <c r="B133" t="s">
-        <v>4</v>
+        <v>43962</v>
+      </c>
+      <c r="B133">
+        <v>92.48999999999999</v>
       </c>
       <c r="C133">
-        <v>120.32</v>
-      </c>
-      <c r="D133" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D133">
+        <v>-29.06</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43932</v>
-      </c>
-      <c r="B134" t="s">
-        <v>4</v>
+        <v>43963</v>
+      </c>
+      <c r="B134">
+        <v>91.98999999999999</v>
       </c>
       <c r="C134">
-        <v>120.32</v>
-      </c>
-      <c r="D134" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D134">
+        <v>-29.44</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B135">
-        <v>89</v>
+        <v>90.33</v>
       </c>
       <c r="C135">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D135">
-        <v>-26.03</v>
+        <v>-30.71</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43934</v>
-      </c>
-      <c r="B136" t="s">
-        <v>4</v>
+        <v>43965</v>
+      </c>
+      <c r="B136">
+        <v>90.52</v>
       </c>
       <c r="C136">
-        <v>120.32</v>
-      </c>
-      <c r="D136" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D136">
+        <v>-30.56</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43935</v>
-      </c>
-      <c r="B137" t="s">
-        <v>4</v>
+        <v>43966</v>
+      </c>
+      <c r="B137">
+        <v>91.42</v>
       </c>
       <c r="C137">
-        <v>120.32</v>
-      </c>
-      <c r="D137" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D137">
+        <v>-29.88</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B138">
-        <v>90.54000000000001</v>
+        <v>92.16</v>
       </c>
       <c r="C138">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D138">
-        <v>-24.75</v>
+        <v>-29.31</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B139">
-        <v>92.23999999999999</v>
+        <v>93.48</v>
       </c>
       <c r="C139">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D139">
-        <v>-23.34</v>
+        <v>-28.29</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B140">
-        <v>92.36</v>
+        <v>93.51000000000001</v>
       </c>
       <c r="C140">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D140">
-        <v>-23.24</v>
+        <v>-28.28</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B141">
-        <v>90.77</v>
+        <v>92.94</v>
       </c>
       <c r="C141">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D141">
-        <v>-24.56</v>
+        <v>-28.71</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B142">
-        <v>90.52</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="C142">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D142">
-        <v>-24.77</v>
+        <v>-29.55</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B143">
-        <v>90.45999999999999</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C143">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D143">
-        <v>-24.82</v>
+        <v>-30.36</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B144">
-        <v>89.98</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="C144">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D144">
-        <v>-25.21</v>
+        <v>-30.76</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B145">
-        <v>90.42</v>
+        <v>90.89</v>
       </c>
       <c r="C145">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D145">
-        <v>-24.85</v>
+        <v>-30.29</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B146">
-        <v>91.53</v>
+        <v>92.44</v>
       </c>
       <c r="C146">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D146">
-        <v>-23.93</v>
+        <v>-29.09</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B147">
-        <v>91.94</v>
+        <v>93.16</v>
       </c>
       <c r="C147">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D147">
-        <v>-23.59</v>
+        <v>-28.54</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43946</v>
-      </c>
-      <c r="B148" t="s">
-        <v>4</v>
+        <v>43977</v>
+      </c>
+      <c r="B148">
+        <v>94.34</v>
       </c>
       <c r="C148">
-        <v>120.32</v>
-      </c>
-      <c r="D148" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D148">
+        <v>-27.63</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B149">
-        <v>89.87</v>
+        <v>95.11</v>
       </c>
       <c r="C149">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D149">
-        <v>-25.31</v>
+        <v>-27.05</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B150">
-        <v>89.5</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C150">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D150">
-        <v>-25.62</v>
+        <v>-26.71</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B151">
-        <v>89.05</v>
+        <v>95.20999999999999</v>
       </c>
       <c r="C151">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D151">
-        <v>-25.99</v>
+        <v>-26.97</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B152">
-        <v>89.55</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="C152">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D152">
-        <v>-25.58</v>
+        <v>-26.91</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B153">
-        <v>90.33</v>
+        <v>94.98</v>
       </c>
       <c r="C153">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D153">
-        <v>-24.92</v>
+        <v>-27.15</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B154" t="s">
-        <v>4</v>
+        <v>43983</v>
+      </c>
+      <c r="B154">
+        <v>92.45999999999999</v>
       </c>
       <c r="C154">
-        <v>130.37</v>
-      </c>
-      <c r="D154" t="s">
-        <v>4</v>
+        <v>157.39</v>
+      </c>
+      <c r="D154">
+        <v>-41.26</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B155">
-        <v>89.93000000000001</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="C155">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D155">
-        <v>-31.02</v>
+        <v>-41.03</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B156">
-        <v>91.06999999999999</v>
+        <v>92.62</v>
       </c>
       <c r="C156">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D156">
-        <v>-30.15</v>
+        <v>-41.15</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B157">
-        <v>91.83</v>
+        <v>92.27</v>
       </c>
       <c r="C157">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D157">
-        <v>-29.56</v>
+        <v>-41.38</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B158">
-        <v>91.88</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C158">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D158">
-        <v>-29.52</v>
+        <v>-42.12</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B159">
-        <v>90.7</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="C159">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D159">
-        <v>-30.43</v>
+        <v>-42.14</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B160">
-        <v>93.69</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="C160">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D160">
-        <v>-28.14</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B161">
-        <v>92.98999999999999</v>
+        <v>92.81</v>
       </c>
       <c r="C161">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D161">
-        <v>-28.67</v>
+        <v>-41.04</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B162">
-        <v>92.23999999999999</v>
+        <v>93.44</v>
       </c>
       <c r="C162">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D162">
-        <v>-29.25</v>
+        <v>-40.63</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B163">
-        <v>91.56999999999999</v>
+        <v>122.5</v>
       </c>
       <c r="C163">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D163">
-        <v>-29.76</v>
+        <v>-22.17</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B164">
-        <v>92.48999999999999</v>
+        <v>155.84</v>
       </c>
       <c r="C164">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D164">
-        <v>-29.06</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B165">
-        <v>91.98999999999999</v>
+        <v>159.99</v>
       </c>
       <c r="C165">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D165">
-        <v>-29.44</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B166">
-        <v>90.33</v>
+        <v>161.1</v>
       </c>
       <c r="C166">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D166">
-        <v>-30.71</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B167">
-        <v>90.52</v>
+        <v>134.36</v>
       </c>
       <c r="C167">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D167">
-        <v>-30.56</v>
+        <v>-14.63</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B168">
-        <v>91.42</v>
+        <v>112.18</v>
       </c>
       <c r="C168">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D168">
-        <v>-29.88</v>
+        <v>-28.73</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B169">
-        <v>92.16</v>
+        <v>104.49</v>
       </c>
       <c r="C169">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D169">
-        <v>-29.31</v>
+        <v>-33.61</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B170">
-        <v>93.48</v>
+        <v>100.47</v>
       </c>
       <c r="C170">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D170">
-        <v>-28.29</v>
+        <v>-36.17</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B171">
-        <v>93.51000000000001</v>
+        <v>99.06</v>
       </c>
       <c r="C171">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D171">
-        <v>-28.28</v>
+        <v>-37.06</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B172">
-        <v>92.94</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="C172">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D172">
-        <v>-28.71</v>
+        <v>-40.28</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B173">
-        <v>91.84999999999999</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="C173">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D173">
-        <v>-29.55</v>
+        <v>-39.64</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B174">
-        <v>90.79000000000001</v>
+        <v>93.84</v>
       </c>
       <c r="C174">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D174">
-        <v>-30.36</v>
+        <v>-40.38</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B175">
-        <v>90.26000000000001</v>
+        <v>93.31</v>
       </c>
       <c r="C175">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D175">
-        <v>-30.76</v>
+        <v>-40.71</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B176">
-        <v>90.89</v>
+        <v>92.56</v>
       </c>
       <c r="C176">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D176">
-        <v>-30.29</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B177">
-        <v>92.44</v>
+        <v>92.73</v>
       </c>
       <c r="C177">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D177">
-        <v>-29.09</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B178">
-        <v>93.16</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="C178">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D178">
-        <v>-28.54</v>
+        <v>-41.36</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B179">
-        <v>94.34</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C179">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D179">
-        <v>-27.63</v>
+        <v>-39.3</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B180">
-        <v>95.11</v>
+        <v>103.75</v>
       </c>
       <c r="C180">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D180">
-        <v>-27.05</v>
+        <v>-34.08</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B181">
-        <v>95.54000000000001</v>
+        <v>109.07</v>
       </c>
       <c r="C181">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D181">
-        <v>-26.71</v>
+        <v>-30.7</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B182">
-        <v>95.20999999999999</v>
+        <v>113.61</v>
       </c>
       <c r="C182">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D182">
-        <v>-26.97</v>
+        <v>-27.82</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B183">
-        <v>95.29000000000001</v>
+        <v>107.47</v>
       </c>
       <c r="C183">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D183">
-        <v>-26.91</v>
+        <v>-31.72</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B184">
-        <v>94.98</v>
+        <v>124.12</v>
       </c>
       <c r="C184">
-        <v>130.37</v>
+        <v>126.28</v>
       </c>
       <c r="D184">
-        <v>-27.15</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B185">
-        <v>92.45999999999999</v>
+        <v>123.93</v>
       </c>
       <c r="C185">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D185">
-        <v>-41.26</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B186">
-        <v>92.81999999999999</v>
+        <v>117.51</v>
       </c>
       <c r="C186">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D186">
-        <v>-41.03</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B187">
-        <v>92.62</v>
+        <v>108.65</v>
       </c>
       <c r="C187">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D187">
-        <v>-41.15</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B188">
-        <v>92.27</v>
+        <v>103.79</v>
       </c>
       <c r="C188">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D188">
-        <v>-41.38</v>
+        <v>-17.81</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B189">
-        <v>91.09999999999999</v>
+        <v>100.84</v>
       </c>
       <c r="C189">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D189">
-        <v>-42.12</v>
+        <v>-20.15</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B190">
-        <v>91.06999999999999</v>
+        <v>98.69</v>
       </c>
       <c r="C190">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D190">
-        <v>-42.14</v>
+        <v>-21.85</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B191">
-        <v>92.73999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="C191">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D191">
-        <v>-41.08</v>
+        <v>-22.83</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B192">
-        <v>92.81</v>
+        <v>95.33</v>
       </c>
       <c r="C192">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D192">
-        <v>-41.04</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B193">
-        <v>93.44</v>
+        <v>95.02</v>
       </c>
       <c r="C193">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D193">
-        <v>-40.63</v>
+        <v>-24.76</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B194">
-        <v>122.5</v>
+        <v>96.92</v>
       </c>
       <c r="C194">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D194">
-        <v>-22.17</v>
+        <v>-23.26</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B195">
-        <v>155.84</v>
+        <v>92.83</v>
       </c>
       <c r="C195">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D195">
-        <v>-0.99</v>
+        <v>-26.49</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B196">
-        <v>159.99</v>
+        <v>92.44</v>
       </c>
       <c r="C196">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D196">
-        <v>1.65</v>
+        <v>-26.8</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B197">
-        <v>161.1</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="C197">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D197">
-        <v>2.36</v>
+        <v>-26.96</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B198">
-        <v>134.36</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="C198">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D198">
-        <v>-14.63</v>
+        <v>-26.08</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B199">
-        <v>112.18</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C199">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D199">
-        <v>-28.73</v>
+        <v>-26.04</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B200">
-        <v>104.49</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="C200">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D200">
-        <v>-33.61</v>
+        <v>-26.52</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B201">
-        <v>100.47</v>
+        <v>92.98</v>
       </c>
       <c r="C201">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D201">
-        <v>-36.17</v>
+        <v>-26.37</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B202">
-        <v>99.06</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C202">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D202">
-        <v>-37.06</v>
+        <v>-27.23</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B203">
-        <v>93.98999999999999</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C203">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D203">
-        <v>-40.28</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B204">
-        <v>95.01000000000001</v>
+        <v>92.34</v>
       </c>
       <c r="C204">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D204">
-        <v>-39.64</v>
+        <v>-26.88</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B205">
-        <v>93.84</v>
+        <v>92.19</v>
       </c>
       <c r="C205">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D205">
-        <v>-40.38</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B206">
-        <v>93.31</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="C206">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D206">
-        <v>-40.71</v>
+        <v>-27.09</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B207">
-        <v>92.56</v>
+        <v>91.92</v>
       </c>
       <c r="C207">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D207">
-        <v>-41.19</v>
+        <v>-27.21</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B208">
-        <v>92.73</v>
+        <v>91.86</v>
       </c>
       <c r="C208">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D208">
-        <v>-41.08</v>
+        <v>-27.26</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B209">
-        <v>92.29000000000001</v>
+        <v>91.77</v>
       </c>
       <c r="C209">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D209">
-        <v>-41.36</v>
+        <v>-27.33</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B210">
-        <v>95.54000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="C210">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D210">
-        <v>-39.3</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B211">
-        <v>103.75</v>
+        <v>91</v>
       </c>
       <c r="C211">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D211">
-        <v>-34.08</v>
+        <v>-27.94</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B212">
-        <v>109.07</v>
+        <v>107.57</v>
       </c>
       <c r="C212">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D212">
-        <v>-30.7</v>
+        <v>-14.82</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B213">
-        <v>113.61</v>
+        <v>118.47</v>
       </c>
       <c r="C213">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D213">
-        <v>-27.82</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B214">
-        <v>107.47</v>
+        <v>133.49</v>
       </c>
       <c r="C214">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D214">
-        <v>-31.72</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B215">
-        <v>124.12</v>
+        <v>118.64</v>
       </c>
       <c r="C215">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D215">
-        <v>-1.71</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B216">
-        <v>123.93</v>
+        <v>107.18</v>
       </c>
       <c r="C216">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D216">
-        <v>-1.87</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B217">
-        <v>117.51</v>
+        <v>102.56</v>
       </c>
       <c r="C217">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D217">
-        <v>-6.95</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B218">
-        <v>108.65</v>
+        <v>99.44</v>
       </c>
       <c r="C218">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D218">
-        <v>-13.97</v>
+        <v>-12.88</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B219">
-        <v>103.79</v>
+        <v>96.78</v>
       </c>
       <c r="C219">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D219">
-        <v>-17.81</v>
+        <v>-15.21</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44018</v>
+        <v>44049</v>
       </c>
       <c r="B220">
-        <v>100.84</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="C220">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D220">
-        <v>-20.15</v>
+        <v>-16.12</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44019</v>
+        <v>44050</v>
       </c>
       <c r="B221">
-        <v>98.69</v>
+        <v>93.34</v>
       </c>
       <c r="C221">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D221">
-        <v>-21.85</v>
+        <v>-18.22</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44020</v>
+        <v>44051</v>
       </c>
       <c r="B222">
-        <v>97.45</v>
+        <v>92.55</v>
       </c>
       <c r="C222">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D222">
-        <v>-22.83</v>
+        <v>-18.91</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44021</v>
+        <v>44052</v>
       </c>
       <c r="B223">
-        <v>95.33</v>
+        <v>91.56</v>
       </c>
       <c r="C223">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D223">
-        <v>-24.51</v>
+        <v>-19.78</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44022</v>
+        <v>44053</v>
       </c>
       <c r="B224">
-        <v>95.02</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C224">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D224">
-        <v>-24.76</v>
+        <v>-19.63</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44023</v>
+        <v>44054</v>
       </c>
       <c r="B225">
-        <v>96.92</v>
+        <v>91.53</v>
       </c>
       <c r="C225">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D225">
-        <v>-23.26</v>
+        <v>-19.81</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44024</v>
+        <v>44055</v>
       </c>
       <c r="B226">
-        <v>92.83</v>
+        <v>91.09</v>
       </c>
       <c r="C226">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D226">
-        <v>-26.49</v>
+        <v>-20.19</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44025</v>
+        <v>44056</v>
       </c>
       <c r="B227">
-        <v>92.44</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="C227">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D227">
-        <v>-26.8</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44026</v>
+        <v>44057</v>
       </c>
       <c r="B228">
-        <v>92.23999999999999</v>
+        <v>90.81</v>
       </c>
       <c r="C228">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D228">
-        <v>-26.96</v>
+        <v>-20.44</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44027</v>
+        <v>44058</v>
       </c>
       <c r="B229">
-        <v>93.34999999999999</v>
+        <v>104.66</v>
       </c>
       <c r="C229">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D229">
-        <v>-26.08</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44028</v>
+        <v>44059</v>
       </c>
       <c r="B230">
-        <v>93.40000000000001</v>
+        <v>156.16</v>
       </c>
       <c r="C230">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D230">
-        <v>-26.04</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44029</v>
+        <v>44060</v>
       </c>
       <c r="B231">
-        <v>92.79000000000001</v>
+        <v>161.25</v>
       </c>
       <c r="C231">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D231">
-        <v>-26.52</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44030</v>
+        <v>44061</v>
       </c>
       <c r="B232">
-        <v>92.98</v>
+        <v>184.96</v>
       </c>
       <c r="C232">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D232">
-        <v>-26.37</v>
+        <v>62.05</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44031</v>
+        <v>44062</v>
       </c>
       <c r="B233">
-        <v>91.90000000000001</v>
+        <v>218.26</v>
       </c>
       <c r="C233">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D233">
-        <v>-27.23</v>
+        <v>91.22</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44032</v>
+        <v>44063</v>
       </c>
       <c r="B234">
-        <v>91.73999999999999</v>
+        <v>243.69</v>
       </c>
       <c r="C234">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D234">
-        <v>-27.36</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44033</v>
+        <v>44064</v>
       </c>
       <c r="B235">
-        <v>92.34</v>
+        <v>267.82</v>
       </c>
       <c r="C235">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D235">
-        <v>-26.88</v>
+        <v>134.64</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44034</v>
+        <v>44065</v>
       </c>
       <c r="B236">
-        <v>92.19</v>
+        <v>265.49</v>
       </c>
       <c r="C236">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D236">
-        <v>-27</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44035</v>
+        <v>44066</v>
       </c>
       <c r="B237">
-        <v>92.06999999999999</v>
+        <v>246.9</v>
       </c>
       <c r="C237">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D237">
-        <v>-27.09</v>
+        <v>116.31</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B238">
-        <v>91.92</v>
+        <v>225.24</v>
       </c>
       <c r="C238">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D238">
-        <v>-27.21</v>
+        <v>97.34</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B239">
-        <v>91.86</v>
+        <v>198.15</v>
       </c>
       <c r="C239">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D239">
-        <v>-27.26</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B240">
-        <v>91.77</v>
+        <v>159.3</v>
       </c>
       <c r="C240">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D240">
-        <v>-27.33</v>
+        <v>39.57</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B241">
-        <v>91.2</v>
+        <v>133.88</v>
       </c>
       <c r="C241">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D241">
-        <v>-27.78</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B242">
-        <v>91</v>
+        <v>123.39</v>
       </c>
       <c r="C242">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D242">
-        <v>-27.94</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B243">
-        <v>107.57</v>
+        <v>115.97</v>
       </c>
       <c r="C243">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D243">
-        <v>-14.82</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B244">
-        <v>118.47</v>
+        <v>110.2</v>
       </c>
       <c r="C244">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D244">
-        <v>-6.19</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B245">
-        <v>133.49</v>
+        <v>107.03</v>
       </c>
       <c r="C245">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D245">
-        <v>5.71</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B246">
-        <v>118.64</v>
+        <v>106.62</v>
       </c>
       <c r="C246">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D246">
-        <v>3.94</v>
+        <v>-20.37</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B247">
-        <v>107.18</v>
+        <v>104.38</v>
       </c>
       <c r="C247">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D247">
-        <v>-6.1</v>
+        <v>-22.05</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B248">
-        <v>102.56</v>
+        <v>97.37</v>
       </c>
       <c r="C248">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D248">
-        <v>-10.14</v>
+        <v>-27.29</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B249">
-        <v>99.44</v>
+        <v>88.66</v>
       </c>
       <c r="C249">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D249">
-        <v>-12.88</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B250">
-        <v>96.78</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="C250">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D250">
-        <v>-15.21</v>
+        <v>-35.93</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44049</v>
+        <v>44080</v>
       </c>
       <c r="B251">
-        <v>95.73999999999999</v>
+        <v>83.67</v>
       </c>
       <c r="C251">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D251">
-        <v>-16.12</v>
+        <v>-37.52</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44050</v>
+        <v>44081</v>
       </c>
       <c r="B252">
-        <v>93.34</v>
+        <v>83.16</v>
       </c>
       <c r="C252">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D252">
-        <v>-18.22</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44051</v>
+        <v>44082</v>
       </c>
       <c r="B253">
-        <v>92.55</v>
+        <v>82.08</v>
       </c>
       <c r="C253">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D253">
-        <v>-18.91</v>
+        <v>-38.7</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44052</v>
+        <v>44083</v>
       </c>
       <c r="B254">
-        <v>91.56</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="C254">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D254">
-        <v>-19.78</v>
+        <v>-39.85</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44053</v>
+        <v>44084</v>
       </c>
       <c r="B255">
-        <v>91.73999999999999</v>
+        <v>79.53</v>
       </c>
       <c r="C255">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D255">
-        <v>-19.63</v>
+        <v>-40.61</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44054</v>
+        <v>44085</v>
       </c>
       <c r="B256">
-        <v>91.53</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="C256">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D256">
-        <v>-19.81</v>
+        <v>-40.45</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44055</v>
+        <v>44086</v>
       </c>
       <c r="B257">
-        <v>91.09</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="C257">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D257">
-        <v>-20.19</v>
+        <v>-40.95</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44056</v>
+        <v>44087</v>
       </c>
       <c r="B258">
-        <v>90.73999999999999</v>
+        <v>78.67</v>
       </c>
       <c r="C258">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D258">
-        <v>-20.5</v>
+        <v>-41.25</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44057</v>
+        <v>44088</v>
       </c>
       <c r="B259">
-        <v>90.81</v>
+        <v>78.98</v>
       </c>
       <c r="C259">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D259">
-        <v>-20.44</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44058</v>
+        <v>44089</v>
       </c>
       <c r="B260">
-        <v>104.66</v>
+        <v>78</v>
       </c>
       <c r="C260">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D260">
-        <v>-8.31</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44059</v>
+        <v>44090</v>
       </c>
       <c r="B261">
-        <v>156.16</v>
+        <v>77.23</v>
       </c>
       <c r="C261">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D261">
-        <v>36.82</v>
+        <v>-42.33</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44060</v>
+        <v>44091</v>
       </c>
       <c r="B262">
-        <v>161.25</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="C262">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D262">
-        <v>41.27</v>
+        <v>-42.38</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44061</v>
+        <v>44092</v>
       </c>
       <c r="B263">
-        <v>184.96</v>
+        <v>76.72</v>
       </c>
       <c r="C263">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D263">
-        <v>62.05</v>
+        <v>-42.71</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44062</v>
+        <v>44093</v>
       </c>
       <c r="B264">
-        <v>218.26</v>
+        <v>76.58</v>
       </c>
       <c r="C264">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D264">
-        <v>91.22</v>
+        <v>-42.81</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44063</v>
+        <v>44094</v>
       </c>
       <c r="B265">
-        <v>243.69</v>
+        <v>77.56</v>
       </c>
       <c r="C265">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D265">
-        <v>113.5</v>
+        <v>-42.08</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44064</v>
+        <v>44095</v>
       </c>
       <c r="B266">
-        <v>267.82</v>
+        <v>78</v>
       </c>
       <c r="C266">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D266">
-        <v>134.64</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44065</v>
+        <v>44096</v>
       </c>
       <c r="B267">
-        <v>265.49</v>
+        <v>78</v>
       </c>
       <c r="C267">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D267">
-        <v>132.6</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44066</v>
+        <v>44097</v>
       </c>
       <c r="B268">
-        <v>246.9</v>
+        <v>78.5</v>
       </c>
       <c r="C268">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D268">
-        <v>116.31</v>
+        <v>-41.38</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44067</v>
+        <v>44098</v>
       </c>
       <c r="B269">
-        <v>225.24</v>
+        <v>77.59</v>
       </c>
       <c r="C269">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D269">
-        <v>97.34</v>
+        <v>-42.05</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44068</v>
+        <v>44099</v>
       </c>
       <c r="B270">
-        <v>198.15</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C270">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D270">
-        <v>73.59999999999999</v>
+        <v>-42.2</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44069</v>
+        <v>44100</v>
       </c>
       <c r="B271">
-        <v>159.3</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="C271">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D271">
-        <v>39.57</v>
+        <v>-42.32</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44070</v>
+        <v>44101</v>
       </c>
       <c r="B272">
-        <v>133.88</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C272">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D272">
-        <v>17.29</v>
+        <v>-42.76</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B273">
-        <v>123.39</v>
+        <v>95</v>
       </c>
       <c r="C273">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D273">
-        <v>8.1</v>
+        <v>-29.06</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B274">
-        <v>115.97</v>
+        <v>106</v>
       </c>
       <c r="C274">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D274">
-        <v>1.6</v>
+        <v>-20.84</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B275">
-        <v>110.2</v>
+        <v>111.1</v>
       </c>
       <c r="C275">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D275">
-        <v>-3.45</v>
+        <v>-17.03</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B276">
-        <v>107.03</v>
+        <v>102.21</v>
       </c>
       <c r="C276">
-        <v>114.14</v>
+        <v>151.76</v>
       </c>
       <c r="D276">
-        <v>-6.23</v>
+        <v>-32.65</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B277">
-        <v>106.62</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C277">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D277">
-        <v>-20.37</v>
+        <v>-41.62</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B278">
-        <v>104.38</v>
+        <v>82.05</v>
       </c>
       <c r="C278">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D278">
-        <v>-22.05</v>
+        <v>-45.93</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B279">
-        <v>97.37</v>
+        <v>80.59</v>
       </c>
       <c r="C279">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D279">
-        <v>-27.29</v>
+        <v>-46.89</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B280">
-        <v>88.66</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="C280">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D280">
-        <v>-33.79</v>
+        <v>-48.25</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B281">
-        <v>85.79000000000001</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="C281">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D281">
-        <v>-35.93</v>
+        <v>-49.09</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B282">
-        <v>83.67</v>
+        <v>75.73</v>
       </c>
       <c r="C282">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D282">
-        <v>-37.52</v>
+        <v>-50.1</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B283">
-        <v>83.16</v>
+        <v>82.2</v>
       </c>
       <c r="C283">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D283">
-        <v>-37.9</v>
+        <v>-45.84</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B284">
-        <v>82.08</v>
+        <v>98.48</v>
       </c>
       <c r="C284">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D284">
-        <v>-38.7</v>
+        <v>-35.11</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B285">
-        <v>80.54000000000001</v>
+        <v>114.48</v>
       </c>
       <c r="C285">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D285">
-        <v>-39.85</v>
+        <v>-24.57</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B286">
-        <v>79.53</v>
+        <v>117.85</v>
       </c>
       <c r="C286">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D286">
-        <v>-40.61</v>
+        <v>-22.34</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B287">
-        <v>79.73999999999999</v>
+        <v>104.99</v>
       </c>
       <c r="C287">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D287">
-        <v>-40.45</v>
+        <v>-30.82</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B288">
-        <v>79.06999999999999</v>
+        <v>91.83</v>
       </c>
       <c r="C288">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D288">
-        <v>-40.95</v>
+        <v>-39.49</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B289">
-        <v>78.67</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="C289">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D289">
-        <v>-41.25</v>
+        <v>-44.33</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B290">
-        <v>78.98</v>
+        <v>81.75</v>
       </c>
       <c r="C290">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D290">
-        <v>-41.02</v>
+        <v>-46.13</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B291">
-        <v>78</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="C291">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D291">
-        <v>-41.75</v>
+        <v>-45.01</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B292">
-        <v>77.23</v>
+        <v>80.34</v>
       </c>
       <c r="C292">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D292">
-        <v>-42.33</v>
+        <v>-47.06</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B293">
-        <v>77.15000000000001</v>
+        <v>77.88</v>
       </c>
       <c r="C293">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D293">
-        <v>-42.38</v>
+        <v>-48.69</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B294">
-        <v>76.72</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="C294">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D294">
-        <v>-42.71</v>
+        <v>-48.76</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B295">
-        <v>76.58</v>
+        <v>76.67</v>
       </c>
       <c r="C295">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D295">
-        <v>-42.81</v>
+        <v>-49.48</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B296">
-        <v>77.56</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="C296">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D296">
-        <v>-42.08</v>
+        <v>-49.69</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B297">
-        <v>78</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="C297">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D297">
-        <v>-41.75</v>
+        <v>-49.6</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B298">
-        <v>78</v>
+        <v>76.11</v>
       </c>
       <c r="C298">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D298">
-        <v>-41.75</v>
+        <v>-49.85</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B299">
-        <v>78.5</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C299">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D299">
-        <v>-41.38</v>
+        <v>-49.5</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B300">
-        <v>77.59</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="C300">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D300">
-        <v>-42.05</v>
+        <v>-48.23</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B301">
-        <v>77.40000000000001</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="C301">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D301">
-        <v>-42.2</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B302">
-        <v>77.23999999999999</v>
+        <v>76.42</v>
       </c>
       <c r="C302">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D302">
-        <v>-42.32</v>
+        <v>-49.65</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B303">
-        <v>76.65000000000001</v>
+        <v>77.83</v>
       </c>
       <c r="C303">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D303">
-        <v>-42.76</v>
+        <v>-48.72</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B304">
-        <v>95</v>
+        <v>76.5</v>
       </c>
       <c r="C304">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D304">
-        <v>-29.06</v>
+        <v>-49.59</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B305">
-        <v>106</v>
+        <v>82.67</v>
       </c>
       <c r="C305">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D305">
-        <v>-20.84</v>
+        <v>-45.53</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B306">
-        <v>111.1</v>
+        <v>80.97</v>
       </c>
       <c r="C306">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D306">
-        <v>-17.03</v>
+        <v>-46.65</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B307">
-        <v>102.21</v>
+        <v>92.72</v>
       </c>
       <c r="C307">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D307">
-        <v>-32.65</v>
+        <v>-31.99</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="B308">
-        <v>88.59999999999999</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="C308">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D308">
-        <v>-41.62</v>
+        <v>-32.14</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44107</v>
+        <v>44138</v>
       </c>
       <c r="B309">
-        <v>82.05</v>
+        <v>90.27</v>
       </c>
       <c r="C309">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D309">
-        <v>-45.93</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44108</v>
+        <v>44139</v>
       </c>
       <c r="B310">
-        <v>80.59</v>
+        <v>92.8</v>
       </c>
       <c r="C310">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D310">
-        <v>-46.89</v>
+        <v>-31.93</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44109</v>
+        <v>44140</v>
       </c>
       <c r="B311">
-        <v>78.54000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="C311">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D311">
-        <v>-48.25</v>
+        <v>-36.88</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44110</v>
+        <v>44141</v>
       </c>
       <c r="B312">
-        <v>77.26000000000001</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C312">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D312">
-        <v>-49.09</v>
+        <v>-37.36</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44111</v>
+        <v>44142</v>
       </c>
       <c r="B313">
-        <v>75.73</v>
+        <v>83.97</v>
       </c>
       <c r="C313">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D313">
-        <v>-50.1</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44112</v>
+        <v>44143</v>
       </c>
       <c r="B314">
-        <v>82.2</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="C314">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D314">
-        <v>-45.84</v>
+        <v>-40.53</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B315">
-        <v>98.48</v>
+        <v>78.53</v>
       </c>
       <c r="C315">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D315">
-        <v>-35.11</v>
+        <v>-42.4</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44114</v>
+        <v>44145</v>
       </c>
       <c r="B316">
-        <v>114.48</v>
+        <v>78.11</v>
       </c>
       <c r="C316">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D316">
-        <v>-24.57</v>
+        <v>-42.7</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44115</v>
+        <v>44146</v>
       </c>
       <c r="B317">
-        <v>117.85</v>
+        <v>94.12</v>
       </c>
       <c r="C317">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D317">
-        <v>-22.34</v>
+        <v>-30.96</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44116</v>
+        <v>44147</v>
       </c>
       <c r="B318">
-        <v>104.99</v>
+        <v>104.58</v>
       </c>
       <c r="C318">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D318">
-        <v>-30.82</v>
+        <v>-23.29</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44117</v>
+        <v>44148</v>
       </c>
       <c r="B319">
-        <v>91.83</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="C319">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D319">
-        <v>-39.49</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44118</v>
+        <v>44149</v>
       </c>
       <c r="B320">
-        <v>84.48999999999999</v>
+        <v>89.53</v>
       </c>
       <c r="C320">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D320">
-        <v>-44.33</v>
+        <v>-34.33</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44119</v>
+        <v>44150</v>
       </c>
       <c r="B321">
-        <v>81.75</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="C321">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D321">
-        <v>-46.13</v>
+        <v>-36.74</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44120</v>
+        <v>44151</v>
       </c>
       <c r="B322">
-        <v>83.45999999999999</v>
+        <v>92.23</v>
       </c>
       <c r="C322">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D322">
-        <v>-45.01</v>
+        <v>-32.35</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44121</v>
+        <v>44152</v>
       </c>
       <c r="B323">
-        <v>80.34</v>
+        <v>107.59</v>
       </c>
       <c r="C323">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D323">
-        <v>-47.06</v>
+        <v>-21.08</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44122</v>
+        <v>44153</v>
       </c>
       <c r="B324">
-        <v>77.88</v>
+        <v>121.44</v>
       </c>
       <c r="C324">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D324">
-        <v>-48.69</v>
+        <v>-10.93</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44123</v>
+        <v>44154</v>
       </c>
       <c r="B325">
-        <v>77.76000000000001</v>
+        <v>125.58</v>
       </c>
       <c r="C325">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D325">
-        <v>-48.76</v>
+        <v>-7.89</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44124</v>
+        <v>44155</v>
       </c>
       <c r="B326">
-        <v>76.67</v>
+        <v>123.19</v>
       </c>
       <c r="C326">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D326">
-        <v>-49.48</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44125</v>
+        <v>44156</v>
       </c>
       <c r="B327">
-        <v>76.34999999999999</v>
+        <v>129.56</v>
       </c>
       <c r="C327">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D327">
-        <v>-49.69</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44126</v>
+        <v>44157</v>
       </c>
       <c r="B328">
-        <v>76.48999999999999</v>
+        <v>124.57</v>
       </c>
       <c r="C328">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D328">
-        <v>-49.6</v>
+        <v>-8.630000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44127</v>
+        <v>44158</v>
       </c>
       <c r="B329">
-        <v>76.11</v>
+        <v>107.69</v>
       </c>
       <c r="C329">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D329">
-        <v>-49.85</v>
+        <v>-21.01</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44128</v>
+        <v>44159</v>
       </c>
       <c r="B330">
-        <v>76.65000000000001</v>
+        <v>97.08</v>
       </c>
       <c r="C330">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D330">
-        <v>-49.5</v>
+        <v>-28.8</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44129</v>
+        <v>44160</v>
       </c>
       <c r="B331">
-        <v>78.56999999999999</v>
+        <v>88.39</v>
       </c>
       <c r="C331">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D331">
-        <v>-48.23</v>
+        <v>-35.17</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44130</v>
+        <v>44161</v>
       </c>
       <c r="B332">
-        <v>76.15000000000001</v>
+        <v>83.77</v>
       </c>
       <c r="C332">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D332">
-        <v>-49.82</v>
+        <v>-38.55</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44131</v>
+        <v>44162</v>
       </c>
       <c r="B333">
-        <v>76.42</v>
+        <v>119.47</v>
       </c>
       <c r="C333">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D333">
-        <v>-49.65</v>
+        <v>-12.37</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44132</v>
+        <v>44163</v>
       </c>
       <c r="B334">
-        <v>77.83</v>
+        <v>89</v>
       </c>
       <c r="C334">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D334">
-        <v>-48.72</v>
+        <v>-34.72</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44133</v>
+        <v>44164</v>
       </c>
       <c r="B335">
-        <v>76.5</v>
+        <v>101.71</v>
       </c>
       <c r="C335">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D335">
-        <v>-49.59</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44134</v>
+        <v>44165</v>
       </c>
       <c r="B336">
-        <v>82.67</v>
+        <v>98.62</v>
       </c>
       <c r="C336">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D336">
-        <v>-45.53</v>
+        <v>-27.66</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44135</v>
+        <v>44166</v>
       </c>
       <c r="B337">
-        <v>80.97</v>
+        <v>86.64</v>
       </c>
       <c r="C337">
-        <v>151.76</v>
+        <v>130.94</v>
       </c>
       <c r="D337">
-        <v>-46.65</v>
+        <v>-33.84</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44136</v>
+        <v>44167</v>
       </c>
       <c r="B338">
-        <v>92.72</v>
+        <v>81.5</v>
       </c>
       <c r="C338">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D338">
-        <v>-31.99</v>
+        <v>-37.76</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44137</v>
+        <v>44168</v>
       </c>
       <c r="B339">
-        <v>92.51000000000001</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="C339">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D339">
-        <v>-32.14</v>
+        <v>-36.22</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44138</v>
+        <v>44169</v>
       </c>
       <c r="B340">
-        <v>90.27</v>
+        <v>86.27</v>
       </c>
       <c r="C340">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D340">
-        <v>-33.79</v>
+        <v>-34.12</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44139</v>
+        <v>44170</v>
       </c>
       <c r="B341">
-        <v>92.8</v>
+        <v>108.23</v>
       </c>
       <c r="C341">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D341">
-        <v>-31.93</v>
+        <v>-17.35</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44140</v>
+        <v>44171</v>
       </c>
       <c r="B342">
-        <v>86.05</v>
+        <v>152.56</v>
       </c>
       <c r="C342">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D342">
-        <v>-36.88</v>
+        <v>16.51</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44141</v>
+        <v>44172</v>
       </c>
       <c r="B343">
-        <v>85.40000000000001</v>
+        <v>164.1</v>
       </c>
       <c r="C343">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D343">
-        <v>-37.36</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44142</v>
+        <v>44173</v>
       </c>
       <c r="B344">
-        <v>83.97</v>
+        <v>160.38</v>
       </c>
       <c r="C344">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D344">
-        <v>-38.41</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44143</v>
+        <v>44174</v>
       </c>
       <c r="B345">
-        <v>81.06999999999999</v>
+        <v>163.54</v>
       </c>
       <c r="C345">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D345">
-        <v>-40.53</v>
+        <v>24.89</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44144</v>
+        <v>44175</v>
       </c>
       <c r="B346">
-        <v>78.53</v>
+        <v>165.96</v>
       </c>
       <c r="C346">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D346">
-        <v>-42.4</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44145</v>
+        <v>44176</v>
       </c>
       <c r="B347">
-        <v>78.11</v>
+        <v>156.48</v>
       </c>
       <c r="C347">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D347">
-        <v>-42.7</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44146</v>
+        <v>44177</v>
       </c>
       <c r="B348">
-        <v>94.12</v>
+        <v>127.35</v>
       </c>
       <c r="C348">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D348">
-        <v>-30.96</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44147</v>
+        <v>44178</v>
       </c>
       <c r="B349">
-        <v>104.58</v>
+        <v>117.8</v>
       </c>
       <c r="C349">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D349">
-        <v>-23.29</v>
+        <v>-10.04</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44148</v>
+        <v>44179</v>
       </c>
       <c r="B350">
-        <v>91.93000000000001</v>
+        <v>100.39</v>
       </c>
       <c r="C350">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D350">
-        <v>-32.57</v>
+        <v>-23.34</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44149</v>
+        <v>44180</v>
       </c>
       <c r="B351">
-        <v>89.53</v>
+        <v>102.96</v>
       </c>
       <c r="C351">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D351">
-        <v>-34.33</v>
+        <v>-21.37</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44150</v>
+        <v>44181</v>
       </c>
       <c r="B352">
-        <v>86.23999999999999</v>
+        <v>109</v>
       </c>
       <c r="C352">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D352">
-        <v>-36.74</v>
+        <v>-16.76</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44151</v>
+        <v>44182</v>
       </c>
       <c r="B353">
-        <v>92.23</v>
+        <v>140.39</v>
       </c>
       <c r="C353">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D353">
-        <v>-32.35</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44152</v>
+        <v>44183</v>
       </c>
       <c r="B354">
-        <v>107.59</v>
+        <v>135.9</v>
       </c>
       <c r="C354">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D354">
-        <v>-21.08</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44153</v>
+        <v>44184</v>
       </c>
       <c r="B355">
-        <v>121.44</v>
+        <v>130.94</v>
       </c>
       <c r="C355">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D355">
-        <v>-10.93</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44154</v>
+        <v>44185</v>
       </c>
       <c r="B356">
-        <v>125.58</v>
+        <v>121.99</v>
       </c>
       <c r="C356">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D356">
-        <v>-7.89</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44155</v>
+        <v>44186</v>
       </c>
       <c r="B357">
-        <v>123.19</v>
+        <v>119.38</v>
       </c>
       <c r="C357">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D357">
-        <v>-9.640000000000001</v>
+        <v>-8.84</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44156</v>
+        <v>44187</v>
       </c>
       <c r="B358">
-        <v>129.56</v>
+        <v>124.02</v>
       </c>
       <c r="C358">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D358">
-        <v>-4.97</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44157</v>
+        <v>44188</v>
       </c>
       <c r="B359">
-        <v>124.57</v>
+        <v>120.15</v>
       </c>
       <c r="C359">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D359">
-        <v>-8.630000000000001</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44158</v>
+        <v>44189</v>
       </c>
       <c r="B360">
-        <v>107.69</v>
+        <v>108.27</v>
       </c>
       <c r="C360">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D360">
-        <v>-21.01</v>
+        <v>-17.32</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44159</v>
+        <v>44190</v>
       </c>
       <c r="B361">
-        <v>97.08</v>
+        <v>101.69</v>
       </c>
       <c r="C361">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D361">
-        <v>-28.8</v>
+        <v>-22.34</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44160</v>
+        <v>44191</v>
       </c>
       <c r="B362">
-        <v>88.39</v>
+        <v>97.48</v>
       </c>
       <c r="C362">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D362">
-        <v>-35.17</v>
+        <v>-25.56</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44161</v>
+        <v>44192</v>
       </c>
       <c r="B363">
-        <v>83.77</v>
+        <v>93.84</v>
       </c>
       <c r="C363">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D363">
-        <v>-38.55</v>
+        <v>-28.33</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44162</v>
+        <v>44193</v>
       </c>
       <c r="B364">
-        <v>119.47</v>
+        <v>91.03</v>
       </c>
       <c r="C364">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D364">
-        <v>-12.37</v>
+        <v>-30.48</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44163</v>
+        <v>44194</v>
       </c>
       <c r="B365">
-        <v>89</v>
+        <v>96.97</v>
       </c>
       <c r="C365">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D365">
-        <v>-34.72</v>
+        <v>-25.95</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44164</v>
+        <v>44195</v>
       </c>
       <c r="B366">
-        <v>101.71</v>
+        <v>106.79</v>
       </c>
       <c r="C366">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D366">
-        <v>-25.4</v>
+        <v>-18.45</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B367">
-        <v>98.62</v>
+        <v>121.08</v>
       </c>
       <c r="C367">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D367">
-        <v>-27.66</v>
+        <v>-7.53</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -586,6 +586,20 @@
         <v>-9.43</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B14">
+        <v>115.22</v>
+      </c>
+      <c r="C14">
+        <v>151.18</v>
+      </c>
+      <c r="D14">
+        <v>-23.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5742,6 +5756,216 @@
         <v>-7.53</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B368">
+        <v>134.69</v>
+      </c>
+      <c r="C368">
+        <v>151.18</v>
+      </c>
+      <c r="D368">
+        <v>-10.91</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B369">
+        <v>129.94</v>
+      </c>
+      <c r="C369">
+        <v>151.18</v>
+      </c>
+      <c r="D369">
+        <v>-14.05</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B370">
+        <v>119.85</v>
+      </c>
+      <c r="C370">
+        <v>151.18</v>
+      </c>
+      <c r="D370">
+        <v>-20.72</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B371">
+        <v>110.24</v>
+      </c>
+      <c r="C371">
+        <v>151.18</v>
+      </c>
+      <c r="D371">
+        <v>-27.08</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B372">
+        <v>102.82</v>
+      </c>
+      <c r="C372">
+        <v>151.18</v>
+      </c>
+      <c r="D372">
+        <v>-31.99</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B373">
+        <v>107.44</v>
+      </c>
+      <c r="C373">
+        <v>151.18</v>
+      </c>
+      <c r="D373">
+        <v>-28.94</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B374">
+        <v>123.42</v>
+      </c>
+      <c r="C374">
+        <v>151.18</v>
+      </c>
+      <c r="D374">
+        <v>-18.37</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B375">
+        <v>140.35</v>
+      </c>
+      <c r="C375">
+        <v>151.18</v>
+      </c>
+      <c r="D375">
+        <v>-7.16</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B376">
+        <v>145.59</v>
+      </c>
+      <c r="C376">
+        <v>151.18</v>
+      </c>
+      <c r="D376">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B377">
+        <v>119.53</v>
+      </c>
+      <c r="C377">
+        <v>151.18</v>
+      </c>
+      <c r="D377">
+        <v>-20.94</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B378">
+        <v>107.58</v>
+      </c>
+      <c r="C378">
+        <v>151.18</v>
+      </c>
+      <c r="D378">
+        <v>-28.84</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B379">
+        <v>100.06</v>
+      </c>
+      <c r="C379">
+        <v>151.18</v>
+      </c>
+      <c r="D379">
+        <v>-33.81</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B380">
+        <v>95.86</v>
+      </c>
+      <c r="C380">
+        <v>151.18</v>
+      </c>
+      <c r="D380">
+        <v>-36.59</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B381">
+        <v>93.83</v>
+      </c>
+      <c r="C381">
+        <v>151.18</v>
+      </c>
+      <c r="D381">
+        <v>-37.93</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B382">
+        <v>97.05</v>
+      </c>
+      <c r="C382">
+        <v>151.18</v>
+      </c>
+      <c r="D382">
+        <v>-35.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B2">
-        <v>100.1</v>
+        <v>120.43</v>
       </c>
       <c r="C2">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D2">
-        <v>-33.79</v>
+        <v>-20.24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B3">
-        <v>120.43</v>
+        <v>96.11</v>
       </c>
       <c r="C3">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D3">
-        <v>-20.24</v>
+        <v>-32.26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B4">
-        <v>96.11</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="C4">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D4">
-        <v>-32.26</v>
+        <v>-24.84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B5">
-        <v>90.43000000000001</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C5">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D5">
-        <v>-24.84</v>
+        <v>-29.06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B6">
-        <v>92.48999999999999</v>
+        <v>105.48</v>
       </c>
       <c r="C6">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D6">
-        <v>-29.06</v>
+        <v>-32.98</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B7">
-        <v>105.48</v>
+        <v>99.67</v>
       </c>
       <c r="C7">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D7">
-        <v>-32.98</v>
+        <v>-21.07</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B8">
-        <v>99.67</v>
+        <v>141.16</v>
       </c>
       <c r="C8">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D8">
-        <v>-21.07</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B9">
-        <v>141.16</v>
+        <v>84.23</v>
       </c>
       <c r="C9">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D9">
-        <v>23.68</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B10">
-        <v>84.23</v>
+        <v>84.25</v>
       </c>
       <c r="C10">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D10">
-        <v>-37.1</v>
+        <v>-44.48</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B11">
-        <v>84.25</v>
+        <v>97.92</v>
       </c>
       <c r="C11">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D11">
-        <v>-44.48</v>
+        <v>-28.17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B12">
-        <v>97.92</v>
+        <v>118.6</v>
       </c>
       <c r="C12">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D12">
-        <v>-28.17</v>
+        <v>-9.43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B13">
-        <v>118.6</v>
+        <v>141.55</v>
       </c>
       <c r="C13">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D13">
-        <v>-9.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B14">
-        <v>115.22</v>
-      </c>
-      <c r="C14">
-        <v>151.18</v>
-      </c>
-      <c r="D14">
-        <v>-23.79</v>
+        <v>-6.37</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,13 +620,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -648,27 +634,27 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43832</v>
-      </c>
-      <c r="B3">
-        <v>93.26000000000001</v>
+        <v>43863</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>151.18</v>
-      </c>
-      <c r="D3">
-        <v>-38.31</v>
+        <v>151</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -676,13 +662,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -690,13 +676,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -704,13 +690,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -718,13 +704,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -732,181 +718,181 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43838</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
+        <v>43869</v>
+      </c>
+      <c r="B9">
+        <v>95.06999999999999</v>
       </c>
       <c r="C9">
-        <v>151.18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D9">
+        <v>-37.04</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43839</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
+        <v>43870</v>
+      </c>
+      <c r="B10">
+        <v>107.25</v>
       </c>
       <c r="C10">
-        <v>151.18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D10">
+        <v>-28.97</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B11">
-        <v>100.18</v>
+        <v>157.73</v>
       </c>
       <c r="C11">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D11">
-        <v>-33.74</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B12">
-        <v>108.03</v>
+        <v>163</v>
       </c>
       <c r="C12">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D12">
-        <v>-28.54</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B13">
-        <v>106.69</v>
+        <v>180.46</v>
       </c>
       <c r="C13">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D13">
-        <v>-29.43</v>
+        <v>19.51</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B14">
-        <v>104.32</v>
+        <v>193.38</v>
       </c>
       <c r="C14">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D14">
-        <v>-31</v>
+        <v>28.06</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B15">
-        <v>96.81</v>
+        <v>184.81</v>
       </c>
       <c r="C15">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D15">
-        <v>-35.97</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43845</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
+        <v>43876</v>
+      </c>
+      <c r="B16">
+        <v>139.85</v>
       </c>
       <c r="C16">
-        <v>151.18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D16">
+        <v>-7.38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>107.48</v>
       </c>
       <c r="C17">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D17">
-        <v>-35.18</v>
+        <v>-28.82</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B18">
-        <v>107.82</v>
+        <v>97.72</v>
       </c>
       <c r="C18">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D18">
-        <v>-28.68</v>
+        <v>-35.29</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B19">
-        <v>94.09999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C19">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D19">
-        <v>-37.76</v>
+        <v>-38.67</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B20">
-        <v>91.8</v>
+        <v>89.17</v>
       </c>
       <c r="C20">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D20">
-        <v>-39.28</v>
+        <v>-40.94</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -914,13 +900,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -928,727 +914,727 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43852</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
+        <v>43883</v>
+      </c>
+      <c r="B23">
+        <v>90.01000000000001</v>
       </c>
       <c r="C23">
-        <v>151.18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D23">
+        <v>-40.39</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43853</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
+        <v>43884</v>
+      </c>
+      <c r="B24">
+        <v>89.8</v>
       </c>
       <c r="C24">
-        <v>151.18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D24">
+        <v>-40.53</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43854</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
+        <v>43885</v>
+      </c>
+      <c r="B25">
+        <v>90.06</v>
       </c>
       <c r="C25">
-        <v>151.18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D25">
+        <v>-40.36</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43855</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
+        <v>43886</v>
+      </c>
+      <c r="B26">
+        <v>91.17</v>
       </c>
       <c r="C26">
-        <v>151.18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D26">
+        <v>-39.62</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43856</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
+        <v>43887</v>
+      </c>
+      <c r="B27">
+        <v>100.46</v>
       </c>
       <c r="C27">
-        <v>151.18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D27">
+        <v>-33.47</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43857</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
+        <v>43888</v>
+      </c>
+      <c r="B28">
+        <v>115.43</v>
       </c>
       <c r="C28">
-        <v>151.18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D28">
+        <v>-23.56</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43858</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
+        <v>43889</v>
+      </c>
+      <c r="B29">
+        <v>115.79</v>
       </c>
       <c r="C29">
-        <v>151.18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D29">
+        <v>-23.32</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43859</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
+        <v>43890</v>
+      </c>
+      <c r="B30">
+        <v>107.41</v>
       </c>
       <c r="C30">
-        <v>151.18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="D30">
+        <v>-28.87</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43860</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
+        <v>43891</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
       </c>
       <c r="C31">
-        <v>151.18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D31">
+        <v>-29.52</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43861</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
+        <v>43892</v>
+      </c>
+      <c r="B32">
+        <v>96.15000000000001</v>
       </c>
       <c r="C32">
-        <v>151.18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D32">
+        <v>-32.24</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
+        <v>43893</v>
+      </c>
+      <c r="B33">
+        <v>95.79000000000001</v>
       </c>
       <c r="C33">
-        <v>151</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D33">
+        <v>-32.49</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43863</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
+        <v>43894</v>
+      </c>
+      <c r="B34">
+        <v>103.34</v>
       </c>
       <c r="C34">
-        <v>151</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D34">
+        <v>-27.16</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43864</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
+        <v>43895</v>
+      </c>
+      <c r="B35">
+        <v>110.47</v>
       </c>
       <c r="C35">
-        <v>151</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D35">
+        <v>-22.14</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43865</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
+        <v>43896</v>
+      </c>
+      <c r="B36">
+        <v>104.58</v>
       </c>
       <c r="C36">
-        <v>151</v>
-      </c>
-      <c r="D36" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D36">
+        <v>-26.29</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43866</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
+        <v>43897</v>
+      </c>
+      <c r="B37">
+        <v>99.18000000000001</v>
       </c>
       <c r="C37">
-        <v>151</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D37">
+        <v>-30.1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43867</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
+        <v>43898</v>
+      </c>
+      <c r="B38">
+        <v>93.73</v>
       </c>
       <c r="C38">
-        <v>151</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D38">
+        <v>-33.94</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43868</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
+        <v>43899</v>
+      </c>
+      <c r="B39">
+        <v>91.45999999999999</v>
       </c>
       <c r="C39">
-        <v>151</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D39">
+        <v>-35.54</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B40">
-        <v>95.06999999999999</v>
+        <v>90.75</v>
       </c>
       <c r="C40">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D40">
-        <v>-37.04</v>
+        <v>-36.04</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B41">
-        <v>107.25</v>
+        <v>89</v>
       </c>
       <c r="C41">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D41">
-        <v>-28.97</v>
+        <v>-37.27</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43871</v>
-      </c>
-      <c r="B42">
-        <v>157.73</v>
+        <v>43902</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>151</v>
-      </c>
-      <c r="D42">
-        <v>4.46</v>
+        <v>141.89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43872</v>
-      </c>
-      <c r="B43">
-        <v>163</v>
+        <v>43903</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>151</v>
-      </c>
-      <c r="D43">
-        <v>7.95</v>
+        <v>141.89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43873</v>
-      </c>
-      <c r="B44">
-        <v>180.46</v>
+        <v>43904</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>151</v>
-      </c>
-      <c r="D44">
-        <v>19.51</v>
+        <v>141.89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43874</v>
-      </c>
-      <c r="B45">
-        <v>193.38</v>
+        <v>43905</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>151</v>
-      </c>
-      <c r="D45">
-        <v>28.06</v>
+        <v>141.89</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43875</v>
-      </c>
-      <c r="B46">
-        <v>184.81</v>
+        <v>43906</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>151</v>
-      </c>
-      <c r="D46">
-        <v>22.39</v>
+        <v>141.89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B47">
-        <v>139.85</v>
+        <v>96.81</v>
       </c>
       <c r="C47">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D47">
-        <v>-7.38</v>
+        <v>-31.77</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B48">
-        <v>107.48</v>
+        <v>95.77</v>
       </c>
       <c r="C48">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D48">
-        <v>-28.82</v>
+        <v>-32.5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B49">
-        <v>97.72</v>
+        <v>100.65</v>
       </c>
       <c r="C49">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D49">
-        <v>-35.29</v>
+        <v>-29.07</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B50">
-        <v>92.59999999999999</v>
+        <v>97.25</v>
       </c>
       <c r="C50">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D50">
-        <v>-38.67</v>
+        <v>-31.46</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B51">
-        <v>89.17</v>
+        <v>94.98</v>
       </c>
       <c r="C51">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D51">
-        <v>-40.94</v>
+        <v>-33.06</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43881</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
+        <v>43912</v>
+      </c>
+      <c r="B52">
+        <v>92.42</v>
       </c>
       <c r="C52">
-        <v>151</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D52">
+        <v>-34.87</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43882</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
+        <v>43913</v>
+      </c>
+      <c r="B53">
+        <v>90.43000000000001</v>
       </c>
       <c r="C53">
-        <v>151</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4</v>
+        <v>141.89</v>
+      </c>
+      <c r="D53">
+        <v>-36.27</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B54">
-        <v>90.01000000000001</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="C54">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D54">
-        <v>-40.39</v>
+        <v>-36.77</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B55">
-        <v>89.8</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="C55">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D55">
-        <v>-40.53</v>
+        <v>-36.78</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43885</v>
-      </c>
-      <c r="B56">
-        <v>90.06</v>
+        <v>43916</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>151</v>
-      </c>
-      <c r="D56">
-        <v>-40.36</v>
+        <v>141.89</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43886</v>
-      </c>
-      <c r="B57">
-        <v>91.17</v>
+        <v>43917</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>151</v>
-      </c>
-      <c r="D57">
-        <v>-39.62</v>
+        <v>141.89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43887</v>
-      </c>
-      <c r="B58">
-        <v>100.46</v>
+        <v>43918</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>151</v>
-      </c>
-      <c r="D58">
-        <v>-33.47</v>
+        <v>141.89</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43888</v>
-      </c>
-      <c r="B59">
-        <v>115.43</v>
+        <v>43919</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>151</v>
-      </c>
-      <c r="D59">
-        <v>-23.56</v>
+        <v>141.89</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43889</v>
-      </c>
-      <c r="B60">
-        <v>115.79</v>
+        <v>43920</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>151</v>
-      </c>
-      <c r="D60">
-        <v>-23.32</v>
+        <v>141.89</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43890</v>
-      </c>
-      <c r="B61">
-        <v>107.41</v>
+        <v>43921</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>151</v>
-      </c>
-      <c r="D61">
-        <v>-28.87</v>
+        <v>141.89</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43891</v>
-      </c>
-      <c r="B62">
-        <v>100</v>
+        <v>43922</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>141.89</v>
-      </c>
-      <c r="D62">
-        <v>-29.52</v>
+        <v>120.32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43892</v>
-      </c>
-      <c r="B63">
-        <v>96.15000000000001</v>
+        <v>43923</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>141.89</v>
-      </c>
-      <c r="D63">
-        <v>-32.24</v>
+        <v>120.32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43893</v>
-      </c>
-      <c r="B64">
-        <v>95.79000000000001</v>
+        <v>43924</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>141.89</v>
-      </c>
-      <c r="D64">
-        <v>-32.49</v>
+        <v>120.32</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B65">
-        <v>103.34</v>
+        <v>89.44</v>
       </c>
       <c r="C65">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D65">
-        <v>-27.16</v>
+        <v>-25.66</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B66">
-        <v>110.47</v>
+        <v>89.14</v>
       </c>
       <c r="C66">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D66">
-        <v>-22.14</v>
+        <v>-25.91</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43896</v>
-      </c>
-      <c r="B67">
-        <v>104.58</v>
+        <v>43927</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>141.89</v>
-      </c>
-      <c r="D67">
-        <v>-26.29</v>
+        <v>120.32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B68">
-        <v>99.18000000000001</v>
+        <v>91.61</v>
       </c>
       <c r="C68">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D68">
-        <v>-30.1</v>
+        <v>-23.86</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43898</v>
-      </c>
-      <c r="B69">
-        <v>93.73</v>
+        <v>43929</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>141.89</v>
-      </c>
-      <c r="D69">
-        <v>-33.94</v>
+        <v>120.32</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43899</v>
-      </c>
-      <c r="B70">
-        <v>91.45999999999999</v>
+        <v>43930</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>141.89</v>
-      </c>
-      <c r="D70">
-        <v>-35.54</v>
+        <v>120.32</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43900</v>
-      </c>
-      <c r="B71">
-        <v>90.75</v>
+        <v>43931</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>141.89</v>
-      </c>
-      <c r="D71">
-        <v>-36.04</v>
+        <v>120.32</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43901</v>
-      </c>
-      <c r="B72">
-        <v>89</v>
+        <v>43932</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>141.89</v>
-      </c>
-      <c r="D72">
-        <v>-37.27</v>
+        <v>120.32</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43902</v>
-      </c>
-      <c r="B73" t="s">
-        <v>4</v>
+        <v>43933</v>
+      </c>
+      <c r="B73">
+        <v>89</v>
       </c>
       <c r="C73">
-        <v>141.89</v>
-      </c>
-      <c r="D73" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D73">
+        <v>-26.03</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
       <c r="C74">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -1656,13 +1642,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
       <c r="C75">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
@@ -1670,237 +1656,237 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43905</v>
-      </c>
-      <c r="B76" t="s">
-        <v>4</v>
+        <v>43936</v>
+      </c>
+      <c r="B76">
+        <v>90.54000000000001</v>
       </c>
       <c r="C76">
-        <v>141.89</v>
-      </c>
-      <c r="D76" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D76">
+        <v>-24.75</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43906</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
+        <v>43937</v>
+      </c>
+      <c r="B77">
+        <v>92.23999999999999</v>
       </c>
       <c r="C77">
-        <v>141.89</v>
-      </c>
-      <c r="D77" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D77">
+        <v>-23.34</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B78">
-        <v>96.81</v>
+        <v>92.36</v>
       </c>
       <c r="C78">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D78">
-        <v>-31.77</v>
+        <v>-23.24</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B79">
-        <v>95.77</v>
+        <v>90.77</v>
       </c>
       <c r="C79">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D79">
-        <v>-32.5</v>
+        <v>-24.56</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B80">
-        <v>100.65</v>
+        <v>90.52</v>
       </c>
       <c r="C80">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D80">
-        <v>-29.07</v>
+        <v>-24.77</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B81">
-        <v>97.25</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="C81">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D81">
-        <v>-31.46</v>
+        <v>-24.82</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B82">
-        <v>94.98</v>
+        <v>89.98</v>
       </c>
       <c r="C82">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D82">
-        <v>-33.06</v>
+        <v>-25.21</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B83">
-        <v>92.42</v>
+        <v>90.42</v>
       </c>
       <c r="C83">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D83">
-        <v>-34.87</v>
+        <v>-24.85</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B84">
-        <v>90.43000000000001</v>
+        <v>91.53</v>
       </c>
       <c r="C84">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D84">
-        <v>-36.27</v>
+        <v>-23.93</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B85">
-        <v>89.70999999999999</v>
+        <v>91.94</v>
       </c>
       <c r="C85">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D85">
-        <v>-36.77</v>
+        <v>-23.59</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43915</v>
-      </c>
-      <c r="B86">
-        <v>89.70999999999999</v>
+        <v>43946</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>141.89</v>
-      </c>
-      <c r="D86">
-        <v>-36.78</v>
+        <v>120.32</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43916</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4</v>
+        <v>43947</v>
+      </c>
+      <c r="B87">
+        <v>89.87</v>
       </c>
       <c r="C87">
-        <v>141.89</v>
-      </c>
-      <c r="D87" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D87">
+        <v>-25.31</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43917</v>
-      </c>
-      <c r="B88" t="s">
-        <v>4</v>
+        <v>43948</v>
+      </c>
+      <c r="B88">
+        <v>89.5</v>
       </c>
       <c r="C88">
-        <v>141.89</v>
-      </c>
-      <c r="D88" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D88">
+        <v>-25.62</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43918</v>
-      </c>
-      <c r="B89" t="s">
-        <v>4</v>
+        <v>43949</v>
+      </c>
+      <c r="B89">
+        <v>89.05</v>
       </c>
       <c r="C89">
-        <v>141.89</v>
-      </c>
-      <c r="D89" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D89">
+        <v>-25.99</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43919</v>
-      </c>
-      <c r="B90" t="s">
-        <v>4</v>
+        <v>43950</v>
+      </c>
+      <c r="B90">
+        <v>89.55</v>
       </c>
       <c r="C90">
-        <v>141.89</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D90">
+        <v>-25.58</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B91" t="s">
-        <v>4</v>
+        <v>43951</v>
+      </c>
+      <c r="B91">
+        <v>90.33</v>
       </c>
       <c r="C91">
-        <v>141.89</v>
-      </c>
-      <c r="D91" t="s">
-        <v>4</v>
+        <v>120.32</v>
+      </c>
+      <c r="D91">
+        <v>-24.92</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
       <c r="C92">
-        <v>141.89</v>
+        <v>130.37</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
@@ -1908,4062 +1894,3852 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B93" t="s">
-        <v>4</v>
+        <v>43953</v>
+      </c>
+      <c r="B93">
+        <v>89.93000000000001</v>
       </c>
       <c r="C93">
-        <v>120.32</v>
-      </c>
-      <c r="D93" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D93">
+        <v>-31.02</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B94" t="s">
-        <v>4</v>
+        <v>43954</v>
+      </c>
+      <c r="B94">
+        <v>91.06999999999999</v>
       </c>
       <c r="C94">
-        <v>120.32</v>
-      </c>
-      <c r="D94" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D94">
+        <v>-30.15</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4</v>
+        <v>43955</v>
+      </c>
+      <c r="B95">
+        <v>91.83</v>
       </c>
       <c r="C95">
-        <v>120.32</v>
-      </c>
-      <c r="D95" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D95">
+        <v>-29.56</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B96">
-        <v>89.44</v>
+        <v>91.88</v>
       </c>
       <c r="C96">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D96">
-        <v>-25.66</v>
+        <v>-29.52</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B97">
-        <v>89.14</v>
+        <v>90.7</v>
       </c>
       <c r="C97">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D97">
-        <v>-25.91</v>
+        <v>-30.43</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B98" t="s">
-        <v>4</v>
+        <v>43958</v>
+      </c>
+      <c r="B98">
+        <v>93.69</v>
       </c>
       <c r="C98">
-        <v>120.32</v>
-      </c>
-      <c r="D98" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D98">
+        <v>-28.14</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B99">
-        <v>91.61</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="C99">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D99">
-        <v>-23.86</v>
+        <v>-28.67</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43929</v>
-      </c>
-      <c r="B100" t="s">
-        <v>4</v>
+        <v>43960</v>
+      </c>
+      <c r="B100">
+        <v>92.23999999999999</v>
       </c>
       <c r="C100">
-        <v>120.32</v>
-      </c>
-      <c r="D100" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D100">
+        <v>-29.25</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43930</v>
-      </c>
-      <c r="B101" t="s">
-        <v>4</v>
+        <v>43961</v>
+      </c>
+      <c r="B101">
+        <v>91.56999999999999</v>
       </c>
       <c r="C101">
-        <v>120.32</v>
-      </c>
-      <c r="D101" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D101">
+        <v>-29.76</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43931</v>
-      </c>
-      <c r="B102" t="s">
-        <v>4</v>
+        <v>43962</v>
+      </c>
+      <c r="B102">
+        <v>92.48999999999999</v>
       </c>
       <c r="C102">
-        <v>120.32</v>
-      </c>
-      <c r="D102" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D102">
+        <v>-29.06</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43932</v>
-      </c>
-      <c r="B103" t="s">
-        <v>4</v>
+        <v>43963</v>
+      </c>
+      <c r="B103">
+        <v>91.98999999999999</v>
       </c>
       <c r="C103">
-        <v>120.32</v>
-      </c>
-      <c r="D103" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D103">
+        <v>-29.44</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B104">
-        <v>89</v>
+        <v>90.33</v>
       </c>
       <c r="C104">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D104">
-        <v>-26.03</v>
+        <v>-30.71</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43934</v>
-      </c>
-      <c r="B105" t="s">
-        <v>4</v>
+        <v>43965</v>
+      </c>
+      <c r="B105">
+        <v>90.52</v>
       </c>
       <c r="C105">
-        <v>120.32</v>
-      </c>
-      <c r="D105" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D105">
+        <v>-30.56</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43935</v>
-      </c>
-      <c r="B106" t="s">
-        <v>4</v>
+        <v>43966</v>
+      </c>
+      <c r="B106">
+        <v>91.42</v>
       </c>
       <c r="C106">
-        <v>120.32</v>
-      </c>
-      <c r="D106" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D106">
+        <v>-29.88</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B107">
-        <v>90.54000000000001</v>
+        <v>92.16</v>
       </c>
       <c r="C107">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D107">
-        <v>-24.75</v>
+        <v>-29.31</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B108">
-        <v>92.23999999999999</v>
+        <v>93.48</v>
       </c>
       <c r="C108">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D108">
-        <v>-23.34</v>
+        <v>-28.29</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B109">
-        <v>92.36</v>
+        <v>93.51000000000001</v>
       </c>
       <c r="C109">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D109">
-        <v>-23.24</v>
+        <v>-28.28</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B110">
-        <v>90.77</v>
+        <v>92.94</v>
       </c>
       <c r="C110">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D110">
-        <v>-24.56</v>
+        <v>-28.71</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B111">
-        <v>90.52</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="C111">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D111">
-        <v>-24.77</v>
+        <v>-29.55</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B112">
-        <v>90.45999999999999</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C112">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D112">
-        <v>-24.82</v>
+        <v>-30.36</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B113">
-        <v>89.98</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="C113">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D113">
-        <v>-25.21</v>
+        <v>-30.76</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B114">
-        <v>90.42</v>
+        <v>90.89</v>
       </c>
       <c r="C114">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D114">
-        <v>-24.85</v>
+        <v>-30.29</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B115">
-        <v>91.53</v>
+        <v>92.44</v>
       </c>
       <c r="C115">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D115">
-        <v>-23.93</v>
+        <v>-29.09</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B116">
-        <v>91.94</v>
+        <v>93.16</v>
       </c>
       <c r="C116">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D116">
-        <v>-23.59</v>
+        <v>-28.54</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43946</v>
-      </c>
-      <c r="B117" t="s">
-        <v>4</v>
+        <v>43977</v>
+      </c>
+      <c r="B117">
+        <v>94.34</v>
       </c>
       <c r="C117">
-        <v>120.32</v>
-      </c>
-      <c r="D117" t="s">
-        <v>4</v>
+        <v>130.37</v>
+      </c>
+      <c r="D117">
+        <v>-27.63</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B118">
-        <v>89.87</v>
+        <v>95.11</v>
       </c>
       <c r="C118">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D118">
-        <v>-25.31</v>
+        <v>-27.05</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B119">
-        <v>89.5</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C119">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D119">
-        <v>-25.62</v>
+        <v>-26.71</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B120">
-        <v>89.05</v>
+        <v>95.20999999999999</v>
       </c>
       <c r="C120">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D120">
-        <v>-25.99</v>
+        <v>-26.97</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B121">
-        <v>89.55</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="C121">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D121">
-        <v>-25.58</v>
+        <v>-26.91</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B122">
-        <v>90.33</v>
+        <v>94.98</v>
       </c>
       <c r="C122">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D122">
-        <v>-24.92</v>
+        <v>-27.15</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B123" t="s">
-        <v>4</v>
+        <v>43983</v>
+      </c>
+      <c r="B123">
+        <v>92.45999999999999</v>
       </c>
       <c r="C123">
-        <v>130.37</v>
-      </c>
-      <c r="D123" t="s">
-        <v>4</v>
+        <v>157.39</v>
+      </c>
+      <c r="D123">
+        <v>-41.26</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B124">
-        <v>89.93000000000001</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="C124">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D124">
-        <v>-31.02</v>
+        <v>-41.03</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B125">
-        <v>91.06999999999999</v>
+        <v>92.62</v>
       </c>
       <c r="C125">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D125">
-        <v>-30.15</v>
+        <v>-41.15</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B126">
-        <v>91.83</v>
+        <v>92.27</v>
       </c>
       <c r="C126">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D126">
-        <v>-29.56</v>
+        <v>-41.38</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B127">
-        <v>91.88</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C127">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D127">
-        <v>-29.52</v>
+        <v>-42.12</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B128">
-        <v>90.7</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="C128">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D128">
-        <v>-30.43</v>
+        <v>-42.14</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B129">
-        <v>93.69</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="C129">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D129">
-        <v>-28.14</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B130">
-        <v>92.98999999999999</v>
+        <v>92.81</v>
       </c>
       <c r="C130">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D130">
-        <v>-28.67</v>
+        <v>-41.04</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B131">
-        <v>92.23999999999999</v>
+        <v>93.44</v>
       </c>
       <c r="C131">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D131">
-        <v>-29.25</v>
+        <v>-40.63</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B132">
-        <v>91.56999999999999</v>
+        <v>122.5</v>
       </c>
       <c r="C132">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D132">
-        <v>-29.76</v>
+        <v>-22.17</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B133">
-        <v>92.48999999999999</v>
+        <v>155.84</v>
       </c>
       <c r="C133">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D133">
-        <v>-29.06</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B134">
-        <v>91.98999999999999</v>
+        <v>159.99</v>
       </c>
       <c r="C134">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D134">
-        <v>-29.44</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B135">
-        <v>90.33</v>
+        <v>161.1</v>
       </c>
       <c r="C135">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D135">
-        <v>-30.71</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B136">
-        <v>90.52</v>
+        <v>134.36</v>
       </c>
       <c r="C136">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D136">
-        <v>-30.56</v>
+        <v>-14.63</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B137">
-        <v>91.42</v>
+        <v>112.18</v>
       </c>
       <c r="C137">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D137">
-        <v>-29.88</v>
+        <v>-28.73</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B138">
-        <v>92.16</v>
+        <v>104.49</v>
       </c>
       <c r="C138">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D138">
-        <v>-29.31</v>
+        <v>-33.61</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B139">
-        <v>93.48</v>
+        <v>100.47</v>
       </c>
       <c r="C139">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D139">
-        <v>-28.29</v>
+        <v>-36.17</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B140">
-        <v>93.51000000000001</v>
+        <v>99.06</v>
       </c>
       <c r="C140">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D140">
-        <v>-28.28</v>
+        <v>-37.06</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B141">
-        <v>92.94</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="C141">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D141">
-        <v>-28.71</v>
+        <v>-40.28</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B142">
-        <v>91.84999999999999</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="C142">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D142">
-        <v>-29.55</v>
+        <v>-39.64</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B143">
-        <v>90.79000000000001</v>
+        <v>93.84</v>
       </c>
       <c r="C143">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D143">
-        <v>-30.36</v>
+        <v>-40.38</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B144">
-        <v>90.26000000000001</v>
+        <v>93.31</v>
       </c>
       <c r="C144">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D144">
-        <v>-30.76</v>
+        <v>-40.71</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B145">
-        <v>90.89</v>
+        <v>92.56</v>
       </c>
       <c r="C145">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D145">
-        <v>-30.29</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B146">
-        <v>92.44</v>
+        <v>92.73</v>
       </c>
       <c r="C146">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D146">
-        <v>-29.09</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B147">
-        <v>93.16</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="C147">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D147">
-        <v>-28.54</v>
+        <v>-41.36</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B148">
-        <v>94.34</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C148">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D148">
-        <v>-27.63</v>
+        <v>-39.3</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B149">
-        <v>95.11</v>
+        <v>103.75</v>
       </c>
       <c r="C149">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D149">
-        <v>-27.05</v>
+        <v>-34.08</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B150">
-        <v>95.54000000000001</v>
+        <v>109.07</v>
       </c>
       <c r="C150">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D150">
-        <v>-26.71</v>
+        <v>-30.7</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B151">
-        <v>95.20999999999999</v>
+        <v>113.61</v>
       </c>
       <c r="C151">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D151">
-        <v>-26.97</v>
+        <v>-27.82</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B152">
-        <v>95.29000000000001</v>
+        <v>107.47</v>
       </c>
       <c r="C152">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D152">
-        <v>-26.91</v>
+        <v>-31.72</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B153">
-        <v>94.98</v>
+        <v>124.12</v>
       </c>
       <c r="C153">
-        <v>130.37</v>
+        <v>126.28</v>
       </c>
       <c r="D153">
-        <v>-27.15</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B154">
-        <v>92.45999999999999</v>
+        <v>123.93</v>
       </c>
       <c r="C154">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D154">
-        <v>-41.26</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B155">
-        <v>92.81999999999999</v>
+        <v>117.51</v>
       </c>
       <c r="C155">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D155">
-        <v>-41.03</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B156">
-        <v>92.62</v>
+        <v>108.65</v>
       </c>
       <c r="C156">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D156">
-        <v>-41.15</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B157">
-        <v>92.27</v>
+        <v>103.79</v>
       </c>
       <c r="C157">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D157">
-        <v>-41.38</v>
+        <v>-17.81</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B158">
-        <v>91.09999999999999</v>
+        <v>100.84</v>
       </c>
       <c r="C158">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D158">
-        <v>-42.12</v>
+        <v>-20.15</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B159">
-        <v>91.06999999999999</v>
+        <v>98.69</v>
       </c>
       <c r="C159">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D159">
-        <v>-42.14</v>
+        <v>-21.85</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B160">
-        <v>92.73999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="C160">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D160">
-        <v>-41.08</v>
+        <v>-22.83</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B161">
-        <v>92.81</v>
+        <v>95.33</v>
       </c>
       <c r="C161">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D161">
-        <v>-41.04</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B162">
-        <v>93.44</v>
+        <v>95.02</v>
       </c>
       <c r="C162">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D162">
-        <v>-40.63</v>
+        <v>-24.76</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B163">
-        <v>122.5</v>
+        <v>96.92</v>
       </c>
       <c r="C163">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D163">
-        <v>-22.17</v>
+        <v>-23.26</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B164">
-        <v>155.84</v>
+        <v>92.83</v>
       </c>
       <c r="C164">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D164">
-        <v>-0.99</v>
+        <v>-26.49</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B165">
-        <v>159.99</v>
+        <v>92.44</v>
       </c>
       <c r="C165">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D165">
-        <v>1.65</v>
+        <v>-26.8</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B166">
-        <v>161.1</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="C166">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D166">
-        <v>2.36</v>
+        <v>-26.96</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B167">
-        <v>134.36</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="C167">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D167">
-        <v>-14.63</v>
+        <v>-26.08</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B168">
-        <v>112.18</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C168">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D168">
-        <v>-28.73</v>
+        <v>-26.04</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B169">
-        <v>104.49</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="C169">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D169">
-        <v>-33.61</v>
+        <v>-26.52</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B170">
-        <v>100.47</v>
+        <v>92.98</v>
       </c>
       <c r="C170">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D170">
-        <v>-36.17</v>
+        <v>-26.37</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B171">
-        <v>99.06</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C171">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D171">
-        <v>-37.06</v>
+        <v>-27.23</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B172">
-        <v>93.98999999999999</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C172">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D172">
-        <v>-40.28</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B173">
-        <v>95.01000000000001</v>
+        <v>92.34</v>
       </c>
       <c r="C173">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D173">
-        <v>-39.64</v>
+        <v>-26.88</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B174">
-        <v>93.84</v>
+        <v>92.19</v>
       </c>
       <c r="C174">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D174">
-        <v>-40.38</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B175">
-        <v>93.31</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="C175">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D175">
-        <v>-40.71</v>
+        <v>-27.09</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B176">
-        <v>92.56</v>
+        <v>91.92</v>
       </c>
       <c r="C176">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D176">
-        <v>-41.19</v>
+        <v>-27.21</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B177">
-        <v>92.73</v>
+        <v>91.86</v>
       </c>
       <c r="C177">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D177">
-        <v>-41.08</v>
+        <v>-27.26</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B178">
-        <v>92.29000000000001</v>
+        <v>91.77</v>
       </c>
       <c r="C178">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D178">
-        <v>-41.36</v>
+        <v>-27.33</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B179">
-        <v>95.54000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="C179">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D179">
-        <v>-39.3</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B180">
-        <v>103.75</v>
+        <v>91</v>
       </c>
       <c r="C180">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D180">
-        <v>-34.08</v>
+        <v>-27.94</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B181">
-        <v>109.07</v>
+        <v>107.57</v>
       </c>
       <c r="C181">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D181">
-        <v>-30.7</v>
+        <v>-14.82</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B182">
-        <v>113.61</v>
+        <v>118.47</v>
       </c>
       <c r="C182">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D182">
-        <v>-27.82</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B183">
-        <v>107.47</v>
+        <v>133.49</v>
       </c>
       <c r="C183">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D183">
-        <v>-31.72</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B184">
-        <v>124.12</v>
+        <v>118.64</v>
       </c>
       <c r="C184">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D184">
-        <v>-1.71</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B185">
-        <v>123.93</v>
+        <v>107.18</v>
       </c>
       <c r="C185">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D185">
-        <v>-1.87</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B186">
-        <v>117.51</v>
+        <v>102.56</v>
       </c>
       <c r="C186">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D186">
-        <v>-6.95</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B187">
-        <v>108.65</v>
+        <v>99.44</v>
       </c>
       <c r="C187">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D187">
-        <v>-13.97</v>
+        <v>-12.88</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B188">
-        <v>103.79</v>
+        <v>96.78</v>
       </c>
       <c r="C188">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D188">
-        <v>-17.81</v>
+        <v>-15.21</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44018</v>
+        <v>44049</v>
       </c>
       <c r="B189">
-        <v>100.84</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="C189">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D189">
-        <v>-20.15</v>
+        <v>-16.12</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44019</v>
+        <v>44050</v>
       </c>
       <c r="B190">
-        <v>98.69</v>
+        <v>93.34</v>
       </c>
       <c r="C190">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D190">
-        <v>-21.85</v>
+        <v>-18.22</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44020</v>
+        <v>44051</v>
       </c>
       <c r="B191">
-        <v>97.45</v>
+        <v>92.55</v>
       </c>
       <c r="C191">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D191">
-        <v>-22.83</v>
+        <v>-18.91</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44021</v>
+        <v>44052</v>
       </c>
       <c r="B192">
-        <v>95.33</v>
+        <v>91.56</v>
       </c>
       <c r="C192">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D192">
-        <v>-24.51</v>
+        <v>-19.78</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44022</v>
+        <v>44053</v>
       </c>
       <c r="B193">
-        <v>95.02</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C193">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D193">
-        <v>-24.76</v>
+        <v>-19.63</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44023</v>
+        <v>44054</v>
       </c>
       <c r="B194">
-        <v>96.92</v>
+        <v>91.53</v>
       </c>
       <c r="C194">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D194">
-        <v>-23.26</v>
+        <v>-19.81</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44024</v>
+        <v>44055</v>
       </c>
       <c r="B195">
-        <v>92.83</v>
+        <v>91.09</v>
       </c>
       <c r="C195">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D195">
-        <v>-26.49</v>
+        <v>-20.19</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44025</v>
+        <v>44056</v>
       </c>
       <c r="B196">
-        <v>92.44</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="C196">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D196">
-        <v>-26.8</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44026</v>
+        <v>44057</v>
       </c>
       <c r="B197">
-        <v>92.23999999999999</v>
+        <v>90.81</v>
       </c>
       <c r="C197">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D197">
-        <v>-26.96</v>
+        <v>-20.44</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44027</v>
+        <v>44058</v>
       </c>
       <c r="B198">
-        <v>93.34999999999999</v>
+        <v>104.66</v>
       </c>
       <c r="C198">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D198">
-        <v>-26.08</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44028</v>
+        <v>44059</v>
       </c>
       <c r="B199">
-        <v>93.40000000000001</v>
+        <v>156.16</v>
       </c>
       <c r="C199">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D199">
-        <v>-26.04</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44029</v>
+        <v>44060</v>
       </c>
       <c r="B200">
-        <v>92.79000000000001</v>
+        <v>161.25</v>
       </c>
       <c r="C200">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D200">
-        <v>-26.52</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44030</v>
+        <v>44061</v>
       </c>
       <c r="B201">
-        <v>92.98</v>
+        <v>184.96</v>
       </c>
       <c r="C201">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D201">
-        <v>-26.37</v>
+        <v>62.05</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44031</v>
+        <v>44062</v>
       </c>
       <c r="B202">
-        <v>91.90000000000001</v>
+        <v>218.26</v>
       </c>
       <c r="C202">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D202">
-        <v>-27.23</v>
+        <v>91.22</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44032</v>
+        <v>44063</v>
       </c>
       <c r="B203">
-        <v>91.73999999999999</v>
+        <v>243.69</v>
       </c>
       <c r="C203">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D203">
-        <v>-27.36</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44033</v>
+        <v>44064</v>
       </c>
       <c r="B204">
-        <v>92.34</v>
+        <v>267.82</v>
       </c>
       <c r="C204">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D204">
-        <v>-26.88</v>
+        <v>134.64</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44034</v>
+        <v>44065</v>
       </c>
       <c r="B205">
-        <v>92.19</v>
+        <v>265.49</v>
       </c>
       <c r="C205">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D205">
-        <v>-27</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44035</v>
+        <v>44066</v>
       </c>
       <c r="B206">
-        <v>92.06999999999999</v>
+        <v>246.9</v>
       </c>
       <c r="C206">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D206">
-        <v>-27.09</v>
+        <v>116.31</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B207">
-        <v>91.92</v>
+        <v>225.24</v>
       </c>
       <c r="C207">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D207">
-        <v>-27.21</v>
+        <v>97.34</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B208">
-        <v>91.86</v>
+        <v>198.15</v>
       </c>
       <c r="C208">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D208">
-        <v>-27.26</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B209">
-        <v>91.77</v>
+        <v>159.3</v>
       </c>
       <c r="C209">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D209">
-        <v>-27.33</v>
+        <v>39.57</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B210">
-        <v>91.2</v>
+        <v>133.88</v>
       </c>
       <c r="C210">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D210">
-        <v>-27.78</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B211">
-        <v>91</v>
+        <v>123.39</v>
       </c>
       <c r="C211">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D211">
-        <v>-27.94</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B212">
-        <v>107.57</v>
+        <v>115.97</v>
       </c>
       <c r="C212">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D212">
-        <v>-14.82</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B213">
-        <v>118.47</v>
+        <v>110.2</v>
       </c>
       <c r="C213">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D213">
-        <v>-6.19</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B214">
-        <v>133.49</v>
+        <v>107.03</v>
       </c>
       <c r="C214">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D214">
-        <v>5.71</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B215">
-        <v>118.64</v>
+        <v>106.62</v>
       </c>
       <c r="C215">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D215">
-        <v>3.94</v>
+        <v>-20.37</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B216">
-        <v>107.18</v>
+        <v>104.38</v>
       </c>
       <c r="C216">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D216">
-        <v>-6.1</v>
+        <v>-22.05</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B217">
-        <v>102.56</v>
+        <v>97.37</v>
       </c>
       <c r="C217">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D217">
-        <v>-10.14</v>
+        <v>-27.29</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B218">
-        <v>99.44</v>
+        <v>88.66</v>
       </c>
       <c r="C218">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D218">
-        <v>-12.88</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B219">
-        <v>96.78</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="C219">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D219">
-        <v>-15.21</v>
+        <v>-35.93</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44049</v>
+        <v>44080</v>
       </c>
       <c r="B220">
-        <v>95.73999999999999</v>
+        <v>83.67</v>
       </c>
       <c r="C220">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D220">
-        <v>-16.12</v>
+        <v>-37.52</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44050</v>
+        <v>44081</v>
       </c>
       <c r="B221">
-        <v>93.34</v>
+        <v>83.16</v>
       </c>
       <c r="C221">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D221">
-        <v>-18.22</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44051</v>
+        <v>44082</v>
       </c>
       <c r="B222">
-        <v>92.55</v>
+        <v>82.08</v>
       </c>
       <c r="C222">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D222">
-        <v>-18.91</v>
+        <v>-38.7</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44052</v>
+        <v>44083</v>
       </c>
       <c r="B223">
-        <v>91.56</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="C223">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D223">
-        <v>-19.78</v>
+        <v>-39.85</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44053</v>
+        <v>44084</v>
       </c>
       <c r="B224">
-        <v>91.73999999999999</v>
+        <v>79.53</v>
       </c>
       <c r="C224">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D224">
-        <v>-19.63</v>
+        <v>-40.61</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44054</v>
+        <v>44085</v>
       </c>
       <c r="B225">
-        <v>91.53</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="C225">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D225">
-        <v>-19.81</v>
+        <v>-40.45</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44055</v>
+        <v>44086</v>
       </c>
       <c r="B226">
-        <v>91.09</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="C226">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D226">
-        <v>-20.19</v>
+        <v>-40.95</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44056</v>
+        <v>44087</v>
       </c>
       <c r="B227">
-        <v>90.73999999999999</v>
+        <v>78.67</v>
       </c>
       <c r="C227">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D227">
-        <v>-20.5</v>
+        <v>-41.25</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44057</v>
+        <v>44088</v>
       </c>
       <c r="B228">
-        <v>90.81</v>
+        <v>78.98</v>
       </c>
       <c r="C228">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D228">
-        <v>-20.44</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44058</v>
+        <v>44089</v>
       </c>
       <c r="B229">
-        <v>104.66</v>
+        <v>78</v>
       </c>
       <c r="C229">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D229">
-        <v>-8.31</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44059</v>
+        <v>44090</v>
       </c>
       <c r="B230">
-        <v>156.16</v>
+        <v>77.23</v>
       </c>
       <c r="C230">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D230">
-        <v>36.82</v>
+        <v>-42.33</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44060</v>
+        <v>44091</v>
       </c>
       <c r="B231">
-        <v>161.25</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="C231">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D231">
-        <v>41.27</v>
+        <v>-42.38</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44061</v>
+        <v>44092</v>
       </c>
       <c r="B232">
-        <v>184.96</v>
+        <v>76.72</v>
       </c>
       <c r="C232">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D232">
-        <v>62.05</v>
+        <v>-42.71</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44062</v>
+        <v>44093</v>
       </c>
       <c r="B233">
-        <v>218.26</v>
+        <v>76.58</v>
       </c>
       <c r="C233">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D233">
-        <v>91.22</v>
+        <v>-42.81</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44063</v>
+        <v>44094</v>
       </c>
       <c r="B234">
-        <v>243.69</v>
+        <v>77.56</v>
       </c>
       <c r="C234">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D234">
-        <v>113.5</v>
+        <v>-42.08</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44064</v>
+        <v>44095</v>
       </c>
       <c r="B235">
-        <v>267.82</v>
+        <v>78</v>
       </c>
       <c r="C235">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D235">
-        <v>134.64</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44065</v>
+        <v>44096</v>
       </c>
       <c r="B236">
-        <v>265.49</v>
+        <v>78</v>
       </c>
       <c r="C236">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D236">
-        <v>132.6</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44066</v>
+        <v>44097</v>
       </c>
       <c r="B237">
-        <v>246.9</v>
+        <v>78.5</v>
       </c>
       <c r="C237">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D237">
-        <v>116.31</v>
+        <v>-41.38</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44067</v>
+        <v>44098</v>
       </c>
       <c r="B238">
-        <v>225.24</v>
+        <v>77.59</v>
       </c>
       <c r="C238">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D238">
-        <v>97.34</v>
+        <v>-42.05</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44068</v>
+        <v>44099</v>
       </c>
       <c r="B239">
-        <v>198.15</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C239">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D239">
-        <v>73.59999999999999</v>
+        <v>-42.2</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44069</v>
+        <v>44100</v>
       </c>
       <c r="B240">
-        <v>159.3</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="C240">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D240">
-        <v>39.57</v>
+        <v>-42.32</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44070</v>
+        <v>44101</v>
       </c>
       <c r="B241">
-        <v>133.88</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C241">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D241">
-        <v>17.29</v>
+        <v>-42.76</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B242">
-        <v>123.39</v>
+        <v>95</v>
       </c>
       <c r="C242">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D242">
-        <v>8.1</v>
+        <v>-29.06</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B243">
-        <v>115.97</v>
+        <v>106</v>
       </c>
       <c r="C243">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D243">
-        <v>1.6</v>
+        <v>-20.84</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B244">
-        <v>110.2</v>
+        <v>111.1</v>
       </c>
       <c r="C244">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D244">
-        <v>-3.45</v>
+        <v>-17.03</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B245">
-        <v>107.03</v>
+        <v>102.21</v>
       </c>
       <c r="C245">
-        <v>114.14</v>
+        <v>151.76</v>
       </c>
       <c r="D245">
-        <v>-6.23</v>
+        <v>-32.65</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B246">
-        <v>106.62</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C246">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D246">
-        <v>-20.37</v>
+        <v>-41.62</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B247">
-        <v>104.38</v>
+        <v>82.05</v>
       </c>
       <c r="C247">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D247">
-        <v>-22.05</v>
+        <v>-45.93</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B248">
-        <v>97.37</v>
+        <v>80.59</v>
       </c>
       <c r="C248">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D248">
-        <v>-27.29</v>
+        <v>-46.89</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B249">
-        <v>88.66</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="C249">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D249">
-        <v>-33.79</v>
+        <v>-48.25</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B250">
-        <v>85.79000000000001</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="C250">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D250">
-        <v>-35.93</v>
+        <v>-49.09</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B251">
-        <v>83.67</v>
+        <v>75.73</v>
       </c>
       <c r="C251">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D251">
-        <v>-37.52</v>
+        <v>-50.1</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B252">
-        <v>83.16</v>
+        <v>82.2</v>
       </c>
       <c r="C252">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D252">
-        <v>-37.9</v>
+        <v>-45.84</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B253">
-        <v>82.08</v>
+        <v>98.48</v>
       </c>
       <c r="C253">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D253">
-        <v>-38.7</v>
+        <v>-35.11</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B254">
-        <v>80.54000000000001</v>
+        <v>114.48</v>
       </c>
       <c r="C254">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D254">
-        <v>-39.85</v>
+        <v>-24.57</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B255">
-        <v>79.53</v>
+        <v>117.85</v>
       </c>
       <c r="C255">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D255">
-        <v>-40.61</v>
+        <v>-22.34</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B256">
-        <v>79.73999999999999</v>
+        <v>104.99</v>
       </c>
       <c r="C256">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D256">
-        <v>-40.45</v>
+        <v>-30.82</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B257">
-        <v>79.06999999999999</v>
+        <v>91.83</v>
       </c>
       <c r="C257">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D257">
-        <v>-40.95</v>
+        <v>-39.49</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B258">
-        <v>78.67</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="C258">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D258">
-        <v>-41.25</v>
+        <v>-44.33</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B259">
-        <v>78.98</v>
+        <v>81.75</v>
       </c>
       <c r="C259">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D259">
-        <v>-41.02</v>
+        <v>-46.13</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B260">
-        <v>78</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="C260">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D260">
-        <v>-41.75</v>
+        <v>-45.01</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B261">
-        <v>77.23</v>
+        <v>80.34</v>
       </c>
       <c r="C261">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D261">
-        <v>-42.33</v>
+        <v>-47.06</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B262">
-        <v>77.15000000000001</v>
+        <v>77.88</v>
       </c>
       <c r="C262">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D262">
-        <v>-42.38</v>
+        <v>-48.69</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B263">
-        <v>76.72</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="C263">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D263">
-        <v>-42.71</v>
+        <v>-48.76</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B264">
-        <v>76.58</v>
+        <v>76.67</v>
       </c>
       <c r="C264">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D264">
-        <v>-42.81</v>
+        <v>-49.48</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B265">
-        <v>77.56</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="C265">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D265">
-        <v>-42.08</v>
+        <v>-49.69</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B266">
-        <v>78</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="C266">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D266">
-        <v>-41.75</v>
+        <v>-49.6</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B267">
-        <v>78</v>
+        <v>76.11</v>
       </c>
       <c r="C267">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D267">
-        <v>-41.75</v>
+        <v>-49.85</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B268">
-        <v>78.5</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C268">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D268">
-        <v>-41.38</v>
+        <v>-49.5</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B269">
-        <v>77.59</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="C269">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D269">
-        <v>-42.05</v>
+        <v>-48.23</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B270">
-        <v>77.40000000000001</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="C270">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D270">
-        <v>-42.2</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B271">
-        <v>77.23999999999999</v>
+        <v>76.42</v>
       </c>
       <c r="C271">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D271">
-        <v>-42.32</v>
+        <v>-49.65</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B272">
-        <v>76.65000000000001</v>
+        <v>77.83</v>
       </c>
       <c r="C272">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D272">
-        <v>-42.76</v>
+        <v>-48.72</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B273">
-        <v>95</v>
+        <v>76.5</v>
       </c>
       <c r="C273">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D273">
-        <v>-29.06</v>
+        <v>-49.59</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B274">
-        <v>106</v>
+        <v>82.67</v>
       </c>
       <c r="C274">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D274">
-        <v>-20.84</v>
+        <v>-45.53</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B275">
-        <v>111.1</v>
+        <v>80.97</v>
       </c>
       <c r="C275">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D275">
-        <v>-17.03</v>
+        <v>-46.65</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B276">
-        <v>102.21</v>
+        <v>92.72</v>
       </c>
       <c r="C276">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D276">
-        <v>-32.65</v>
+        <v>-31.99</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="B277">
-        <v>88.59999999999999</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="C277">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D277">
-        <v>-41.62</v>
+        <v>-32.14</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44107</v>
+        <v>44138</v>
       </c>
       <c r="B278">
-        <v>82.05</v>
+        <v>90.27</v>
       </c>
       <c r="C278">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D278">
-        <v>-45.93</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44108</v>
+        <v>44139</v>
       </c>
       <c r="B279">
-        <v>80.59</v>
+        <v>92.8</v>
       </c>
       <c r="C279">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D279">
-        <v>-46.89</v>
+        <v>-31.93</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44109</v>
+        <v>44140</v>
       </c>
       <c r="B280">
-        <v>78.54000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="C280">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D280">
-        <v>-48.25</v>
+        <v>-36.88</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44110</v>
+        <v>44141</v>
       </c>
       <c r="B281">
-        <v>77.26000000000001</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C281">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D281">
-        <v>-49.09</v>
+        <v>-37.36</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44111</v>
+        <v>44142</v>
       </c>
       <c r="B282">
-        <v>75.73</v>
+        <v>83.97</v>
       </c>
       <c r="C282">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D282">
-        <v>-50.1</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44112</v>
+        <v>44143</v>
       </c>
       <c r="B283">
-        <v>82.2</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="C283">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D283">
-        <v>-45.84</v>
+        <v>-40.53</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B284">
-        <v>98.48</v>
+        <v>78.53</v>
       </c>
       <c r="C284">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D284">
-        <v>-35.11</v>
+        <v>-42.4</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44114</v>
+        <v>44145</v>
       </c>
       <c r="B285">
-        <v>114.48</v>
+        <v>78.11</v>
       </c>
       <c r="C285">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D285">
-        <v>-24.57</v>
+        <v>-42.7</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44115</v>
+        <v>44146</v>
       </c>
       <c r="B286">
-        <v>117.85</v>
+        <v>94.12</v>
       </c>
       <c r="C286">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D286">
-        <v>-22.34</v>
+        <v>-30.96</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44116</v>
+        <v>44147</v>
       </c>
       <c r="B287">
-        <v>104.99</v>
+        <v>104.58</v>
       </c>
       <c r="C287">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D287">
-        <v>-30.82</v>
+        <v>-23.29</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44117</v>
+        <v>44148</v>
       </c>
       <c r="B288">
-        <v>91.83</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="C288">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D288">
-        <v>-39.49</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44118</v>
+        <v>44149</v>
       </c>
       <c r="B289">
-        <v>84.48999999999999</v>
+        <v>89.53</v>
       </c>
       <c r="C289">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D289">
-        <v>-44.33</v>
+        <v>-34.33</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44119</v>
+        <v>44150</v>
       </c>
       <c r="B290">
-        <v>81.75</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="C290">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D290">
-        <v>-46.13</v>
+        <v>-36.74</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44120</v>
+        <v>44151</v>
       </c>
       <c r="B291">
-        <v>83.45999999999999</v>
+        <v>92.23</v>
       </c>
       <c r="C291">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D291">
-        <v>-45.01</v>
+        <v>-32.35</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44121</v>
+        <v>44152</v>
       </c>
       <c r="B292">
-        <v>80.34</v>
+        <v>107.59</v>
       </c>
       <c r="C292">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D292">
-        <v>-47.06</v>
+        <v>-21.08</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44122</v>
+        <v>44153</v>
       </c>
       <c r="B293">
-        <v>77.88</v>
+        <v>121.44</v>
       </c>
       <c r="C293">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D293">
-        <v>-48.69</v>
+        <v>-10.93</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44123</v>
+        <v>44154</v>
       </c>
       <c r="B294">
-        <v>77.76000000000001</v>
+        <v>125.58</v>
       </c>
       <c r="C294">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D294">
-        <v>-48.76</v>
+        <v>-7.89</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44124</v>
+        <v>44155</v>
       </c>
       <c r="B295">
-        <v>76.67</v>
+        <v>123.19</v>
       </c>
       <c r="C295">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D295">
-        <v>-49.48</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44125</v>
+        <v>44156</v>
       </c>
       <c r="B296">
-        <v>76.34999999999999</v>
+        <v>129.56</v>
       </c>
       <c r="C296">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D296">
-        <v>-49.69</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44126</v>
+        <v>44157</v>
       </c>
       <c r="B297">
-        <v>76.48999999999999</v>
+        <v>124.57</v>
       </c>
       <c r="C297">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D297">
-        <v>-49.6</v>
+        <v>-8.630000000000001</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44127</v>
+        <v>44158</v>
       </c>
       <c r="B298">
-        <v>76.11</v>
+        <v>107.69</v>
       </c>
       <c r="C298">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D298">
-        <v>-49.85</v>
+        <v>-21.01</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44128</v>
+        <v>44159</v>
       </c>
       <c r="B299">
-        <v>76.65000000000001</v>
+        <v>97.08</v>
       </c>
       <c r="C299">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D299">
-        <v>-49.5</v>
+        <v>-28.8</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44129</v>
+        <v>44160</v>
       </c>
       <c r="B300">
-        <v>78.56999999999999</v>
+        <v>88.39</v>
       </c>
       <c r="C300">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D300">
-        <v>-48.23</v>
+        <v>-35.17</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44130</v>
+        <v>44161</v>
       </c>
       <c r="B301">
-        <v>76.15000000000001</v>
+        <v>83.77</v>
       </c>
       <c r="C301">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D301">
-        <v>-49.82</v>
+        <v>-38.55</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44131</v>
+        <v>44162</v>
       </c>
       <c r="B302">
-        <v>76.42</v>
+        <v>119.47</v>
       </c>
       <c r="C302">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D302">
-        <v>-49.65</v>
+        <v>-12.37</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44132</v>
+        <v>44163</v>
       </c>
       <c r="B303">
-        <v>77.83</v>
+        <v>89</v>
       </c>
       <c r="C303">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D303">
-        <v>-48.72</v>
+        <v>-34.72</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44133</v>
+        <v>44164</v>
       </c>
       <c r="B304">
-        <v>76.5</v>
+        <v>101.71</v>
       </c>
       <c r="C304">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D304">
-        <v>-49.59</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44134</v>
+        <v>44165</v>
       </c>
       <c r="B305">
-        <v>82.67</v>
+        <v>98.62</v>
       </c>
       <c r="C305">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D305">
-        <v>-45.53</v>
+        <v>-27.66</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44135</v>
+        <v>44166</v>
       </c>
       <c r="B306">
-        <v>80.97</v>
+        <v>86.64</v>
       </c>
       <c r="C306">
-        <v>151.76</v>
+        <v>130.94</v>
       </c>
       <c r="D306">
-        <v>-46.65</v>
+        <v>-33.84</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44136</v>
+        <v>44167</v>
       </c>
       <c r="B307">
-        <v>92.72</v>
+        <v>81.5</v>
       </c>
       <c r="C307">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D307">
-        <v>-31.99</v>
+        <v>-37.76</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44137</v>
+        <v>44168</v>
       </c>
       <c r="B308">
-        <v>92.51000000000001</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="C308">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D308">
-        <v>-32.14</v>
+        <v>-36.22</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44138</v>
+        <v>44169</v>
       </c>
       <c r="B309">
-        <v>90.27</v>
+        <v>86.27</v>
       </c>
       <c r="C309">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D309">
-        <v>-33.79</v>
+        <v>-34.12</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44139</v>
+        <v>44170</v>
       </c>
       <c r="B310">
-        <v>92.8</v>
+        <v>108.23</v>
       </c>
       <c r="C310">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D310">
-        <v>-31.93</v>
+        <v>-17.35</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44140</v>
+        <v>44171</v>
       </c>
       <c r="B311">
-        <v>86.05</v>
+        <v>152.56</v>
       </c>
       <c r="C311">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D311">
-        <v>-36.88</v>
+        <v>16.51</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44141</v>
+        <v>44172</v>
       </c>
       <c r="B312">
-        <v>85.40000000000001</v>
+        <v>164.1</v>
       </c>
       <c r="C312">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D312">
-        <v>-37.36</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44142</v>
+        <v>44173</v>
       </c>
       <c r="B313">
-        <v>83.97</v>
+        <v>160.38</v>
       </c>
       <c r="C313">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D313">
-        <v>-38.41</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44143</v>
+        <v>44174</v>
       </c>
       <c r="B314">
-        <v>81.06999999999999</v>
+        <v>163.54</v>
       </c>
       <c r="C314">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D314">
-        <v>-40.53</v>
+        <v>24.89</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44144</v>
+        <v>44175</v>
       </c>
       <c r="B315">
-        <v>78.53</v>
+        <v>165.96</v>
       </c>
       <c r="C315">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D315">
-        <v>-42.4</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44145</v>
+        <v>44176</v>
       </c>
       <c r="B316">
-        <v>78.11</v>
+        <v>156.48</v>
       </c>
       <c r="C316">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D316">
-        <v>-42.7</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44146</v>
+        <v>44177</v>
       </c>
       <c r="B317">
-        <v>94.12</v>
+        <v>127.35</v>
       </c>
       <c r="C317">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D317">
-        <v>-30.96</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44147</v>
+        <v>44178</v>
       </c>
       <c r="B318">
-        <v>104.58</v>
+        <v>117.8</v>
       </c>
       <c r="C318">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D318">
-        <v>-23.29</v>
+        <v>-10.04</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44148</v>
+        <v>44179</v>
       </c>
       <c r="B319">
-        <v>91.93000000000001</v>
+        <v>100.39</v>
       </c>
       <c r="C319">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D319">
-        <v>-32.57</v>
+        <v>-23.34</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44149</v>
+        <v>44180</v>
       </c>
       <c r="B320">
-        <v>89.53</v>
+        <v>102.96</v>
       </c>
       <c r="C320">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D320">
-        <v>-34.33</v>
+        <v>-21.37</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44150</v>
+        <v>44181</v>
       </c>
       <c r="B321">
-        <v>86.23999999999999</v>
+        <v>109</v>
       </c>
       <c r="C321">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D321">
-        <v>-36.74</v>
+        <v>-16.76</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44151</v>
+        <v>44182</v>
       </c>
       <c r="B322">
-        <v>92.23</v>
+        <v>140.39</v>
       </c>
       <c r="C322">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D322">
-        <v>-32.35</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44152</v>
+        <v>44183</v>
       </c>
       <c r="B323">
-        <v>107.59</v>
+        <v>135.9</v>
       </c>
       <c r="C323">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D323">
-        <v>-21.08</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44153</v>
+        <v>44184</v>
       </c>
       <c r="B324">
-        <v>121.44</v>
+        <v>130.94</v>
       </c>
       <c r="C324">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D324">
-        <v>-10.93</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44154</v>
+        <v>44185</v>
       </c>
       <c r="B325">
-        <v>125.58</v>
+        <v>121.99</v>
       </c>
       <c r="C325">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D325">
-        <v>-7.89</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44155</v>
+        <v>44186</v>
       </c>
       <c r="B326">
-        <v>123.19</v>
+        <v>119.38</v>
       </c>
       <c r="C326">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D326">
-        <v>-9.640000000000001</v>
+        <v>-8.84</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44156</v>
+        <v>44187</v>
       </c>
       <c r="B327">
-        <v>129.56</v>
+        <v>124.02</v>
       </c>
       <c r="C327">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D327">
-        <v>-4.97</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44157</v>
+        <v>44188</v>
       </c>
       <c r="B328">
-        <v>124.57</v>
+        <v>120.15</v>
       </c>
       <c r="C328">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D328">
-        <v>-8.630000000000001</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44158</v>
+        <v>44189</v>
       </c>
       <c r="B329">
-        <v>107.69</v>
+        <v>108.27</v>
       </c>
       <c r="C329">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D329">
-        <v>-21.01</v>
+        <v>-17.32</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44159</v>
+        <v>44190</v>
       </c>
       <c r="B330">
-        <v>97.08</v>
+        <v>101.69</v>
       </c>
       <c r="C330">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D330">
-        <v>-28.8</v>
+        <v>-22.34</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44160</v>
+        <v>44191</v>
       </c>
       <c r="B331">
-        <v>88.39</v>
+        <v>97.48</v>
       </c>
       <c r="C331">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D331">
-        <v>-35.17</v>
+        <v>-25.56</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44161</v>
+        <v>44192</v>
       </c>
       <c r="B332">
-        <v>83.77</v>
+        <v>93.84</v>
       </c>
       <c r="C332">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D332">
-        <v>-38.55</v>
+        <v>-28.33</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44162</v>
+        <v>44193</v>
       </c>
       <c r="B333">
-        <v>119.47</v>
+        <v>91.03</v>
       </c>
       <c r="C333">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D333">
-        <v>-12.37</v>
+        <v>-30.48</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44163</v>
+        <v>44194</v>
       </c>
       <c r="B334">
-        <v>89</v>
+        <v>96.97</v>
       </c>
       <c r="C334">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D334">
-        <v>-34.72</v>
+        <v>-25.95</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44164</v>
+        <v>44195</v>
       </c>
       <c r="B335">
-        <v>101.71</v>
+        <v>106.79</v>
       </c>
       <c r="C335">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D335">
-        <v>-25.4</v>
+        <v>-18.45</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B336">
-        <v>98.62</v>
+        <v>121.08</v>
       </c>
       <c r="C336">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D336">
-        <v>-27.66</v>
+        <v>-7.53</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B337">
-        <v>86.64</v>
+        <v>134.69</v>
       </c>
       <c r="C337">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D337">
-        <v>-33.84</v>
+        <v>-10.91</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44167</v>
+        <v>44198</v>
       </c>
       <c r="B338">
-        <v>81.5</v>
+        <v>129.94</v>
       </c>
       <c r="C338">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D338">
-        <v>-37.76</v>
+        <v>-14.05</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44168</v>
+        <v>44199</v>
       </c>
       <c r="B339">
-        <v>83.51000000000001</v>
+        <v>119.85</v>
       </c>
       <c r="C339">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D339">
-        <v>-36.22</v>
+        <v>-20.72</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44169</v>
+        <v>44200</v>
       </c>
       <c r="B340">
-        <v>86.27</v>
+        <v>110.24</v>
       </c>
       <c r="C340">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D340">
-        <v>-34.12</v>
+        <v>-27.08</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44170</v>
+        <v>44201</v>
       </c>
       <c r="B341">
-        <v>108.23</v>
+        <v>102.82</v>
       </c>
       <c r="C341">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D341">
-        <v>-17.35</v>
+        <v>-31.99</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44171</v>
+        <v>44202</v>
       </c>
       <c r="B342">
-        <v>152.56</v>
+        <v>107.44</v>
       </c>
       <c r="C342">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D342">
-        <v>16.51</v>
+        <v>-28.94</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44172</v>
+        <v>44203</v>
       </c>
       <c r="B343">
-        <v>164.1</v>
+        <v>123.42</v>
       </c>
       <c r="C343">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D343">
-        <v>25.32</v>
+        <v>-18.37</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44173</v>
+        <v>44204</v>
       </c>
       <c r="B344">
-        <v>160.38</v>
+        <v>140.35</v>
       </c>
       <c r="C344">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D344">
-        <v>22.48</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44174</v>
+        <v>44205</v>
       </c>
       <c r="B345">
-        <v>163.54</v>
+        <v>145.59</v>
       </c>
       <c r="C345">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D345">
-        <v>24.89</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44175</v>
+        <v>44206</v>
       </c>
       <c r="B346">
-        <v>165.96</v>
+        <v>119.53</v>
       </c>
       <c r="C346">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D346">
-        <v>26.74</v>
+        <v>-20.94</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44176</v>
+        <v>44207</v>
       </c>
       <c r="B347">
-        <v>156.48</v>
+        <v>107.58</v>
       </c>
       <c r="C347">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D347">
-        <v>19.5</v>
+        <v>-28.84</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44177</v>
+        <v>44208</v>
       </c>
       <c r="B348">
-        <v>127.35</v>
+        <v>100.06</v>
       </c>
       <c r="C348">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D348">
-        <v>-2.74</v>
+        <v>-33.81</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44178</v>
+        <v>44209</v>
       </c>
       <c r="B349">
-        <v>117.8</v>
+        <v>95.86</v>
       </c>
       <c r="C349">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D349">
-        <v>-10.04</v>
+        <v>-36.59</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44179</v>
+        <v>44210</v>
       </c>
       <c r="B350">
-        <v>100.39</v>
+        <v>93.83</v>
       </c>
       <c r="C350">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D350">
-        <v>-23.34</v>
+        <v>-37.93</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44180</v>
+        <v>44211</v>
       </c>
       <c r="B351">
-        <v>102.96</v>
+        <v>97.05</v>
       </c>
       <c r="C351">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D351">
-        <v>-21.37</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44181</v>
+        <v>44212</v>
       </c>
       <c r="B352">
-        <v>109</v>
+        <v>106.24</v>
       </c>
       <c r="C352">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D352">
-        <v>-16.76</v>
+        <v>-29.73</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44182</v>
+        <v>44213</v>
       </c>
       <c r="B353">
-        <v>140.39</v>
+        <v>112.76</v>
       </c>
       <c r="C353">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D353">
-        <v>7.22</v>
+        <v>-25.42</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44183</v>
+        <v>44214</v>
       </c>
       <c r="B354">
-        <v>135.9</v>
+        <v>125.55</v>
       </c>
       <c r="C354">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D354">
-        <v>3.78</v>
+        <v>-16.96</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44184</v>
+        <v>44215</v>
       </c>
       <c r="B355">
-        <v>130.94</v>
+        <v>209.12</v>
       </c>
       <c r="C355">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D355">
-        <v>-0.01</v>
+        <v>38.32</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44185</v>
+        <v>44216</v>
       </c>
       <c r="B356">
-        <v>121.99</v>
+        <v>188.79</v>
       </c>
       <c r="C356">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D356">
-        <v>-6.84</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44186</v>
+        <v>44217</v>
       </c>
       <c r="B357">
-        <v>119.38</v>
+        <v>211.18</v>
       </c>
       <c r="C357">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D357">
-        <v>-8.84</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44187</v>
+        <v>44218</v>
       </c>
       <c r="B358">
-        <v>124.02</v>
+        <v>234</v>
       </c>
       <c r="C358">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D358">
-        <v>-5.29</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44188</v>
+        <v>44219</v>
       </c>
       <c r="B359">
-        <v>120.15</v>
+        <v>223.3</v>
       </c>
       <c r="C359">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D359">
-        <v>-8.25</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44189</v>
+        <v>44220</v>
       </c>
       <c r="B360">
-        <v>108.27</v>
+        <v>199.89</v>
       </c>
       <c r="C360">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D360">
-        <v>-17.32</v>
+        <v>32.21</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44190</v>
+        <v>44221</v>
       </c>
       <c r="B361">
-        <v>101.69</v>
+        <v>179.44</v>
       </c>
       <c r="C361">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D361">
-        <v>-22.34</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44191</v>
+        <v>44222</v>
       </c>
       <c r="B362">
-        <v>97.48</v>
+        <v>159.35</v>
       </c>
       <c r="C362">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D362">
-        <v>-25.56</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44192</v>
+        <v>44223</v>
       </c>
       <c r="B363">
-        <v>93.84</v>
+        <v>138.53</v>
       </c>
       <c r="C363">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D363">
-        <v>-28.33</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44193</v>
+        <v>44224</v>
       </c>
       <c r="B364">
-        <v>91.03</v>
+        <v>133.8</v>
       </c>
       <c r="C364">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D364">
-        <v>-30.48</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="B365">
-        <v>96.97</v>
+        <v>137.35</v>
       </c>
       <c r="C365">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D365">
-        <v>-25.95</v>
+        <v>-9.15</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44195</v>
+        <v>44226</v>
       </c>
       <c r="B366">
-        <v>106.79</v>
+        <v>146.69</v>
       </c>
       <c r="C366">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D366">
-        <v>-18.45</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B367">
-        <v>121.08</v>
+        <v>153.76</v>
       </c>
       <c r="C367">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D367">
-        <v>-7.53</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B368">
-        <v>134.69</v>
-      </c>
-      <c r="C368">
-        <v>151.18</v>
-      </c>
-      <c r="D368">
-        <v>-10.91</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44198</v>
-      </c>
-      <c r="B369">
-        <v>129.94</v>
-      </c>
-      <c r="C369">
-        <v>151.18</v>
-      </c>
-      <c r="D369">
-        <v>-14.05</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44199</v>
-      </c>
-      <c r="B370">
-        <v>119.85</v>
-      </c>
-      <c r="C370">
-        <v>151.18</v>
-      </c>
-      <c r="D370">
-        <v>-20.72</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44200</v>
-      </c>
-      <c r="B371">
-        <v>110.24</v>
-      </c>
-      <c r="C371">
-        <v>151.18</v>
-      </c>
-      <c r="D371">
-        <v>-27.08</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44201</v>
-      </c>
-      <c r="B372">
-        <v>102.82</v>
-      </c>
-      <c r="C372">
-        <v>151.18</v>
-      </c>
-      <c r="D372">
-        <v>-31.99</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44202</v>
-      </c>
-      <c r="B373">
-        <v>107.44</v>
-      </c>
-      <c r="C373">
-        <v>151.18</v>
-      </c>
-      <c r="D373">
-        <v>-28.94</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44203</v>
-      </c>
-      <c r="B374">
-        <v>123.42</v>
-      </c>
-      <c r="C374">
-        <v>151.18</v>
-      </c>
-      <c r="D374">
-        <v>-18.37</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44204</v>
-      </c>
-      <c r="B375">
-        <v>140.35</v>
-      </c>
-      <c r="C375">
-        <v>151.18</v>
-      </c>
-      <c r="D375">
-        <v>-7.16</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44205</v>
-      </c>
-      <c r="B376">
-        <v>145.59</v>
-      </c>
-      <c r="C376">
-        <v>151.18</v>
-      </c>
-      <c r="D376">
-        <v>-3.7</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44206</v>
-      </c>
-      <c r="B377">
-        <v>119.53</v>
-      </c>
-      <c r="C377">
-        <v>151.18</v>
-      </c>
-      <c r="D377">
-        <v>-20.94</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44207</v>
-      </c>
-      <c r="B378">
-        <v>107.58</v>
-      </c>
-      <c r="C378">
-        <v>151.18</v>
-      </c>
-      <c r="D378">
-        <v>-28.84</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44208</v>
-      </c>
-      <c r="B379">
-        <v>100.06</v>
-      </c>
-      <c r="C379">
-        <v>151.18</v>
-      </c>
-      <c r="D379">
-        <v>-33.81</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44209</v>
-      </c>
-      <c r="B380">
-        <v>95.86</v>
-      </c>
-      <c r="C380">
-        <v>151.18</v>
-      </c>
-      <c r="D380">
-        <v>-36.59</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44210</v>
-      </c>
-      <c r="B381">
-        <v>93.83</v>
-      </c>
-      <c r="C381">
-        <v>151.18</v>
-      </c>
-      <c r="D381">
-        <v>-37.93</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B382">
-        <v>97.05</v>
-      </c>
-      <c r="C382">
-        <v>151.18</v>
-      </c>
-      <c r="D382">
-        <v>-35.81</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -586,6 +586,20 @@
         <v>-6.37</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B14">
+        <v>151.79</v>
+      </c>
+      <c r="C14">
+        <v>151</v>
+      </c>
+      <c r="D14">
+        <v>0.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5742,6 +5756,216 @@
         <v>1.7</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B368">
+        <v>162.32</v>
+      </c>
+      <c r="C368">
+        <v>151</v>
+      </c>
+      <c r="D368">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44229</v>
+      </c>
+      <c r="B369">
+        <v>168.65</v>
+      </c>
+      <c r="C369">
+        <v>151</v>
+      </c>
+      <c r="D369">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44230</v>
+      </c>
+      <c r="B370">
+        <v>165.26</v>
+      </c>
+      <c r="C370">
+        <v>151</v>
+      </c>
+      <c r="D370">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B371">
+        <v>159.06</v>
+      </c>
+      <c r="C371">
+        <v>151</v>
+      </c>
+      <c r="D371">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B372">
+        <v>204.11</v>
+      </c>
+      <c r="C372">
+        <v>151</v>
+      </c>
+      <c r="D372">
+        <v>35.18</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B373">
+        <v>189.71</v>
+      </c>
+      <c r="C373">
+        <v>151</v>
+      </c>
+      <c r="D373">
+        <v>25.63</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44234</v>
+      </c>
+      <c r="B374">
+        <v>186.23</v>
+      </c>
+      <c r="C374">
+        <v>151</v>
+      </c>
+      <c r="D374">
+        <v>23.33</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B375">
+        <v>177.1</v>
+      </c>
+      <c r="C375">
+        <v>151</v>
+      </c>
+      <c r="D375">
+        <v>17.29</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44236</v>
+      </c>
+      <c r="B376">
+        <v>156.66</v>
+      </c>
+      <c r="C376">
+        <v>151</v>
+      </c>
+      <c r="D376">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44237</v>
+      </c>
+      <c r="B377">
+        <v>129.65</v>
+      </c>
+      <c r="C377">
+        <v>151</v>
+      </c>
+      <c r="D377">
+        <v>-14.14</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B378">
+        <v>116.23</v>
+      </c>
+      <c r="C378">
+        <v>151</v>
+      </c>
+      <c r="D378">
+        <v>-23.03</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B379">
+        <v>110.67</v>
+      </c>
+      <c r="C379">
+        <v>151</v>
+      </c>
+      <c r="D379">
+        <v>-26.71</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B380">
+        <v>117.74</v>
+      </c>
+      <c r="C380">
+        <v>151</v>
+      </c>
+      <c r="D380">
+        <v>-22.03</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B381">
+        <v>112.28</v>
+      </c>
+      <c r="C381">
+        <v>151</v>
+      </c>
+      <c r="D381">
+        <v>-25.64</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B382">
+        <v>121.21</v>
+      </c>
+      <c r="C382">
+        <v>151</v>
+      </c>
+      <c r="D382">
+        <v>-19.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>data</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -393,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +417,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43890</v>
+        <v>44012</v>
       </c>
       <c r="B2">
-        <v>120.43</v>
+        <v>105.48</v>
       </c>
       <c r="C2">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D2">
-        <v>-20.24</v>
+        <v>-32.98</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43921</v>
+        <v>44043</v>
       </c>
       <c r="B3">
-        <v>96.11</v>
+        <v>99.67</v>
       </c>
       <c r="C3">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D3">
-        <v>-32.26</v>
+        <v>-21.07</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43951</v>
+        <v>44074</v>
       </c>
       <c r="B4">
-        <v>90.43000000000001</v>
+        <v>141.16</v>
       </c>
       <c r="C4">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D4">
-        <v>-24.84</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43982</v>
+        <v>44104</v>
       </c>
       <c r="B5">
-        <v>92.48999999999999</v>
+        <v>84.23</v>
       </c>
       <c r="C5">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D5">
-        <v>-29.06</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44012</v>
+        <v>44135</v>
       </c>
       <c r="B6">
-        <v>105.48</v>
+        <v>84.25</v>
       </c>
       <c r="C6">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D6">
-        <v>-32.98</v>
+        <v>-44.48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44043</v>
+        <v>44165</v>
       </c>
       <c r="B7">
-        <v>99.67</v>
+        <v>97.92</v>
       </c>
       <c r="C7">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D7">
-        <v>-21.07</v>
+        <v>-28.17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44074</v>
+        <v>44196</v>
       </c>
       <c r="B8">
-        <v>141.16</v>
+        <v>118.6</v>
       </c>
       <c r="C8">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D8">
-        <v>23.68</v>
+        <v>-9.43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44104</v>
+        <v>44227</v>
       </c>
       <c r="B9">
-        <v>84.23</v>
+        <v>141.55</v>
       </c>
       <c r="C9">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D9">
-        <v>-37.1</v>
+        <v>-6.37</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44135</v>
+        <v>44255</v>
       </c>
       <c r="B10">
-        <v>84.25</v>
+        <v>130.69</v>
       </c>
       <c r="C10">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D10">
-        <v>-44.48</v>
+        <v>-13.45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44165</v>
+        <v>44286</v>
       </c>
       <c r="B11">
-        <v>97.92</v>
+        <v>170.76</v>
       </c>
       <c r="C11">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D11">
-        <v>-28.17</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44196</v>
+        <v>44316</v>
       </c>
       <c r="B12">
-        <v>118.6</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C12">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D12">
-        <v>-9.43</v>
+        <v>-20.59</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44227</v>
+        <v>44347</v>
       </c>
       <c r="B13">
-        <v>141.55</v>
+        <v>106.35</v>
       </c>
       <c r="C13">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D13">
-        <v>-6.37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B14">
-        <v>151.79</v>
-      </c>
-      <c r="C14">
-        <v>151</v>
-      </c>
-      <c r="D14">
-        <v>0.52</v>
+        <v>-18.42</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,5336 +617,5112 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>43983</v>
+      </c>
+      <c r="B2">
+        <v>92.45999999999999</v>
       </c>
       <c r="C2">
-        <v>151</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>157.39</v>
+      </c>
+      <c r="D2">
+        <v>-41.26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43863</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+        <v>43984</v>
+      </c>
+      <c r="B3">
+        <v>92.81999999999999</v>
       </c>
       <c r="C3">
-        <v>151</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
+        <v>157.39</v>
+      </c>
+      <c r="D3">
+        <v>-41.03</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43864</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>43985</v>
+      </c>
+      <c r="B4">
+        <v>92.62</v>
       </c>
       <c r="C4">
-        <v>151</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
+        <v>157.39</v>
+      </c>
+      <c r="D4">
+        <v>-41.15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43865</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+        <v>43986</v>
+      </c>
+      <c r="B5">
+        <v>92.27</v>
       </c>
       <c r="C5">
-        <v>151</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+        <v>157.39</v>
+      </c>
+      <c r="D5">
+        <v>-41.38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43866</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
+        <v>43987</v>
+      </c>
+      <c r="B6">
+        <v>91.09999999999999</v>
       </c>
       <c r="C6">
-        <v>151</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
+        <v>157.39</v>
+      </c>
+      <c r="D6">
+        <v>-42.12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43867</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
+        <v>43988</v>
+      </c>
+      <c r="B7">
+        <v>91.06999999999999</v>
       </c>
       <c r="C7">
-        <v>151</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
+        <v>157.39</v>
+      </c>
+      <c r="D7">
+        <v>-42.14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43868</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
+        <v>43989</v>
+      </c>
+      <c r="B8">
+        <v>92.73999999999999</v>
       </c>
       <c r="C8">
-        <v>151</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
+        <v>157.39</v>
+      </c>
+      <c r="D8">
+        <v>-41.08</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43869</v>
+        <v>43990</v>
       </c>
       <c r="B9">
-        <v>95.06999999999999</v>
+        <v>92.81</v>
       </c>
       <c r="C9">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D9">
-        <v>-37.04</v>
+        <v>-41.04</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43870</v>
+        <v>43991</v>
       </c>
       <c r="B10">
-        <v>107.25</v>
+        <v>93.44</v>
       </c>
       <c r="C10">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D10">
-        <v>-28.97</v>
+        <v>-40.63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43871</v>
+        <v>43992</v>
       </c>
       <c r="B11">
-        <v>157.73</v>
+        <v>122.5</v>
       </c>
       <c r="C11">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D11">
-        <v>4.46</v>
+        <v>-22.17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43872</v>
+        <v>43993</v>
       </c>
       <c r="B12">
-        <v>163</v>
+        <v>155.84</v>
       </c>
       <c r="C12">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D12">
-        <v>7.95</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43873</v>
+        <v>43994</v>
       </c>
       <c r="B13">
-        <v>180.46</v>
+        <v>159.99</v>
       </c>
       <c r="C13">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D13">
-        <v>19.51</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43874</v>
+        <v>43995</v>
       </c>
       <c r="B14">
-        <v>193.38</v>
+        <v>161.1</v>
       </c>
       <c r="C14">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D14">
-        <v>28.06</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43875</v>
+        <v>43996</v>
       </c>
       <c r="B15">
-        <v>184.81</v>
+        <v>134.36</v>
       </c>
       <c r="C15">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D15">
-        <v>22.39</v>
+        <v>-14.63</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43876</v>
+        <v>43997</v>
       </c>
       <c r="B16">
-        <v>139.85</v>
+        <v>112.18</v>
       </c>
       <c r="C16">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D16">
-        <v>-7.38</v>
+        <v>-28.73</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43877</v>
+        <v>43998</v>
       </c>
       <c r="B17">
-        <v>107.48</v>
+        <v>104.49</v>
       </c>
       <c r="C17">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D17">
-        <v>-28.82</v>
+        <v>-33.61</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43878</v>
+        <v>43999</v>
       </c>
       <c r="B18">
-        <v>97.72</v>
+        <v>100.47</v>
       </c>
       <c r="C18">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D18">
-        <v>-35.29</v>
+        <v>-36.17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43879</v>
+        <v>44000</v>
       </c>
       <c r="B19">
-        <v>92.59999999999999</v>
+        <v>99.06</v>
       </c>
       <c r="C19">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D19">
-        <v>-38.67</v>
+        <v>-37.06</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43880</v>
+        <v>44001</v>
       </c>
       <c r="B20">
-        <v>89.17</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="C20">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D20">
-        <v>-40.94</v>
+        <v>-40.28</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43881</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
+        <v>44002</v>
+      </c>
+      <c r="B21">
+        <v>95.01000000000001</v>
       </c>
       <c r="C21">
-        <v>151</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
+        <v>157.39</v>
+      </c>
+      <c r="D21">
+        <v>-39.64</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43882</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
+        <v>44003</v>
+      </c>
+      <c r="B22">
+        <v>93.84</v>
       </c>
       <c r="C22">
-        <v>151</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
+        <v>157.39</v>
+      </c>
+      <c r="D22">
+        <v>-40.38</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43883</v>
+        <v>44004</v>
       </c>
       <c r="B23">
-        <v>90.01000000000001</v>
+        <v>93.31</v>
       </c>
       <c r="C23">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D23">
-        <v>-40.39</v>
+        <v>-40.71</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43884</v>
+        <v>44005</v>
       </c>
       <c r="B24">
-        <v>89.8</v>
+        <v>92.56</v>
       </c>
       <c r="C24">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D24">
-        <v>-40.53</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43885</v>
+        <v>44006</v>
       </c>
       <c r="B25">
-        <v>90.06</v>
+        <v>92.73</v>
       </c>
       <c r="C25">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D25">
-        <v>-40.36</v>
+        <v>-41.08</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43886</v>
+        <v>44007</v>
       </c>
       <c r="B26">
-        <v>91.17</v>
+        <v>92.29000000000001</v>
       </c>
       <c r="C26">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D26">
-        <v>-39.62</v>
+        <v>-41.36</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43887</v>
+        <v>44008</v>
       </c>
       <c r="B27">
-        <v>100.46</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C27">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D27">
-        <v>-33.47</v>
+        <v>-39.3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43888</v>
+        <v>44009</v>
       </c>
       <c r="B28">
-        <v>115.43</v>
+        <v>103.75</v>
       </c>
       <c r="C28">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D28">
-        <v>-23.56</v>
+        <v>-34.08</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43889</v>
+        <v>44010</v>
       </c>
       <c r="B29">
-        <v>115.79</v>
+        <v>109.07</v>
       </c>
       <c r="C29">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D29">
-        <v>-23.32</v>
+        <v>-30.7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43890</v>
+        <v>44011</v>
       </c>
       <c r="B30">
-        <v>107.41</v>
+        <v>113.61</v>
       </c>
       <c r="C30">
-        <v>151</v>
+        <v>157.39</v>
       </c>
       <c r="D30">
-        <v>-28.87</v>
+        <v>-27.82</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43891</v>
+        <v>44012</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>107.47</v>
       </c>
       <c r="C31">
-        <v>141.89</v>
+        <v>157.39</v>
       </c>
       <c r="D31">
-        <v>-29.52</v>
+        <v>-31.72</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43892</v>
+        <v>44013</v>
       </c>
       <c r="B32">
-        <v>96.15000000000001</v>
+        <v>124.12</v>
       </c>
       <c r="C32">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D32">
-        <v>-32.24</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43893</v>
+        <v>44014</v>
       </c>
       <c r="B33">
-        <v>95.79000000000001</v>
+        <v>123.93</v>
       </c>
       <c r="C33">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D33">
-        <v>-32.49</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43894</v>
+        <v>44015</v>
       </c>
       <c r="B34">
-        <v>103.34</v>
+        <v>117.51</v>
       </c>
       <c r="C34">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D34">
-        <v>-27.16</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43895</v>
+        <v>44016</v>
       </c>
       <c r="B35">
-        <v>110.47</v>
+        <v>108.65</v>
       </c>
       <c r="C35">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D35">
-        <v>-22.14</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43896</v>
+        <v>44017</v>
       </c>
       <c r="B36">
-        <v>104.58</v>
+        <v>103.79</v>
       </c>
       <c r="C36">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D36">
-        <v>-26.29</v>
+        <v>-17.81</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43897</v>
+        <v>44018</v>
       </c>
       <c r="B37">
-        <v>99.18000000000001</v>
+        <v>100.84</v>
       </c>
       <c r="C37">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D37">
-        <v>-30.1</v>
+        <v>-20.15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43898</v>
+        <v>44019</v>
       </c>
       <c r="B38">
-        <v>93.73</v>
+        <v>98.69</v>
       </c>
       <c r="C38">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D38">
-        <v>-33.94</v>
+        <v>-21.85</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43899</v>
+        <v>44020</v>
       </c>
       <c r="B39">
-        <v>91.45999999999999</v>
+        <v>97.45</v>
       </c>
       <c r="C39">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D39">
-        <v>-35.54</v>
+        <v>-22.83</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43900</v>
+        <v>44021</v>
       </c>
       <c r="B40">
-        <v>90.75</v>
+        <v>95.33</v>
       </c>
       <c r="C40">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D40">
-        <v>-36.04</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43901</v>
+        <v>44022</v>
       </c>
       <c r="B41">
-        <v>89</v>
+        <v>95.02</v>
       </c>
       <c r="C41">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D41">
-        <v>-37.27</v>
+        <v>-24.76</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43902</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
+        <v>44023</v>
+      </c>
+      <c r="B42">
+        <v>96.92</v>
       </c>
       <c r="C42">
-        <v>141.89</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4</v>
+        <v>126.28</v>
+      </c>
+      <c r="D42">
+        <v>-23.26</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43903</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
+        <v>44024</v>
+      </c>
+      <c r="B43">
+        <v>92.83</v>
       </c>
       <c r="C43">
-        <v>141.89</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4</v>
+        <v>126.28</v>
+      </c>
+      <c r="D43">
+        <v>-26.49</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43904</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
+        <v>44025</v>
+      </c>
+      <c r="B44">
+        <v>92.44</v>
       </c>
       <c r="C44">
-        <v>141.89</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
+        <v>126.28</v>
+      </c>
+      <c r="D44">
+        <v>-26.8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43905</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
+        <v>44026</v>
+      </c>
+      <c r="B45">
+        <v>92.23999999999999</v>
       </c>
       <c r="C45">
-        <v>141.89</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
+        <v>126.28</v>
+      </c>
+      <c r="D45">
+        <v>-26.96</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43906</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
+        <v>44027</v>
+      </c>
+      <c r="B46">
+        <v>93.34999999999999</v>
       </c>
       <c r="C46">
-        <v>141.89</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
+        <v>126.28</v>
+      </c>
+      <c r="D46">
+        <v>-26.08</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43907</v>
+        <v>44028</v>
       </c>
       <c r="B47">
-        <v>96.81</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C47">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D47">
-        <v>-31.77</v>
+        <v>-26.04</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43908</v>
+        <v>44029</v>
       </c>
       <c r="B48">
-        <v>95.77</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="C48">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D48">
-        <v>-32.5</v>
+        <v>-26.52</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43909</v>
+        <v>44030</v>
       </c>
       <c r="B49">
-        <v>100.65</v>
+        <v>92.98</v>
       </c>
       <c r="C49">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D49">
-        <v>-29.07</v>
+        <v>-26.37</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43910</v>
+        <v>44031</v>
       </c>
       <c r="B50">
-        <v>97.25</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C50">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D50">
-        <v>-31.46</v>
+        <v>-27.23</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43911</v>
+        <v>44032</v>
       </c>
       <c r="B51">
-        <v>94.98</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C51">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D51">
-        <v>-33.06</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43912</v>
+        <v>44033</v>
       </c>
       <c r="B52">
-        <v>92.42</v>
+        <v>92.34</v>
       </c>
       <c r="C52">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D52">
-        <v>-34.87</v>
+        <v>-26.88</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43913</v>
+        <v>44034</v>
       </c>
       <c r="B53">
-        <v>90.43000000000001</v>
+        <v>92.19</v>
       </c>
       <c r="C53">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D53">
-        <v>-36.27</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43914</v>
+        <v>44035</v>
       </c>
       <c r="B54">
-        <v>89.70999999999999</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="C54">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D54">
-        <v>-36.77</v>
+        <v>-27.09</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43915</v>
+        <v>44036</v>
       </c>
       <c r="B55">
-        <v>89.70999999999999</v>
+        <v>91.92</v>
       </c>
       <c r="C55">
-        <v>141.89</v>
+        <v>126.28</v>
       </c>
       <c r="D55">
-        <v>-36.78</v>
+        <v>-27.21</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43916</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
+        <v>44037</v>
+      </c>
+      <c r="B56">
+        <v>91.86</v>
       </c>
       <c r="C56">
-        <v>141.89</v>
-      </c>
-      <c r="D56" t="s">
-        <v>4</v>
+        <v>126.28</v>
+      </c>
+      <c r="D56">
+        <v>-27.26</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43917</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
+        <v>44038</v>
+      </c>
+      <c r="B57">
+        <v>91.77</v>
       </c>
       <c r="C57">
-        <v>141.89</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4</v>
+        <v>126.28</v>
+      </c>
+      <c r="D57">
+        <v>-27.33</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43918</v>
-      </c>
-      <c r="B58" t="s">
-        <v>4</v>
+        <v>44039</v>
+      </c>
+      <c r="B58">
+        <v>91.2</v>
       </c>
       <c r="C58">
-        <v>141.89</v>
-      </c>
-      <c r="D58" t="s">
-        <v>4</v>
+        <v>126.28</v>
+      </c>
+      <c r="D58">
+        <v>-27.78</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43919</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4</v>
+        <v>44040</v>
+      </c>
+      <c r="B59">
+        <v>91</v>
       </c>
       <c r="C59">
-        <v>141.89</v>
-      </c>
-      <c r="D59" t="s">
-        <v>4</v>
+        <v>126.28</v>
+      </c>
+      <c r="D59">
+        <v>-27.94</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B60" t="s">
-        <v>4</v>
+        <v>44041</v>
+      </c>
+      <c r="B60">
+        <v>107.57</v>
       </c>
       <c r="C60">
-        <v>141.89</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4</v>
+        <v>126.28</v>
+      </c>
+      <c r="D60">
+        <v>-14.82</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B61" t="s">
-        <v>4</v>
+        <v>44042</v>
+      </c>
+      <c r="B61">
+        <v>118.47</v>
       </c>
       <c r="C61">
-        <v>141.89</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4</v>
+        <v>126.28</v>
+      </c>
+      <c r="D61">
+        <v>-6.19</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4</v>
+        <v>44043</v>
+      </c>
+      <c r="B62">
+        <v>133.49</v>
       </c>
       <c r="C62">
-        <v>120.32</v>
-      </c>
-      <c r="D62" t="s">
-        <v>4</v>
+        <v>126.28</v>
+      </c>
+      <c r="D62">
+        <v>5.71</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
+        <v>44044</v>
+      </c>
+      <c r="B63">
+        <v>118.64</v>
       </c>
       <c r="C63">
-        <v>120.32</v>
-      </c>
-      <c r="D63" t="s">
-        <v>4</v>
+        <v>114.14</v>
+      </c>
+      <c r="D63">
+        <v>3.94</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B64" t="s">
-        <v>4</v>
+        <v>44045</v>
+      </c>
+      <c r="B64">
+        <v>107.18</v>
       </c>
       <c r="C64">
-        <v>120.32</v>
-      </c>
-      <c r="D64" t="s">
-        <v>4</v>
+        <v>114.14</v>
+      </c>
+      <c r="D64">
+        <v>-6.1</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43925</v>
+        <v>44046</v>
       </c>
       <c r="B65">
-        <v>89.44</v>
+        <v>102.56</v>
       </c>
       <c r="C65">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D65">
-        <v>-25.66</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43926</v>
+        <v>44047</v>
       </c>
       <c r="B66">
-        <v>89.14</v>
+        <v>99.44</v>
       </c>
       <c r="C66">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D66">
-        <v>-25.91</v>
+        <v>-12.88</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4</v>
+        <v>44048</v>
+      </c>
+      <c r="B67">
+        <v>96.78</v>
       </c>
       <c r="C67">
-        <v>120.32</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
+        <v>114.14</v>
+      </c>
+      <c r="D67">
+        <v>-15.21</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43928</v>
+        <v>44049</v>
       </c>
       <c r="B68">
-        <v>91.61</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="C68">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D68">
-        <v>-23.86</v>
+        <v>-16.12</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43929</v>
-      </c>
-      <c r="B69" t="s">
-        <v>4</v>
+        <v>44050</v>
+      </c>
+      <c r="B69">
+        <v>93.34</v>
       </c>
       <c r="C69">
-        <v>120.32</v>
-      </c>
-      <c r="D69" t="s">
-        <v>4</v>
+        <v>114.14</v>
+      </c>
+      <c r="D69">
+        <v>-18.22</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43930</v>
-      </c>
-      <c r="B70" t="s">
-        <v>4</v>
+        <v>44051</v>
+      </c>
+      <c r="B70">
+        <v>92.55</v>
       </c>
       <c r="C70">
-        <v>120.32</v>
-      </c>
-      <c r="D70" t="s">
-        <v>4</v>
+        <v>114.14</v>
+      </c>
+      <c r="D70">
+        <v>-18.91</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43931</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
+        <v>44052</v>
+      </c>
+      <c r="B71">
+        <v>91.56</v>
       </c>
       <c r="C71">
-        <v>120.32</v>
-      </c>
-      <c r="D71" t="s">
-        <v>4</v>
+        <v>114.14</v>
+      </c>
+      <c r="D71">
+        <v>-19.78</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43932</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4</v>
+        <v>44053</v>
+      </c>
+      <c r="B72">
+        <v>91.73999999999999</v>
       </c>
       <c r="C72">
-        <v>120.32</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4</v>
+        <v>114.14</v>
+      </c>
+      <c r="D72">
+        <v>-19.63</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43933</v>
+        <v>44054</v>
       </c>
       <c r="B73">
-        <v>89</v>
+        <v>91.53</v>
       </c>
       <c r="C73">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D73">
-        <v>-26.03</v>
+        <v>-19.81</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43934</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4</v>
+        <v>44055</v>
+      </c>
+      <c r="B74">
+        <v>91.09</v>
       </c>
       <c r="C74">
-        <v>120.32</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
+        <v>114.14</v>
+      </c>
+      <c r="D74">
+        <v>-20.19</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43935</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
+        <v>44056</v>
+      </c>
+      <c r="B75">
+        <v>90.73999999999999</v>
       </c>
       <c r="C75">
-        <v>120.32</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4</v>
+        <v>114.14</v>
+      </c>
+      <c r="D75">
+        <v>-20.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43936</v>
+        <v>44057</v>
       </c>
       <c r="B76">
-        <v>90.54000000000001</v>
+        <v>90.81</v>
       </c>
       <c r="C76">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D76">
-        <v>-24.75</v>
+        <v>-20.44</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43937</v>
+        <v>44058</v>
       </c>
       <c r="B77">
-        <v>92.23999999999999</v>
+        <v>104.66</v>
       </c>
       <c r="C77">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D77">
-        <v>-23.34</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43938</v>
+        <v>44059</v>
       </c>
       <c r="B78">
-        <v>92.36</v>
+        <v>156.16</v>
       </c>
       <c r="C78">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D78">
-        <v>-23.24</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43939</v>
+        <v>44060</v>
       </c>
       <c r="B79">
-        <v>90.77</v>
+        <v>161.25</v>
       </c>
       <c r="C79">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D79">
-        <v>-24.56</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43940</v>
+        <v>44061</v>
       </c>
       <c r="B80">
-        <v>90.52</v>
+        <v>184.96</v>
       </c>
       <c r="C80">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D80">
-        <v>-24.77</v>
+        <v>62.05</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43941</v>
+        <v>44062</v>
       </c>
       <c r="B81">
-        <v>90.45999999999999</v>
+        <v>218.26</v>
       </c>
       <c r="C81">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D81">
-        <v>-24.82</v>
+        <v>91.22</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43942</v>
+        <v>44063</v>
       </c>
       <c r="B82">
-        <v>89.98</v>
+        <v>243.69</v>
       </c>
       <c r="C82">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D82">
-        <v>-25.21</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43943</v>
+        <v>44064</v>
       </c>
       <c r="B83">
-        <v>90.42</v>
+        <v>267.82</v>
       </c>
       <c r="C83">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D83">
-        <v>-24.85</v>
+        <v>134.64</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43944</v>
+        <v>44065</v>
       </c>
       <c r="B84">
-        <v>91.53</v>
+        <v>265.49</v>
       </c>
       <c r="C84">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D84">
-        <v>-23.93</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43945</v>
+        <v>44066</v>
       </c>
       <c r="B85">
-        <v>91.94</v>
+        <v>246.9</v>
       </c>
       <c r="C85">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D85">
-        <v>-23.59</v>
+        <v>116.31</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43946</v>
-      </c>
-      <c r="B86" t="s">
-        <v>4</v>
+        <v>44067</v>
+      </c>
+      <c r="B86">
+        <v>225.24</v>
       </c>
       <c r="C86">
-        <v>120.32</v>
-      </c>
-      <c r="D86" t="s">
-        <v>4</v>
+        <v>114.14</v>
+      </c>
+      <c r="D86">
+        <v>97.34</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43947</v>
+        <v>44068</v>
       </c>
       <c r="B87">
-        <v>89.87</v>
+        <v>198.15</v>
       </c>
       <c r="C87">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D87">
-        <v>-25.31</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43948</v>
+        <v>44069</v>
       </c>
       <c r="B88">
-        <v>89.5</v>
+        <v>159.3</v>
       </c>
       <c r="C88">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D88">
-        <v>-25.62</v>
+        <v>39.57</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43949</v>
+        <v>44070</v>
       </c>
       <c r="B89">
-        <v>89.05</v>
+        <v>133.88</v>
       </c>
       <c r="C89">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D89">
-        <v>-25.99</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43950</v>
+        <v>44071</v>
       </c>
       <c r="B90">
-        <v>89.55</v>
+        <v>123.39</v>
       </c>
       <c r="C90">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D90">
-        <v>-25.58</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43951</v>
+        <v>44072</v>
       </c>
       <c r="B91">
-        <v>90.33</v>
+        <v>115.97</v>
       </c>
       <c r="C91">
-        <v>120.32</v>
+        <v>114.14</v>
       </c>
       <c r="D91">
-        <v>-24.92</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B92" t="s">
-        <v>4</v>
+        <v>44073</v>
+      </c>
+      <c r="B92">
+        <v>110.2</v>
       </c>
       <c r="C92">
-        <v>130.37</v>
-      </c>
-      <c r="D92" t="s">
-        <v>4</v>
+        <v>114.14</v>
+      </c>
+      <c r="D92">
+        <v>-3.45</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43953</v>
+        <v>44074</v>
       </c>
       <c r="B93">
-        <v>89.93000000000001</v>
+        <v>107.03</v>
       </c>
       <c r="C93">
-        <v>130.37</v>
+        <v>114.14</v>
       </c>
       <c r="D93">
-        <v>-31.02</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43954</v>
+        <v>44075</v>
       </c>
       <c r="B94">
-        <v>91.06999999999999</v>
+        <v>106.62</v>
       </c>
       <c r="C94">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D94">
-        <v>-30.15</v>
+        <v>-20.37</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43955</v>
+        <v>44076</v>
       </c>
       <c r="B95">
-        <v>91.83</v>
+        <v>104.38</v>
       </c>
       <c r="C95">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D95">
-        <v>-29.56</v>
+        <v>-22.05</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43956</v>
+        <v>44077</v>
       </c>
       <c r="B96">
-        <v>91.88</v>
+        <v>97.37</v>
       </c>
       <c r="C96">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D96">
-        <v>-29.52</v>
+        <v>-27.29</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43957</v>
+        <v>44078</v>
       </c>
       <c r="B97">
-        <v>90.7</v>
+        <v>88.66</v>
       </c>
       <c r="C97">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D97">
-        <v>-30.43</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43958</v>
+        <v>44079</v>
       </c>
       <c r="B98">
-        <v>93.69</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="C98">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D98">
-        <v>-28.14</v>
+        <v>-35.93</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43959</v>
+        <v>44080</v>
       </c>
       <c r="B99">
-        <v>92.98999999999999</v>
+        <v>83.67</v>
       </c>
       <c r="C99">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D99">
-        <v>-28.67</v>
+        <v>-37.52</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43960</v>
+        <v>44081</v>
       </c>
       <c r="B100">
-        <v>92.23999999999999</v>
+        <v>83.16</v>
       </c>
       <c r="C100">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D100">
-        <v>-29.25</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43961</v>
+        <v>44082</v>
       </c>
       <c r="B101">
-        <v>91.56999999999999</v>
+        <v>82.08</v>
       </c>
       <c r="C101">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D101">
-        <v>-29.76</v>
+        <v>-38.7</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43962</v>
+        <v>44083</v>
       </c>
       <c r="B102">
-        <v>92.48999999999999</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="C102">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D102">
-        <v>-29.06</v>
+        <v>-39.85</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43963</v>
+        <v>44084</v>
       </c>
       <c r="B103">
-        <v>91.98999999999999</v>
+        <v>79.53</v>
       </c>
       <c r="C103">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D103">
-        <v>-29.44</v>
+        <v>-40.61</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43964</v>
+        <v>44085</v>
       </c>
       <c r="B104">
-        <v>90.33</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="C104">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D104">
-        <v>-30.71</v>
+        <v>-40.45</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43965</v>
+        <v>44086</v>
       </c>
       <c r="B105">
-        <v>90.52</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="C105">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D105">
-        <v>-30.56</v>
+        <v>-40.95</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43966</v>
+        <v>44087</v>
       </c>
       <c r="B106">
-        <v>91.42</v>
+        <v>78.67</v>
       </c>
       <c r="C106">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D106">
-        <v>-29.88</v>
+        <v>-41.25</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43967</v>
+        <v>44088</v>
       </c>
       <c r="B107">
-        <v>92.16</v>
+        <v>78.98</v>
       </c>
       <c r="C107">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D107">
-        <v>-29.31</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43968</v>
+        <v>44089</v>
       </c>
       <c r="B108">
-        <v>93.48</v>
+        <v>78</v>
       </c>
       <c r="C108">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D108">
-        <v>-28.29</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43969</v>
+        <v>44090</v>
       </c>
       <c r="B109">
-        <v>93.51000000000001</v>
+        <v>77.23</v>
       </c>
       <c r="C109">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D109">
-        <v>-28.28</v>
+        <v>-42.33</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43970</v>
+        <v>44091</v>
       </c>
       <c r="B110">
-        <v>92.94</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="C110">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D110">
-        <v>-28.71</v>
+        <v>-42.38</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43971</v>
+        <v>44092</v>
       </c>
       <c r="B111">
-        <v>91.84999999999999</v>
+        <v>76.72</v>
       </c>
       <c r="C111">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D111">
-        <v>-29.55</v>
+        <v>-42.71</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43972</v>
+        <v>44093</v>
       </c>
       <c r="B112">
-        <v>90.79000000000001</v>
+        <v>76.58</v>
       </c>
       <c r="C112">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D112">
-        <v>-30.36</v>
+        <v>-42.81</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43973</v>
+        <v>44094</v>
       </c>
       <c r="B113">
-        <v>90.26000000000001</v>
+        <v>77.56</v>
       </c>
       <c r="C113">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D113">
-        <v>-30.76</v>
+        <v>-42.08</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43974</v>
+        <v>44095</v>
       </c>
       <c r="B114">
-        <v>90.89</v>
+        <v>78</v>
       </c>
       <c r="C114">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D114">
-        <v>-30.29</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43975</v>
+        <v>44096</v>
       </c>
       <c r="B115">
-        <v>92.44</v>
+        <v>78</v>
       </c>
       <c r="C115">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D115">
-        <v>-29.09</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43976</v>
+        <v>44097</v>
       </c>
       <c r="B116">
-        <v>93.16</v>
+        <v>78.5</v>
       </c>
       <c r="C116">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D116">
-        <v>-28.54</v>
+        <v>-41.38</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43977</v>
+        <v>44098</v>
       </c>
       <c r="B117">
-        <v>94.34</v>
+        <v>77.59</v>
       </c>
       <c r="C117">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D117">
-        <v>-27.63</v>
+        <v>-42.05</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43978</v>
+        <v>44099</v>
       </c>
       <c r="B118">
-        <v>95.11</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C118">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D118">
-        <v>-27.05</v>
+        <v>-42.2</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43979</v>
+        <v>44100</v>
       </c>
       <c r="B119">
-        <v>95.54000000000001</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="C119">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D119">
-        <v>-26.71</v>
+        <v>-42.32</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43980</v>
+        <v>44101</v>
       </c>
       <c r="B120">
-        <v>95.20999999999999</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C120">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D120">
-        <v>-26.97</v>
+        <v>-42.76</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43981</v>
+        <v>44102</v>
       </c>
       <c r="B121">
-        <v>95.29000000000001</v>
+        <v>95</v>
       </c>
       <c r="C121">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D121">
-        <v>-26.91</v>
+        <v>-29.06</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43982</v>
+        <v>44103</v>
       </c>
       <c r="B122">
-        <v>94.98</v>
+        <v>106</v>
       </c>
       <c r="C122">
-        <v>130.37</v>
+        <v>133.91</v>
       </c>
       <c r="D122">
-        <v>-27.15</v>
+        <v>-20.84</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43983</v>
+        <v>44104</v>
       </c>
       <c r="B123">
-        <v>92.45999999999999</v>
+        <v>111.1</v>
       </c>
       <c r="C123">
-        <v>157.39</v>
+        <v>133.91</v>
       </c>
       <c r="D123">
-        <v>-41.26</v>
+        <v>-17.03</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43984</v>
+        <v>44105</v>
       </c>
       <c r="B124">
-        <v>92.81999999999999</v>
+        <v>102.21</v>
       </c>
       <c r="C124">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D124">
-        <v>-41.03</v>
+        <v>-32.65</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43985</v>
+        <v>44106</v>
       </c>
       <c r="B125">
-        <v>92.62</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C125">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D125">
-        <v>-41.15</v>
+        <v>-41.62</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43986</v>
+        <v>44107</v>
       </c>
       <c r="B126">
-        <v>92.27</v>
+        <v>82.05</v>
       </c>
       <c r="C126">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D126">
-        <v>-41.38</v>
+        <v>-45.93</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43987</v>
+        <v>44108</v>
       </c>
       <c r="B127">
-        <v>91.09999999999999</v>
+        <v>80.59</v>
       </c>
       <c r="C127">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D127">
-        <v>-42.12</v>
+        <v>-46.89</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43988</v>
+        <v>44109</v>
       </c>
       <c r="B128">
-        <v>91.06999999999999</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="C128">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D128">
-        <v>-42.14</v>
+        <v>-48.25</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43989</v>
+        <v>44110</v>
       </c>
       <c r="B129">
-        <v>92.73999999999999</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="C129">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D129">
-        <v>-41.08</v>
+        <v>-49.09</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43990</v>
+        <v>44111</v>
       </c>
       <c r="B130">
-        <v>92.81</v>
+        <v>75.73</v>
       </c>
       <c r="C130">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D130">
-        <v>-41.04</v>
+        <v>-50.1</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43991</v>
+        <v>44112</v>
       </c>
       <c r="B131">
-        <v>93.44</v>
+        <v>82.2</v>
       </c>
       <c r="C131">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D131">
-        <v>-40.63</v>
+        <v>-45.84</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43992</v>
+        <v>44113</v>
       </c>
       <c r="B132">
-        <v>122.5</v>
+        <v>98.48</v>
       </c>
       <c r="C132">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D132">
-        <v>-22.17</v>
+        <v>-35.11</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43993</v>
+        <v>44114</v>
       </c>
       <c r="B133">
-        <v>155.84</v>
+        <v>114.48</v>
       </c>
       <c r="C133">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D133">
-        <v>-0.99</v>
+        <v>-24.57</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43994</v>
+        <v>44115</v>
       </c>
       <c r="B134">
-        <v>159.99</v>
+        <v>117.85</v>
       </c>
       <c r="C134">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D134">
-        <v>1.65</v>
+        <v>-22.34</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43995</v>
+        <v>44116</v>
       </c>
       <c r="B135">
-        <v>161.1</v>
+        <v>104.99</v>
       </c>
       <c r="C135">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D135">
-        <v>2.36</v>
+        <v>-30.82</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43996</v>
+        <v>44117</v>
       </c>
       <c r="B136">
-        <v>134.36</v>
+        <v>91.83</v>
       </c>
       <c r="C136">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D136">
-        <v>-14.63</v>
+        <v>-39.49</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43997</v>
+        <v>44118</v>
       </c>
       <c r="B137">
-        <v>112.18</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="C137">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D137">
-        <v>-28.73</v>
+        <v>-44.33</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43998</v>
+        <v>44119</v>
       </c>
       <c r="B138">
-        <v>104.49</v>
+        <v>81.75</v>
       </c>
       <c r="C138">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D138">
-        <v>-33.61</v>
+        <v>-46.13</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43999</v>
+        <v>44120</v>
       </c>
       <c r="B139">
-        <v>100.47</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="C139">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D139">
-        <v>-36.17</v>
+        <v>-45.01</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>44000</v>
+        <v>44121</v>
       </c>
       <c r="B140">
-        <v>99.06</v>
+        <v>80.34</v>
       </c>
       <c r="C140">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D140">
-        <v>-37.06</v>
+        <v>-47.06</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>44001</v>
+        <v>44122</v>
       </c>
       <c r="B141">
-        <v>93.98999999999999</v>
+        <v>77.88</v>
       </c>
       <c r="C141">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D141">
-        <v>-40.28</v>
+        <v>-48.69</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>44002</v>
+        <v>44123</v>
       </c>
       <c r="B142">
-        <v>95.01000000000001</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="C142">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D142">
-        <v>-39.64</v>
+        <v>-48.76</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>44003</v>
+        <v>44124</v>
       </c>
       <c r="B143">
-        <v>93.84</v>
+        <v>76.67</v>
       </c>
       <c r="C143">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D143">
-        <v>-40.38</v>
+        <v>-49.48</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>44004</v>
+        <v>44125</v>
       </c>
       <c r="B144">
-        <v>93.31</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="C144">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D144">
-        <v>-40.71</v>
+        <v>-49.69</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>44005</v>
+        <v>44126</v>
       </c>
       <c r="B145">
-        <v>92.56</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="C145">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D145">
-        <v>-41.19</v>
+        <v>-49.6</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>44006</v>
+        <v>44127</v>
       </c>
       <c r="B146">
-        <v>92.73</v>
+        <v>76.11</v>
       </c>
       <c r="C146">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D146">
-        <v>-41.08</v>
+        <v>-49.85</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>44007</v>
+        <v>44128</v>
       </c>
       <c r="B147">
-        <v>92.29000000000001</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C147">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D147">
-        <v>-41.36</v>
+        <v>-49.5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>44008</v>
+        <v>44129</v>
       </c>
       <c r="B148">
-        <v>95.54000000000001</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="C148">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D148">
-        <v>-39.3</v>
+        <v>-48.23</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>44009</v>
+        <v>44130</v>
       </c>
       <c r="B149">
-        <v>103.75</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="C149">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D149">
-        <v>-34.08</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>44010</v>
+        <v>44131</v>
       </c>
       <c r="B150">
-        <v>109.07</v>
+        <v>76.42</v>
       </c>
       <c r="C150">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D150">
-        <v>-30.7</v>
+        <v>-49.65</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>44011</v>
+        <v>44132</v>
       </c>
       <c r="B151">
-        <v>113.61</v>
+        <v>77.83</v>
       </c>
       <c r="C151">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D151">
-        <v>-27.82</v>
+        <v>-48.72</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>44012</v>
+        <v>44133</v>
       </c>
       <c r="B152">
-        <v>107.47</v>
+        <v>76.5</v>
       </c>
       <c r="C152">
-        <v>157.39</v>
+        <v>151.76</v>
       </c>
       <c r="D152">
-        <v>-31.72</v>
+        <v>-49.59</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>44013</v>
+        <v>44134</v>
       </c>
       <c r="B153">
-        <v>124.12</v>
+        <v>82.67</v>
       </c>
       <c r="C153">
-        <v>126.28</v>
+        <v>151.76</v>
       </c>
       <c r="D153">
-        <v>-1.71</v>
+        <v>-45.53</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>44014</v>
+        <v>44135</v>
       </c>
       <c r="B154">
-        <v>123.93</v>
+        <v>80.97</v>
       </c>
       <c r="C154">
-        <v>126.28</v>
+        <v>151.76</v>
       </c>
       <c r="D154">
-        <v>-1.87</v>
+        <v>-46.65</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>44015</v>
+        <v>44136</v>
       </c>
       <c r="B155">
-        <v>117.51</v>
+        <v>92.72</v>
       </c>
       <c r="C155">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D155">
-        <v>-6.95</v>
+        <v>-31.99</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>44016</v>
+        <v>44137</v>
       </c>
       <c r="B156">
-        <v>108.65</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="C156">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D156">
-        <v>-13.97</v>
+        <v>-32.14</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>44017</v>
+        <v>44138</v>
       </c>
       <c r="B157">
-        <v>103.79</v>
+        <v>90.27</v>
       </c>
       <c r="C157">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D157">
-        <v>-17.81</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>44018</v>
+        <v>44139</v>
       </c>
       <c r="B158">
-        <v>100.84</v>
+        <v>92.8</v>
       </c>
       <c r="C158">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D158">
-        <v>-20.15</v>
+        <v>-31.93</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>44019</v>
+        <v>44140</v>
       </c>
       <c r="B159">
-        <v>98.69</v>
+        <v>86.05</v>
       </c>
       <c r="C159">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D159">
-        <v>-21.85</v>
+        <v>-36.88</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>44020</v>
+        <v>44141</v>
       </c>
       <c r="B160">
-        <v>97.45</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C160">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D160">
-        <v>-22.83</v>
+        <v>-37.36</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>44021</v>
+        <v>44142</v>
       </c>
       <c r="B161">
-        <v>95.33</v>
+        <v>83.97</v>
       </c>
       <c r="C161">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D161">
-        <v>-24.51</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>44022</v>
+        <v>44143</v>
       </c>
       <c r="B162">
-        <v>95.02</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="C162">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D162">
-        <v>-24.76</v>
+        <v>-40.53</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>44023</v>
+        <v>44144</v>
       </c>
       <c r="B163">
-        <v>96.92</v>
+        <v>78.53</v>
       </c>
       <c r="C163">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D163">
-        <v>-23.26</v>
+        <v>-42.4</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>44024</v>
+        <v>44145</v>
       </c>
       <c r="B164">
-        <v>92.83</v>
+        <v>78.11</v>
       </c>
       <c r="C164">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D164">
-        <v>-26.49</v>
+        <v>-42.7</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>44025</v>
+        <v>44146</v>
       </c>
       <c r="B165">
-        <v>92.44</v>
+        <v>94.12</v>
       </c>
       <c r="C165">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D165">
-        <v>-26.8</v>
+        <v>-30.96</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>44026</v>
+        <v>44147</v>
       </c>
       <c r="B166">
-        <v>92.23999999999999</v>
+        <v>104.58</v>
       </c>
       <c r="C166">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D166">
-        <v>-26.96</v>
+        <v>-23.29</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>44027</v>
+        <v>44148</v>
       </c>
       <c r="B167">
-        <v>93.34999999999999</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="C167">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D167">
-        <v>-26.08</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>44028</v>
+        <v>44149</v>
       </c>
       <c r="B168">
-        <v>93.40000000000001</v>
+        <v>89.53</v>
       </c>
       <c r="C168">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D168">
-        <v>-26.04</v>
+        <v>-34.33</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>44029</v>
+        <v>44150</v>
       </c>
       <c r="B169">
-        <v>92.79000000000001</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="C169">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D169">
-        <v>-26.52</v>
+        <v>-36.74</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>44030</v>
+        <v>44151</v>
       </c>
       <c r="B170">
-        <v>92.98</v>
+        <v>92.23</v>
       </c>
       <c r="C170">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D170">
-        <v>-26.37</v>
+        <v>-32.35</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44031</v>
+        <v>44152</v>
       </c>
       <c r="B171">
-        <v>91.90000000000001</v>
+        <v>107.59</v>
       </c>
       <c r="C171">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D171">
-        <v>-27.23</v>
+        <v>-21.08</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44032</v>
+        <v>44153</v>
       </c>
       <c r="B172">
-        <v>91.73999999999999</v>
+        <v>121.44</v>
       </c>
       <c r="C172">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D172">
-        <v>-27.36</v>
+        <v>-10.93</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44033</v>
+        <v>44154</v>
       </c>
       <c r="B173">
-        <v>92.34</v>
+        <v>125.58</v>
       </c>
       <c r="C173">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D173">
-        <v>-26.88</v>
+        <v>-7.89</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44034</v>
+        <v>44155</v>
       </c>
       <c r="B174">
-        <v>92.19</v>
+        <v>123.19</v>
       </c>
       <c r="C174">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D174">
-        <v>-27</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44035</v>
+        <v>44156</v>
       </c>
       <c r="B175">
-        <v>92.06999999999999</v>
+        <v>129.56</v>
       </c>
       <c r="C175">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D175">
-        <v>-27.09</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44036</v>
+        <v>44157</v>
       </c>
       <c r="B176">
-        <v>91.92</v>
+        <v>124.57</v>
       </c>
       <c r="C176">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D176">
-        <v>-27.21</v>
+        <v>-8.630000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44037</v>
+        <v>44158</v>
       </c>
       <c r="B177">
-        <v>91.86</v>
+        <v>107.69</v>
       </c>
       <c r="C177">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D177">
-        <v>-27.26</v>
+        <v>-21.01</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44038</v>
+        <v>44159</v>
       </c>
       <c r="B178">
-        <v>91.77</v>
+        <v>97.08</v>
       </c>
       <c r="C178">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D178">
-        <v>-27.33</v>
+        <v>-28.8</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44039</v>
+        <v>44160</v>
       </c>
       <c r="B179">
-        <v>91.2</v>
+        <v>88.39</v>
       </c>
       <c r="C179">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D179">
-        <v>-27.78</v>
+        <v>-35.17</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44040</v>
+        <v>44161</v>
       </c>
       <c r="B180">
-        <v>91</v>
+        <v>83.77</v>
       </c>
       <c r="C180">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D180">
-        <v>-27.94</v>
+        <v>-38.55</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44041</v>
+        <v>44162</v>
       </c>
       <c r="B181">
-        <v>107.57</v>
+        <v>119.47</v>
       </c>
       <c r="C181">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D181">
-        <v>-14.82</v>
+        <v>-12.37</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44042</v>
+        <v>44163</v>
       </c>
       <c r="B182">
-        <v>118.47</v>
+        <v>89</v>
       </c>
       <c r="C182">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D182">
-        <v>-6.19</v>
+        <v>-34.72</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44043</v>
+        <v>44164</v>
       </c>
       <c r="B183">
-        <v>133.49</v>
+        <v>101.71</v>
       </c>
       <c r="C183">
-        <v>126.28</v>
+        <v>136.33</v>
       </c>
       <c r="D183">
-        <v>5.71</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44044</v>
+        <v>44165</v>
       </c>
       <c r="B184">
-        <v>118.64</v>
+        <v>98.62</v>
       </c>
       <c r="C184">
-        <v>114.14</v>
+        <v>136.33</v>
       </c>
       <c r="D184">
-        <v>3.94</v>
+        <v>-27.66</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44045</v>
+        <v>44166</v>
       </c>
       <c r="B185">
-        <v>107.18</v>
+        <v>86.64</v>
       </c>
       <c r="C185">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D185">
-        <v>-6.1</v>
+        <v>-33.84</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44046</v>
+        <v>44167</v>
       </c>
       <c r="B186">
-        <v>102.56</v>
+        <v>81.5</v>
       </c>
       <c r="C186">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D186">
-        <v>-10.14</v>
+        <v>-37.76</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44047</v>
+        <v>44168</v>
       </c>
       <c r="B187">
-        <v>99.44</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="C187">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D187">
-        <v>-12.88</v>
+        <v>-36.22</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44048</v>
+        <v>44169</v>
       </c>
       <c r="B188">
-        <v>96.78</v>
+        <v>86.27</v>
       </c>
       <c r="C188">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D188">
-        <v>-15.21</v>
+        <v>-34.12</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44049</v>
+        <v>44170</v>
       </c>
       <c r="B189">
-        <v>95.73999999999999</v>
+        <v>108.23</v>
       </c>
       <c r="C189">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D189">
-        <v>-16.12</v>
+        <v>-17.35</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44050</v>
+        <v>44171</v>
       </c>
       <c r="B190">
-        <v>93.34</v>
+        <v>152.56</v>
       </c>
       <c r="C190">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D190">
-        <v>-18.22</v>
+        <v>16.51</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44051</v>
+        <v>44172</v>
       </c>
       <c r="B191">
-        <v>92.55</v>
+        <v>164.1</v>
       </c>
       <c r="C191">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D191">
-        <v>-18.91</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44052</v>
+        <v>44173</v>
       </c>
       <c r="B192">
-        <v>91.56</v>
+        <v>160.38</v>
       </c>
       <c r="C192">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D192">
-        <v>-19.78</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44053</v>
+        <v>44174</v>
       </c>
       <c r="B193">
-        <v>91.73999999999999</v>
+        <v>163.54</v>
       </c>
       <c r="C193">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D193">
-        <v>-19.63</v>
+        <v>24.89</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44054</v>
+        <v>44175</v>
       </c>
       <c r="B194">
-        <v>91.53</v>
+        <v>165.96</v>
       </c>
       <c r="C194">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D194">
-        <v>-19.81</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44055</v>
+        <v>44176</v>
       </c>
       <c r="B195">
-        <v>91.09</v>
+        <v>156.48</v>
       </c>
       <c r="C195">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D195">
-        <v>-20.19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44056</v>
+        <v>44177</v>
       </c>
       <c r="B196">
-        <v>90.73999999999999</v>
+        <v>127.35</v>
       </c>
       <c r="C196">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D196">
-        <v>-20.5</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44057</v>
+        <v>44178</v>
       </c>
       <c r="B197">
-        <v>90.81</v>
+        <v>117.8</v>
       </c>
       <c r="C197">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D197">
-        <v>-20.44</v>
+        <v>-10.04</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44058</v>
+        <v>44179</v>
       </c>
       <c r="B198">
-        <v>104.66</v>
+        <v>100.39</v>
       </c>
       <c r="C198">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D198">
-        <v>-8.31</v>
+        <v>-23.34</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44059</v>
+        <v>44180</v>
       </c>
       <c r="B199">
-        <v>156.16</v>
+        <v>102.96</v>
       </c>
       <c r="C199">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D199">
-        <v>36.82</v>
+        <v>-21.37</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44060</v>
+        <v>44181</v>
       </c>
       <c r="B200">
-        <v>161.25</v>
+        <v>109</v>
       </c>
       <c r="C200">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D200">
-        <v>41.27</v>
+        <v>-16.76</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44061</v>
+        <v>44182</v>
       </c>
       <c r="B201">
-        <v>184.96</v>
+        <v>140.39</v>
       </c>
       <c r="C201">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D201">
-        <v>62.05</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44062</v>
+        <v>44183</v>
       </c>
       <c r="B202">
-        <v>218.26</v>
+        <v>135.9</v>
       </c>
       <c r="C202">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D202">
-        <v>91.22</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44063</v>
+        <v>44184</v>
       </c>
       <c r="B203">
-        <v>243.69</v>
+        <v>130.94</v>
       </c>
       <c r="C203">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D203">
-        <v>113.5</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44064</v>
+        <v>44185</v>
       </c>
       <c r="B204">
-        <v>267.82</v>
+        <v>121.99</v>
       </c>
       <c r="C204">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D204">
-        <v>134.64</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44065</v>
+        <v>44186</v>
       </c>
       <c r="B205">
-        <v>265.49</v>
+        <v>119.38</v>
       </c>
       <c r="C205">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D205">
-        <v>132.6</v>
+        <v>-8.84</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44066</v>
+        <v>44187</v>
       </c>
       <c r="B206">
-        <v>246.9</v>
+        <v>124.02</v>
       </c>
       <c r="C206">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D206">
-        <v>116.31</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44067</v>
+        <v>44188</v>
       </c>
       <c r="B207">
-        <v>225.24</v>
+        <v>120.15</v>
       </c>
       <c r="C207">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D207">
-        <v>97.34</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44068</v>
+        <v>44189</v>
       </c>
       <c r="B208">
-        <v>198.15</v>
+        <v>108.27</v>
       </c>
       <c r="C208">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D208">
-        <v>73.59999999999999</v>
+        <v>-17.32</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44069</v>
+        <v>44190</v>
       </c>
       <c r="B209">
-        <v>159.3</v>
+        <v>101.69</v>
       </c>
       <c r="C209">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D209">
-        <v>39.57</v>
+        <v>-22.34</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44070</v>
+        <v>44191</v>
       </c>
       <c r="B210">
-        <v>133.88</v>
+        <v>97.48</v>
       </c>
       <c r="C210">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D210">
-        <v>17.29</v>
+        <v>-25.56</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44071</v>
+        <v>44192</v>
       </c>
       <c r="B211">
-        <v>123.39</v>
+        <v>93.84</v>
       </c>
       <c r="C211">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D211">
-        <v>8.1</v>
+        <v>-28.33</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44072</v>
+        <v>44193</v>
       </c>
       <c r="B212">
-        <v>115.97</v>
+        <v>91.03</v>
       </c>
       <c r="C212">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D212">
-        <v>1.6</v>
+        <v>-30.48</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44073</v>
+        <v>44194</v>
       </c>
       <c r="B213">
-        <v>110.2</v>
+        <v>96.97</v>
       </c>
       <c r="C213">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D213">
-        <v>-3.45</v>
+        <v>-25.95</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44074</v>
+        <v>44195</v>
       </c>
       <c r="B214">
-        <v>107.03</v>
+        <v>106.79</v>
       </c>
       <c r="C214">
-        <v>114.14</v>
+        <v>130.94</v>
       </c>
       <c r="D214">
-        <v>-6.23</v>
+        <v>-18.45</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44075</v>
+        <v>44196</v>
       </c>
       <c r="B215">
-        <v>106.62</v>
+        <v>121.08</v>
       </c>
       <c r="C215">
-        <v>133.91</v>
+        <v>130.94</v>
       </c>
       <c r="D215">
-        <v>-20.37</v>
+        <v>-7.53</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44076</v>
+        <v>44197</v>
       </c>
       <c r="B216">
-        <v>104.38</v>
+        <v>134.69</v>
       </c>
       <c r="C216">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D216">
-        <v>-22.05</v>
+        <v>-10.91</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44077</v>
+        <v>44198</v>
       </c>
       <c r="B217">
-        <v>97.37</v>
+        <v>129.94</v>
       </c>
       <c r="C217">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D217">
-        <v>-27.29</v>
+        <v>-14.05</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44078</v>
+        <v>44199</v>
       </c>
       <c r="B218">
-        <v>88.66</v>
+        <v>119.85</v>
       </c>
       <c r="C218">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D218">
-        <v>-33.79</v>
+        <v>-20.72</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44079</v>
+        <v>44200</v>
       </c>
       <c r="B219">
-        <v>85.79000000000001</v>
+        <v>110.24</v>
       </c>
       <c r="C219">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D219">
-        <v>-35.93</v>
+        <v>-27.08</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44080</v>
+        <v>44201</v>
       </c>
       <c r="B220">
-        <v>83.67</v>
+        <v>102.82</v>
       </c>
       <c r="C220">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D220">
-        <v>-37.52</v>
+        <v>-31.99</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44081</v>
+        <v>44202</v>
       </c>
       <c r="B221">
-        <v>83.16</v>
+        <v>107.44</v>
       </c>
       <c r="C221">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D221">
-        <v>-37.9</v>
+        <v>-28.94</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44082</v>
+        <v>44203</v>
       </c>
       <c r="B222">
-        <v>82.08</v>
+        <v>123.42</v>
       </c>
       <c r="C222">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D222">
-        <v>-38.7</v>
+        <v>-18.37</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44083</v>
+        <v>44204</v>
       </c>
       <c r="B223">
-        <v>80.54000000000001</v>
+        <v>140.35</v>
       </c>
       <c r="C223">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D223">
-        <v>-39.85</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44084</v>
+        <v>44205</v>
       </c>
       <c r="B224">
-        <v>79.53</v>
+        <v>145.59</v>
       </c>
       <c r="C224">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D224">
-        <v>-40.61</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44085</v>
+        <v>44206</v>
       </c>
       <c r="B225">
-        <v>79.73999999999999</v>
+        <v>119.53</v>
       </c>
       <c r="C225">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D225">
-        <v>-40.45</v>
+        <v>-20.94</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44086</v>
+        <v>44207</v>
       </c>
       <c r="B226">
-        <v>79.06999999999999</v>
+        <v>107.58</v>
       </c>
       <c r="C226">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D226">
-        <v>-40.95</v>
+        <v>-28.84</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44087</v>
+        <v>44208</v>
       </c>
       <c r="B227">
-        <v>78.67</v>
+        <v>100.06</v>
       </c>
       <c r="C227">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D227">
-        <v>-41.25</v>
+        <v>-33.81</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44088</v>
+        <v>44209</v>
       </c>
       <c r="B228">
-        <v>78.98</v>
+        <v>95.86</v>
       </c>
       <c r="C228">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D228">
-        <v>-41.02</v>
+        <v>-36.59</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44089</v>
+        <v>44210</v>
       </c>
       <c r="B229">
-        <v>78</v>
+        <v>93.83</v>
       </c>
       <c r="C229">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D229">
-        <v>-41.75</v>
+        <v>-37.93</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44090</v>
+        <v>44211</v>
       </c>
       <c r="B230">
-        <v>77.23</v>
+        <v>97.05</v>
       </c>
       <c r="C230">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D230">
-        <v>-42.33</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44091</v>
+        <v>44212</v>
       </c>
       <c r="B231">
-        <v>77.15000000000001</v>
+        <v>106.24</v>
       </c>
       <c r="C231">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D231">
-        <v>-42.38</v>
+        <v>-29.73</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44092</v>
+        <v>44213</v>
       </c>
       <c r="B232">
-        <v>76.72</v>
+        <v>112.76</v>
       </c>
       <c r="C232">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D232">
-        <v>-42.71</v>
+        <v>-25.42</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44093</v>
+        <v>44214</v>
       </c>
       <c r="B233">
-        <v>76.58</v>
+        <v>125.55</v>
       </c>
       <c r="C233">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D233">
-        <v>-42.81</v>
+        <v>-16.96</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44094</v>
+        <v>44215</v>
       </c>
       <c r="B234">
-        <v>77.56</v>
+        <v>209.12</v>
       </c>
       <c r="C234">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D234">
-        <v>-42.08</v>
+        <v>38.32</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44095</v>
+        <v>44216</v>
       </c>
       <c r="B235">
-        <v>78</v>
+        <v>188.79</v>
       </c>
       <c r="C235">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D235">
-        <v>-41.75</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44096</v>
+        <v>44217</v>
       </c>
       <c r="B236">
-        <v>78</v>
+        <v>211.18</v>
       </c>
       <c r="C236">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D236">
-        <v>-41.75</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44097</v>
+        <v>44218</v>
       </c>
       <c r="B237">
-        <v>78.5</v>
+        <v>234</v>
       </c>
       <c r="C237">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D237">
-        <v>-41.38</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44098</v>
+        <v>44219</v>
       </c>
       <c r="B238">
-        <v>77.59</v>
+        <v>223.3</v>
       </c>
       <c r="C238">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D238">
-        <v>-42.05</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44099</v>
+        <v>44220</v>
       </c>
       <c r="B239">
-        <v>77.40000000000001</v>
+        <v>199.89</v>
       </c>
       <c r="C239">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D239">
-        <v>-42.2</v>
+        <v>32.21</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44100</v>
+        <v>44221</v>
       </c>
       <c r="B240">
-        <v>77.23999999999999</v>
+        <v>179.44</v>
       </c>
       <c r="C240">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D240">
-        <v>-42.32</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44101</v>
+        <v>44222</v>
       </c>
       <c r="B241">
-        <v>76.65000000000001</v>
+        <v>159.35</v>
       </c>
       <c r="C241">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D241">
-        <v>-42.76</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44102</v>
+        <v>44223</v>
       </c>
       <c r="B242">
-        <v>95</v>
+        <v>138.53</v>
       </c>
       <c r="C242">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D242">
-        <v>-29.06</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44103</v>
+        <v>44224</v>
       </c>
       <c r="B243">
-        <v>106</v>
+        <v>133.8</v>
       </c>
       <c r="C243">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D243">
-        <v>-20.84</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44104</v>
+        <v>44225</v>
       </c>
       <c r="B244">
-        <v>111.1</v>
+        <v>137.35</v>
       </c>
       <c r="C244">
-        <v>133.91</v>
+        <v>151.18</v>
       </c>
       <c r="D244">
-        <v>-17.03</v>
+        <v>-9.15</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44105</v>
+        <v>44226</v>
       </c>
       <c r="B245">
-        <v>102.21</v>
+        <v>146.69</v>
       </c>
       <c r="C245">
-        <v>151.76</v>
+        <v>151.18</v>
       </c>
       <c r="D245">
-        <v>-32.65</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44106</v>
+        <v>44227</v>
       </c>
       <c r="B246">
-        <v>88.59999999999999</v>
+        <v>153.76</v>
       </c>
       <c r="C246">
-        <v>151.76</v>
+        <v>151.18</v>
       </c>
       <c r="D246">
-        <v>-41.62</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44107</v>
+        <v>44228</v>
       </c>
       <c r="B247">
-        <v>82.05</v>
+        <v>162.32</v>
       </c>
       <c r="C247">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D247">
-        <v>-45.93</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44108</v>
+        <v>44229</v>
       </c>
       <c r="B248">
-        <v>80.59</v>
+        <v>168.65</v>
       </c>
       <c r="C248">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D248">
-        <v>-46.89</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44109</v>
+        <v>44230</v>
       </c>
       <c r="B249">
-        <v>78.54000000000001</v>
+        <v>165.26</v>
       </c>
       <c r="C249">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D249">
-        <v>-48.25</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44110</v>
+        <v>44231</v>
       </c>
       <c r="B250">
-        <v>77.26000000000001</v>
+        <v>159.06</v>
       </c>
       <c r="C250">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D250">
-        <v>-49.09</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44111</v>
+        <v>44232</v>
       </c>
       <c r="B251">
-        <v>75.73</v>
+        <v>204.11</v>
       </c>
       <c r="C251">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D251">
-        <v>-50.1</v>
+        <v>35.18</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44112</v>
+        <v>44233</v>
       </c>
       <c r="B252">
-        <v>82.2</v>
+        <v>189.71</v>
       </c>
       <c r="C252">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D252">
-        <v>-45.84</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44113</v>
+        <v>44234</v>
       </c>
       <c r="B253">
-        <v>98.48</v>
+        <v>186.23</v>
       </c>
       <c r="C253">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D253">
-        <v>-35.11</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44114</v>
+        <v>44235</v>
       </c>
       <c r="B254">
-        <v>114.48</v>
+        <v>177.1</v>
       </c>
       <c r="C254">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D254">
-        <v>-24.57</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44115</v>
+        <v>44236</v>
       </c>
       <c r="B255">
-        <v>117.85</v>
+        <v>156.66</v>
       </c>
       <c r="C255">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D255">
-        <v>-22.34</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44116</v>
+        <v>44237</v>
       </c>
       <c r="B256">
-        <v>104.99</v>
+        <v>129.65</v>
       </c>
       <c r="C256">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D256">
-        <v>-30.82</v>
+        <v>-14.14</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44117</v>
+        <v>44238</v>
       </c>
       <c r="B257">
-        <v>91.83</v>
+        <v>116.23</v>
       </c>
       <c r="C257">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D257">
-        <v>-39.49</v>
+        <v>-23.03</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44118</v>
+        <v>44239</v>
       </c>
       <c r="B258">
-        <v>84.48999999999999</v>
+        <v>110.67</v>
       </c>
       <c r="C258">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D258">
-        <v>-44.33</v>
+        <v>-26.71</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44119</v>
+        <v>44240</v>
       </c>
       <c r="B259">
-        <v>81.75</v>
+        <v>117.74</v>
       </c>
       <c r="C259">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D259">
-        <v>-46.13</v>
+        <v>-22.03</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44120</v>
+        <v>44241</v>
       </c>
       <c r="B260">
-        <v>83.45999999999999</v>
+        <v>112.28</v>
       </c>
       <c r="C260">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D260">
-        <v>-45.01</v>
+        <v>-25.64</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44121</v>
+        <v>44242</v>
       </c>
       <c r="B261">
-        <v>80.34</v>
+        <v>121.21</v>
       </c>
       <c r="C261">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D261">
-        <v>-47.06</v>
+        <v>-19.73</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44122</v>
+        <v>44243</v>
       </c>
       <c r="B262">
-        <v>77.88</v>
+        <v>130.11</v>
       </c>
       <c r="C262">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D262">
-        <v>-48.69</v>
+        <v>-13.83</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44123</v>
+        <v>44244</v>
       </c>
       <c r="B263">
-        <v>77.76000000000001</v>
+        <v>123.78</v>
       </c>
       <c r="C263">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D263">
-        <v>-48.76</v>
+        <v>-18.03</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44124</v>
+        <v>44245</v>
       </c>
       <c r="B264">
-        <v>76.67</v>
+        <v>114.62</v>
       </c>
       <c r="C264">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D264">
-        <v>-49.48</v>
+        <v>-24.09</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44125</v>
+        <v>44246</v>
       </c>
       <c r="B265">
-        <v>76.34999999999999</v>
+        <v>109.19</v>
       </c>
       <c r="C265">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D265">
-        <v>-49.69</v>
+        <v>-27.69</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44126</v>
+        <v>44247</v>
       </c>
       <c r="B266">
-        <v>76.48999999999999</v>
+        <v>100.95</v>
       </c>
       <c r="C266">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D266">
-        <v>-49.6</v>
+        <v>-33.15</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44127</v>
+        <v>44248</v>
       </c>
       <c r="B267">
-        <v>76.11</v>
+        <v>95.92</v>
       </c>
       <c r="C267">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D267">
-        <v>-49.85</v>
+        <v>-36.48</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44128</v>
+        <v>44249</v>
       </c>
       <c r="B268">
-        <v>76.65000000000001</v>
+        <v>92.76000000000001</v>
       </c>
       <c r="C268">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D268">
-        <v>-49.5</v>
+        <v>-38.57</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44129</v>
+        <v>44250</v>
       </c>
       <c r="B269">
-        <v>78.56999999999999</v>
+        <v>88.16</v>
       </c>
       <c r="C269">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D269">
-        <v>-48.23</v>
+        <v>-41.62</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44130</v>
+        <v>44251</v>
       </c>
       <c r="B270">
-        <v>76.15000000000001</v>
+        <v>91.52</v>
       </c>
       <c r="C270">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D270">
-        <v>-49.82</v>
+        <v>-39.39</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44131</v>
+        <v>44252</v>
       </c>
       <c r="B271">
-        <v>76.42</v>
+        <v>93.42</v>
       </c>
       <c r="C271">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D271">
-        <v>-49.65</v>
+        <v>-38.13</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44132</v>
+        <v>44253</v>
       </c>
       <c r="B272">
-        <v>77.83</v>
+        <v>92.38</v>
       </c>
       <c r="C272">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D272">
-        <v>-48.72</v>
+        <v>-38.82</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44133</v>
+        <v>44254</v>
       </c>
       <c r="B273">
-        <v>76.5</v>
+        <v>104.64</v>
       </c>
       <c r="C273">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D273">
-        <v>-49.59</v>
+        <v>-30.71</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44134</v>
+        <v>44255</v>
       </c>
       <c r="B274">
-        <v>82.67</v>
+        <v>144.99</v>
       </c>
       <c r="C274">
-        <v>151.76</v>
+        <v>151</v>
       </c>
       <c r="D274">
-        <v>-45.53</v>
+        <v>-3.98</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44135</v>
+        <v>44256</v>
       </c>
       <c r="B275">
-        <v>80.97</v>
+        <v>173.94</v>
       </c>
       <c r="C275">
-        <v>151.76</v>
+        <v>141.89</v>
       </c>
       <c r="D275">
-        <v>-46.65</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44136</v>
+        <v>44257</v>
       </c>
       <c r="B276">
-        <v>92.72</v>
+        <v>232.3</v>
       </c>
       <c r="C276">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D276">
-        <v>-31.99</v>
+        <v>63.72</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44137</v>
+        <v>44258</v>
       </c>
       <c r="B277">
-        <v>92.51000000000001</v>
+        <v>315.17</v>
       </c>
       <c r="C277">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D277">
-        <v>-32.14</v>
+        <v>122.12</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44138</v>
+        <v>44259</v>
       </c>
       <c r="B278">
-        <v>90.27</v>
+        <v>312.64</v>
       </c>
       <c r="C278">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D278">
-        <v>-33.79</v>
+        <v>120.34</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44139</v>
+        <v>44260</v>
       </c>
       <c r="B279">
-        <v>92.8</v>
+        <v>303.25</v>
       </c>
       <c r="C279">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D279">
-        <v>-31.93</v>
+        <v>113.73</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44140</v>
+        <v>44261</v>
       </c>
       <c r="B280">
-        <v>86.05</v>
+        <v>292.56</v>
       </c>
       <c r="C280">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D280">
-        <v>-36.88</v>
+        <v>106.19</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44141</v>
+        <v>44262</v>
       </c>
       <c r="B281">
-        <v>85.40000000000001</v>
+        <v>261.4</v>
       </c>
       <c r="C281">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D281">
-        <v>-37.36</v>
+        <v>84.23</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44142</v>
+        <v>44263</v>
       </c>
       <c r="B282">
-        <v>83.97</v>
+        <v>228.88</v>
       </c>
       <c r="C282">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D282">
-        <v>-38.41</v>
+        <v>61.31</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44143</v>
+        <v>44264</v>
       </c>
       <c r="B283">
-        <v>81.06999999999999</v>
+        <v>204.55</v>
       </c>
       <c r="C283">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D283">
-        <v>-40.53</v>
+        <v>44.17</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44144</v>
+        <v>44265</v>
       </c>
       <c r="B284">
-        <v>78.53</v>
+        <v>189.1</v>
       </c>
       <c r="C284">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D284">
-        <v>-42.4</v>
+        <v>33.28</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44145</v>
+        <v>44266</v>
       </c>
       <c r="B285">
-        <v>78.11</v>
+        <v>173.98</v>
       </c>
       <c r="C285">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D285">
-        <v>-42.7</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44146</v>
+        <v>44267</v>
       </c>
       <c r="B286">
-        <v>94.12</v>
+        <v>162.69</v>
       </c>
       <c r="C286">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D286">
-        <v>-30.96</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44147</v>
+        <v>44268</v>
       </c>
       <c r="B287">
-        <v>104.58</v>
+        <v>149.09</v>
       </c>
       <c r="C287">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D287">
-        <v>-23.29</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44148</v>
+        <v>44269</v>
       </c>
       <c r="B288">
-        <v>91.93000000000001</v>
+        <v>134.57</v>
       </c>
       <c r="C288">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D288">
-        <v>-32.57</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44149</v>
+        <v>44270</v>
       </c>
       <c r="B289">
-        <v>89.53</v>
+        <v>128.52</v>
       </c>
       <c r="C289">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D289">
-        <v>-34.33</v>
+        <v>-9.42</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44150</v>
+        <v>44271</v>
       </c>
       <c r="B290">
-        <v>86.23999999999999</v>
+        <v>137.24</v>
       </c>
       <c r="C290">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D290">
-        <v>-36.74</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44151</v>
+        <v>44272</v>
       </c>
       <c r="B291">
-        <v>92.23</v>
+        <v>147.04</v>
       </c>
       <c r="C291">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D291">
-        <v>-32.35</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44152</v>
+        <v>44273</v>
       </c>
       <c r="B292">
-        <v>107.59</v>
+        <v>151.24</v>
       </c>
       <c r="C292">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D292">
-        <v>-21.08</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44153</v>
+        <v>44274</v>
       </c>
       <c r="B293">
-        <v>121.44</v>
+        <v>153.81</v>
       </c>
       <c r="C293">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D293">
-        <v>-10.93</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44154</v>
+        <v>44275</v>
       </c>
       <c r="B294">
-        <v>125.58</v>
+        <v>146.31</v>
       </c>
       <c r="C294">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D294">
-        <v>-7.89</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44155</v>
+        <v>44276</v>
       </c>
       <c r="B295">
-        <v>123.19</v>
+        <v>129.36</v>
       </c>
       <c r="C295">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D295">
-        <v>-9.640000000000001</v>
+        <v>-8.83</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44156</v>
+        <v>44277</v>
       </c>
       <c r="B296">
-        <v>129.56</v>
+        <v>120.06</v>
       </c>
       <c r="C296">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D296">
-        <v>-4.97</v>
+        <v>-15.38</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44157</v>
+        <v>44278</v>
       </c>
       <c r="B297">
-        <v>124.57</v>
+        <v>118.66</v>
       </c>
       <c r="C297">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D297">
-        <v>-8.630000000000001</v>
+        <v>-16.37</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44158</v>
+        <v>44279</v>
       </c>
       <c r="B298">
-        <v>107.69</v>
+        <v>114.41</v>
       </c>
       <c r="C298">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D298">
-        <v>-21.01</v>
+        <v>-19.37</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44159</v>
+        <v>44280</v>
       </c>
       <c r="B299">
-        <v>97.08</v>
+        <v>111.1</v>
       </c>
       <c r="C299">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D299">
-        <v>-28.8</v>
+        <v>-21.7</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="B300">
-        <v>88.39</v>
+        <v>109.77</v>
       </c>
       <c r="C300">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D300">
-        <v>-35.17</v>
+        <v>-22.64</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44161</v>
+        <v>44282</v>
       </c>
       <c r="B301">
-        <v>83.77</v>
+        <v>107.76</v>
       </c>
       <c r="C301">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D301">
-        <v>-38.55</v>
+        <v>-24.05</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44162</v>
+        <v>44283</v>
       </c>
       <c r="B302">
-        <v>119.47</v>
+        <v>117.24</v>
       </c>
       <c r="C302">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D302">
-        <v>-12.37</v>
+        <v>-17.37</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44163</v>
+        <v>44284</v>
       </c>
       <c r="B303">
-        <v>89</v>
+        <v>120.42</v>
       </c>
       <c r="C303">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D303">
-        <v>-34.72</v>
+        <v>-15.13</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44164</v>
+        <v>44285</v>
       </c>
       <c r="B304">
-        <v>101.71</v>
+        <v>125.45</v>
       </c>
       <c r="C304">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D304">
-        <v>-25.4</v>
+        <v>-11.59</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44165</v>
+        <v>44286</v>
       </c>
       <c r="B305">
-        <v>98.62</v>
+        <v>120.92</v>
       </c>
       <c r="C305">
-        <v>136.33</v>
+        <v>141.89</v>
       </c>
       <c r="D305">
-        <v>-27.66</v>
+        <v>-14.78</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44166</v>
+        <v>44287</v>
       </c>
       <c r="B306">
-        <v>86.64</v>
+        <v>112.82</v>
       </c>
       <c r="C306">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D306">
-        <v>-33.84</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44167</v>
+        <v>44288</v>
       </c>
       <c r="B307">
-        <v>81.5</v>
+        <v>107.18</v>
       </c>
       <c r="C307">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D307">
-        <v>-37.76</v>
+        <v>-10.92</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44168</v>
+        <v>44289</v>
       </c>
       <c r="B308">
-        <v>83.51000000000001</v>
+        <v>102.91</v>
       </c>
       <c r="C308">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D308">
-        <v>-36.22</v>
+        <v>-14.47</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44169</v>
+        <v>44290</v>
       </c>
       <c r="B309">
-        <v>86.27</v>
+        <v>100.4</v>
       </c>
       <c r="C309">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D309">
-        <v>-34.12</v>
+        <v>-16.56</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44170</v>
+        <v>44291</v>
       </c>
       <c r="B310">
-        <v>108.23</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="C310">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D310">
-        <v>-17.35</v>
+        <v>-17.73</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44171</v>
+        <v>44292</v>
       </c>
       <c r="B311">
-        <v>152.56</v>
+        <v>98.69</v>
       </c>
       <c r="C311">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D311">
-        <v>16.51</v>
+        <v>-17.98</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44172</v>
+        <v>44293</v>
       </c>
       <c r="B312">
-        <v>164.1</v>
+        <v>99.12</v>
       </c>
       <c r="C312">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D312">
-        <v>25.32</v>
+        <v>-17.62</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44173</v>
+        <v>44294</v>
       </c>
       <c r="B313">
-        <v>160.38</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="C313">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D313">
-        <v>22.48</v>
+        <v>-17.45</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44174</v>
+        <v>44295</v>
       </c>
       <c r="B314">
-        <v>163.54</v>
+        <v>100.86</v>
       </c>
       <c r="C314">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D314">
-        <v>24.89</v>
+        <v>-16.17</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44175</v>
+        <v>44296</v>
       </c>
       <c r="B315">
-        <v>165.96</v>
+        <v>100.33</v>
       </c>
       <c r="C315">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D315">
-        <v>26.74</v>
+        <v>-16.61</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44176</v>
+        <v>44297</v>
       </c>
       <c r="B316">
-        <v>156.48</v>
+        <v>97.8</v>
       </c>
       <c r="C316">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D316">
-        <v>19.5</v>
+        <v>-18.72</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44177</v>
+        <v>44298</v>
       </c>
       <c r="B317">
-        <v>127.35</v>
+        <v>95.23</v>
       </c>
       <c r="C317">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D317">
-        <v>-2.74</v>
+        <v>-20.85</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44178</v>
+        <v>44299</v>
       </c>
       <c r="B318">
-        <v>117.8</v>
+        <v>93.83</v>
       </c>
       <c r="C318">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D318">
-        <v>-10.04</v>
+        <v>-22.01</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44179</v>
+        <v>44300</v>
       </c>
       <c r="B319">
-        <v>100.39</v>
+        <v>93.11</v>
       </c>
       <c r="C319">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D319">
-        <v>-23.34</v>
+        <v>-22.61</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44180</v>
+        <v>44301</v>
       </c>
       <c r="B320">
-        <v>102.96</v>
+        <v>92.23</v>
       </c>
       <c r="C320">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D320">
-        <v>-21.37</v>
+        <v>-23.35</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44181</v>
+        <v>44302</v>
       </c>
       <c r="B321">
-        <v>109</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="C321">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D321">
-        <v>-16.76</v>
+        <v>-24.49</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44182</v>
+        <v>44303</v>
       </c>
       <c r="B322">
-        <v>140.39</v>
+        <v>89.27</v>
       </c>
       <c r="C322">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D322">
-        <v>7.22</v>
+        <v>-25.81</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44183</v>
+        <v>44304</v>
       </c>
       <c r="B323">
-        <v>135.9</v>
+        <v>90.08</v>
       </c>
       <c r="C323">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D323">
-        <v>3.78</v>
+        <v>-25.13</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44184</v>
+        <v>44305</v>
       </c>
       <c r="B324">
-        <v>130.94</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="C324">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D324">
-        <v>-0.01</v>
+        <v>-23.6</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44185</v>
+        <v>44306</v>
       </c>
       <c r="B325">
-        <v>121.99</v>
+        <v>92.17</v>
       </c>
       <c r="C325">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D325">
-        <v>-6.84</v>
+        <v>-23.4</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44186</v>
+        <v>44307</v>
       </c>
       <c r="B326">
-        <v>119.38</v>
+        <v>91.34</v>
       </c>
       <c r="C326">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D326">
-        <v>-8.84</v>
+        <v>-24.08</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="B327">
-        <v>124.02</v>
+        <v>91.77</v>
       </c>
       <c r="C327">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D327">
-        <v>-5.29</v>
+        <v>-23.73</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="B328">
-        <v>120.15</v>
+        <v>93.52</v>
       </c>
       <c r="C328">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D328">
-        <v>-8.25</v>
+        <v>-22.27</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44189</v>
+        <v>44310</v>
       </c>
       <c r="B329">
-        <v>108.27</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="C329">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D329">
-        <v>-17.32</v>
+        <v>-23.69</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44190</v>
+        <v>44311</v>
       </c>
       <c r="B330">
-        <v>101.69</v>
+        <v>92.53</v>
       </c>
       <c r="C330">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D330">
-        <v>-22.34</v>
+        <v>-23.1</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44191</v>
+        <v>44312</v>
       </c>
       <c r="B331">
-        <v>97.48</v>
+        <v>91.08</v>
       </c>
       <c r="C331">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D331">
-        <v>-25.56</v>
+        <v>-24.3</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44192</v>
+        <v>44313</v>
       </c>
       <c r="B332">
-        <v>93.84</v>
+        <v>92.55</v>
       </c>
       <c r="C332">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D332">
-        <v>-28.33</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44193</v>
+        <v>44314</v>
       </c>
       <c r="B333">
-        <v>91.03</v>
+        <v>92.31</v>
       </c>
       <c r="C333">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D333">
-        <v>-30.48</v>
+        <v>-23.28</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44194</v>
+        <v>44315</v>
       </c>
       <c r="B334">
-        <v>96.97</v>
+        <v>92.47</v>
       </c>
       <c r="C334">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D334">
-        <v>-25.95</v>
+        <v>-23.15</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44195</v>
+        <v>44316</v>
       </c>
       <c r="B335">
-        <v>106.79</v>
+        <v>89.75</v>
       </c>
       <c r="C335">
-        <v>130.94</v>
+        <v>120.32</v>
       </c>
       <c r="D335">
-        <v>-18.45</v>
+        <v>-25.41</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44196</v>
+        <v>44317</v>
       </c>
       <c r="B336">
-        <v>121.08</v>
+        <v>89.86</v>
       </c>
       <c r="C336">
-        <v>130.94</v>
+        <v>130.37</v>
       </c>
       <c r="D336">
-        <v>-7.53</v>
+        <v>-31.07</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44197</v>
+        <v>44318</v>
       </c>
       <c r="B337">
-        <v>134.69</v>
+        <v>88.26000000000001</v>
       </c>
       <c r="C337">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D337">
-        <v>-10.91</v>
+        <v>-32.3</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44198</v>
+        <v>44319</v>
       </c>
       <c r="B338">
-        <v>129.94</v>
+        <v>87.84</v>
       </c>
       <c r="C338">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D338">
-        <v>-14.05</v>
+        <v>-32.62</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44199</v>
+        <v>44320</v>
       </c>
       <c r="B339">
-        <v>119.85</v>
+        <v>87.59</v>
       </c>
       <c r="C339">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D339">
-        <v>-20.72</v>
+        <v>-32.81</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44200</v>
+        <v>44321</v>
       </c>
       <c r="B340">
-        <v>110.24</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="C340">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D340">
-        <v>-27.08</v>
+        <v>-33.13</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44201</v>
+        <v>44322</v>
       </c>
       <c r="B341">
-        <v>102.82</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="C341">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D341">
-        <v>-31.99</v>
+        <v>-32.94</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44202</v>
+        <v>44323</v>
       </c>
       <c r="B342">
-        <v>107.44</v>
+        <v>100.99</v>
       </c>
       <c r="C342">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D342">
-        <v>-28.94</v>
+        <v>-22.54</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44203</v>
+        <v>44324</v>
       </c>
       <c r="B343">
-        <v>123.42</v>
+        <v>109.8</v>
       </c>
       <c r="C343">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D343">
-        <v>-18.37</v>
+        <v>-15.78</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44204</v>
+        <v>44325</v>
       </c>
       <c r="B344">
-        <v>140.35</v>
+        <v>114.43</v>
       </c>
       <c r="C344">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D344">
-        <v>-7.16</v>
+        <v>-12.23</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44205</v>
+        <v>44326</v>
       </c>
       <c r="B345">
-        <v>145.59</v>
+        <v>106.06</v>
       </c>
       <c r="C345">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D345">
-        <v>-3.7</v>
+        <v>-18.64</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44206</v>
+        <v>44327</v>
       </c>
       <c r="B346">
-        <v>119.53</v>
+        <v>99.61</v>
       </c>
       <c r="C346">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D346">
-        <v>-20.94</v>
+        <v>-23.59</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44207</v>
+        <v>44328</v>
       </c>
       <c r="B347">
-        <v>107.58</v>
+        <v>124.78</v>
       </c>
       <c r="C347">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D347">
-        <v>-28.84</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44208</v>
+        <v>44329</v>
       </c>
       <c r="B348">
-        <v>100.06</v>
+        <v>151.28</v>
       </c>
       <c r="C348">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D348">
-        <v>-33.81</v>
+        <v>16.04</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44209</v>
+        <v>44330</v>
       </c>
       <c r="B349">
-        <v>95.86</v>
+        <v>147.04</v>
       </c>
       <c r="C349">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D349">
-        <v>-36.59</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44210</v>
+        <v>44331</v>
       </c>
       <c r="B350">
-        <v>93.83</v>
+        <v>154.61</v>
       </c>
       <c r="C350">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D350">
-        <v>-37.93</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44211</v>
+        <v>44332</v>
       </c>
       <c r="B351">
-        <v>97.05</v>
+        <v>147.88</v>
       </c>
       <c r="C351">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D351">
-        <v>-35.81</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44212</v>
+        <v>44333</v>
       </c>
       <c r="B352">
-        <v>106.24</v>
+        <v>124.46</v>
       </c>
       <c r="C352">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D352">
-        <v>-29.73</v>
+        <v>-4.53</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44213</v>
+        <v>44334</v>
       </c>
       <c r="B353">
-        <v>112.76</v>
+        <v>111.9</v>
       </c>
       <c r="C353">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D353">
-        <v>-25.42</v>
+        <v>-14.17</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44214</v>
+        <v>44335</v>
       </c>
       <c r="B354">
-        <v>125.55</v>
+        <v>106.8</v>
       </c>
       <c r="C354">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D354">
-        <v>-16.96</v>
+        <v>-18.08</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44215</v>
+        <v>44336</v>
       </c>
       <c r="B355">
-        <v>209.12</v>
+        <v>105.1</v>
       </c>
       <c r="C355">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D355">
-        <v>38.32</v>
+        <v>-19.38</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44216</v>
+        <v>44337</v>
       </c>
       <c r="B356">
-        <v>188.79</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C356">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D356">
-        <v>24.88</v>
+        <v>-24.14</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44217</v>
+        <v>44338</v>
       </c>
       <c r="B357">
-        <v>211.18</v>
+        <v>99.12</v>
       </c>
       <c r="C357">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D357">
-        <v>39.68</v>
+        <v>-23.97</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44218</v>
+        <v>44339</v>
       </c>
       <c r="B358">
-        <v>234</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="C358">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D358">
-        <v>54.78</v>
+        <v>-23.86</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44219</v>
+        <v>44340</v>
       </c>
       <c r="B359">
-        <v>223.3</v>
+        <v>99.97</v>
       </c>
       <c r="C359">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D359">
-        <v>47.7</v>
+        <v>-23.32</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44220</v>
+        <v>44341</v>
       </c>
       <c r="B360">
-        <v>199.89</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="C360">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D360">
-        <v>32.21</v>
+        <v>-23.57</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44221</v>
+        <v>44342</v>
       </c>
       <c r="B361">
-        <v>179.44</v>
+        <v>98.12</v>
       </c>
       <c r="C361">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D361">
-        <v>18.69</v>
+        <v>-24.73</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44222</v>
+        <v>44343</v>
       </c>
       <c r="B362">
-        <v>159.35</v>
+        <v>96.27</v>
       </c>
       <c r="C362">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D362">
-        <v>5.4</v>
+        <v>-26.16</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44223</v>
+        <v>44344</v>
       </c>
       <c r="B363">
-        <v>138.53</v>
+        <v>94.47</v>
       </c>
       <c r="C363">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D363">
-        <v>-8.369999999999999</v>
+        <v>-27.54</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44224</v>
+        <v>44345</v>
       </c>
       <c r="B364">
-        <v>133.8</v>
+        <v>92.14</v>
       </c>
       <c r="C364">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D364">
-        <v>-11.5</v>
+        <v>-29.33</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44225</v>
+        <v>44346</v>
       </c>
       <c r="B365">
-        <v>137.35</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="C365">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D365">
-        <v>-9.15</v>
+        <v>-29.4</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44226</v>
+        <v>44347</v>
       </c>
       <c r="B366">
-        <v>146.69</v>
+        <v>94</v>
       </c>
       <c r="C366">
-        <v>151.18</v>
+        <v>130.37</v>
       </c>
       <c r="D366">
-        <v>-2.97</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="2">
-        <v>44227</v>
-      </c>
-      <c r="B367">
-        <v>153.76</v>
-      </c>
-      <c r="C367">
-        <v>151.18</v>
-      </c>
-      <c r="D367">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44228</v>
-      </c>
-      <c r="B368">
-        <v>162.32</v>
-      </c>
-      <c r="C368">
-        <v>151</v>
-      </c>
-      <c r="D368">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44229</v>
-      </c>
-      <c r="B369">
-        <v>168.65</v>
-      </c>
-      <c r="C369">
-        <v>151</v>
-      </c>
-      <c r="D369">
-        <v>11.69</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44230</v>
-      </c>
-      <c r="B370">
-        <v>165.26</v>
-      </c>
-      <c r="C370">
-        <v>151</v>
-      </c>
-      <c r="D370">
-        <v>9.44</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B371">
-        <v>159.06</v>
-      </c>
-      <c r="C371">
-        <v>151</v>
-      </c>
-      <c r="D371">
-        <v>5.34</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44232</v>
-      </c>
-      <c r="B372">
-        <v>204.11</v>
-      </c>
-      <c r="C372">
-        <v>151</v>
-      </c>
-      <c r="D372">
-        <v>35.18</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44233</v>
-      </c>
-      <c r="B373">
-        <v>189.71</v>
-      </c>
-      <c r="C373">
-        <v>151</v>
-      </c>
-      <c r="D373">
-        <v>25.63</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44234</v>
-      </c>
-      <c r="B374">
-        <v>186.23</v>
-      </c>
-      <c r="C374">
-        <v>151</v>
-      </c>
-      <c r="D374">
-        <v>23.33</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44235</v>
-      </c>
-      <c r="B375">
-        <v>177.1</v>
-      </c>
-      <c r="C375">
-        <v>151</v>
-      </c>
-      <c r="D375">
-        <v>17.29</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44236</v>
-      </c>
-      <c r="B376">
-        <v>156.66</v>
-      </c>
-      <c r="C376">
-        <v>151</v>
-      </c>
-      <c r="D376">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44237</v>
-      </c>
-      <c r="B377">
-        <v>129.65</v>
-      </c>
-      <c r="C377">
-        <v>151</v>
-      </c>
-      <c r="D377">
-        <v>-14.14</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44238</v>
-      </c>
-      <c r="B378">
-        <v>116.23</v>
-      </c>
-      <c r="C378">
-        <v>151</v>
-      </c>
-      <c r="D378">
-        <v>-23.03</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44239</v>
-      </c>
-      <c r="B379">
-        <v>110.67</v>
-      </c>
-      <c r="C379">
-        <v>151</v>
-      </c>
-      <c r="D379">
-        <v>-26.71</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44240</v>
-      </c>
-      <c r="B380">
-        <v>117.74</v>
-      </c>
-      <c r="C380">
-        <v>151</v>
-      </c>
-      <c r="D380">
-        <v>-22.03</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44241</v>
-      </c>
-      <c r="B381">
-        <v>112.28</v>
-      </c>
-      <c r="C381">
-        <v>151</v>
-      </c>
-      <c r="D381">
-        <v>-25.64</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B382">
-        <v>121.21</v>
-      </c>
-      <c r="C382">
-        <v>151</v>
-      </c>
-      <c r="D382">
-        <v>-19.73</v>
+        <v>-27.9</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/25594922_cachoeira.xlsx
@@ -417,170 +417,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B2">
-        <v>105.48</v>
+        <v>99.67</v>
       </c>
       <c r="C2">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D2">
-        <v>-32.98</v>
+        <v>-21.07</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B3">
-        <v>99.67</v>
+        <v>141.16</v>
       </c>
       <c r="C3">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D3">
-        <v>-21.07</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B4">
-        <v>141.16</v>
+        <v>84.23</v>
       </c>
       <c r="C4">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D4">
-        <v>23.68</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B5">
-        <v>84.23</v>
+        <v>84.25</v>
       </c>
       <c r="C5">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D5">
-        <v>-37.1</v>
+        <v>-44.48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B6">
-        <v>84.25</v>
+        <v>97.92</v>
       </c>
       <c r="C6">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D6">
-        <v>-44.48</v>
+        <v>-28.17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B7">
-        <v>97.92</v>
+        <v>118.6</v>
       </c>
       <c r="C7">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D7">
-        <v>-28.17</v>
+        <v>-9.43</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B8">
-        <v>118.6</v>
+        <v>141.55</v>
       </c>
       <c r="C8">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D8">
-        <v>-9.43</v>
+        <v>-6.37</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B9">
-        <v>141.55</v>
+        <v>130.69</v>
       </c>
       <c r="C9">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D9">
-        <v>-6.37</v>
+        <v>-13.45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B10">
-        <v>130.69</v>
+        <v>170.76</v>
       </c>
       <c r="C10">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D10">
-        <v>-13.45</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B11">
-        <v>170.76</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C11">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D11">
-        <v>20.35</v>
+        <v>-20.59</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B12">
-        <v>95.54000000000001</v>
+        <v>106.35</v>
       </c>
       <c r="C12">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D12">
-        <v>-20.59</v>
+        <v>-18.42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B13">
-        <v>106.35</v>
+        <v>116.03</v>
       </c>
       <c r="C13">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D13">
-        <v>-18.42</v>
+        <v>-26.28</v>
       </c>
     </row>
   </sheetData>
@@ -617,5112 +617,5112 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B2">
-        <v>92.45999999999999</v>
+        <v>124.12</v>
       </c>
       <c r="C2">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D2">
-        <v>-41.26</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B3">
-        <v>92.81999999999999</v>
+        <v>123.93</v>
       </c>
       <c r="C3">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D3">
-        <v>-41.03</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B4">
-        <v>92.62</v>
+        <v>117.51</v>
       </c>
       <c r="C4">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D4">
-        <v>-41.15</v>
+        <v>-6.95</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B5">
-        <v>92.27</v>
+        <v>108.65</v>
       </c>
       <c r="C5">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D5">
-        <v>-41.38</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B6">
-        <v>91.09999999999999</v>
+        <v>103.79</v>
       </c>
       <c r="C6">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D6">
-        <v>-42.12</v>
+        <v>-17.81</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B7">
-        <v>91.06999999999999</v>
+        <v>100.84</v>
       </c>
       <c r="C7">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D7">
-        <v>-42.14</v>
+        <v>-20.15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B8">
-        <v>92.73999999999999</v>
+        <v>98.69</v>
       </c>
       <c r="C8">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D8">
-        <v>-41.08</v>
+        <v>-21.85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B9">
-        <v>92.81</v>
+        <v>97.45</v>
       </c>
       <c r="C9">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D9">
-        <v>-41.04</v>
+        <v>-22.83</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B10">
-        <v>93.44</v>
+        <v>95.33</v>
       </c>
       <c r="C10">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D10">
-        <v>-40.63</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B11">
-        <v>122.5</v>
+        <v>95.02</v>
       </c>
       <c r="C11">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D11">
-        <v>-22.17</v>
+        <v>-24.76</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B12">
-        <v>155.84</v>
+        <v>96.92</v>
       </c>
       <c r="C12">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D12">
-        <v>-0.99</v>
+        <v>-23.26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B13">
-        <v>159.99</v>
+        <v>92.83</v>
       </c>
       <c r="C13">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D13">
-        <v>1.65</v>
+        <v>-26.49</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B14">
-        <v>161.1</v>
+        <v>92.44</v>
       </c>
       <c r="C14">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D14">
-        <v>2.36</v>
+        <v>-26.8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B15">
-        <v>134.36</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="C15">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D15">
-        <v>-14.63</v>
+        <v>-26.96</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B16">
-        <v>112.18</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="C16">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D16">
-        <v>-28.73</v>
+        <v>-26.08</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B17">
-        <v>104.49</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C17">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D17">
-        <v>-33.61</v>
+        <v>-26.04</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B18">
-        <v>100.47</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="C18">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D18">
-        <v>-36.17</v>
+        <v>-26.52</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B19">
-        <v>99.06</v>
+        <v>92.98</v>
       </c>
       <c r="C19">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D19">
-        <v>-37.06</v>
+        <v>-26.37</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B20">
-        <v>93.98999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C20">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D20">
-        <v>-40.28</v>
+        <v>-27.23</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B21">
-        <v>95.01000000000001</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C21">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D21">
-        <v>-39.64</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B22">
-        <v>93.84</v>
+        <v>92.34</v>
       </c>
       <c r="C22">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D22">
-        <v>-40.38</v>
+        <v>-26.88</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B23">
-        <v>93.31</v>
+        <v>92.19</v>
       </c>
       <c r="C23">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D23">
-        <v>-40.71</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B24">
-        <v>92.56</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="C24">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D24">
-        <v>-41.19</v>
+        <v>-27.09</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B25">
-        <v>92.73</v>
+        <v>91.92</v>
       </c>
       <c r="C25">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D25">
-        <v>-41.08</v>
+        <v>-27.21</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B26">
-        <v>92.29000000000001</v>
+        <v>91.86</v>
       </c>
       <c r="C26">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D26">
-        <v>-41.36</v>
+        <v>-27.26</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B27">
-        <v>95.54000000000001</v>
+        <v>91.77</v>
       </c>
       <c r="C27">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D27">
-        <v>-39.3</v>
+        <v>-27.33</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B28">
-        <v>103.75</v>
+        <v>91.2</v>
       </c>
       <c r="C28">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D28">
-        <v>-34.08</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B29">
-        <v>109.07</v>
+        <v>91</v>
       </c>
       <c r="C29">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D29">
-        <v>-30.7</v>
+        <v>-27.94</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B30">
-        <v>113.61</v>
+        <v>107.57</v>
       </c>
       <c r="C30">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D30">
-        <v>-27.82</v>
+        <v>-14.82</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B31">
-        <v>107.47</v>
+        <v>118.47</v>
       </c>
       <c r="C31">
-        <v>157.39</v>
+        <v>126.28</v>
       </c>
       <c r="D31">
-        <v>-31.72</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B32">
-        <v>124.12</v>
+        <v>133.49</v>
       </c>
       <c r="C32">
         <v>126.28</v>
       </c>
       <c r="D32">
-        <v>-1.71</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B33">
-        <v>123.93</v>
+        <v>118.64</v>
       </c>
       <c r="C33">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D33">
-        <v>-1.87</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B34">
-        <v>117.51</v>
+        <v>107.18</v>
       </c>
       <c r="C34">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D34">
-        <v>-6.95</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B35">
-        <v>108.65</v>
+        <v>102.56</v>
       </c>
       <c r="C35">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D35">
-        <v>-13.97</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>44017</v>
+        <v>44047</v>
       </c>
       <c r="B36">
-        <v>103.79</v>
+        <v>99.44</v>
       </c>
       <c r="C36">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D36">
-        <v>-17.81</v>
+        <v>-12.88</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>44018</v>
+        <v>44048</v>
       </c>
       <c r="B37">
-        <v>100.84</v>
+        <v>96.78</v>
       </c>
       <c r="C37">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D37">
-        <v>-20.15</v>
+        <v>-15.21</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>44019</v>
+        <v>44049</v>
       </c>
       <c r="B38">
-        <v>98.69</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="C38">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D38">
-        <v>-21.85</v>
+        <v>-16.12</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>44020</v>
+        <v>44050</v>
       </c>
       <c r="B39">
-        <v>97.45</v>
+        <v>93.34</v>
       </c>
       <c r="C39">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D39">
-        <v>-22.83</v>
+        <v>-18.22</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>44021</v>
+        <v>44051</v>
       </c>
       <c r="B40">
-        <v>95.33</v>
+        <v>92.55</v>
       </c>
       <c r="C40">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D40">
-        <v>-24.51</v>
+        <v>-18.91</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>44022</v>
+        <v>44052</v>
       </c>
       <c r="B41">
-        <v>95.02</v>
+        <v>91.56</v>
       </c>
       <c r="C41">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D41">
-        <v>-24.76</v>
+        <v>-19.78</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>44023</v>
+        <v>44053</v>
       </c>
       <c r="B42">
-        <v>96.92</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="C42">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D42">
-        <v>-23.26</v>
+        <v>-19.63</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>44024</v>
+        <v>44054</v>
       </c>
       <c r="B43">
-        <v>92.83</v>
+        <v>91.53</v>
       </c>
       <c r="C43">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D43">
-        <v>-26.49</v>
+        <v>-19.81</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>44025</v>
+        <v>44055</v>
       </c>
       <c r="B44">
-        <v>92.44</v>
+        <v>91.09</v>
       </c>
       <c r="C44">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D44">
-        <v>-26.8</v>
+        <v>-20.19</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>44026</v>
+        <v>44056</v>
       </c>
       <c r="B45">
-        <v>92.23999999999999</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="C45">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D45">
-        <v>-26.96</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>44027</v>
+        <v>44057</v>
       </c>
       <c r="B46">
-        <v>93.34999999999999</v>
+        <v>90.81</v>
       </c>
       <c r="C46">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D46">
-        <v>-26.08</v>
+        <v>-20.44</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>44028</v>
+        <v>44058</v>
       </c>
       <c r="B47">
-        <v>93.40000000000001</v>
+        <v>104.66</v>
       </c>
       <c r="C47">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D47">
-        <v>-26.04</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>44029</v>
+        <v>44059</v>
       </c>
       <c r="B48">
-        <v>92.79000000000001</v>
+        <v>156.16</v>
       </c>
       <c r="C48">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D48">
-        <v>-26.52</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>44030</v>
+        <v>44060</v>
       </c>
       <c r="B49">
-        <v>92.98</v>
+        <v>161.25</v>
       </c>
       <c r="C49">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D49">
-        <v>-26.37</v>
+        <v>41.27</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>44031</v>
+        <v>44061</v>
       </c>
       <c r="B50">
-        <v>91.90000000000001</v>
+        <v>184.96</v>
       </c>
       <c r="C50">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D50">
-        <v>-27.23</v>
+        <v>62.05</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>44032</v>
+        <v>44062</v>
       </c>
       <c r="B51">
-        <v>91.73999999999999</v>
+        <v>218.26</v>
       </c>
       <c r="C51">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D51">
-        <v>-27.36</v>
+        <v>91.22</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>44033</v>
+        <v>44063</v>
       </c>
       <c r="B52">
-        <v>92.34</v>
+        <v>243.69</v>
       </c>
       <c r="C52">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D52">
-        <v>-26.88</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>44034</v>
+        <v>44064</v>
       </c>
       <c r="B53">
-        <v>92.19</v>
+        <v>267.82</v>
       </c>
       <c r="C53">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D53">
-        <v>-27</v>
+        <v>134.64</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>44035</v>
+        <v>44065</v>
       </c>
       <c r="B54">
-        <v>92.06999999999999</v>
+        <v>265.49</v>
       </c>
       <c r="C54">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D54">
-        <v>-27.09</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>44036</v>
+        <v>44066</v>
       </c>
       <c r="B55">
-        <v>91.92</v>
+        <v>246.9</v>
       </c>
       <c r="C55">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D55">
-        <v>-27.21</v>
+        <v>116.31</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>44037</v>
+        <v>44067</v>
       </c>
       <c r="B56">
-        <v>91.86</v>
+        <v>225.24</v>
       </c>
       <c r="C56">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D56">
-        <v>-27.26</v>
+        <v>97.34</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>44038</v>
+        <v>44068</v>
       </c>
       <c r="B57">
-        <v>91.77</v>
+        <v>198.15</v>
       </c>
       <c r="C57">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D57">
-        <v>-27.33</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>44039</v>
+        <v>44069</v>
       </c>
       <c r="B58">
-        <v>91.2</v>
+        <v>159.3</v>
       </c>
       <c r="C58">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D58">
-        <v>-27.78</v>
+        <v>39.57</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>44040</v>
+        <v>44070</v>
       </c>
       <c r="B59">
-        <v>91</v>
+        <v>133.88</v>
       </c>
       <c r="C59">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D59">
-        <v>-27.94</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B60">
-        <v>107.57</v>
+        <v>123.39</v>
       </c>
       <c r="C60">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D60">
-        <v>-14.82</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B61">
-        <v>118.47</v>
+        <v>115.97</v>
       </c>
       <c r="C61">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D61">
-        <v>-6.19</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B62">
-        <v>133.49</v>
+        <v>110.2</v>
       </c>
       <c r="C62">
-        <v>126.28</v>
+        <v>114.14</v>
       </c>
       <c r="D62">
-        <v>5.71</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B63">
-        <v>118.64</v>
+        <v>107.03</v>
       </c>
       <c r="C63">
         <v>114.14</v>
       </c>
       <c r="D63">
-        <v>3.94</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B64">
-        <v>107.18</v>
+        <v>106.62</v>
       </c>
       <c r="C64">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D64">
-        <v>-6.1</v>
+        <v>-20.37</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B65">
-        <v>102.56</v>
+        <v>104.38</v>
       </c>
       <c r="C65">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D65">
-        <v>-10.14</v>
+        <v>-22.05</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>44047</v>
+        <v>44077</v>
       </c>
       <c r="B66">
-        <v>99.44</v>
+        <v>97.37</v>
       </c>
       <c r="C66">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D66">
-        <v>-12.88</v>
+        <v>-27.29</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>44048</v>
+        <v>44078</v>
       </c>
       <c r="B67">
-        <v>96.78</v>
+        <v>88.66</v>
       </c>
       <c r="C67">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D67">
-        <v>-15.21</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>44049</v>
+        <v>44079</v>
       </c>
       <c r="B68">
-        <v>95.73999999999999</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="C68">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D68">
-        <v>-16.12</v>
+        <v>-35.93</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>44050</v>
+        <v>44080</v>
       </c>
       <c r="B69">
-        <v>93.34</v>
+        <v>83.67</v>
       </c>
       <c r="C69">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D69">
-        <v>-18.22</v>
+        <v>-37.52</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>44051</v>
+        <v>44081</v>
       </c>
       <c r="B70">
-        <v>92.55</v>
+        <v>83.16</v>
       </c>
       <c r="C70">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D70">
-        <v>-18.91</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>44052</v>
+        <v>44082</v>
       </c>
       <c r="B71">
-        <v>91.56</v>
+        <v>82.08</v>
       </c>
       <c r="C71">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D71">
-        <v>-19.78</v>
+        <v>-38.7</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>44053</v>
+        <v>44083</v>
       </c>
       <c r="B72">
-        <v>91.73999999999999</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="C72">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D72">
-        <v>-19.63</v>
+        <v>-39.85</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>44054</v>
+        <v>44084</v>
       </c>
       <c r="B73">
-        <v>91.53</v>
+        <v>79.53</v>
       </c>
       <c r="C73">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D73">
-        <v>-19.81</v>
+        <v>-40.61</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>44055</v>
+        <v>44085</v>
       </c>
       <c r="B74">
-        <v>91.09</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="C74">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D74">
-        <v>-20.19</v>
+        <v>-40.45</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>44056</v>
+        <v>44086</v>
       </c>
       <c r="B75">
-        <v>90.73999999999999</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="C75">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D75">
-        <v>-20.5</v>
+        <v>-40.95</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>44057</v>
+        <v>44087</v>
       </c>
       <c r="B76">
-        <v>90.81</v>
+        <v>78.67</v>
       </c>
       <c r="C76">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D76">
-        <v>-20.44</v>
+        <v>-41.25</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>44058</v>
+        <v>44088</v>
       </c>
       <c r="B77">
-        <v>104.66</v>
+        <v>78.98</v>
       </c>
       <c r="C77">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D77">
-        <v>-8.31</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>44059</v>
+        <v>44089</v>
       </c>
       <c r="B78">
-        <v>156.16</v>
+        <v>78</v>
       </c>
       <c r="C78">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D78">
-        <v>36.82</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>44060</v>
+        <v>44090</v>
       </c>
       <c r="B79">
-        <v>161.25</v>
+        <v>77.23</v>
       </c>
       <c r="C79">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D79">
-        <v>41.27</v>
+        <v>-42.33</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>44061</v>
+        <v>44091</v>
       </c>
       <c r="B80">
-        <v>184.96</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="C80">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D80">
-        <v>62.05</v>
+        <v>-42.38</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>44062</v>
+        <v>44092</v>
       </c>
       <c r="B81">
-        <v>218.26</v>
+        <v>76.72</v>
       </c>
       <c r="C81">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D81">
-        <v>91.22</v>
+        <v>-42.71</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>44063</v>
+        <v>44093</v>
       </c>
       <c r="B82">
-        <v>243.69</v>
+        <v>76.58</v>
       </c>
       <c r="C82">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D82">
-        <v>113.5</v>
+        <v>-42.81</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>44064</v>
+        <v>44094</v>
       </c>
       <c r="B83">
-        <v>267.82</v>
+        <v>77.56</v>
       </c>
       <c r="C83">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D83">
-        <v>134.64</v>
+        <v>-42.08</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>44065</v>
+        <v>44095</v>
       </c>
       <c r="B84">
-        <v>265.49</v>
+        <v>78</v>
       </c>
       <c r="C84">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D84">
-        <v>132.6</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>44066</v>
+        <v>44096</v>
       </c>
       <c r="B85">
-        <v>246.9</v>
+        <v>78</v>
       </c>
       <c r="C85">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D85">
-        <v>116.31</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>44067</v>
+        <v>44097</v>
       </c>
       <c r="B86">
-        <v>225.24</v>
+        <v>78.5</v>
       </c>
       <c r="C86">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D86">
-        <v>97.34</v>
+        <v>-41.38</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>44068</v>
+        <v>44098</v>
       </c>
       <c r="B87">
-        <v>198.15</v>
+        <v>77.59</v>
       </c>
       <c r="C87">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D87">
-        <v>73.59999999999999</v>
+        <v>-42.05</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>44069</v>
+        <v>44099</v>
       </c>
       <c r="B88">
-        <v>159.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C88">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D88">
-        <v>39.57</v>
+        <v>-42.2</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>44070</v>
+        <v>44100</v>
       </c>
       <c r="B89">
-        <v>133.88</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="C89">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D89">
-        <v>17.29</v>
+        <v>-42.32</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B90">
-        <v>123.39</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C90">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D90">
-        <v>8.1</v>
+        <v>-42.76</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B91">
-        <v>115.97</v>
+        <v>95</v>
       </c>
       <c r="C91">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D91">
-        <v>1.6</v>
+        <v>-29.06</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B92">
-        <v>110.2</v>
+        <v>106</v>
       </c>
       <c r="C92">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D92">
-        <v>-3.45</v>
+        <v>-20.84</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B93">
-        <v>107.03</v>
+        <v>111.1</v>
       </c>
       <c r="C93">
-        <v>114.14</v>
+        <v>133.91</v>
       </c>
       <c r="D93">
-        <v>-6.23</v>
+        <v>-17.03</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B94">
-        <v>106.62</v>
+        <v>102.21</v>
       </c>
       <c r="C94">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D94">
-        <v>-20.37</v>
+        <v>-32.65</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>44076</v>
+        <v>44106</v>
       </c>
       <c r="B95">
-        <v>104.38</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C95">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D95">
-        <v>-22.05</v>
+        <v>-41.62</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>44077</v>
+        <v>44107</v>
       </c>
       <c r="B96">
-        <v>97.37</v>
+        <v>82.05</v>
       </c>
       <c r="C96">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D96">
-        <v>-27.29</v>
+        <v>-45.93</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>44078</v>
+        <v>44108</v>
       </c>
       <c r="B97">
-        <v>88.66</v>
+        <v>80.59</v>
       </c>
       <c r="C97">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D97">
-        <v>-33.79</v>
+        <v>-46.89</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>44079</v>
+        <v>44109</v>
       </c>
       <c r="B98">
-        <v>85.79000000000001</v>
+        <v>78.54000000000001</v>
       </c>
       <c r="C98">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D98">
-        <v>-35.93</v>
+        <v>-48.25</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>44080</v>
+        <v>44110</v>
       </c>
       <c r="B99">
-        <v>83.67</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="C99">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D99">
-        <v>-37.52</v>
+        <v>-49.09</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>44081</v>
+        <v>44111</v>
       </c>
       <c r="B100">
-        <v>83.16</v>
+        <v>75.73</v>
       </c>
       <c r="C100">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D100">
-        <v>-37.9</v>
+        <v>-50.1</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>44082</v>
+        <v>44112</v>
       </c>
       <c r="B101">
-        <v>82.08</v>
+        <v>82.2</v>
       </c>
       <c r="C101">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D101">
-        <v>-38.7</v>
+        <v>-45.84</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>44083</v>
+        <v>44113</v>
       </c>
       <c r="B102">
-        <v>80.54000000000001</v>
+        <v>98.48</v>
       </c>
       <c r="C102">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D102">
-        <v>-39.85</v>
+        <v>-35.11</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>44084</v>
+        <v>44114</v>
       </c>
       <c r="B103">
-        <v>79.53</v>
+        <v>114.48</v>
       </c>
       <c r="C103">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D103">
-        <v>-40.61</v>
+        <v>-24.57</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>44085</v>
+        <v>44115</v>
       </c>
       <c r="B104">
-        <v>79.73999999999999</v>
+        <v>117.85</v>
       </c>
       <c r="C104">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D104">
-        <v>-40.45</v>
+        <v>-22.34</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>44086</v>
+        <v>44116</v>
       </c>
       <c r="B105">
-        <v>79.06999999999999</v>
+        <v>104.99</v>
       </c>
       <c r="C105">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D105">
-        <v>-40.95</v>
+        <v>-30.82</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>44087</v>
+        <v>44117</v>
       </c>
       <c r="B106">
-        <v>78.67</v>
+        <v>91.83</v>
       </c>
       <c r="C106">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D106">
-        <v>-41.25</v>
+        <v>-39.49</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>44088</v>
+        <v>44118</v>
       </c>
       <c r="B107">
-        <v>78.98</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="C107">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D107">
-        <v>-41.02</v>
+        <v>-44.33</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>44089</v>
+        <v>44119</v>
       </c>
       <c r="B108">
-        <v>78</v>
+        <v>81.75</v>
       </c>
       <c r="C108">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D108">
-        <v>-41.75</v>
+        <v>-46.13</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>44090</v>
+        <v>44120</v>
       </c>
       <c r="B109">
-        <v>77.23</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="C109">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D109">
-        <v>-42.33</v>
+        <v>-45.01</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>44091</v>
+        <v>44121</v>
       </c>
       <c r="B110">
-        <v>77.15000000000001</v>
+        <v>80.34</v>
       </c>
       <c r="C110">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D110">
-        <v>-42.38</v>
+        <v>-47.06</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>44092</v>
+        <v>44122</v>
       </c>
       <c r="B111">
-        <v>76.72</v>
+        <v>77.88</v>
       </c>
       <c r="C111">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D111">
-        <v>-42.71</v>
+        <v>-48.69</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>44093</v>
+        <v>44123</v>
       </c>
       <c r="B112">
-        <v>76.58</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="C112">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D112">
-        <v>-42.81</v>
+        <v>-48.76</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>44094</v>
+        <v>44124</v>
       </c>
       <c r="B113">
-        <v>77.56</v>
+        <v>76.67</v>
       </c>
       <c r="C113">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D113">
-        <v>-42.08</v>
+        <v>-49.48</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>44095</v>
+        <v>44125</v>
       </c>
       <c r="B114">
-        <v>78</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="C114">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D114">
-        <v>-41.75</v>
+        <v>-49.69</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>44096</v>
+        <v>44126</v>
       </c>
       <c r="B115">
-        <v>78</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="C115">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D115">
-        <v>-41.75</v>
+        <v>-49.6</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>44097</v>
+        <v>44127</v>
       </c>
       <c r="B116">
-        <v>78.5</v>
+        <v>76.11</v>
       </c>
       <c r="C116">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D116">
-        <v>-41.38</v>
+        <v>-49.85</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>44098</v>
+        <v>44128</v>
       </c>
       <c r="B117">
-        <v>77.59</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C117">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D117">
-        <v>-42.05</v>
+        <v>-49.5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>44099</v>
+        <v>44129</v>
       </c>
       <c r="B118">
-        <v>77.40000000000001</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="C118">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D118">
-        <v>-42.2</v>
+        <v>-48.23</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>44100</v>
+        <v>44130</v>
       </c>
       <c r="B119">
-        <v>77.23999999999999</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="C119">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D119">
-        <v>-42.32</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>44101</v>
+        <v>44131</v>
       </c>
       <c r="B120">
-        <v>76.65000000000001</v>
+        <v>76.42</v>
       </c>
       <c r="C120">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D120">
-        <v>-42.76</v>
+        <v>-49.65</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>44102</v>
+        <v>44132</v>
       </c>
       <c r="B121">
-        <v>95</v>
+        <v>77.83</v>
       </c>
       <c r="C121">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D121">
-        <v>-29.06</v>
+        <v>-48.72</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>44103</v>
+        <v>44133</v>
       </c>
       <c r="B122">
-        <v>106</v>
+        <v>76.5</v>
       </c>
       <c r="C122">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D122">
-        <v>-20.84</v>
+        <v>-49.59</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B123">
-        <v>111.1</v>
+        <v>82.67</v>
       </c>
       <c r="C123">
-        <v>133.91</v>
+        <v>151.76</v>
       </c>
       <c r="D123">
-        <v>-17.03</v>
+        <v>-45.53</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B124">
-        <v>102.21</v>
+        <v>80.97</v>
       </c>
       <c r="C124">
         <v>151.76</v>
       </c>
       <c r="D124">
-        <v>-32.65</v>
+        <v>-46.65</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>44106</v>
+        <v>44136</v>
       </c>
       <c r="B125">
-        <v>88.59999999999999</v>
+        <v>92.72</v>
       </c>
       <c r="C125">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D125">
-        <v>-41.62</v>
+        <v>-31.99</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>44107</v>
+        <v>44137</v>
       </c>
       <c r="B126">
-        <v>82.05</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="C126">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D126">
-        <v>-45.93</v>
+        <v>-32.14</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>44108</v>
+        <v>44138</v>
       </c>
       <c r="B127">
-        <v>80.59</v>
+        <v>90.27</v>
       </c>
       <c r="C127">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D127">
-        <v>-46.89</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>44109</v>
+        <v>44139</v>
       </c>
       <c r="B128">
-        <v>78.54000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C128">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D128">
-        <v>-48.25</v>
+        <v>-31.93</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>44110</v>
+        <v>44140</v>
       </c>
       <c r="B129">
-        <v>77.26000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="C129">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D129">
-        <v>-49.09</v>
+        <v>-36.88</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>44111</v>
+        <v>44141</v>
       </c>
       <c r="B130">
-        <v>75.73</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C130">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D130">
-        <v>-50.1</v>
+        <v>-37.36</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>44112</v>
+        <v>44142</v>
       </c>
       <c r="B131">
-        <v>82.2</v>
+        <v>83.97</v>
       </c>
       <c r="C131">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D131">
-        <v>-45.84</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>44113</v>
+        <v>44143</v>
       </c>
       <c r="B132">
-        <v>98.48</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="C132">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D132">
-        <v>-35.11</v>
+        <v>-40.53</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>44114</v>
+        <v>44144</v>
       </c>
       <c r="B133">
-        <v>114.48</v>
+        <v>78.53</v>
       </c>
       <c r="C133">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D133">
-        <v>-24.57</v>
+        <v>-42.4</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>44115</v>
+        <v>44145</v>
       </c>
       <c r="B134">
-        <v>117.85</v>
+        <v>78.11</v>
       </c>
       <c r="C134">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D134">
-        <v>-22.34</v>
+        <v>-42.7</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>44116</v>
+        <v>44146</v>
       </c>
       <c r="B135">
-        <v>104.99</v>
+        <v>94.12</v>
       </c>
       <c r="C135">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D135">
-        <v>-30.82</v>
+        <v>-30.96</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>44117</v>
+        <v>44147</v>
       </c>
       <c r="B136">
-        <v>91.83</v>
+        <v>104.58</v>
       </c>
       <c r="C136">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D136">
-        <v>-39.49</v>
+        <v>-23.29</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>44118</v>
+        <v>44148</v>
       </c>
       <c r="B137">
-        <v>84.48999999999999</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="C137">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D137">
-        <v>-44.33</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>44119</v>
+        <v>44149</v>
       </c>
       <c r="B138">
-        <v>81.75</v>
+        <v>89.53</v>
       </c>
       <c r="C138">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D138">
-        <v>-46.13</v>
+        <v>-34.33</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>44120</v>
+        <v>44150</v>
       </c>
       <c r="B139">
-        <v>83.45999999999999</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="C139">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D139">
-        <v>-45.01</v>
+        <v>-36.74</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>44121</v>
+        <v>44151</v>
       </c>
       <c r="B140">
-        <v>80.34</v>
+        <v>92.23</v>
       </c>
       <c r="C140">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D140">
-        <v>-47.06</v>
+        <v>-32.35</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>44122</v>
+        <v>44152</v>
       </c>
       <c r="B141">
-        <v>77.88</v>
+        <v>107.59</v>
       </c>
       <c r="C141">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D141">
-        <v>-48.69</v>
+        <v>-21.08</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>44123</v>
+        <v>44153</v>
       </c>
       <c r="B142">
-        <v>77.76000000000001</v>
+        <v>121.44</v>
       </c>
       <c r="C142">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D142">
-        <v>-48.76</v>
+        <v>-10.93</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>44124</v>
+        <v>44154</v>
       </c>
       <c r="B143">
-        <v>76.67</v>
+        <v>125.58</v>
       </c>
       <c r="C143">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D143">
-        <v>-49.48</v>
+        <v>-7.89</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>44125</v>
+        <v>44155</v>
       </c>
       <c r="B144">
-        <v>76.34999999999999</v>
+        <v>123.19</v>
       </c>
       <c r="C144">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D144">
-        <v>-49.69</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>44126</v>
+        <v>44156</v>
       </c>
       <c r="B145">
-        <v>76.48999999999999</v>
+        <v>129.56</v>
       </c>
       <c r="C145">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D145">
-        <v>-49.6</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>44127</v>
+        <v>44157</v>
       </c>
       <c r="B146">
-        <v>76.11</v>
+        <v>124.57</v>
       </c>
       <c r="C146">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D146">
-        <v>-49.85</v>
+        <v>-8.630000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>44128</v>
+        <v>44158</v>
       </c>
       <c r="B147">
-        <v>76.65000000000001</v>
+        <v>107.69</v>
       </c>
       <c r="C147">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D147">
-        <v>-49.5</v>
+        <v>-21.01</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>44129</v>
+        <v>44159</v>
       </c>
       <c r="B148">
-        <v>78.56999999999999</v>
+        <v>97.08</v>
       </c>
       <c r="C148">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D148">
-        <v>-48.23</v>
+        <v>-28.8</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>44130</v>
+        <v>44160</v>
       </c>
       <c r="B149">
-        <v>76.15000000000001</v>
+        <v>88.39</v>
       </c>
       <c r="C149">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D149">
-        <v>-49.82</v>
+        <v>-35.17</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>44131</v>
+        <v>44161</v>
       </c>
       <c r="B150">
-        <v>76.42</v>
+        <v>83.77</v>
       </c>
       <c r="C150">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D150">
-        <v>-49.65</v>
+        <v>-38.55</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>44132</v>
+        <v>44162</v>
       </c>
       <c r="B151">
-        <v>77.83</v>
+        <v>119.47</v>
       </c>
       <c r="C151">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D151">
-        <v>-48.72</v>
+        <v>-12.37</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>44133</v>
+        <v>44163</v>
       </c>
       <c r="B152">
-        <v>76.5</v>
+        <v>89</v>
       </c>
       <c r="C152">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D152">
-        <v>-49.59</v>
+        <v>-34.72</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>44134</v>
+        <v>44164</v>
       </c>
       <c r="B153">
-        <v>82.67</v>
+        <v>101.71</v>
       </c>
       <c r="C153">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D153">
-        <v>-45.53</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B154">
-        <v>80.97</v>
+        <v>98.62</v>
       </c>
       <c r="C154">
-        <v>151.76</v>
+        <v>136.33</v>
       </c>
       <c r="D154">
-        <v>-46.65</v>
+        <v>-27.66</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B155">
-        <v>92.72</v>
+        <v>86.64</v>
       </c>
       <c r="C155">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D155">
-        <v>-31.99</v>
+        <v>-33.84</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>44137</v>
+        <v>44167</v>
       </c>
       <c r="B156">
-        <v>92.51000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="C156">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D156">
-        <v>-32.14</v>
+        <v>-37.76</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>44138</v>
+        <v>44168</v>
       </c>
       <c r="B157">
-        <v>90.27</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="C157">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D157">
-        <v>-33.79</v>
+        <v>-36.22</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>44139</v>
+        <v>44169</v>
       </c>
       <c r="B158">
-        <v>92.8</v>
+        <v>86.27</v>
       </c>
       <c r="C158">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D158">
-        <v>-31.93</v>
+        <v>-34.12</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>44140</v>
+        <v>44170</v>
       </c>
       <c r="B159">
-        <v>86.05</v>
+        <v>108.23</v>
       </c>
       <c r="C159">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D159">
-        <v>-36.88</v>
+        <v>-17.35</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>44141</v>
+        <v>44171</v>
       </c>
       <c r="B160">
-        <v>85.40000000000001</v>
+        <v>152.56</v>
       </c>
       <c r="C160">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D160">
-        <v>-37.36</v>
+        <v>16.51</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>44142</v>
+        <v>44172</v>
       </c>
       <c r="B161">
-        <v>83.97</v>
+        <v>164.1</v>
       </c>
       <c r="C161">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D161">
-        <v>-38.41</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>44143</v>
+        <v>44173</v>
       </c>
       <c r="B162">
-        <v>81.06999999999999</v>
+        <v>160.38</v>
       </c>
       <c r="C162">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D162">
-        <v>-40.53</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>44144</v>
+        <v>44174</v>
       </c>
       <c r="B163">
-        <v>78.53</v>
+        <v>163.54</v>
       </c>
       <c r="C163">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D163">
-        <v>-42.4</v>
+        <v>24.89</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>44145</v>
+        <v>44175</v>
       </c>
       <c r="B164">
-        <v>78.11</v>
+        <v>165.96</v>
       </c>
       <c r="C164">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D164">
-        <v>-42.7</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>44146</v>
+        <v>44176</v>
       </c>
       <c r="B165">
-        <v>94.12</v>
+        <v>156.48</v>
       </c>
       <c r="C165">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D165">
-        <v>-30.96</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>44147</v>
+        <v>44177</v>
       </c>
       <c r="B166">
-        <v>104.58</v>
+        <v>127.35</v>
       </c>
       <c r="C166">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D166">
-        <v>-23.29</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>44148</v>
+        <v>44178</v>
       </c>
       <c r="B167">
-        <v>91.93000000000001</v>
+        <v>117.8</v>
       </c>
       <c r="C167">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D167">
-        <v>-32.57</v>
+        <v>-10.04</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>44149</v>
+        <v>44179</v>
       </c>
       <c r="B168">
-        <v>89.53</v>
+        <v>100.39</v>
       </c>
       <c r="C168">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D168">
-        <v>-34.33</v>
+        <v>-23.34</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>44150</v>
+        <v>44180</v>
       </c>
       <c r="B169">
-        <v>86.23999999999999</v>
+        <v>102.96</v>
       </c>
       <c r="C169">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D169">
-        <v>-36.74</v>
+        <v>-21.37</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>44151</v>
+        <v>44181</v>
       </c>
       <c r="B170">
-        <v>92.23</v>
+        <v>109</v>
       </c>
       <c r="C170">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D170">
-        <v>-32.35</v>
+        <v>-16.76</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44152</v>
+        <v>44182</v>
       </c>
       <c r="B171">
-        <v>107.59</v>
+        <v>140.39</v>
       </c>
       <c r="C171">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D171">
-        <v>-21.08</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44153</v>
+        <v>44183</v>
       </c>
       <c r="B172">
-        <v>121.44</v>
+        <v>135.9</v>
       </c>
       <c r="C172">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D172">
-        <v>-10.93</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44154</v>
+        <v>44184</v>
       </c>
       <c r="B173">
-        <v>125.58</v>
+        <v>130.94</v>
       </c>
       <c r="C173">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D173">
-        <v>-7.89</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44155</v>
+        <v>44185</v>
       </c>
       <c r="B174">
-        <v>123.19</v>
+        <v>121.99</v>
       </c>
       <c r="C174">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D174">
-        <v>-9.640000000000001</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44156</v>
+        <v>44186</v>
       </c>
       <c r="B175">
-        <v>129.56</v>
+        <v>119.38</v>
       </c>
       <c r="C175">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D175">
-        <v>-4.97</v>
+        <v>-8.84</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44157</v>
+        <v>44187</v>
       </c>
       <c r="B176">
-        <v>124.57</v>
+        <v>124.02</v>
       </c>
       <c r="C176">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D176">
-        <v>-8.630000000000001</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44158</v>
+        <v>44188</v>
       </c>
       <c r="B177">
-        <v>107.69</v>
+        <v>120.15</v>
       </c>
       <c r="C177">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D177">
-        <v>-21.01</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44159</v>
+        <v>44189</v>
       </c>
       <c r="B178">
-        <v>97.08</v>
+        <v>108.27</v>
       </c>
       <c r="C178">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D178">
-        <v>-28.8</v>
+        <v>-17.32</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44160</v>
+        <v>44190</v>
       </c>
       <c r="B179">
-        <v>88.39</v>
+        <v>101.69</v>
       </c>
       <c r="C179">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D179">
-        <v>-35.17</v>
+        <v>-22.34</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44161</v>
+        <v>44191</v>
       </c>
       <c r="B180">
-        <v>83.77</v>
+        <v>97.48</v>
       </c>
       <c r="C180">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D180">
-        <v>-38.55</v>
+        <v>-25.56</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44162</v>
+        <v>44192</v>
       </c>
       <c r="B181">
-        <v>119.47</v>
+        <v>93.84</v>
       </c>
       <c r="C181">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D181">
-        <v>-12.37</v>
+        <v>-28.33</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44163</v>
+        <v>44193</v>
       </c>
       <c r="B182">
-        <v>89</v>
+        <v>91.03</v>
       </c>
       <c r="C182">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D182">
-        <v>-34.72</v>
+        <v>-30.48</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44164</v>
+        <v>44194</v>
       </c>
       <c r="B183">
-        <v>101.71</v>
+        <v>96.97</v>
       </c>
       <c r="C183">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D183">
-        <v>-25.4</v>
+        <v>-25.95</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44165</v>
+        <v>44195</v>
       </c>
       <c r="B184">
-        <v>98.62</v>
+        <v>106.79</v>
       </c>
       <c r="C184">
-        <v>136.33</v>
+        <v>130.94</v>
       </c>
       <c r="D184">
-        <v>-27.66</v>
+        <v>-18.45</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="B185">
-        <v>86.64</v>
+        <v>121.08</v>
       </c>
       <c r="C185">
         <v>130.94</v>
       </c>
       <c r="D185">
-        <v>-33.84</v>
+        <v>-7.53</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44167</v>
+        <v>44197</v>
       </c>
       <c r="B186">
-        <v>81.5</v>
+        <v>134.69</v>
       </c>
       <c r="C186">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D186">
-        <v>-37.76</v>
+        <v>-10.91</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44168</v>
+        <v>44198</v>
       </c>
       <c r="B187">
-        <v>83.51000000000001</v>
+        <v>129.94</v>
       </c>
       <c r="C187">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D187">
-        <v>-36.22</v>
+        <v>-14.05</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44169</v>
+        <v>44199</v>
       </c>
       <c r="B188">
-        <v>86.27</v>
+        <v>119.85</v>
       </c>
       <c r="C188">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D188">
-        <v>-34.12</v>
+        <v>-20.72</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44170</v>
+        <v>44200</v>
       </c>
       <c r="B189">
-        <v>108.23</v>
+        <v>110.24</v>
       </c>
       <c r="C189">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D189">
-        <v>-17.35</v>
+        <v>-27.08</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44171</v>
+        <v>44201</v>
       </c>
       <c r="B190">
-        <v>152.56</v>
+        <v>102.82</v>
       </c>
       <c r="C190">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D190">
-        <v>16.51</v>
+        <v>-31.99</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44172</v>
+        <v>44202</v>
       </c>
       <c r="B191">
-        <v>164.1</v>
+        <v>107.44</v>
       </c>
       <c r="C191">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D191">
-        <v>25.32</v>
+        <v>-28.94</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44173</v>
+        <v>44203</v>
       </c>
       <c r="B192">
-        <v>160.38</v>
+        <v>123.42</v>
       </c>
       <c r="C192">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D192">
-        <v>22.48</v>
+        <v>-18.37</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44174</v>
+        <v>44204</v>
       </c>
       <c r="B193">
-        <v>163.54</v>
+        <v>140.35</v>
       </c>
       <c r="C193">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D193">
-        <v>24.89</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44175</v>
+        <v>44205</v>
       </c>
       <c r="B194">
-        <v>165.96</v>
+        <v>145.59</v>
       </c>
       <c r="C194">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D194">
-        <v>26.74</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44176</v>
+        <v>44206</v>
       </c>
       <c r="B195">
-        <v>156.48</v>
+        <v>119.53</v>
       </c>
       <c r="C195">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D195">
-        <v>19.5</v>
+        <v>-20.94</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44177</v>
+        <v>44207</v>
       </c>
       <c r="B196">
-        <v>127.35</v>
+        <v>107.58</v>
       </c>
       <c r="C196">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D196">
-        <v>-2.74</v>
+        <v>-28.84</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44178</v>
+        <v>44208</v>
       </c>
       <c r="B197">
-        <v>117.8</v>
+        <v>100.06</v>
       </c>
       <c r="C197">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D197">
-        <v>-10.04</v>
+        <v>-33.81</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44179</v>
+        <v>44209</v>
       </c>
       <c r="B198">
-        <v>100.39</v>
+        <v>95.86</v>
       </c>
       <c r="C198">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D198">
-        <v>-23.34</v>
+        <v>-36.59</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44180</v>
+        <v>44210</v>
       </c>
       <c r="B199">
-        <v>102.96</v>
+        <v>93.83</v>
       </c>
       <c r="C199">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D199">
-        <v>-21.37</v>
+        <v>-37.93</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44181</v>
+        <v>44211</v>
       </c>
       <c r="B200">
-        <v>109</v>
+        <v>97.05</v>
       </c>
       <c r="C200">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D200">
-        <v>-16.76</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44182</v>
+        <v>44212</v>
       </c>
       <c r="B201">
-        <v>140.39</v>
+        <v>106.24</v>
       </c>
       <c r="C201">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D201">
-        <v>7.22</v>
+        <v>-29.73</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44183</v>
+        <v>44213</v>
       </c>
       <c r="B202">
-        <v>135.9</v>
+        <v>112.76</v>
       </c>
       <c r="C202">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D202">
-        <v>3.78</v>
+        <v>-25.42</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44184</v>
+        <v>44214</v>
       </c>
       <c r="B203">
-        <v>130.94</v>
+        <v>125.55</v>
       </c>
       <c r="C203">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D203">
-        <v>-0.01</v>
+        <v>-16.96</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44185</v>
+        <v>44215</v>
       </c>
       <c r="B204">
-        <v>121.99</v>
+        <v>209.12</v>
       </c>
       <c r="C204">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D204">
-        <v>-6.84</v>
+        <v>38.32</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44186</v>
+        <v>44216</v>
       </c>
       <c r="B205">
-        <v>119.38</v>
+        <v>188.79</v>
       </c>
       <c r="C205">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D205">
-        <v>-8.84</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44187</v>
+        <v>44217</v>
       </c>
       <c r="B206">
-        <v>124.02</v>
+        <v>211.18</v>
       </c>
       <c r="C206">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D206">
-        <v>-5.29</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44218</v>
       </c>
       <c r="B207">
-        <v>120.15</v>
+        <v>234</v>
       </c>
       <c r="C207">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D207">
-        <v>-8.25</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44189</v>
+        <v>44219</v>
       </c>
       <c r="B208">
-        <v>108.27</v>
+        <v>223.3</v>
       </c>
       <c r="C208">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D208">
-        <v>-17.32</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44190</v>
+        <v>44220</v>
       </c>
       <c r="B209">
-        <v>101.69</v>
+        <v>199.89</v>
       </c>
       <c r="C209">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D209">
-        <v>-22.34</v>
+        <v>32.21</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44191</v>
+        <v>44221</v>
       </c>
       <c r="B210">
-        <v>97.48</v>
+        <v>179.44</v>
       </c>
       <c r="C210">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D210">
-        <v>-25.56</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44192</v>
+        <v>44222</v>
       </c>
       <c r="B211">
-        <v>93.84</v>
+        <v>159.35</v>
       </c>
       <c r="C211">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D211">
-        <v>-28.33</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44193</v>
+        <v>44223</v>
       </c>
       <c r="B212">
-        <v>91.03</v>
+        <v>138.53</v>
       </c>
       <c r="C212">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D212">
-        <v>-30.48</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="B213">
-        <v>96.97</v>
+        <v>133.8</v>
       </c>
       <c r="C213">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D213">
-        <v>-25.95</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44195</v>
+        <v>44225</v>
       </c>
       <c r="B214">
-        <v>106.79</v>
+        <v>137.35</v>
       </c>
       <c r="C214">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D214">
-        <v>-18.45</v>
+        <v>-9.15</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44196</v>
+        <v>44226</v>
       </c>
       <c r="B215">
-        <v>121.08</v>
+        <v>146.69</v>
       </c>
       <c r="C215">
-        <v>130.94</v>
+        <v>151.18</v>
       </c>
       <c r="D215">
-        <v>-7.53</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B216">
-        <v>134.69</v>
+        <v>153.76</v>
       </c>
       <c r="C216">
         <v>151.18</v>
       </c>
       <c r="D216">
-        <v>-10.91</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44198</v>
+        <v>44228</v>
       </c>
       <c r="B217">
-        <v>129.94</v>
+        <v>162.32</v>
       </c>
       <c r="C217">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D217">
-        <v>-14.05</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44199</v>
+        <v>44229</v>
       </c>
       <c r="B218">
-        <v>119.85</v>
+        <v>168.65</v>
       </c>
       <c r="C218">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D218">
-        <v>-20.72</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44200</v>
+        <v>44230</v>
       </c>
       <c r="B219">
-        <v>110.24</v>
+        <v>165.26</v>
       </c>
       <c r="C219">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D219">
-        <v>-27.08</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44201</v>
+        <v>44231</v>
       </c>
       <c r="B220">
-        <v>102.82</v>
+        <v>159.06</v>
       </c>
       <c r="C220">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D220">
-        <v>-31.99</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44202</v>
+        <v>44232</v>
       </c>
       <c r="B221">
-        <v>107.44</v>
+        <v>204.11</v>
       </c>
       <c r="C221">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D221">
-        <v>-28.94</v>
+        <v>35.18</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44203</v>
+        <v>44233</v>
       </c>
       <c r="B222">
-        <v>123.42</v>
+        <v>189.71</v>
       </c>
       <c r="C222">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D222">
-        <v>-18.37</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44204</v>
+        <v>44234</v>
       </c>
       <c r="B223">
-        <v>140.35</v>
+        <v>186.23</v>
       </c>
       <c r="C223">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D223">
-        <v>-7.16</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44205</v>
+        <v>44235</v>
       </c>
       <c r="B224">
-        <v>145.59</v>
+        <v>177.1</v>
       </c>
       <c r="C224">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D224">
-        <v>-3.7</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44206</v>
+        <v>44236</v>
       </c>
       <c r="B225">
-        <v>119.53</v>
+        <v>156.66</v>
       </c>
       <c r="C225">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D225">
-        <v>-20.94</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44207</v>
+        <v>44237</v>
       </c>
       <c r="B226">
-        <v>107.58</v>
+        <v>129.65</v>
       </c>
       <c r="C226">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D226">
-        <v>-28.84</v>
+        <v>-14.14</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44208</v>
+        <v>44238</v>
       </c>
       <c r="B227">
-        <v>100.06</v>
+        <v>116.23</v>
       </c>
       <c r="C227">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D227">
-        <v>-33.81</v>
+        <v>-23.03</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44209</v>
+        <v>44239</v>
       </c>
       <c r="B228">
-        <v>95.86</v>
+        <v>110.67</v>
       </c>
       <c r="C228">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D228">
-        <v>-36.59</v>
+        <v>-26.71</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44210</v>
+        <v>44240</v>
       </c>
       <c r="B229">
-        <v>93.83</v>
+        <v>117.74</v>
       </c>
       <c r="C229">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D229">
-        <v>-37.93</v>
+        <v>-22.03</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44211</v>
+        <v>44241</v>
       </c>
       <c r="B230">
-        <v>97.05</v>
+        <v>112.28</v>
       </c>
       <c r="C230">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D230">
-        <v>-35.81</v>
+        <v>-25.64</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44212</v>
+        <v>44242</v>
       </c>
       <c r="B231">
-        <v>106.24</v>
+        <v>121.21</v>
       </c>
       <c r="C231">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D231">
-        <v>-29.73</v>
+        <v>-19.73</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44213</v>
+        <v>44243</v>
       </c>
       <c r="B232">
-        <v>112.76</v>
+        <v>130.11</v>
       </c>
       <c r="C232">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D232">
-        <v>-25.42</v>
+        <v>-13.83</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44214</v>
+        <v>44244</v>
       </c>
       <c r="B233">
-        <v>125.55</v>
+        <v>123.78</v>
       </c>
       <c r="C233">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D233">
-        <v>-16.96</v>
+        <v>-18.03</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44215</v>
+        <v>44245</v>
       </c>
       <c r="B234">
-        <v>209.12</v>
+        <v>114.62</v>
       </c>
       <c r="C234">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D234">
-        <v>38.32</v>
+        <v>-24.09</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44216</v>
+        <v>44246</v>
       </c>
       <c r="B235">
-        <v>188.79</v>
+        <v>109.19</v>
       </c>
       <c r="C235">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D235">
-        <v>24.88</v>
+        <v>-27.69</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44217</v>
+        <v>44247</v>
       </c>
       <c r="B236">
-        <v>211.18</v>
+        <v>100.95</v>
       </c>
       <c r="C236">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D236">
-        <v>39.68</v>
+        <v>-33.15</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44218</v>
+        <v>44248</v>
       </c>
       <c r="B237">
-        <v>234</v>
+        <v>95.92</v>
       </c>
       <c r="C237">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D237">
-        <v>54.78</v>
+        <v>-36.48</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44219</v>
+        <v>44249</v>
       </c>
       <c r="B238">
-        <v>223.3</v>
+        <v>92.76000000000001</v>
       </c>
       <c r="C238">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D238">
-        <v>47.7</v>
+        <v>-38.57</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44220</v>
+        <v>44250</v>
       </c>
       <c r="B239">
-        <v>199.89</v>
+        <v>88.16</v>
       </c>
       <c r="C239">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D239">
-        <v>32.21</v>
+        <v>-41.62</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44221</v>
+        <v>44251</v>
       </c>
       <c r="B240">
-        <v>179.44</v>
+        <v>91.52</v>
       </c>
       <c r="C240">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D240">
-        <v>18.69</v>
+        <v>-39.39</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="B241">
-        <v>159.35</v>
+        <v>93.42</v>
       </c>
       <c r="C241">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D241">
-        <v>5.4</v>
+        <v>-38.13</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44223</v>
+        <v>44253</v>
       </c>
       <c r="B242">
-        <v>138.53</v>
+        <v>92.38</v>
       </c>
       <c r="C242">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D242">
-        <v>-8.369999999999999</v>
+        <v>-38.82</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44224</v>
+        <v>44254</v>
       </c>
       <c r="B243">
-        <v>133.8</v>
+        <v>104.64</v>
       </c>
       <c r="C243">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D243">
-        <v>-11.5</v>
+        <v>-30.71</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44225</v>
+        <v>44255</v>
       </c>
       <c r="B244">
-        <v>137.35</v>
+        <v>144.99</v>
       </c>
       <c r="C244">
-        <v>151.18</v>
+        <v>151</v>
       </c>
       <c r="D244">
-        <v>-9.15</v>
+        <v>-3.98</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44226</v>
+        <v>44256</v>
       </c>
       <c r="B245">
-        <v>146.69</v>
+        <v>173.94</v>
       </c>
       <c r="C245">
-        <v>151.18</v>
+        <v>141.89</v>
       </c>
       <c r="D245">
-        <v>-2.97</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44227</v>
+        <v>44257</v>
       </c>
       <c r="B246">
-        <v>153.76</v>
+        <v>232.3</v>
       </c>
       <c r="C246">
-        <v>151.18</v>
+        <v>141.89</v>
       </c>
       <c r="D246">
-        <v>1.7</v>
+        <v>63.72</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44228</v>
+        <v>44258</v>
       </c>
       <c r="B247">
-        <v>162.32</v>
+        <v>315.17</v>
       </c>
       <c r="C247">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D247">
-        <v>7.5</v>
+        <v>122.12</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44229</v>
+        <v>44259</v>
       </c>
       <c r="B248">
-        <v>168.65</v>
+        <v>312.64</v>
       </c>
       <c r="C248">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D248">
-        <v>11.69</v>
+        <v>120.34</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44230</v>
+        <v>44260</v>
       </c>
       <c r="B249">
-        <v>165.26</v>
+        <v>303.25</v>
       </c>
       <c r="C249">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D249">
-        <v>9.44</v>
+        <v>113.73</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44231</v>
+        <v>44261</v>
       </c>
       <c r="B250">
-        <v>159.06</v>
+        <v>292.56</v>
       </c>
       <c r="C250">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D250">
-        <v>5.34</v>
+        <v>106.19</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44232</v>
+        <v>44262</v>
       </c>
       <c r="B251">
-        <v>204.11</v>
+        <v>261.4</v>
       </c>
       <c r="C251">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D251">
-        <v>35.18</v>
+        <v>84.23</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44233</v>
+        <v>44263</v>
       </c>
       <c r="B252">
-        <v>189.71</v>
+        <v>228.88</v>
       </c>
       <c r="C252">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D252">
-        <v>25.63</v>
+        <v>61.31</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44234</v>
+        <v>44264</v>
       </c>
       <c r="B253">
-        <v>186.23</v>
+        <v>204.55</v>
       </c>
       <c r="C253">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D253">
-        <v>23.33</v>
+        <v>44.17</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44235</v>
+        <v>44265</v>
       </c>
       <c r="B254">
-        <v>177.1</v>
+        <v>189.1</v>
       </c>
       <c r="C254">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D254">
-        <v>17.29</v>
+        <v>33.28</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44236</v>
+        <v>44266</v>
       </c>
       <c r="B255">
-        <v>156.66</v>
+        <v>173.98</v>
       </c>
       <c r="C255">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D255">
-        <v>3.75</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44237</v>
+        <v>44267</v>
       </c>
       <c r="B256">
-        <v>129.65</v>
+        <v>162.69</v>
       </c>
       <c r="C256">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D256">
-        <v>-14.14</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44238</v>
+        <v>44268</v>
       </c>
       <c r="B257">
-        <v>116.23</v>
+        <v>149.09</v>
       </c>
       <c r="C257">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D257">
-        <v>-23.03</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44239</v>
+        <v>44269</v>
       </c>
       <c r="B258">
-        <v>110.67</v>
+        <v>134.57</v>
       </c>
       <c r="C258">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D258">
-        <v>-26.71</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44240</v>
+        <v>44270</v>
       </c>
       <c r="B259">
-        <v>117.74</v>
+        <v>128.52</v>
       </c>
       <c r="C259">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D259">
-        <v>-22.03</v>
+        <v>-9.42</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44241</v>
+        <v>44271</v>
       </c>
       <c r="B260">
-        <v>112.28</v>
+        <v>137.24</v>
       </c>
       <c r="C260">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D260">
-        <v>-25.64</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44242</v>
+        <v>44272</v>
       </c>
       <c r="B261">
-        <v>121.21</v>
+        <v>147.04</v>
       </c>
       <c r="C261">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D261">
-        <v>-19.73</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44243</v>
+        <v>44273</v>
       </c>
       <c r="B262">
-        <v>130.11</v>
+        <v>151.24</v>
       </c>
       <c r="C262">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D262">
-        <v>-13.83</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44244</v>
+        <v>44274</v>
       </c>
       <c r="B263">
-        <v>123.78</v>
+        <v>153.81</v>
       </c>
       <c r="C263">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D263">
-        <v>-18.03</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44245</v>
+        <v>44275</v>
       </c>
       <c r="B264">
-        <v>114.62</v>
+        <v>146.31</v>
       </c>
       <c r="C264">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D264">
-        <v>-24.09</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44246</v>
+        <v>44276</v>
       </c>
       <c r="B265">
-        <v>109.19</v>
+        <v>129.36</v>
       </c>
       <c r="C265">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D265">
-        <v>-27.69</v>
+        <v>-8.83</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44247</v>
+        <v>44277</v>
       </c>
       <c r="B266">
-        <v>100.95</v>
+        <v>120.06</v>
       </c>
       <c r="C266">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D266">
-        <v>-33.15</v>
+        <v>-15.38</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44248</v>
+        <v>44278</v>
       </c>
       <c r="B267">
-        <v>95.92</v>
+        <v>118.66</v>
       </c>
       <c r="C267">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D267">
-        <v>-36.48</v>
+        <v>-16.37</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44249</v>
+        <v>44279</v>
       </c>
       <c r="B268">
-        <v>92.76000000000001</v>
+        <v>114.41</v>
       </c>
       <c r="C268">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D268">
-        <v>-38.57</v>
+        <v>-19.37</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44250</v>
+        <v>44280</v>
       </c>
       <c r="B269">
-        <v>88.16</v>
+        <v>111.1</v>
       </c>
       <c r="C269">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D269">
-        <v>-41.62</v>
+        <v>-21.7</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44251</v>
+        <v>44281</v>
       </c>
       <c r="B270">
-        <v>91.52</v>
+        <v>109.77</v>
       </c>
       <c r="C270">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D270">
-        <v>-39.39</v>
+        <v>-22.64</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44252</v>
+        <v>44282</v>
       </c>
       <c r="B271">
-        <v>93.42</v>
+        <v>107.76</v>
       </c>
       <c r="C271">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D271">
-        <v>-38.13</v>
+        <v>-24.05</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44253</v>
+        <v>44283</v>
       </c>
       <c r="B272">
-        <v>92.38</v>
+        <v>117.24</v>
       </c>
       <c r="C272">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D272">
-        <v>-38.82</v>
+        <v>-17.37</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44254</v>
+        <v>44284</v>
       </c>
       <c r="B273">
-        <v>104.64</v>
+        <v>120.42</v>
       </c>
       <c r="C273">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D273">
-        <v>-30.71</v>
+        <v>-15.13</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44255</v>
+        <v>44285</v>
       </c>
       <c r="B274">
-        <v>144.99</v>
+        <v>125.45</v>
       </c>
       <c r="C274">
-        <v>151</v>
+        <v>141.89</v>
       </c>
       <c r="D274">
-        <v>-3.98</v>
+        <v>-11.59</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44256</v>
+        <v>44286</v>
       </c>
       <c r="B275">
-        <v>173.94</v>
+        <v>120.92</v>
       </c>
       <c r="C275">
         <v>141.89</v>
       </c>
       <c r="D275">
-        <v>22.59</v>
+        <v>-14.78</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44257</v>
+        <v>44287</v>
       </c>
       <c r="B276">
-        <v>232.3</v>
+        <v>112.82</v>
       </c>
       <c r="C276">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D276">
-        <v>63.72</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44258</v>
+        <v>44288</v>
       </c>
       <c r="B277">
-        <v>315.17</v>
+        <v>107.18</v>
       </c>
       <c r="C277">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D277">
-        <v>122.12</v>
+        <v>-10.92</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44259</v>
+        <v>44289</v>
       </c>
       <c r="B278">
-        <v>312.64</v>
+        <v>102.91</v>
       </c>
       <c r="C278">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D278">
-        <v>120.34</v>
+        <v>-14.47</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44260</v>
+        <v>44290</v>
       </c>
       <c r="B279">
-        <v>303.25</v>
+        <v>100.4</v>
       </c>
       <c r="C279">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D279">
-        <v>113.73</v>
+        <v>-16.56</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44261</v>
+        <v>44291</v>
       </c>
       <c r="B280">
-        <v>292.56</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="C280">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D280">
-        <v>106.19</v>
+        <v>-17.73</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44262</v>
+        <v>44292</v>
       </c>
       <c r="B281">
-        <v>261.4</v>
+        <v>98.69</v>
       </c>
       <c r="C281">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D281">
-        <v>84.23</v>
+        <v>-17.98</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44263</v>
+        <v>44293</v>
       </c>
       <c r="B282">
-        <v>228.88</v>
+        <v>99.12</v>
       </c>
       <c r="C282">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D282">
-        <v>61.31</v>
+        <v>-17.62</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44264</v>
+        <v>44294</v>
       </c>
       <c r="B283">
-        <v>204.55</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="C283">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D283">
-        <v>44.17</v>
+        <v>-17.45</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44265</v>
+        <v>44295</v>
       </c>
       <c r="B284">
-        <v>189.1</v>
+        <v>100.86</v>
       </c>
       <c r="C284">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D284">
-        <v>33.28</v>
+        <v>-16.17</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44266</v>
+        <v>44296</v>
       </c>
       <c r="B285">
-        <v>173.98</v>
+        <v>100.33</v>
       </c>
       <c r="C285">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D285">
-        <v>22.62</v>
+        <v>-16.61</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44267</v>
+        <v>44297</v>
       </c>
       <c r="B286">
-        <v>162.69</v>
+        <v>97.8</v>
       </c>
       <c r="C286">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D286">
-        <v>14.66</v>
+        <v>-18.72</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44268</v>
+        <v>44298</v>
       </c>
       <c r="B287">
-        <v>149.09</v>
+        <v>95.23</v>
       </c>
       <c r="C287">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D287">
-        <v>5.08</v>
+        <v>-20.85</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44269</v>
+        <v>44299</v>
       </c>
       <c r="B288">
-        <v>134.57</v>
+        <v>93.83</v>
       </c>
       <c r="C288">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D288">
-        <v>-5.15</v>
+        <v>-22.01</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44270</v>
+        <v>44300</v>
       </c>
       <c r="B289">
-        <v>128.52</v>
+        <v>93.11</v>
       </c>
       <c r="C289">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D289">
-        <v>-9.42</v>
+        <v>-22.61</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44271</v>
+        <v>44301</v>
       </c>
       <c r="B290">
-        <v>137.24</v>
+        <v>92.23</v>
       </c>
       <c r="C290">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D290">
-        <v>-3.28</v>
+        <v>-23.35</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44272</v>
+        <v>44302</v>
       </c>
       <c r="B291">
-        <v>147.04</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="C291">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D291">
-        <v>3.63</v>
+        <v>-24.49</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44273</v>
+        <v>44303</v>
       </c>
       <c r="B292">
-        <v>151.24</v>
+        <v>89.27</v>
       </c>
       <c r="C292">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D292">
-        <v>6.59</v>
+        <v>-25.81</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44274</v>
+        <v>44304</v>
       </c>
       <c r="B293">
-        <v>153.81</v>
+        <v>90.08</v>
       </c>
       <c r="C293">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D293">
-        <v>8.4</v>
+        <v>-25.13</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44275</v>
+        <v>44305</v>
       </c>
       <c r="B294">
-        <v>146.31</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="C294">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D294">
-        <v>3.12</v>
+        <v>-23.6</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44276</v>
+        <v>44306</v>
       </c>
       <c r="B295">
-        <v>129.36</v>
+        <v>92.17</v>
       </c>
       <c r="C295">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D295">
-        <v>-8.83</v>
+        <v>-23.4</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44277</v>
+        <v>44307</v>
       </c>
       <c r="B296">
-        <v>120.06</v>
+        <v>91.34</v>
       </c>
       <c r="C296">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D296">
-        <v>-15.38</v>
+        <v>-24.08</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44278</v>
+        <v>44308</v>
       </c>
       <c r="B297">
-        <v>118.66</v>
+        <v>91.77</v>
       </c>
       <c r="C297">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D297">
-        <v>-16.37</v>
+        <v>-23.73</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44279</v>
+        <v>44309</v>
       </c>
       <c r="B298">
-        <v>114.41</v>
+        <v>93.52</v>
       </c>
       <c r="C298">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D298">
-        <v>-19.37</v>
+        <v>-22.27</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44280</v>
+        <v>44310</v>
       </c>
       <c r="B299">
-        <v>111.1</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="C299">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D299">
-        <v>-21.7</v>
+        <v>-23.69</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44281</v>
+        <v>44311</v>
       </c>
       <c r="B300">
-        <v>109.77</v>
+        <v>92.53</v>
       </c>
       <c r="C300">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D300">
-        <v>-22.64</v>
+        <v>-23.1</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44282</v>
+        <v>44312</v>
       </c>
       <c r="B301">
-        <v>107.76</v>
+        <v>91.08</v>
       </c>
       <c r="C301">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D301">
-        <v>-24.05</v>
+        <v>-24.3</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44283</v>
+        <v>44313</v>
       </c>
       <c r="B302">
-        <v>117.24</v>
+        <v>92.55</v>
       </c>
       <c r="C302">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D302">
-        <v>-17.37</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44284</v>
+        <v>44314</v>
       </c>
       <c r="B303">
-        <v>120.42</v>
+        <v>92.31</v>
       </c>
       <c r="C303">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D303">
-        <v>-15.13</v>
+        <v>-23.28</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44285</v>
+        <v>44315</v>
       </c>
       <c r="B304">
-        <v>125.45</v>
+        <v>92.47</v>
       </c>
       <c r="C304">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D304">
-        <v>-11.59</v>
+        <v>-23.15</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B305">
-        <v>120.92</v>
+        <v>89.75</v>
       </c>
       <c r="C305">
-        <v>141.89</v>
+        <v>120.32</v>
       </c>
       <c r="D305">
-        <v>-14.78</v>
+        <v>-25.41</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B306">
-        <v>112.82</v>
+        <v>89.86</v>
       </c>
       <c r="C306">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D306">
-        <v>-6.23</v>
+        <v>-31.07</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44288</v>
+        <v>44318</v>
       </c>
       <c r="B307">
-        <v>107.18</v>
+        <v>88.26000000000001</v>
       </c>
       <c r="C307">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D307">
-        <v>-10.92</v>
+        <v>-32.3</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44289</v>
+        <v>44319</v>
       </c>
       <c r="B308">
-        <v>102.91</v>
+        <v>87.84</v>
       </c>
       <c r="C308">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D308">
-        <v>-14.47</v>
+        <v>-32.62</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44290</v>
+        <v>44320</v>
       </c>
       <c r="B309">
-        <v>100.4</v>
+        <v>87.59</v>
       </c>
       <c r="C309">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D309">
-        <v>-16.56</v>
+        <v>-32.81</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="B310">
-        <v>98.98999999999999</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="C310">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D310">
-        <v>-17.73</v>
+        <v>-33.13</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44292</v>
+        <v>44322</v>
       </c>
       <c r="B311">
-        <v>98.69</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="C311">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D311">
-        <v>-17.98</v>
+        <v>-32.94</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44293</v>
+        <v>44323</v>
       </c>
       <c r="B312">
-        <v>99.12</v>
+        <v>100.99</v>
       </c>
       <c r="C312">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D312">
-        <v>-17.62</v>
+        <v>-22.54</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44294</v>
+        <v>44324</v>
       </c>
       <c r="B313">
-        <v>99.31999999999999</v>
+        <v>109.8</v>
       </c>
       <c r="C313">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D313">
-        <v>-17.45</v>
+        <v>-15.78</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44295</v>
+        <v>44325</v>
       </c>
       <c r="B314">
-        <v>100.86</v>
+        <v>114.43</v>
       </c>
       <c r="C314">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D314">
-        <v>-16.17</v>
+        <v>-12.23</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44296</v>
+        <v>44326</v>
       </c>
       <c r="B315">
-        <v>100.33</v>
+        <v>106.06</v>
       </c>
       <c r="C315">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D315">
-        <v>-16.61</v>
+        <v>-18.64</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44297</v>
+        <v>44327</v>
       </c>
       <c r="B316">
-        <v>97.8</v>
+        <v>99.61</v>
       </c>
       <c r="C316">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D316">
-        <v>-18.72</v>
+        <v>-23.59</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="B317">
-        <v>95.23</v>
+        <v>124.78</v>
       </c>
       <c r="C317">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D317">
-        <v>-20.85</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44299</v>
+        <v>44329</v>
       </c>
       <c r="B318">
-        <v>93.83</v>
+        <v>151.28</v>
       </c>
       <c r="C318">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D318">
-        <v>-22.01</v>
+        <v>16.04</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44300</v>
+        <v>44330</v>
       </c>
       <c r="B319">
-        <v>93.11</v>
+        <v>147.04</v>
       </c>
       <c r="C319">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D319">
-        <v>-22.61</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44301</v>
+        <v>44331</v>
       </c>
       <c r="B320">
-        <v>92.23</v>
+        <v>154.61</v>
       </c>
       <c r="C320">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D320">
-        <v>-23.35</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44302</v>
+        <v>44332</v>
       </c>
       <c r="B321">
-        <v>90.84999999999999</v>
+        <v>147.88</v>
       </c>
       <c r="C321">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D321">
-        <v>-24.49</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44303</v>
+        <v>44333</v>
       </c>
       <c r="B322">
-        <v>89.27</v>
+        <v>124.46</v>
       </c>
       <c r="C322">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D322">
-        <v>-25.81</v>
+        <v>-4.53</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44304</v>
+        <v>44334</v>
       </c>
       <c r="B323">
-        <v>90.08</v>
+        <v>111.9</v>
       </c>
       <c r="C323">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D323">
-        <v>-25.13</v>
+        <v>-14.17</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44305</v>
+        <v>44335</v>
       </c>
       <c r="B324">
-        <v>91.93000000000001</v>
+        <v>106.8</v>
       </c>
       <c r="C324">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D324">
-        <v>-23.6</v>
+        <v>-18.08</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44306</v>
+        <v>44336</v>
       </c>
       <c r="B325">
-        <v>92.17</v>
+        <v>105.1</v>
       </c>
       <c r="C325">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D325">
-        <v>-23.4</v>
+        <v>-19.38</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44307</v>
+        <v>44337</v>
       </c>
       <c r="B326">
-        <v>91.34</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C326">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D326">
-        <v>-24.08</v>
+        <v>-24.14</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44308</v>
+        <v>44338</v>
       </c>
       <c r="B327">
-        <v>91.77</v>
+        <v>99.12</v>
       </c>
       <c r="C327">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D327">
-        <v>-23.73</v>
+        <v>-23.97</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44309</v>
+        <v>44339</v>
       </c>
       <c r="B328">
-        <v>93.52</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="C328">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D328">
-        <v>-22.27</v>
+        <v>-23.86</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44310</v>
+        <v>44340</v>
       </c>
       <c r="B329">
-        <v>91.81999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="C329">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D329">
-        <v>-23.69</v>
+        <v>-23.32</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44311</v>
+        <v>44341</v>
       </c>
       <c r="B330">
-        <v>92.53</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="C330">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D330">
-        <v>-23.1</v>
+        <v>-23.57</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44312</v>
+        <v>44342</v>
       </c>
       <c r="B331">
-        <v>91.08</v>
+        <v>98.12</v>
       </c>
       <c r="C331">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D331">
-        <v>-24.3</v>
+        <v>-24.73</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44313</v>
+        <v>44343</v>
       </c>
       <c r="B332">
-        <v>92.55</v>
+        <v>96.27</v>
       </c>
       <c r="C332">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D332">
-        <v>-23.08</v>
+        <v>-26.16</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44314</v>
+        <v>44344</v>
       </c>
       <c r="B333">
-        <v>92.31</v>
+        <v>94.47</v>
       </c>
       <c r="C333">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D333">
-        <v>-23.28</v>
+        <v>-27.54</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44315</v>
+        <v>44345</v>
       </c>
       <c r="B334">
-        <v>92.47</v>
+        <v>92.14</v>
       </c>
       <c r="C334">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D334">
-        <v>-23.15</v>
+        <v>-29.33</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44316</v>
+        <v>44346</v>
       </c>
       <c r="B335">
-        <v>89.75</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="C335">
-        <v>120.32</v>
+        <v>130.37</v>
       </c>
       <c r="D335">
-        <v>-25.41</v>
+        <v>-29.4</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44317</v>
+        <v>44347</v>
       </c>
       <c r="B336">
-        <v>89.86</v>
+        <v>94</v>
       </c>
       <c r="C336">
         <v>130.37</v>
       </c>
       <c r="D336">
-        <v>-31.07</v>
+        <v>-27.9</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44318</v>
+        <v>44348</v>
       </c>
       <c r="B337">
-        <v>88.26000000000001</v>
+        <v>94.06999999999999</v>
       </c>
       <c r="C337">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D337">
-        <v>-32.3</v>
+        <v>-40.23</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44319</v>
+        <v>44349</v>
       </c>
       <c r="B338">
-        <v>87.84</v>
+        <v>94.11</v>
       </c>
       <c r="C338">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D338">
-        <v>-32.62</v>
+        <v>-40.2</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44320</v>
+        <v>44350</v>
       </c>
       <c r="B339">
-        <v>87.59</v>
+        <v>93.81999999999999</v>
       </c>
       <c r="C339">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D339">
-        <v>-32.81</v>
+        <v>-40.39</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44321</v>
+        <v>44351</v>
       </c>
       <c r="B340">
-        <v>87.18000000000001</v>
+        <v>91.59</v>
       </c>
       <c r="C340">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D340">
-        <v>-33.13</v>
+        <v>-41.81</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44322</v>
+        <v>44352</v>
       </c>
       <c r="B341">
-        <v>87.43000000000001</v>
+        <v>90.45</v>
       </c>
       <c r="C341">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D341">
-        <v>-32.94</v>
+        <v>-42.53</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44323</v>
+        <v>44353</v>
       </c>
       <c r="B342">
-        <v>100.99</v>
+        <v>90.61</v>
       </c>
       <c r="C342">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D342">
-        <v>-22.54</v>
+        <v>-42.43</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44324</v>
+        <v>44354</v>
       </c>
       <c r="B343">
-        <v>109.8</v>
+        <v>91.77</v>
       </c>
       <c r="C343">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D343">
-        <v>-15.78</v>
+        <v>-41.69</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44325</v>
+        <v>44355</v>
       </c>
       <c r="B344">
-        <v>114.43</v>
+        <v>98.18000000000001</v>
       </c>
       <c r="C344">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D344">
-        <v>-12.23</v>
+        <v>-37.62</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44326</v>
+        <v>44356</v>
       </c>
       <c r="B345">
-        <v>106.06</v>
+        <v>99.83</v>
       </c>
       <c r="C345">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D345">
-        <v>-18.64</v>
+        <v>-36.57</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44327</v>
+        <v>44357</v>
       </c>
       <c r="B346">
-        <v>99.61</v>
+        <v>100.27</v>
       </c>
       <c r="C346">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D346">
-        <v>-23.59</v>
+        <v>-36.29</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44328</v>
+        <v>44358</v>
       </c>
       <c r="B347">
-        <v>124.78</v>
+        <v>99.61</v>
       </c>
       <c r="C347">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D347">
-        <v>-4.29</v>
+        <v>-36.71</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44329</v>
+        <v>44359</v>
       </c>
       <c r="B348">
-        <v>151.28</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C348">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D348">
-        <v>16.04</v>
+        <v>-37.35</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44330</v>
+        <v>44360</v>
       </c>
       <c r="B349">
-        <v>147.04</v>
+        <v>97.72</v>
       </c>
       <c r="C349">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D349">
-        <v>12.79</v>
+        <v>-37.91</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44331</v>
+        <v>44361</v>
       </c>
       <c r="B350">
-        <v>154.61</v>
+        <v>97.88</v>
       </c>
       <c r="C350">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D350">
-        <v>18.6</v>
+        <v>-37.82</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44332</v>
+        <v>44362</v>
       </c>
       <c r="B351">
-        <v>147.88</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="C351">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D351">
-        <v>13.43</v>
+        <v>-39.23</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44333</v>
+        <v>44363</v>
       </c>
       <c r="B352">
-        <v>124.46</v>
+        <v>94.76000000000001</v>
       </c>
       <c r="C352">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D352">
-        <v>-4.53</v>
+        <v>-39.79</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44334</v>
+        <v>44364</v>
       </c>
       <c r="B353">
-        <v>111.9</v>
+        <v>93.66</v>
       </c>
       <c r="C353">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D353">
-        <v>-14.17</v>
+        <v>-40.5</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44335</v>
+        <v>44365</v>
       </c>
       <c r="B354">
-        <v>106.8</v>
+        <v>93.55</v>
       </c>
       <c r="C354">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D354">
-        <v>-18.08</v>
+        <v>-40.56</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44336</v>
+        <v>44366</v>
       </c>
       <c r="B355">
-        <v>105.1</v>
+        <v>117.75</v>
       </c>
       <c r="C355">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D355">
-        <v>-19.38</v>
+        <v>-25.19</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44337</v>
+        <v>44367</v>
       </c>
       <c r="B356">
-        <v>98.90000000000001</v>
+        <v>161.38</v>
       </c>
       <c r="C356">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D356">
-        <v>-24.14</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44338</v>
+        <v>44368</v>
       </c>
       <c r="B357">
-        <v>99.12</v>
+        <v>160.22</v>
       </c>
       <c r="C357">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D357">
-        <v>-23.97</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44339</v>
+        <v>44369</v>
       </c>
       <c r="B358">
-        <v>99.26000000000001</v>
+        <v>182.64</v>
       </c>
       <c r="C358">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D358">
-        <v>-23.86</v>
+        <v>16.04</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44340</v>
+        <v>44370</v>
       </c>
       <c r="B359">
-        <v>99.97</v>
+        <v>181.35</v>
       </c>
       <c r="C359">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D359">
-        <v>-23.32</v>
+        <v>15.22</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44341</v>
+        <v>44371</v>
       </c>
       <c r="B360">
-        <v>99.65000000000001</v>
+        <v>177.93</v>
       </c>
       <c r="C360">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D360">
-        <v>-23.57</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44342</v>
+        <v>44372</v>
       </c>
       <c r="B361">
-        <v>98.12</v>
+        <v>155.74</v>
       </c>
       <c r="C361">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D361">
-        <v>-24.73</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44343</v>
+        <v>44373</v>
       </c>
       <c r="B362">
-        <v>96.27</v>
+        <v>131.71</v>
       </c>
       <c r="C362">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D362">
-        <v>-26.16</v>
+        <v>-16.32</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44344</v>
+        <v>44374</v>
       </c>
       <c r="B363">
-        <v>94.47</v>
+        <v>120.01</v>
       </c>
       <c r="C363">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D363">
-        <v>-27.54</v>
+        <v>-23.75</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44345</v>
+        <v>44375</v>
       </c>
       <c r="B364">
-        <v>92.14</v>
+        <v>113.84</v>
       </c>
       <c r="C364">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D364">
-        <v>-29.33</v>
+        <v>-27.67</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44346</v>
+        <v>44376</v>
       </c>
       <c r="B365">
-        <v>92.04000000000001</v>
+        <v>128.65</v>
       </c>
       <c r="C365">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D365">
-        <v>-29.4</v>
+        <v>-18.27</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B366">
-        <v>94</v>
+        <v>133.49</v>
       </c>
       <c r="C366">
-        <v>130.37</v>
+        <v>157.39</v>
       </c>
       <c r="D366">
-        <v>-27.9</v>
+        <v>-15.19</v>
       </c>
     </row>
   </sheetData>
